--- a/기사데이터/토스/엑셀파일/news(토스, 2022.10.16~2022.10.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.10.16~2022.10.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.10.26.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[미리, 디지털헬스]네이버·카카오도 투자…"건강관리 '진짜 맞춤형'으로"</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004810419?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 전환이 사회 화두가 된지 5년이 지났다. AI(인공지능), 빅데이터 등 ICT(정보통신기술)를 활용한 혁신이 요구되는 흐름이다. 제약·바이오, 의료 등 헬스도 예외는 아니었다. 건강, 생명과 직결되는 업의 특성상 더뎠을 뿐이다. 그러나 코로나19 이후 분위기가 달라졌다. 글로벌 디지털 헬스 시장은 향후 5년간 연평균 30% 고성장이 점쳐진다. 전 세계 수많은 기업들이 시장 선점을 위해 앞다퉈 뛰어들고 있다. 우리나라는 세계 최고 ICT 강국이다. 제약·바이오 후발주자 입장으로선 놓칠 수 없는 기회다. 이에 머니투데이는 국내 디지털 헬스 대표주자들을 만나 이들이 만들어갈 변화를 미리 살펴본다.[⑦김영인 가지랩 대표헬스케어社 '눔' 한국·일본 대표 출신'개인 맞춤형 웰니스 큐레이션' 개발] # 5년차 직장인 김가지(가명)씨. 최근 몸이 무거워진 느낌이 들어 체중계에 올랐다. 5초 후 애써 외면해온 불편한 진실을 마주했다. '내일부터 살 뺀다!' 굳게 다짐하고 친구로부터 추천받은 한 모바일 앱에 접속했다. 간절한 마음으로 설문을 마친 그에게 '체중 감량법'이 전달됐다. '개인 맞춤형 솔루션이라더니, 이 정도면 해볼만 한데?' 가이드라인에 따라 식단, 운동 계획을 짜기 시작했다. ━"제조사 중심 헬스케어 시장, '개인' 중심으로 전환돼야"━ 가지랩이 내년 초 선보이기 위해 개발 중인 '개인 맞춤형 웰니스 큐레이션' 서비스다. 가지랩은 의사이자 글로벌 헬스케어 기업 '눔(Noom)'의 한국 및 일본 지사를 이끌었던 김영인 대표가 눔 멤버들과 꾸린 회사다. 김영인 가지랩 대표는 "헬스케어 분야에서 많은 제품들이 개인 맞춤형을 외쳤지만 정작 맞춤형이 없었다"며 "건강 관련 소비가 이뤄지는 플랫폼 상당수가 제조사가 운영하는 자사몰인데, 이러한 자사몰은 타사 제품을 추천하지 않는다. 개인에 초점을 맞춘 서비스가 제공되면 제조사 중심으로 짜여진 현 헬스케어 시장의 정보 비대칭이 해소되지 않을까 생각했다"고 말했다. 설립 후 지금까지 성과는 고무적이다. 설립한지 1년이 안된 신생기업의 출시되지 않은 서비스에 네이버, 카카오벤처스 등 국내 ICT 기업들이 일제히 투자자로 나섰다.  가지랩은 향후 '해결하고 싶은 웰니스 문제가 있는 사람'에 큐레이션 서비스를 제공할 계획이다. 즉 병원에 가지 않고 체중감량, 스트레스, 수면관리 등 스스로 관리해야 하는 문제가 있는 사람이다. "현재 의료환경에서는 의사가 하는 역할 외에 환자가 스스로 해야하는 부분도 있어요. 하지만 헬스 분야는 비정형 데이터가 많은 데다 내용마저 복잡해 개인이 결과에 대한 완벽한 액션을 취하기 어렵죠. 그래서 저희는 개인의 건강 문해력을 높이는 데 일조하려고 해요. 마이데이터(데이터 주인은 회사가 아닌 고객) 사업을 먼저 시작한 토스를 보면 소비자 입장에서 이해하기 쉽게 현재 상황이고 이러한 습관이 있으니 이 제품을 쓰라고 설명해주잖아요. 저희의 경우엔 '병원에 가서 진료를 보면 좋습니다', '체중감량을 위해 이러한 식단, 운동을 하면 좋습니다' 등 개인 맞춤형 솔루션을 친절하게 추천할 수 있죠."가지랩이 소비자와 소통하고, 소비자를 이해하려는 통로는 '설문'이다. 설문으로 소비자의 현 상태를 파악하고 맞춤형 솔루션을 제시하는 것. 서비스 구조가 직관적이고 간결하다. "설문은 △소비자 정보△소비자가 해결하고 싶은 웰니스 문제와 관련한 지식 △소비자를 둘러싼 환경이라는 세 가지 축으로 진행할 예정이에요. 체중감량을 원하는 소비자를 예로 들어볼게요. 왜 체중감량을 하고 싶은지, 과거에 체중감량을 위해 한 경험이 어땠는지(소비자 정보)를 묻고 체중감량을 위한 어떤 지식을 알고 있는지, 해당 지식은 어떤 경로로 습득했는지(웰니설스 문제 지식)를 물어요. 이후엔 직장을 다니는지, 출퇴근 시간이 얼마나 걸리는지, 동거가족이 있는지 등 소비자 환경을 파악하는 거죠. 설문을 마친 소비자는 답변을 근간으로 한 진단지와 솔루션을 받게 되는데요. 이때 솔루션이 개인 성향에 따른 맞춤형으로 제공되는 거에요. 실천력이 강하지만 방법을 모르는 사람이 있는가하면, 정반대인 사람이 있고 성향들이 다르잖아요. 'A씨는 체중감량을 위해 처음엔 운동보다 식단관리를 하세요. 그렇다고 무리하게 식단관리를 하진 말고 현재 드시고 있는 양부터 기록해봅시다.' 혹은 '지금은 체중감량을 위해 운동을 하실 때네요. B씨한테는 지금 이런 운동이 맞고 이 장비가 도움이 될 수 있어요.' 이런 식으로 소비자 성향에 맞는 최적의 솔루션을 제공하는 거죠. 이 과정에서 설문지는 너무 길어지지 않게, 결과지는 이미지와 텍스트를 활용해서 소비자가 쉽게 해석할 수 있게 만들려고 하는 중이고요."━양질 데이터 확보, 활용이 서비스 핵심━이러한 '개인 맞춤형' 서비스 구현의 핵심은 얼마나 양질의 데이터를 확보하는지, 확보한 데이터를 얼마나 잘 분석하고 활용하는지다. 가지랩도 양질의 데이터를 확보해 정교한 AI(인공지능) 알고리즘을 구축하기 위해 역량을 쏟고 있다. 김 대표는 "알고리즘을 만들기 위해 스타트업 임직원들을 대상으로 건강관리 서비스를 제공 중"이라며 "사내 상주하는 의사들이 각사의 임직원들이 건강관리 관련 궁금해하는 게 무엇인지, 이에 대해 어떤 답변을, 어떠한 방식으로 주는게 좋을지 기록을 쌓고 이를 기반으로 어떤 솔루션을 추천하는게 좋을지 AI 엔진을 만들고 있다"고 설명했다. 이어 "이를 바탕으로 큐레이션 주도권을 가져와 소비자가 만족할 만한 솔루션을 제공하고 신뢰를 쌓아 관계를 오래 이어나갈 것"이라고 덧붙였다. 가지랩의 AI 알고리즘 중간 성적은 좋다. 김 대표는 "AI 알고리즘으로 중소벤처기업부 '팁스(TIPS)'에 최종 선정됐다"고 말했다. 우수기술을 보유하고 성장 가능성이 큰 유망 스타트업에 정부와 민간 투자사가 연구개발(R&amp;D) 비용을 지원하는 프로그램이다.설문, 결과 단계도 가지랩이 신경쓰는 부분이다. 소비자와 직접 소통하는 채널인 만큼 어떤 방식을 쓰느냐에 만족도가 크게 달라질 수 있다. 만족도는 신뢰를 쌓는 필수조건이다. "타고나는 유전체 검사는 한 번 검사하면 끝이지만 웰니스 분야는 단칼에 해결되지 않는 문제가 많아요. 똑같은 질문을 해도 시기, 상황에 따라 달라지거든요. 소비자와 소통하는 과정에서 '우리가 이렇게 잘 케어해주고 싶다'는 진정성을 담아 전달해주는 방식이 무엇일지 고민하고 있어요. 진단을 빨리하고 수술 잘하는 것도 중요하지만 '힘드셨겠구나' 내 상황을 깊게 이해해주는 진정성도 중요한 요소로 판단되잖아요. 저희 첫 설문에서 관리를 받는 기분이 들고, 이후 어떤 솔루션을 받았는데 도움이 됐다는 만족감까지 느끼면 소비자와 신뢰있는 관계가 쌓일 수 있다고 믿어요. 그리고 저희는 큐레이션 경험이 많은 사람들이 모여서 만든 회사잖아요. 누구보다도 이 역할을 잘할 수 있다는 자신감이 큽니다."</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>인뱅 "문제없다"지만…카뱅이 드러낸 '불안'</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000011083?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>인터넷은행 업계 "재해복구 센터 운영으로 대비"금감원 "대응책 재점검"…시중은행 안정성 부각데이터센터 화재로 인한 카카오 '먹통 사태' 후폭풍이 거세다. 특히 카카오뱅크와 카카오페이 등 금융 계열사를 이용하는 금융 소비자들의 불안이 커졌다. 일부 소비자들은 '뱅크런' 등을 우려하며 타행으로 예금을 이체하는 움직임도 보였다.카카오뱅크 중심으로 인터넷은행에 대한 불신이 확산되자 이들은 재해복구 센터를 운영해 문제가 없다는 점을 강조하고 있다. 금융당국은 원인 규명을 철저히 하는 것을 비롯해, 전산센터 화재 발생시 대응계획을 재점검한다는 계획이다.시중은행들은 인터넷은행 이용자들이 시중은행으로 예금을 분산하는 반사효과를 기대하고 있다.지난 15일 카카오 데이터센터 화재 후 행정안전부가 발송한 재난 관련 복구 문자메시지(왼쪽)와 카카오뱅크 첫 화면의 서비스 정상화 관련 안내 문구(오른쪽)/이미지=유진아 기자 gnyu4@'내 돈 사라질까'…소비자 불안 확산지난 15일 SK C&amp;C 판교 데이터센터에서 화재가 발생했다. 이로 인해 카카오 뿐 아니라 카카오뱅크 체크카드 이용자나 카카오뱅크가 주거래 은행인 소비자들이 피해를 입었다는 목소리가 곳곳에서 나왔다. 망 분리로 서비스 자체에는 문제가 없었다는 게 카카오뱅크 입장이지만 카카오와 연동된 간편 이체 등 일부 기능은 장애가 있었다.상황이 이렇자 케이뱅크나 토스뱅크 등 인터넷은행을 이용하는 금융 소비자들의 불안도가 높아지고 있다. 인터넷은행 3사 예·적금 규모가 70조원이 넘은 가운데 '인터넷 보안이 취약하면 내 돈이 날아갈 수 있다'는 불신이 확산되고 있는 까닭이다.카카오뱅크는 서버를 분산하고 자체 데이터센터를 가지고 있어 이번 장애로 피해가 발생하지 않았다는 게 공식 입장이다. 주말동안 올라온 카카오뱅크 카드 이용 문제나, 대출금이 사라졌다는 등의 온라인 커뮤니티 글도 확인 결과 사실이 아니라는 게 카카오뱅크 설명이다. 카카오뱅크 관계자는 "카카오와 달리 별도의 데이터 센터를 구축해 영향을 거의 받지 않았다"며 "카카오뱅크는 상암센터가 주데이터센터로 모든 서비스가 1차적으로 이뤄지고, 문제가 생기면 분당 야탑 재해복구(DR, Disaster Recovery)센터에서 바로 복구해 서비스를 재개하는 시스템을 갖추고 있다"고 설명했다. 이어 "야탑 센터에서도 문제가 생길 경우 부산에 또 다른 센터가 있다"며 "부산은 모든 데이터의 백업이 이뤄지는 곳으로 상암과 야탑 센터에 문제가 생겨도 부산 센터에 안전하게 남아있게 된다"고 강조했다. 다른 인터넷은행들도 데이터센터 화재 같은 돌발 사고가 나도 문제 없다는 입장이다. 토스뱅크 관계자는 "토스뱅크는 토스와 별도의 법인으로 데이터센터 또한 따로 분리해 있고, 김포에 주 센터와 재난시에만 운영하는 현 재해복구센터로 나눠서 운영하고 있기 때문에 재난시에도 동일한 서비스가 가능하다"고 설명했다. 케이뱅크 관계자 역시 "목동에 주 센터가 있지만 재해복구 센터는 주 센터와 지역을 달리해야 한다는 규정이 있다"며 "지역도 다르고 케이뱅크 또한 카카오뱅크와 같이 3중으로 데이터 센터를 구축했기 때문에 소비자들이 우려하는 문제는 없다"고 일축했다.데이터 백업 했다지만…인터넷은행들은 화재 등 재난에 대비하고 있다는 점을 강조하고 있다. 전문가들 역시 금융 소비자들의 우려가 과도하다고 분석한다.신세돈 숙명여대 경제학과 명예교수는 "이러한 사태가 벌어져도 백업 데이터만 있다면 소비자의 예·적금 기록이 사라지는 일은 없다"며 "인터넷은행들이 이미 이중, 삼중으로 백업을 해놨기 때문에 소비자들이 불안해할 필요는 없다"고 말했다. 하지만 금융당국은 이번을 계기로 금융소비자 피해에 대비해 인터넷은행들의 대응계획을 재점검한다는 방침이다.금융감독원 관계자는 "카카오 전산센터 화재로 일부 금융서비스도 작동하지 않는 등 국민 피해가 발생하고 있는데 심각한 문제로 인식하고 긴급 대응 중"이라며 "일부 송금과 결제 등 금융서비스가 상당시간 장애가 발생한 것에 대한 원인 규명과 비상대응계획 가동실태 등을 면밀히 살펴볼 예정"이라고 밝혔다.이어 "금융소비자 피해에 대해서도 신속한 보상이 이뤄질 수 있도록 지도할 계획"이라며 "전체 금융사를 대상으로 전산센터 화재 발생시 대응계획을 재점검하도록 지도할 것"이라고 강조했다.한편 현장 지점을 운영하는 시중은행들은 이번 사태로 인터넷은행 이용자들이 일정 정도 돌아올 것을 기대하고 있다.한 시중은행 관계자는 "시중은행은 전산관리 뿐 아니라 같은 사태가 일어날 때 찾아갈 지점과 실물 통장 등이 있기 때문에 인터넷 은행에 비해 안전하다는 인식이 있다"며 "인터넷은행만 거래하던 소비자들은 이번 사태에 지점이 있는 은행들과 복수 거래할 가능성이 커졌다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>회계사도, 변호사도 선망하는 그 직업... '유니콘 메이커' VC 심사역</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000704237?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[(하)꿈의 직업이 된 벤처투자: 심사역 열풍]스타트업 호황에 고연봉 스타 심사역 등장지원 기능 주목받는 현상에 '본말전도' 지적편집자주우아한형제들(배달의 민족), 비바리퍼블리카(토스), 당근마켓 등 유니콘 기업(기업가치 1조 원 비상장사)들은 나 홀로 힘으로 성장할 수 있었을까요? 아닙니다. 그들의 뒤에는 이 기업들이 '죽음의 계곡'을 건널 수 있도록 적시적기에 자본을 공급해 주고 추후 성공의 과실을 나누는 모험자본, 즉 벤처캐피털이 있었습니다. 스타트업과 벤처캐피털은 스타트업 생태계에서 공생하는 떼려야 뗄 수 없는 관계입니다. 그런데 이들은 과연 평평한 운동장 위에서 대등한 관계를 맺고 있을까요? 따뜻했던 스타트업 시장에 겨울이 오고 있는 지금, 한국 모험자본의 현주소를 짚어봤습니다.드라마 스타트업에서 SH벤처캐피털 수석팀장 역할을 연기한 배우 김선호의 모습. tvN제공고급 수입차를 몰고 한강 전망 아파트를 자가로 소유하고 억대 연봉을 받는 드라마 주인공. 전형적인 'K-드라마'의 재벌 2세 실장님을 떠올리겠지만, 사실 이 사람의 직업은 유망 스타트업을 발굴해 자금을 투자하는 벤처캐피털(VC)의 심사역이다. 스타트업 창업 과정을 그린 드라마 '스타트업'(2020년)에 등장하는 VC 수석팀장 한지평(김선호 분)은 귀신같은 투자 실력으로 명성을 쌓고 거액의 부까지 거머쥔 인물로 그려진다. VC를 꿈꾸는 전문직들10년 차 회계사인 김지석(35·가명)씨도 '현실 속 한지평'을 꿈꾸고 있다. 대형 회계법인에서 경력을 쌓은 김 회계사는 스타트업에 뛰어들어 유니콘 기업(기업가치 1조 원 비상장사)을 일궈보려는 꿈을 꾸었지만, 최근 벤처캐피털(VC) 심사역을 준비하는 것으로 방향을 틀었다. 김 회계사는 "스타트업으로 이직하면 VC와 심사역을 잘 이해해야 한다는 주변의 조언을 듣고 심사역이란 직업을 접하게 됐다"면서 "그런데 스타트업을 유니콘까지 성장시키는 데 심사역의 역할이 생각보다 크다는 걸 알고 매력을 느꼈다"고 말했다. 큰 기업의 재무 분석·관리 업무를 주로 해 왔던 김 회계사는 심사역이 되면 전도유망한 핀테크 기업을 발굴하는 데 주력할 생각이다. 게임회사 개발자로 일하는 최영진(24·가명)씨도 심사역이 되고자 전직을 희망하고 있다. 최씨는  "창업을 하는 방법도 있겠지만 유니콘보다는 유니콘을 만드는 심사역이 내게 더 잘 맞을 거라 판단했다"고 설명했다.심사역 스쿨도  문전성시최근 스타트업과 VC 시장이 폭발적으로 성장하면서, 회계사 김씨나 개발자 최씨처럼 남들이 선망하는 직업을 가진 이들이 심사역으로 전직을 희망하는 사례가 늘고 있다. 변호사나 의사들이 심사역을 희망하는 경우도 잇따른다. 이에 따라 예비 심사역을 양성하는, 이른바 '심사역 스쿨'에 사람들이 몰리는 중이다. 한국벤처캐피탈협회는 1년에 네 차례 벤처캐피털리스트 양성 과정을 운영하고 있는데, 2017년 이 과정을 이수한 사람이 321명에 그쳤던 반면, 올해는 9월까지 이수자가 714명에 이르렀다. 자체적으로 심사역 스쿨을 운영해 될성부른 예비 심사역을 채용하는 곳도 있다. 액셀러레이터(AC·초기 투자와 보육을 겸하는 창업기획자)인 퓨처플레이는 올 8월부터 한국초기투자기관협회와 함께 심사역 스쿨 'VC 스프린트'를 운영했다. 스타트업 투자 활성화로 심사역 수요도 늘고 있어, 실제 VC 소속 심사역 인력 규모도 커졌다. 중소기업창업투자회사 전자공시 시스템에 따르면, 심사역의 수는 2017년 8월 918명(119개 회사)에서 올해 8월에는 1,597명(229개 회사)으로 약 5년 새 73.9%나 늘어났다.벤처캐피털 및 소속 심사역 증가 추이유니콘과 함께 등장한 '스타 심사역'심사역은 어쩌다 전문직들마저 꿈꾸는 선망의 직업이 된 걸까.  쿠팡, 비바리버블리카(토스 운영사), 우아한형제들(배달의 민족 운영사) 등 유니콘 기업이 연달아 등장하고, 초기에 이들을 발굴한 이들에게 큰 경제적 보상과 사회적 관심이 돌아갔기 때문이다. 유니콘 기업을 길러낸 대가로 단기간에 수백억 원에 달하는 성과급을 거둬들이는 스타 심사역들도 속속 등장하고 있다. 2016년 블록체인 및 핀테크 기업인 두나무에 투자한 것으로 유명한 김제욱 에이티넘 부사장은 올해 상반기 연봉과 성과급으로 262억8,500만 원을 받았다. 재벌 총수 중 상반기  가장 많은 급여를 받은 신동빈 롯데그룹 회장의 연봉(102억8,500만 원)보다 2배 이상 많다. 1984년생인 변준영 컴퍼니케이파트너스 부사장도 지난해 5억9,000만 원의 연봉과 상여금을 받아 화제가 됐다.특히 5년 이상 투자 경력을 가진 베테랑 심사역들은 인력 시장에서 '모시기' 경쟁이 치열하다. VC는 출자자들로부터 자금을 모은 다음 7, 8년간 펀드를 운용해 투자를 회수하는 과정을 거친다. 다년에 걸쳐 진행되는 자금 모집→스타트업 발굴→투자 집행→투자 회수 단계를 전부 밟아본 심사역은 VC업계에서 '즉시전력'으로 꼽혀 몸값이 높다. 한 VC업계 관계자는 "어느 하우스(VC를 지칭)든 가장 데려오고 싶은 심사역은 다른 하우스에서 펀드를 굴려본 심사역"이라며 "심사역에게 가장 중요한 스펙은 별도의 교육 없이 바로 펀드를 운용할 수 있는 역량"이라고 귀띔했다.벤처캐피털 심사역 양성 과정 수료생 현황"심사역보단 창업자가 커야"업계에선 거액의 성과보수가 일부 스타 심사역에게만 집중되고, 이를 좇아 심사역을 꿈꾸는 이들이 많아진 현상 자체를 비판적으로 보는 시선도 존재한다. 한 스타트업 창업자는 "스타트업 시장에 유동성이 풍부해지면서 자격에 미달하는 심사역도 함께 늘어났다고 본다"면서 "20, 30대 젊은 심사역들조차 투자를 받는 창업자들에게 '물주' 행세를 할 정도로 큰 권력을 쥐게 됐다"고 지적했다. 여러 번 투자 유치에 성공했던 스타트업의 한 임원은 "스타트업 생태계에서 더 중시돼야 하는 가치는 창업을 통한 혁신"이라면서 "금융은 창업을 지원하는 역할에 머물러야 하는데, (지원 역할인) 심사역이 주목받는 현상은 되레 본말이 전도된 격"이라고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>‘쿠팡의 법칙’ 사라진 벤처...성장성보다 수익성 [IPO 프리보드]</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001060992?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt; IPO 프리보드 시간입니다.국내 유니콘 기업 가운데 3곳중 2곳이 여전히 적자를 면치 못하고 있는 것으로 나타났습니다.양재준 기자와 함께 알아 보겠습니다.올해 상장을 추진하거나 상장된 컬리, 쏘카, 에이프로젠 등 국내 유니콘 기업들이 여전히 영업적자에서 벗어나지 못하고 있는데, 어떻습니까?&lt;기자&gt; 중소벤처기업부에 따르면, 올 상반기 미국 기업분석회사인 CB인사이트에 등재된 국내 유니콘기업은 총 5개가 늘어난 23개를 기록했습니다.유니콘기업은 기업가치 10억 달러이상, 설립한 지 10년 이하의 벤처스타트업을 뜻합니다.올해 환율이 올라서 우리 돈으로 기업가치가 1조 4천억원 수준에 이르는 기업이라고 보시면 됩니다.하지만, 국내 유니콘 기업 경영실적을 살펴보면 23개 기업 가운데 14곳이 영업손실에 허덕이고 있습니다.두나무와 빗썸코리아 등 가상자산과 금융, 야놀자와 여기어때 등 여행, 지피클럽, 엘앤피코스메틱,무신사 등 화장품 제조판매, 패션 관련 기업만이 영업이익을 내고 있습니다.유니콘기업들이 전자공시시스템에 제출한 최신 사업보고서와 2021년 감사보고서에 따르면, 토스를 운영중인 비바리퍼블리카, e-커머스 플랫폼인 위메프, 컬리(마켓컬리), 티몬, 부동산 플랫폼인 직방, 버킷플레이스(오늘의집), 그리고 리디, 시프트업, 에이프로젠, 쏘카 등은 영업손실을 기록했습니다.이 가운데 국내 유니콘 2호로 등재됐던 옐로모바일은 재무제표 미제출로 2021 회계년도 감사의견거절을 받았으며, 에이프로젠은 경영권 변동도 수반할 수 있는 제3자 배정 유상증자 등을 포함한 자금 조달을 검토하고 있습니다.&lt;앵커&gt; 국내 유니콘 기업들의 경영 현황을 살펴 봤는데, 벤처캐피탈들의 벤처투자에 대한 잣대도 과거와 달리 달라지고 있다면서요?&lt;기자&gt; 벤처기업은 벤처캐피탈, 엔젤투자자들을 통해 투자금을 받아서 사업을 확장하는데, 최근 분위기가 크게 달라졌습니다.앞서 말씀드린 대로 벤처기업들은 투자를 받아서 비즈니스 확장을 위한 플랫폼을 고도화하거나 마케팅을 통해 회원수를 늘리는 방법을 주요 수단으로 활용해 왔습니다.벤처기업들은 투자를 많이 받아서 투자금으로 마케팅에 집중 투입하고, 미끼상품 등을 통한 출혈 경쟁 등을 통해 회원수를 늘리거나 매출을 늘리는 방법으로 성장해 왔던 게 사실입니다.즉 수익성보다는 성장성에 무게를 뒀습니다.하지만, 최근 벤처캐피탈들이 기업가치 검증에 착수하면서 성장성보다는 비즈니스 모델의 수익성을 판단하고 투자한다는 것입니다.쿠팡의 경우 최대 주주인 손정의 소프트뱅크 회장이 이끄는 비전펀드가 2015년과 2018년 두 번에 걸쳐 쿠팡에 30억 달러(3조 5천억원)를 투자했습니다.소프트뱅크의 자이언트 투자는 쿠팡의 성장에 큰 역할을 했는데, e-커머스 플랫폼들은 쿠팡을 모델삼아 투자를 받아서 마케팅에 투입하고 후속 투자를 받아서 마케팅에 추가 투입하는 방식을 취해 왔습니다.하지만, 최근 금융시장의 불안 등으로 벤처캐피탈의 투자가 감소하면서 외형을 늘리고 투자를 받는 형식의 사업구조가 흔들리고 있다는 것입니다.벤처업계에서는 이를 두고 ‘쿠팡의 법칙’이 사라지고 있다는 말도 나오고 있습니다.&lt;앵커&gt; 벤처업계에서는 회원수를 늘리거나 성장을 위해 마케팅에 집중 투자하고 추가로 투자받는 등의 방식이 이제는 통하지 않을 수 있다고 하셨는데, 기업 공개를 앞두고 있는 기업들의 고민도 커질 것으로 보입니다. 어떻습니까?&lt;기자&gt; 최근 벤처기업들의 투자 유치에서도 당초 예상했던 투자금이 모이지 않는 분위기도 역력합니다.올해 초 1조원 규모의 투자자금 유치를 목표했던 비바리퍼블리카도 지난 7월과 8월 시리즈G 투자에서 외부 환경의 영향 등으로 절반 수준인 5,300억원을 유치하는데 그쳤습니다.올 상반기 버킷플레이스와 두나무, 리디, 쏘카 등 유니콘 기업들은 2천억원에 이르는 투자 유치에 성공하는 모습을 보이기도 했습니다.하지만, 3분기 이후 금융시장 불안이 가중되고 벤처캐피탈의 투자가 줄어들면서 적자를 내고 있는 유니콘 기업들은 앞으로 진행해야 하는 후속투자와 기업공개에 대한 깊은 고민에 빠져 있습니다.적정 기업가치를 받지 못할 경우 기존 재무적투자자(FI)의 자금 회수에도 걸림돌이 될 수 있다는 점에서 반대할 수 있으며, 기업공개나 후속 투자를 연기할 경우 플랫폼 고도화 차질은 물론 적자 경영에 따른 유동성에 문제가 생길 수 있다는 점입니다.벤처캐피탈업계에서는 국내 유니콘기업들이 이제는 적자 개선을 위해 명확한 사업모델을 제시하거나 지속가능성 등을 증명할 필요가 있다는 얘기들을 하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>잡플래닛, '2022년 다니고 싶은 기업 톱10' 발표…삼성전자?SK텔레콤?네이버 순</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003927221?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>기업 정보 플랫폼 잡플래닛이 '2022년 다니고 싶은 기업 TOP 10'을 발표했다. 이번 설문조사는 잡플래닛에서 자신의 상태를 취업 준비생으로 설정한 회원 1013명을 대상으로 주요 50개 기업 목록을 제시해 최대 3곳을 선택하거나 목록에 없는 기업은 주관식으로 기재하도록 했다.'2022년 다니고 싶은 기업' 1순위 삼성전자였다. 다음으로 SK텔레콤과 네이버, 카카오, 현대자동차, 토스, LG화학, 구글코리아, 라인, 한국전력 순이었다.삼성전자(35.24%)와 SK텔레콤(30.50%)는 각각 30% 이상의 선택 비율을 보이며 1위와 2위로 선정됐다. 네이버는 29.41%로 3위를 기록했다. SK텔레콤과 네이버를 포함해 4위 카카오, 6위 토스, 8위 구글코리아, 9위 라인까지 10위 이내에만 IT 기업이 6곳에 달하며 주니어 채용 시장에서의 IT 기업에 대한 여전한 인기가 확인됐다.복수 응답으로 물어본 선호 기업의 조건에는 응답자의 77.98%가 '급여와 복지 등 처우 조건이 좋은 기업'을 꼽았다. '칼퇴, 연차 사용 등 업무와 삶의 균형이 가능한 기업'을 선택한 응답자도 66.04%에 달했으며, "승진, 자기개발 등 개인의 빠른 성장이 가능한 기업'이 37.51%로 그 뒤를 이었다.한편 긍정 응답률이 가장 높은 문장은 '사내 성범죄나 폭행 등 직장 내 괴롭힘이 있었던 회사는 가고 싶지 않다'로, '그렇다'는 응답이 88.75%에 달했다. 이와 달리 부정 응답률이 가장 높은 문장은 '칼퇴가 보장된다면 휴가 사용의 제약은 감당할 수 있다'였다. 전체 응답자의 63.17%가 '그렇지 않다'고 답했다. '정년이 보장된다면 다른 조건은 포기할 수 있다', '연봉이나 복지 등 다른 조건이 충족된다면 사내문화는 상관 없다'는 문장에 대해서도 56.56%가 '그렇지 않다'를 선택했다.잡플래닛 관계자는 "과거 조사와 비교해 보면 주요 선호 기업들은 크게 달라지지 않았으나, 주관식 응답자가 늘었다"면서 "개인의 가치관이 다양해진 만큼 내 마음 속 1순위가 다양해진 것"이라고 해석했다. 따라서 "조기 퇴사 리스크를 줄이기 위해서는 구직 단계에서부터 자신의 기준에 맞는 기업을 찾는 노력이 중요한 한편, 기업 역시 우리 회사가 가진 경쟁력을 다각도로 노출하는 전략이 필요하다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>“이런 날이 올 줄이야” 홀대받던 ‘이것’ 하루만에 무슨 일이</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002054183?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[연합·123RF][헤럴드경제=김현일 기자] #1. “토요일 오후 알바 늦어서 카카오T 켰는데 먹통이어서 순간 당황. 한 번도 안 써본 우티 깔았어요. 첫 이용고객 택시비 반값 이벤트에, 토스카드 90% 페이백까지 해서 알차게 써먹었습니다”(온라인 커뮤니티 이용자 A씨)#2. “토요일 저녁부터 우티 손님 콜이 그야말로 폭발적이었습니다. 안 그래도 우티가 서울 택시기사 프로모션 하고 있어서 이번 기회에 우티 가맹에 제법 관심이 높은 분위기입니다”(서울 개인택시 기사 B씨)카카오T에 밀려 고전하던 택시플랫폼 우티(UT)가 지난 15일 ‘카카오 먹통 사태’ 당일에만 이용자가 평소보다 무려 260% 급증하며 반사이익을 제대로 누린 것으로 나타났다.모바일 데이터 분석 플랫폼 모바일인덱스에 따르면 지난 15일 우티 이용자 수는 14만8000명으로 집계됐다. 평소 3~4만명 수준이었던 점을 고려하면 이용자 숫자가 하루만에 10만명 넘게 늘어난 셈이다.바깥 활동이 급증하기 시작하는 15일 토요일 오후 카카오의 주요 서비스가 장애를 일으키면서 이용자들이 대거 대체 서비스인 우티로 몰린 것으로 풀이된다.특히 그동안 카카오T 앱 의존도가 높았던 택시기사들도 이번 ‘카카오 먹통 사태’를 계기로 우티 서비스를 경험했다. 택시기사가 쓰는 우티 기사용 앱 이용자는 평소 1만5000명 수준이었지만 이날에는 두 배 늘어난 3만5000명에 달했다.우티의 서울 택시기사 대상 프로모션 정책. [우티]마침 우티가 10월 말까지 자사 서비스를 이용하는 가맹기사에게 건당 6000원의 추가 인센티브를 지급하는 정책을 진행 중이어서 기사들의 관심도가 더욱 높아졌다는 설명이다서울 지역의 한 개인택시 기사는 “사용편의성과 압도적으로 많은 이용자 숫자 때문에 카카오T 앱에 대한 기사들의 의존도가 높긴 하지만 카카오의 수수료 정책에 불만이 많던 기사들이 이번 일을 계기로 우티 가입에도 관심을 보이는 분위기”라고 말했다.지난해 4월 티맵모빌리티와 우버의 합작으로 출범한 우티는 그동안 택시호출시장의 후발주자로서 한계를 극복하기 위해 마케팅과 할인 프로모션에 집중해왔다. 카카오가 선점한 시장에서 고전을 면치 못했으나 이번 사태를 계기로 제대로 인지도를 높이면서 향후 카카오 택시의 독주를 막을 수 있는 대항마로 성장할 지 관심을 모으고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>'앱토스' 가상화폐 돌풍…업비트, 하루 수수료 수입 2억원 '쏠쏠'</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005166037?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>앱토스 로고[이미지 출처=앱토스랩 트위터]침체에 빠진 가상화폐 시장에서 메타(舊 페이스북) 출신들이 개발한 코인인 ‘앱토스’가 승승 장구 중이다. 국내 원화마켓 운영 가상화폐 거래소 중에선 업비트가 유일하게 앱토스에 대해 거래지원을 하고 있는데 비트코인과 이더리움 등 유명 코인을 누르고 가장 많은 거래대금을 기록하며 하루 2억원이 넘는 수수료를 벌어들이고 있다.24일 글로벌 가상화폐 시황 중계 사이트 코인마켓캡에 따르면 이날 오전 8시40분 기준 앱토스는 전날보다 10.18% 오른 9.76달러(약 1만3976원)에 거래됐다.메타의 가상화폐 프로젝트 리브라에 참여했던 인력들이 앱토스 프로젝트에 참여해 만든 앱토스 토큰은 올해 하반기 업계에서 가장 뜨거운 이슈로 꼽힌다. 메인넷 앱토스는 기존 비트코인, 이더리움을 포함하는 레이어1 블록체인과 비교해서 확장성, 속도 등에서 강점을 지니도록 개선 노력을 한 것으로 알려졌다.앱토스는 지난 19일 전세계 주요 거래소에 동시 상장했다. 코인마켓캡 집계 첫날인 지난 19일 앱토스는 8.5달러대에서 거래됐다. 이후 6.8달러까지 떨어졌지만 투자자들이 몰리면서 전날에는 10달러를 넘기기도 했다. 거래량도 첫날 18억9370만달러(약 2조7139억원)을 기록했고 다음날 5억2964만달러까지 줄었지만 지속 증가하고 있다. 전날 거래량은 15억6361만달러까지 늘었다. 이같은 거래량은 코인 시장에서 기축 통화 역할을 하는 테더(USDT), 바이낸스USD(BUSD), USDC 등 스테이블코인과 비트코인, 이더리움에 이어 6번째로 많다.세계 최대 가상화폐 거래소 바이낸스에서는 상장가인 1달러에서 100배 오른 100달러까지 상승하는 등 거래지원 초반 큰 변동성 보이기도 했다.앱토스에 대한 국내 투자자들의 관심도 뜨겁다. 앱토스는 국내 원화마켓 운영 거래소 중에선 업비트에만 유일하게 상장됐다. 이날 오전 9시30분 기준 업비트에서 가장 많은 거래대금을 기록한 것은 앱토스로 약 4621억원으로 집계됐다. 기본 수수료 0.05%를 곱하면 앱토스 거래로 투자자에게 하루 2억3105만원가량의 수익을 거둬들인 셈이다. 업비트에서 앱토스는 지난 19일 시초가 9635원 기록한 이후 5일 연속 상승했다. 다만 오전 9시45분 현재 1.14%(160원) 내린 1만3850원에 거래됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[1mm 금융톡] 토스뱅크가 중·저신용자 대출 비중 유독 높은 이유는</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005162102?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>토스뱅크 중·저신용자 신용대출 비중 36.3%다른 인터넷은행과 비교해도 10%p 높아 신용평가시 따지는 변수만 200여개 토스 앱 정보 활용…대출자 정보, 다른 은행들보다 많아 '머신러닝(MLOps)' 도입해 신용평가모형 즉시 개선5일 출범 예정인 세 번째 인터넷은행 토스뱅크에 은행권의 관심이 쏠리고 있다. 연 2% 은행권 최대 예금금리와 연 2% 후반 최소 대출금리 등 출범 전부터 파격적인 금리 상품 출시를 밝혀 같은 인터넷은행뿐 아니라 시중은행들까지 긴장하는 모양새다. 특히 금융당국의 가계대출 규제가 더욱 거세지면서 대출 금리 상승, 대출 한도 제한이 이어지는 가운데 최대 한도 2억 7000만 원에 달하는 신용대출을 예고하면서 ‘대출 난민’들의 수요가 몰릴 것이라는 전망도 나온다. 사진은 4일 서울 강남구 토스뱅크 본사 모습./김현민 기자 kimhyun81@김명은씨(36)는 석 달 전 잠시 일을 쉴 때 은행 대출을 연체한 경험이 한 번 있었다. 반년 전 받았던 카드론은 돈이 생길 때마다 갚는 중이다. 이 기록만 활용한 은행 내부 평가로 김씨의 신용등급은 8등급. 추가 대출이 불가능한 상황이었다. 하지만 토스뱅크에서 김씨는 200만원 신용대출이 가능했다. 김씨의 기본 이력 외에도 대출 신청자의 다른 정보를 활용했기 때문이다. 신청자의 통장에 정기적으로 찍히는 입금액이 있는지, 주기적으로 출금되는 일정한 금액이 있는지까지 다각도로 살펴본다.강신형 토스뱅크 신용모형팀(Credit Modeling Team) 매니저는 "대출 신청자의 부정적 요소가 있긴 하지만 일회성이고, 다른 기록들을 통해 김씨가 성실히 일하며 돈을 벌고 있는지, 월세 같은 정기 납입액을 밀리지 않고 내는지 보고 대출 여부를 결정하는 것이 토스뱅크의 방식"이라고 말했다.14일 토스뱅크에 따르면 이 은행의 중·저신용자 대상 신용대출 비중(잔액 기준)은 지난 9월 말 기준으로 39%다. 다른 인터넷은행들과 비교해도 10%포인트(p)가량 높은 수치다. 올해 연말까지 중·저신용자 대상 신용대출 비중 목표는 42%. 이렇게 '튀는' 성적을 거둔 이유는 무엇일까. 강신형 토스뱅크 신용모형팀 매니저인터넷은행은 1금융권에선 대출이 불가능하고, 2금융권에 가자니 고금리에 시달려야 하는 중·저신용자를 위해 만들어졌다. 중·저신용자들의 대출이 늘어나면 으레 제기되는 문제는 은행의 건전성이다. 그런 우려를 불식시키려면 돈을 갚을 가능성이 높은 중·저신용대출자들을 선별해, 합리적인 대출한도와 금리를 제시하는 것이 중요하다. 신용평가모형(CSS)이 인터넷은행의 핵심 경쟁력인 까닭도 여기에 있다. 강 매니저는 "예를 들어 중·저신용자 신용평가를 할 때 시중은행이 15~20개, 다른 인터넷은행이 50~60개 변수를 따진다면 토스뱅크는 200개를 들여다본다"며 "내 금융정보를 한꺼번에 담는 토스 앱을 쓰는 사람이 토스뱅크에서 대출 신청을 하는 경우 토스뱅크는 그 사람의 카드 사용내역을 보고 소비성향까지 판단할 수 있다"며 "대출자 정보 커버리지가 다른 은행들보다 훨씬 넓다"고 했다.IT 인프라 측면에서도 다른 은행과 차별점이 있다. 신용평가모델의 개선이 필요한 경우 다른 은행들보다 빠르게 움직일 수 있단 점이다. 개발자가 새로 만든 모델을 즉시 탑재할 수 있는 '머신러닝플랫폼(MLOps)' 시스템을 도입한 곳은 국내 은행 중에 토스뱅크가 유일하다. 자동차에 비유하자면 신차 시제품을 만들어 설계도를 공장으로 넘긴 후 공장에선 양산하기 위한 준비절차가 필요한데, MLOps를 도입하면 양산 준비 없이 설계도를 받자마자 바로 생산하는 식이다. 덕분에 지금 같은 금리 상승기에 걸맞게 신용평가모델을 수정하고 싶다면 즉시 가능하다. 강 매니저는 "시장 환경이 급변할 때는 대응을 해야 하므로 신용평가 모델을 튜닝해야 한다"며 "예를 들어 금리가 오를 때는 대출 상환 여부에 대한 가중치를 더 높게 설정할 수 있는데, 개발팀에서 가중치를 바꾸면 토스뱅크의 신용평가모델에 바로 적용이 된다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"2억 넣으면 통장에 매일 1만원 꽂힌다" 토스뱅크, 1억원 초과에 2.3%</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000861885?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 오는 21일부터 1억원 초과 금액에 대해서도 '토스뱅크통장' 금리를 연 2.3%(세전) 적용한다고 20일 밝혔다.앞서 토스뱅크는 지난 6일부터 수시입출금통장인 '토스뱅크 통장'의 금리를 2.3%로 올린 바 있다. 다만 이전까지는 연 2.3%의 금리를 최대 1억원 한도까지 적용하고 1억 초과시에는 0.1% 금리가 제공됐지만 오는 20일부터 한도 제한이 풀린다는 얘기다.토스뱅크 고객들은 '지금 이자 받기' 서비스를 통해 매일 원하는 때 한번 이자를 받을 수 있으며 이자를 모을 경우 일 복리 효과까지 누릴 수 있다.'지금 이자받기' 서비스로 2억원을 예치한 고객의 경우 매일 약 1만원(세후)을 받을 수 있다는 얘기다.지금 이자받기의 경우 약 210만명의 고객이 한 번 이상 이용했으며 약 173만(82.3%)명 고객이 상시 이용하는 것으로 나타났다. 서비스 출시 후 7개월간 고객들이 받은 이자는 총 1417억원에 달한다.특히 토스뱅크통장은 기존 금융권이 제공하는 파킹통장과 차별화한 혜택을 제공 중이다.고객이 돈을 '특정 공간'에 보관하도록 해 자동이체, 송금의 자유를 제한하거나 일정 금액 이상을 유지해야만 우대 금리를 주는 경우와 달리 '토스뱅크통장'에는 이러한 조건들이 없다.토스뱅크 관계자는 "고객들은 언제 어디서든 돈을 꺼내 쓸 수 있고 보낼 수도 있으며 연동된 체크카드를 사용해도 제약받지 않는다"며 "기존 은행들이 수시입출금 통장에 주목하고 고객 편의 중심의 수신 상품을 출시하게 하는 마중물 역할을 하기도 했다"고 자평했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>입영통지서·범칙금도 ‘카톡’으로…공공서비스 도마위</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001559870?sid=100</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>데이터센터 화재로 인한 카카오 ‘먹통’ 사태로 국민 다수가 불편을 겪은 가운데, 정부 등 공공기관도 대국민 서비스 수단으로 카카오톡 등을 활용해 왔다는 점에서 사고가 평일에 발생했다면 피해는 더 컸을 것이라는 우려가 나온다.사기업이 운영하는 온라인 플랫폼임에도 ‘국민 메신저’ 카카오톡을 행정업무에 사용하는 부처와 지방자치단체는 적지 않다.16일 업계와 정부 등에 따르면 병무청은 2019년부터 현역 입영과 예비군 훈련 통지서를 카카오톡을 통해 발송하고 있다. 입영 통지서를 병무청 앱을 통해 먼저 보내고 수신자가 확인하지 않을 경우 2차로 카카오톡을 통해 발송한다는 게 병무청의 설명이다.병무청은 우편 이용자가 줄고 병무청 앱은 사용자가 많지 않다는 점을 들어 “통지서 미확인으로 인해 발생할 수 있는 불이익을 카카오톡 발신을 통해 방지할 수 있을 것”이라고 했다. 하지만 이번처럼 카톡 서비스가 멈췄을 때 보완책은 언급하지 않았다.병무청 입영통지서처럼 카카오톡만 보내는 것은 아니지만 행정 정보를 공지할 때 민간 온라인 플랫폼을 쓰는 일은 더 흔하다. 카카오, 네이버, 토스 등 민간 앱을 국민이 일반적으로 사용한다는 이유에서다.카카오의 메신저 애플리케이션 카카오톡을 비롯해 카카오페이, 카카오내비 등 계열사 다수 서비스가 15일 오후 판교 데이터센터에서 발생한 화재의 영향으로 장애를 일으켜 많은 사용자가 불편을 겪고 있다. 사진은 카카오톡 오류 메시지. 연합뉴스대표적인 서비스로 행정안전부의 국민비서 ‘구삐’가 꼽힌다. 국민비서 ‘구삐’는 각종 생활형 행정정보를 알려주는 서비스로 네이버, 카카오톡, 토스 등 7개 민간 앱을 통해 건강검진, 전기요금, 운전면허 갱신 등 23종의 알림 서비스를 제공한다.교통 과태료나 범칙금의 납부 기한 등 위법 행위에 대한 정보도 이들 민간 앱을 통해 발송된다. 개인 정보에 해당하는 복지 서비스에 관한 사항도 예외가 아니다. 보건복지부는 복지 서비스 수급자 약 490만명을 대상으로 개인의 소득·재산·인적 상황 등을 분석해 알려주는 ‘맞춤형 급여 안내’를 카카오톡 ‘구삐’ 알림톡이나 문자 메시지로 안내하고 있다.중앙정부뿐 아니라 제주 서귀포시, 충북 괴산군 등 지자체들도 민원처리, 각종 행사, 일자리 정보 등의 소식을 전달할 때 카카오톡 알림톡을 쓴다.김범수 연세대 정보대학원장(바른ICT연구소장)은 “정보 전달의 말단 서비스까지 정부가 모두 도맡아 하기에는 행정 비용이 더 드는 문제가 있다”면서도 “앞으로 점점 민간서비스와 연결되는 정부 서비스가 많아지는데 위험 관리가 제대로 되고 있는지 점검할 필요가 있다”고 연합뉴스에 말했다.지난 15일 경기 성남시 SK C&amp;C 데이터센터에 화재가 발생해 카카오톡 메신저 송·수신 등 카카오 계열사 서비스 이용이 30시간여 동안 제한됐다. 카카오 측은 16일 오후 9시59분 카카오의 주요 서비스 상당 부분이 정상화됐다고 밝혔다. 다만 서비스가 완전히 정상화될 때까지는 좀 더 시간이 필요할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[NIF2022] 이백규 대표 "위대한 투자가는 위기 속에서 기회 찾았다"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006401862?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>뉴스1투자포럼 'Beyond Crisis, 기회를 잡아라' 주제로 19일 개막스티븐 도버·박세익 기조연설…주식·가상자산·부동산 등 투자전략 공유이백규 뉴스1 대표이사가 19일 오전 서울 중구 은행회관 국제회의장에서 열린 '뉴스1 투자포럼(NIF) 2022'에서 개회사를 하고 있다. 이날 포럼은 'Beyond Crisis, 기회를 잡아라'를 주제로 위기 이후의 투자기회를 찾을 수 있는 해법을 찾기 위해 마련됐다. 2022.10.19/뉴스1 ⓒ News1 김진환 기자(서울=뉴스1) 국종환 기자 = 이백규 뉴스1 대표이사는 "모두가 입을 모아 '위기'라고 하는 상황에서 위대한 투자가는 기회를 찾았다"며 "위기 이후의 기회를 발견해야 한다"고 강조했다.이 대표는 19일 서울 명동 은행회관에서 개막된 ‘뉴스1투자포럼(NIF) 2022’에서 개회사를 통해 이같이 밝혔다.이 대표는 현재 자본시장 상황에 대해 "글로벌 인플레이션과 세계 각국의 고강도 긴축으로 인해 어느 때보다 자본시장이 어려움을 겪고 있다"며 "앞날에 대한 예측은 더 어렵다. 전쟁의 위협은 어떻게 전개될지, 환율은 또 어떤 방향으로 흘러갈지 전문가들도 ‘감히 예측이 어렵다’는 말을 되풀이하는 시기"라고 진단했다.그러면서 "이런 혼돈과 암흑의 시기에 월스트리트의 영원한 스승으로 불리던 전설적인 투자가 존 템플턴 경을 떠올리게 된다"고 말했다. 템플턴 경은 1997년 우리나라가 외환위기를 맞았을 때, 모든 외국 투자자들이 공포에 질려 떠나던 한국 증시에 당시 돈으로 140억원을 투자한 ‘역발상의 대가’이다. 삼성전자와 한국전력 등의 우량주를 사들였는데, 우리나라가 IMF 위기를 단기간에 졸업하면서 템플턴의 수익도 천문학적으로 늘었다.이 대표는 "템플턴 경은 '강세장은 비관 속에서 태어나 회의 속에서 자라며 낙관 속에서 성숙해 행복 속에서 죽는다. 기억하라. 최고로 비관적일 때가 가장 좋은 매수 시점이고 최고로 낙관적일 때가 가장 좋은 매도 시점이다'는 명언을 남겼다"며 "모두가 입을 모아 '위기'라고 하는 상황에서 위대한 투자가는 기회를 찾았던 것"이라고 강조했다.이어 "그래서 뉴스1은 오늘 투자포럼의 주제를 ‘Beyond Crisis, 기회를 잡아라’로 정했다"며 "템플턴 경의 격언처럼 지금 이 위기가 투자자들에게 어떤 기회를 제공할 수 있는지 전문가들의 풍부한 분석과 예측을 들어보고자 한다"고 말했다.19일 오전 서울 중구 은행회관 국제회의장에서 열린 '뉴스1 투자포럼(NIF) 2022'에서 이백규 뉴스1 대표이사 등 참석자들이 기념 촬영을 하고 있다. 왼쪽부터 강호병 뉴스1 전무, 정영채 NH투자증권 사장, 이용우 더불어민주당 의원, 김주현 금융위원장, 이백규 뉴스1 대표이사, 최승재 국민의힘 의원, 나재철 금융투자협회장, 오창훈 토스증권 사장. 이날 포럼은 'Beyond Crisis, 기회를 잡아라'를 주제로 위기 이후의 투자기회를 찾을 수 있는 해법을 찾기 위해 마련됐다. 2022.10.19/뉴스1 ⓒ News1 김진환 기자이 대표는 이날 행사에 참석한 국회 정무위원회의 최승재 국민의힘 의원과 이용우 더불어민주당 의원, 김주현 금융위원장, 나재철 금융투자협회장, 정영채 NH투자증권 사장, 오창훈 토스증권 대표 등에게 감사를 표하면서, 포럼 참석자들에게 "오늘 포럼이 ‘위기 이후의 기회’를 발견하는 시간이 되시기를 바란다"고 말했다.'뉴스1투자포럼(NIF) 2022'는 명망 있는 자본시장 전문가를 초청해 국내외 투자시장에 대한 그들의 통찰력을 제공하고자 마련됐다. 오전 9시부터 오후 4시까지 7시간 동안 'Beyond Crisis, 기회를 잡아라'는 주제로 진행된다. 세계 10대 자산운용사 프랭클린템플턴의 스티븐 도버 CIO(최고 투자책임자)가 직접 글로벌 주식시장과 신흥국, 한국의 주식시장과 투자전략 ‘꿀팁’을 설명한다. 세계 30대 자산운용사 얼라이언스번스틴의 에릭 위노그래드 수석부사장은 뉴욕 연방준비은행 출신으로서 글로벌 금리인상에 따른 주식시장의 충격과 경기침체 우려, 이를 극복하기 위한 투자전략을 공유한다. 동학개미의 스승으로 추앙받는 박세익 체슬리주식회사 대표는 국내 시장에 대한 ‘현미경 전략’을 제시할 예정이다. 이어 지긋지긋한 박스피, 대외 충격에 어느 국가보다 심한 변동성 등 ‘코리아 디스카운트’ 꼬리표를 떼기 위해 한국 주식시장의 가치를 어떻게 높여야 할지 ‘세이브코스피’ 운동을 주창하는 김규식 한국거버넌스포럼 대표와 이효석 업라이즈 이사가 기조 대담을 통해 풀어나간다. 주식시장뿐만 아니라 코인시장, 부동산시장, 최근 각광을 받는 조각투자까지 다양한 분야 전문가들이 나와 해당 시장 전망과 투자전략을 공유한다. ‘MZ세대’가 바라본 우리 주식시장의 현황과 개선점에 대한 톡톡 튀는 대담을 들을 수 있는 MZ세대 토론회도 마련했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>행안부 '본인정보 제공' 지원센터 개소…육군·한전과 협약</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006415198?sid=102</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>육군 장교 모집·전기요금 복지할인 신청 절차 간소화정책모기지·주택연금 등 검증 서비스도 종이서류 NO한창섭 행정안전부 차관(행정안전부 제공) 2022.10.12/뉴스1(서울=뉴스1) 전준우 기자 = 행정안전부는 25일 한국지능정보사회진흥원에 '본인정보 제공지원센터'를 개소하고 육군 인사사령부, 한국전력공사 등 15개 기관과 함께 공공 마이데이터 서비스 제공 업무협약을 맺는다고 밝혔다. 공공 마이데이터는 정보 주체인 국민의 요구에 따라 행정·공공기관이 보유한 본인정보를 본인 또는 제3자에게 제공하는 서비스이다.지난해 2월 시범서비스 시작 이후 학자금 지원 신청, 신용카드 발급 등 공공·금융 분야 52종 서비스를 제공하고 있다.여기에 강원도, 육군 인사사령부, 한국전력공사, 공무원연금공단, 국민연금공단, 서민금융진흥원, 한국노인인력개발원, 한국무역보험공사, 한국주택금융공사, 한국신용정보원, 토스뱅크, IBK기업은행, KB국민카드, 나이스평가정보, 롯데캐피탈과 추가로 협약을 맺었다.  이번 업무협약을 통해 앞으로 육군 인사사령부의 장교·군무원 모집에 제출하는 병적증명서 등 구비서류를 관공서 방문을 통해 직접 발급할 필요 없이 공공 마이데이터 서비스로 편리하게 제출할 수 있게 된다.한국전력공사에 전기요금 복지할인을 신청할 때도 대상자 확인에 필요한 장애인증명서, 차상위계층확인서 등 8종 구비서류를 공공 마이데이터 서비스를 이용해 편리하게 제출할 수 있다.정책모기지, 주택연금 등 약 100만명이 이용하는 주택금융상품 자격요건 검증 서비스를 제공하는 경우에도 국민기초생활수급자증명서 등과 같은 종이서류를 발급·제출할 필요 없이 한 번에 서비스 신청이 가능하다. 한창섭 행안부 차관은 "본인정보 제공지원센터 개소를 통해 국내를 대표하는 정보화 전문기관의 경험과 기술력을 공공 마이데이터 서비스에 적용할 수 있게 됐다"며 "행안부는 공공 마이데이터 서비스를 더욱 확대해 디지털플랫폼정부 구현에 이바지할 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.10.30.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜, 1·2금융권 아우른 '사업자 대출비교' 출시</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013540604?sid=105</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>네이버페이 사업자 대출비교[네이버파이낸셜 제공. 재판매 및 DB 금지](서울=연합뉴스) 김주환 기자 = 네이버파이낸셜은 시중은행부터 저축은행, 캐피탈 등의 사업자 신용대출 상품을 비교할 수 있는 '네이버페이 사업자 대출비교' 서비스를 시작했다고 30일 밝혔다.    사업자 대출비교 서비스는 여러 신용대출 상품의 금리와 한도를 비교해 가장 유리한 조건의 대출을 비대면 채널로 간편하게 신청할 수 있도록 연결한다.     만 19세 이상의 국내 온·오프라인 개인사업자는 누구나 이용할 수 있다.    특히 소득·매출 등의 정보가 네이버 인증서와 연동돼 보다 정확하고, 수기 입력 과정이 생략돼 약 2분 안에 여러 대출 상품의 금리와 한도를 확인할 수 있다.    또 이어지는 대출 심사 과정에서도 네이버인증서가 활용돼 오프라인 지점에 방문하거나 추가 서류를 제출할 필요가 없다.    네이버파이낸셜은 대출 실행 시 대표자 개인의 신용점수에 영향을 주지 않는 사업자 상품만 서비스에 입점해 금리와 한도만 여러 차례 조회해도 신용점수에 영향을 미치지 않는다고 덧붙였다.    제1금융권은 우리은행·전북은행·토스뱅크·케이뱅크가 입점했고, 제2금융권은 KB국민카드·롯데캐피탈·웰컴저축은행·한국투자저축은행·OK저축은행·현대캐피탈(예정) 상품이 서비스된다.    네이버파이낸셜 박상진 대표는 "앞으로도 금융사들과 지속 협력해 사업자들에게 도움이 될 수 있는 전용 상품을 공동 개발하는 등 서비스를 고도화해 나갈 예정"이라고 말했다.    jujuk@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.10.26.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>트렌드마이크로, 클라우드 보안 콘퍼런스 연다</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011497796?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기사내용 요약11월 서울 삼성동서 클라우드섹 코리아 2022 개최AWS·메가존·SK쉴더스 등 참가…핵심 현안 등 발표 예정김진광 지사장 “최신 보안 동향·기술을 확인하는 자리 될 것”[서울=뉴시스]송종호 기자 = 글로벌 보안업체인 트렌드마이크로가 서울 강남구 랜드 인터컨티넨탈 서울 파르나스에서 세계 최대 클라우드 보안 콘퍼런스 ‘클라우드섹(CLOUDSEC) 코리아 2022’를 개최한다고 26일 밝혔다. 올해로 12회차를 맞는 클라우드섹은 트렌드마이크로가 매년 여는 세계 최대 규모의 클라우드 보안 콘퍼런스로서 아시아 태평양, 유럽 및 미주 지역에서 진행된다. 올해 행사는 내달 9일에 열리며, 3년 만에 오프라인에서 진행된다. 이번 콘퍼런스는 전 세계 클라우드 보안 전문가들과 업계 리더들이 참여해 사이버 보안의 최신 업계 동향과 신기술을 소개한다. 클라우드, 보안 및 디지털 혁신, 진화하는 위협 환경 등 다가오는 미래에 따른 대응 전략을 살펴보고 구현할 수 있는 기회가 될 전망이다.기조연설은 단야 타커 트렌드마이크로 아태지역 총괄 부사장이 나서, 보안 기술의 진화에 따라 재구성되는 사이버 보안 리더의 역할에 대해 전할 예정이다. 아마존웹서비스(AWS), 메가존클라우드, 토스 등 국내외 기업 관계자들은 보안 업계 동향과 보안 영역에 따른 솔루션, 컴플라이언스 준수 및 대응 등 클라우드 산업의 핵심 현안 등을 발표한다.이번 콘퍼런스는 세 가지 트랙으로 나눠 6개씩 총 18개의 강연이 진행된다. 트렌드마이크로는 확장된 감지 및 대응(XDR)과 운영기술(OT) 보안 등 태동하는 미래 산업의 보안 준비 등 다양한 주제의 강연을 한다. 이날 LG CNS, 소프트캠프, SK쉴더스, 한국IBM, 피앤피시큐어, 레드햇, 진앤현시큐리티, S2W, 하시코프, 아카마이, 엑스트라홉, 시큐아이, 스플렁크, 체커 등도 강연에 나선다. 이들은 클라우드 보안 및 위협 환경에 대한 전반적인 트렌드와 다각적 대응 및 전략을 소개한다. 김진광 트렌드마이크로 한국지사장은 “증가하는 사이버 위협에 효과적으로 대응해야만 클라우드 환경의 잠재력을 최대한 활용할 수 있을 것”이라며 “이번 콘퍼런스를 통해 업계 관계자들이 최신 보안 동향 및 기술을 확인하고 조직에 최적화된 전략을 수립할 인사이트를 얻길 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>최악 먹통에 '검은 월요일' 맞은 카카오그룹... 시총 2조 증발</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000702536?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>카카오·카뱅·카페 줄줄이 신저가"단기적으로 큰 폭의 하락 불가피영업 마비·배상... 4분기 매출 감소로"17일 오전 서울 종로구 연합인포맥스에 설치된 화면에 이날 카카오, 카카오뱅크, 카카오페이, 카카오게임즈의 주가 그래프가 표시되어 있다. 이날 카카오는 전장 대비 5.93% 하락한 4만8,350원에 마감했다. 연합뉴스17일 카카오 주가가 6% 가까이 폭락했다. 역대 최악의 서비스 중단 사태의 여파다. 카카오뱅크(카뱅), 카카오페이(카페) 등 계열사의 주가도 대폭 빠졌다.이날 카카오는 전장보다 3,050원 낮은(-5.93%) 4만8,350원에 장을 마쳤다. 오후 들어 장 초반(-9%대)에 비해 하락폭을 많이 좁히긴 했지만, 하루 만에 5만 원 선을 내주며 연저점을 경신했다. 카뱅과 카페도 각각 5.14%, 4.16% 내린 1만6,600원, 3만4,600원에 마감하며 연저점을 낮췄다. 카카오게임즈는 2.2% 하락(종가 3만7,400원), 비교적 선방했다.이날 카카오 4총사의 시가총액은 약 37조 원으로 하루 만에 2조 원을 날렸다. 대규모 먹통 사태 이전에도 카카오그룹주는 글로벌 긴축 기조의 직격탄을 맞아 1년 만에 시총 100조 원대에서 40조 원으로 3분의 1토막 난 상태였다. 게다가 카페 경영진의 주식 '먹튀(먹고 튀다)', 카카오게임즈 분할 상장 등 잇따른 논란으로 기업 이미지도 추락한 상태였다. "대체 플랫폼 없어 단기적 추락" 예상도17일 오전 경기 성남시 카카오 판교 아지트 모습. 연합뉴스이번 사태로 총체적인 '재난 부실 대응' 문제까지 대두되며, 증권가에선 "단기적으로 큰 폭의 주가 하락은 불가피하다"는 의견이 제시됐다. 이날 한국투자증권과 유진투자증권은 카카오 목표주가를 각각 8만 원과 6만5,000원으로 하향 조정했다. 네이버도 화재가 발생한 경기 성남시 판교 SK C&amp;C 데이터센터를 이용하고 있지만 일시적인 서비스 장애에 그쳐 주가는 오히려 0.91% 상승했다. 카카오의 4분기 매출 감소로 이어질 것이라는 전망도 나온다. 오동환 삼성증권 연구원은 "카카오톡 송수신 중단은 10시간 정도였으나, 비즈보드 광고 판매, 모빌리티, 선물하기, 페이지 등에서 1~2일 분량의 매출이 발생하지 않았다"며 "(유료 서비스 이용자 보상을 포함해) 4분기 매출이 1~2% 감소하는 효과가 나타날 수 있다"고 밝혔다. NH투자증권과 KB증권도 각각 일매출 150억 원, 220억 원가량의 피해가 예상된다고 했다.다만 단기적인 추락에 그칠 것이라는 시각도 있다. 안재민 NH투자증권 연구원은 "단기간에 대체할 수 있는 서비스가 많지 않아 복구가 잘 마무리되면 리바운드(재도약)를 기대할 수 있다"고 밝혔다. 오 연구원도 "텔레그램, 토스, 우티 등 고객들이 대체 서비스로 이동했으나 (카카오의) 대체 불가능한 장점 때문에 구조적 이탈은 제한적"이라고 봤다.한편 이날 카뱅은 "15일 오후 5시 카뱅 애플리케이션(앱) 정상화에 이어 오늘 낮 12시 9분쯤 카카오와 연계된 서비스를 포함, 카뱅이 제공하는 모든 서비스가 정상화됐다"고 공지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>비즈플레이, 삼성카드 기업고객 경비지출 관리한다</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002270981?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>비즈플레이(대표 김홍기)가 삼성카드와 삼성카드 기업고객 대상 전용 경비지출관리 서비스 ‘삼성카드 비즈플레이’를 출시한다고 18일 밝혔다.삼성카드 비즈플레이는 기존 종이 영수증을 모바일 애플리케이션 기반의 전자 영수증으로 대체하고, 사용 내역 및 잔여 한도 확인부터 결재 처리까지 전체 경비지출관리 과정을 스마트폰과 PC로 실시간 처리할 수 있도록 지원하는 서비스다.비즈플레이는 이번 삼성카드와의 제휴를 통해 기업 고객들의 경비지출업무를 효율화하는 등 서비스 만족도 제고를 기대하고 있다.삼성카드 비즈플레이 (이미지=비즈플레이)비즈플레이는 최근 영수증 누적 처리 건수 1억 건을 돌파하며, 전체 3만 여 고객사, 사용자수 15만 명, 관리 법인카드 수 68만 장에 달한다. 코로나19 이슈로 인해 비대면 업무 처리에 대한 기업들의 니즈가 강해지면서 이를 지원할 수 있는 비즈플레이 서비스가 빠르게 성장 중이다.비즈플레이는 중견·대기업은 물론 여러 공공기관에 디지털 경비지출관리 솔루션을 제공하고 있다. 농심, 토스, 머니투데이, 오스템임플란트, 제너시스비비큐그룹, 서울대학교, 한국관광공사, 법무법인 광장 등이 비즈플레이의 고객사다.김홍기 비즈플레이 대표는 “이번 삼성카드와의 협력으로 출시한 ‘삼성카드 비즈플레이’ 서비스를 통해 많은 기업이 경비처리 업무 환경을 개선하길 바란다”며, “비즈플레이는 다양한 비즈니스 모델을 구축해 디지털 경비지출관리 솔루션 시장이 활성화될 수 있도록 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>비상장 투자 ‘어게인’…싸게 사서 느긋하게</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000077967?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>주가 하락기 피난처는 바로 여기지난 10월 19일 서울 여의도 포스트타워 회의실. 스타트업을 발굴해 투자하는 기업 스타트업리서치가 주관한 비상장 기업 IR 행사가 열렸다. ‘포스트 코로나’ 시대 3년 만에 열린 비대면 설명회였다. 50여명 넘는 참석자가 샌드위치로 점심을 먹으며 스타트업 대표의 발표에 집중하고 있었다. 이날 참석한 기업은 명품 직구 플랫폼 구하다(GUHADA)와 대체육 전문 기업 HN노바텍이다. 윤재섭 구하다 대표와 강희철 HN노바텍 CTO의 설명이 끝난 이후 참가자 질문이 이어지는 등 반응이 뜨거웠다. 증시가 급락하는 동안에도 비상장주 투자 열기는 이어지고 있다. 특히 초고액 자산가(VVIP) 사이에서 ‘괜찮은’ 비상장주를 찾는 문의가 많다. 하나증권 도곡동 WM센터 등 핵심 점포에서 비상장 투자 블라인드 펀드가 잇따라 완판을 기록한 것이 최근 분위기를 말해준다. VVIP 점포 PB(자산컨설턴트)들은 좋은 비상장주를 물색하기 위해 손품·발품을 팔고 있다. 한 VC 대표는 “과거에는 연기금·공제회 등 기관 투자자 자금을 주로 받아온 VC들이 PB를 통해 개인 고액 자산가의 자금 유치에 공을 들이고 있다”고 분위기를 들려줬다. 국내 증시 부진이 이어지는 가운데 투자 기간은 길지만 수익률이 높은 비상장주 투자에 관심이 쏠린다. 사진은 스타트업리서치에서 주관한 비상장 투자 IR 행사. (매경DB)  ▶삼전·네이버 물 타느니… ▷기술력 좋은 종목 ‘텐배거’ 노려  비상장 투자가 활발한 이유는 여럿이다. 무엇보다 국내 증시 부진이 ‘느긋한’ 투자의 가치를 높였다는 분석이 나온다. 최근 코스피와 코스닥이 급락했지만, V자 반등을 예상하는 전문가는 거의 없다. 바닥을 찍고 오른다 해도 점진적 상승세 정도로 예상한다. 원금을 회복하려면 꽤 긴 시간이 필요하다는 얘기다. 어차피 오래 기다릴 바에는 차라리 높은 수익을 기대할 수 있는 비상장주에 몇 년 묵혀두겠다는 투자자가 적지 않다.최근 자율주행 시스템 스타트업 A사에 투자한 김 모 씨도 이런 의도로 비상장주 투자를 결정했다. 국내 대표 기업 주식을 샀지만 손실률이 50~70%에 달한다는 그는 1~2년 내 원금을 회복하기 힘들다고 결론 내렸다. 그렇다고 추가로 ‘물타기’에 나서느니 기술력 뛰어난 비상장주에 돈을 넣어두겠다고 마음먹었다. 김 씨는 “삼성전자와 카카오에 대한 배신감이 커 더 이상 매수하고 싶지 않다”며 “5년 정도 투자한다고 생각하면 시가총액 500억원대 아래로 투자할 수 있는 비상장 기업이 낫다고 판단했다”고 말했다. 둘째, 스타트업 투자가 얼어붙으며 자연스럽게 ‘밸류에이션(투자 가치)’이 낮아졌다. 투자업계에서는 “투자금을 엑시트(회수)하기는 어려울지 몰라도 신규로 기업을 발굴하기는 좋은 때”라는 말이 나온다. 투자 가뭄에 시달리는 바이오 기업은 가격이 ‘뚝뚝’ 떨어졌다. 지난해만 해도 파이프라인이 괜찮아 1500억원 밸류에이션을 인정받던 B기업은 이제 1000억원 이하로 투자금을 모으러 다닌다. 2020~2021년 가치가 급등했던 IT 비상장 기업 역시 ‘목표는 오직 생존’이라 할 만큼 콧대가 꺾였다. 투자자 입장에서 본다면 좋은 기업을 싸게 살 수 있는 기회가 열린 셈이다. 셋째, 투자가들이 비상장 기업도 다양한 포트폴리오를 구성하며 ‘리스크’ 관리에 나서고 있다. 과거 상장 기업과 마찬가지로 비상장 기업에 ‘몰빵’하는 사례가 적지 않았다. 예를 들어 두나무, 토스, 직방 등 유명세를 탄 스타트업에 투자하는 식이다. 리스크는 크지만 한 번에 ‘대박’을 노린 투자다. 그러나 이 같은 대표 종목은 상장 주식 시장이 무너지면 함께 주가가 하락한다. 일례로 한때 50만원을 넘었던 두나무 주가는 현재 비상장 플랫폼에서 16만원 선에 거래된다. 최근 들어서는 비상장 기업에도 분산 투자 원칙을 적용하는 투자자가 많다. 예를 들어 바이오 30%, 로봇 30%, 플랫폼 40% 등으로 투자하는 식이다.  7년 넘게 비상장 투자를 해온 이 모 씨 역시 ‘분산 투자’를 금과옥조로 여긴다. 그도 그럴 것이 비상장주는 대박이 날 수도 있지만 그만큼 위험한 ‘초고위험’ 투자기 때문이다. 실제 그는 반도체 부품 관련 비상장주에 3000만원을 투자했다가 완전히 ‘날린’ 경험이 있다. 반도체 부품 기업 대표로부터 회사 설명을 들을 때만 해도 그는 대박의 꿈에 부풀었다. 그러나 회사가 자사 부품으로 ‘노이즈 캔슬링 이어폰’을 만든 게 화근이었다. 브랜드를 키우고 제품 완성도를 높이면서 대량 생산까지 하는 비용을 감당하기는 무리였다. 결국 시장에 안착하지 못했고, 추가 투자금마저 받지 못해 회사가 무너졌다. 실패 경험이 뼈아팠던 이 씨는 비상장주 투자도 철저히 금액을 쪼개 넣는다. 서 씨는 “반도체 부품 회사에서 손해를 봤지만, 다행히 다른 기술 종목이 10배 이상 올라 높은 수익을 냈다. 비상장 투자를 한다면 모든 종목에서 수익을 내는 건 불가능에 가깝다. 상장 주식 투자 이상으로 비상장주의 분산 투자가 중요하다”고 밝혔다.  ▶비상장주도 분산 투자 ▷블라인드 펀드에 돈 몰려  최근 들어서는 여러 종목에 투자하는 비상장 투자 블라인드 펀드도 인기를 끌고 있다. 블라인드 펀드는 출자자가 펀드의 투자처를 미리 알 수는 없다. 운용역, 스타일에 따라 색깔이 다른데, 통상 10개 가까운 비상장에 투자하는 구조를 가진다. 올인하는 프로젝트 펀드(투자 대상을 미리 공개하고 투자자를 모집)보다 ‘텐배거(투자자가 10배의 수익을 낸 주식 종목)’의 대박을 터뜨릴 확률은 떨어진다. 그러나 펀드 안에서 포트폴리오를 짜는 만큼 분산 투자 효과가 생긴다. 이는 벤처캐피털의 투자법이기도 하다. 보통 투자처 10곳 가운데 1~2곳에서 이익을 거둬 8~9곳의 손실을 상쇄한다.  비상장주는 상장주보다 정보를 얻기 힘들다는 게 단점으로 꼽힌다. 일반 투자자보다는 금융권 중심으로 비상장 투자가 이뤄지는 이유다. 최근 증권사 리서치에서 적극적으로 스타트업 관련 보고서를 내고 있다는 점은 비상장주 투자자에게 반가운 소식이다. 또한 비상장주 투자 모임에 가입해 정보를 수시로 얻을 수 있다. 상장 주식과 마찬가지로 ‘좋은’ 종목을 발굴해야 한다는 점은 말할 필요가 없다. 무엇보다 핵심 경쟁력이 있는지를 파악해야 한다. 자본력을 갖춘 경쟁자가 쉽게 따라 할 수 있는 비즈니스 모델은 피해야 한다. 또한 투자금을 꾸준히 받을 수 있을 만큼 자본 시장과 소통하는지도 살펴야 한다. 시장에 안착하기까지 스타트업의 최대 약점인 자금 수혈이 필요할 수 있어서다. 한 금융권 관계자는 “자기 기술이 최고라고 자부하며 기업가치만 높게 부르고, 투자자를 홀대하는 CEO는 멀리하는 게 좋다”며 “스타트업은 기술과 자본이 만날 때만 결실을 볼 수 있다”고 말했다. 인터뷰 | 이승혁 스타트업리서치 대표 실적 내는 ‘얼리 스테이지’ 기업 노려라 Q 비상장 투자 시장 분위기는 어떤가. A 상장 주식 시장이 어려워지면 비상장 투자도 영향받는다. 다만 최근 들어 ‘역발상’으로 접근하는 투자자가 늘었다. 유니콘급 대신 기업가치 1000억원 미만 알짜로 돈이 몰린다. ‘얼리 스테이지(초기 단계)’에 진입해 크게 수익을 내겠다는 생각에서다. 1조원짜리가 2조원되기는 어렵지만 500억원짜리가 2000억원이 될 확률은 높다. 기업가치가 떨어진 만큼(디밸류에이션) 매력도는 높다.  Q 목표 수익률은 어느 정도가 바람직한가. A 일반적으로 비상장주는 10개 투자해 1개 건진다는 말이 있다. 대신 1개가 모든 손실을 만회할 정도로 큰 이익을 내고는 한다. 과거 비상장주를 투자할 때 주먹구구로 진행된 측면이 있었다. 대형 VC가 들어갔다고 하면 따라 진입하는 식이다. 비상장 주식도 상장주처럼 면밀하게 가치를 따져야 한다. 이렇게 하면 투자 성공 확률을 높일 수 있다. IRR(내부 수익률)을 30~50%로 잡고 투자한다.  Q 어떤 산업이 뜨나. A 일단 바이오에 투자가 멈춘 건 맞다. 최근 2차전지가 뜨겁다. 메타버스도 살아 있는 화두라고 본다. 중요한 건 숫자다. 경기가 어려워지면서 실적을 내는 기업을 선호한다. 상장주 투자도 마찬가지다. 과거 비상장주로 ‘소부장(소재·부품·장비)’은 관심 없었는데 실적을 내니 투자 리스트에 이름을 올린다.   [본 기사는 매경이코노미 제2181호 (2022.10.26~2022.11.01일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>KG이니시스 "통합인증서비스 도입 기관 1천 곳 돌파"</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000706451?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>연내 200여 곳 추가 서비스 오픈 예정KG이니시스는 자사 '통합인증서비스' 도입 기관이 1천 곳을 돌파했다고 28일 밝혔다. 지난해 6월 서비스 출시 후 1년 4개월 만에 거둔 성과다.제휴처는 이마트에브리데이와 같은 쇼핑몰부터 LG헬로비전, 미디어로그, 우체국 등 알뜰폰 사업자, 도서관 등 공공기관, 금융업, 주택청약에 이르기까지 다양한 업종에 두루 분포했다. 또 쇼핑몰 대다수가 통합인증서비스 랜딩페이지를 통해 서비스를 신청한 것으로 나타났다.kG이니시스의 '통합인증서비스' 도입 기관이 1천 곳을 돌파했다. 사진은 회사 로고. [사진=KG이니시스]통합인증서비스는 KG이니시스가 업계 최초로 출시한 인증서 중계 서비스다. 한 번의 연동으로 네이버, 카카오, 토스, KB국민은행 등 총 9개의 민간인증서 서비스를 통합 제공한다.자주 이용하는 민간인증을 선택해 회원가입과 정보변경에 필요한 본인인증을 할 수 있다. 기존 공동인증서와 아이핀 인증보다 빠르고 간편하게 진행할 수 있다는 것이 특징이다.KG이니시스 관계자는 "통합인증서비스의 수요가 높은 이유는 편리함"이라며 "별도 모듈 설치 없이 웹 기반의 API를 통해 쉽게 연동이 가능하고, 이용자 수가 많은 9개 주요 인증서 제공을 통해 소비자 선택의 폭을 확장했다. 도입 기관의 수요에 맞춘 커스터마이징 서비스 등이 제휴처에 매력적으로 다가간 것으로 분석된다"고 했다.이어 "올해 초부터 통합인증서비스 도입 문의와 계약이 폭증하고 있으며 연내 서비스 오픈을 앞둔 곳도 200여 곳에 이른다"며 "신규·기존 이용기관들의 원활한 서비스 이용을 위해 기획, 운영, 개발 등 다각도로 서비스를 지속 고도화할 것"이라고 밝혔다.KG이니시스 통합인증서비스의 자세한 내용과 신청방법은 해당 홈페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>더크 유안 아치루트 CMO "게임파이, 대형 게임사 진출 가속화 전망"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004763363?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>더크 유안(Dirk Yuan) 아치루트 CMO 인터뷰BNB기반 웹3 UGC 게임…온체인에 NFT 구축1700만달러 누적 투자 유치…이달 공식 출시"웹3 게임 산업 유망…대형사 진출 가속화 전망"더크 유안(Dirk Yuan) 아치루트(ArchLoot) 최고마케팅책임자(CMO) / 사진=양한나 블루밍비트 기자"게임파이(GameFi) 산업의 미래는 매우 유망합니다. 수많은 대형 웹2 게임사들이 이 공간으로 진출할 것으로 기대됩니다. 하지만 아직 발전 단계에 놓여 있는 만큼, 능력 있는 개발자들과 수준 높은 블록체인 기술이 필요합니다."더크 유안(Dirk Yuan) 아치루트(ArchLoot) 최고마케팅책임자(CMO)는 17일 블루밍비트와의 인터뷰에서 이같이 밝혔다. 아치루트는 BNB체인 기반 신개념 웹3 UGC(User Generated Contents, 사용자 생성 콘텐츠) 게임이다. 업계 최초로 업그레이드 가능한 캐릭터와 NFT를 100% 온체인으로 구축한다. 앞서 지난 5월과 8월 각각 100명, 300명을 상대로 클로즈베타테스트(CBT)를 진행했으며 6월과 8월, 각각 다른 몬스터 신체 부위가 담긴 'NFT 블라인드 박스' 총 1200개를 완판했다. 또한 현재까지 알파비트, y2z벤처스, 크립토스, FBG캐피털, 스트랫필드, 프린시플 벤처스 등의 블록체인 전문 투자기관들로부터 총 1700만 달러 규모의 투자금을 유치했다.아치루트의 공식 게임은 이달 중 나올 예정이다. 더크 CMO는 "10월 중순 아치루트의 메인넷 버전을 출시할 계획"이라며 "IOS, 안드로이드 모두 플레이가 가능하다"고 밝혔다. 이어 "우리의 게임은 매우 혁신적이고 흥미로운 요소가 많다. 덕분에 이용자들은 단순한 토크노믹스를 떠나 게임 자체를 즐기게 될 것"이라며 자신감을 내비쳤다.그는 최근 게임파이 프로젝트들의 문제가 오직 돈을 벌기 위한 P2E(Play to Earn) 구조에만 집중하고 있는 것이라고 봤다. 더크 CMO는 "작년부터 게임파이 업계를 꾸준히 지켜봐왔지만 그저 재정적인 부분에만 초점을 맞춘 게임들이 많다"라며 "사람들은 진정으로 게임을 즐기지 않고, 마치 일처럼 게임을 하게 된다. 그런 게임은 지속 가능할 것으로 보지 않는다"고 지적했다.반면 아치루트는 업계 최초로 대화형 인터랙티브 NFT를 도입하고, 이용자가 수백개의 NFT 부품을 조합해 자신만의 몬스터를 커스터마이징하고 새로운 기술·버프를 발현할 수 있는 등 매력적인 특징들을 담아 차별화에 나섰다. 즉 수입 발생 뿐만 아니라 게임 플레이의 '즐거움'에도 초점을 맞췄다는 것이다.또한 NFT 프로토콜 EIP-4985, BEP-129 등의 기술력을 뒷받침했다. 이들은 유저의 창의성과 게임 플레이의 유연성을 위해 고안된 것으로, 모든 메타데이터가 마켓플레이스에 진입할 때 온체인으로 기록돼 그 성능·속성 등을 보호한다는 설명이다.더크 유안(Dirk Yuan) 아치루트(ArchLoot) 최고마케팅책임자(CMO)가 아치루트 게임을 직접 시연하고 있다. / 사진=양한나 블루밍비트 기자더크 CMO는 지난달 28~29일 열린 아시아 최대 블록체인 컨퍼런스 토큰2049(TOKEN2049)에 참석해 아치루트 공식 출시의 홍보에 나서고, 다른 게임 길드들과 만남을 가지기도 했다. 특히 길드는 이용자 유치 등 블록체인 게임의 성공에 있어 매우 중요하다는 설명이다.그는 "우리가 웹3 게임 공간에서 가장 흥미롭고 재미있는 게임을 빠르게 만들고 있다는 것을 세계에 알리기 위해 토큰2049에 참가했다"라며 "아프리카, 말레이시아, 일본, 타이완, 베트남, 필리핀 등 전 세계 길드들을 만나기도 했다"고 말했다. 더불어 한국 시장에 대한 기대감도 드러냈다. 더크 CMO는 "한국에 있는 여러분이 웹3 게임에 관심이 있다면 우리의 생태계에 들어오는 것을 환영한다"라며 "우리는 한국에도 팀이 있고, 한국 버전의 게임도 있으며 CBT 당시 지원자 절반 이상이 한국 사람이었다"고 전했다. 한편 올해 시장이 좋지 않았던 만큼 크게 두각을 나타내는 게임파이가 등장하지 않았으나 향후 유망한 프로젝트들이 나타날 것으로 전망했다. 더크 CMO는 "토큰2049에 참가한 프로젝트들 대부분은 작년에 나온 것들로, 올해 새로운 프로젝트가 많이 출시되지 못 한 것으로 보인다"면서도 "앞으로 1~2년 안에 또 다른 강력한 프로젝트가 나올 수 있다고 본다"고 말했다. 그는 "현재 수많은 트리플A 프로젝트들이 개발 중인 것으로 안다"라며 "보통 개발 주기가 3~5년이 소요되는 만큼 우리는 인내심을 갖고 기다릴 필요가 있다"고 설명했다. 이어 "여전히 웹3 게임 산업의 공간은 많이 비어 있고, 새롭게 진출할 수 있는 기회가 많다. 또 그만큼 능력 있는 개발자들과 이용자들이 필요하다"라며 "위메이드와 같이 많은 대형 웹2 게임사들이 웹3로 사업을 확장하고 있으며 향후 중국의 대형 게임 제작 스튜디오 5곳이 추가로 진출할 것으로 전망된다"고 밝혔다.  &lt;블록체인·가상자산(코인) 투자 정보 플랫폼(앱) '블루밍비트'에서 더 많은 소식을 받아보실 수 있습니다&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>카카오만 먹통? 은행도 5년간 400회 넘는 전자금융사고 발생</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002649334?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>시중은행 247회로 가장 많아피해복구만도 한 달 넘어지난 17일 오전 경기도 성남시 분당구 SK C&amp;C 판교캠퍼스 카카오 데이터센터 화재 현장에서 경찰과 국립과학수사연구원, 소방당국, 전기안전공사 등 유관 기관 관계자들이 합동 현장감식을 진행하고 있는 가운데 카카오T 택시가 정차되어 있다. ⓒ데일리안 홍금표 기자[데일리안 = 이호연 기자] 지난 15일 카카오톡 서비스 중단으로 국가적 혼란이 발생한 가운데, 금융사의 전자금융사고도 빈번히 발생하는 것으로 밝혀져 대응책 마련이 시급하다는 지적이다.19일 국회 정무위원회 양정숙 의원이 금융감독원으로부터 제출받은 자료에 따르면, 2017년부터 2022년 7월까지 우리나라 13개 은행(시중은행, 특수은행, 인터넷은행)에서 발생한 전자금융사고는 총 421회로 집계됐다. 이중 28회는 장애 지속시간이 만 하루를 넘겼다.국민, 우리, 신한, 하나, SC, 씨티 등 6개 시중은행에서 발생한 사고 건수는 총 247회였다. 전체 사고의 58.6%, 은행별 평균 41회 발생한 것이다. 인터넷뱅크 105회, 특수은행 69회에 비해 크게 높았다.시중은행 중에서는 우리은행 사고가 72회로 가장 많았다. 이어 신한은행 44회, SC제일은행 43회, 하나은행 34회, 국민은행 31회, 씨티은행 23개 순으로 뒤를 이었다.인터넷은행인 케이뱅크, 카카오뱅크, 토스뱅크에서는 총 105건이 발생해 은행별 평균 35회 발생했다. 개별 은행별로는 카카오뱅크가 52회, 케이뱅크 37건, 토스뱅크 16회였지만, 토스의 경우 2021년부터 2022년 7월까지 채 2년도 안된 수치여서 많은 편이라는 분석이다.특수은행으로 분류된 산업은행, IBK기업은행, NH농협은행, 수협은행에서는 사고 건수가 총 69회였다. 은행 평균 17회였다. 특수은행 전체적으로는 사고건수가 적은 편이지만, 산업은행 사고가 32회로 전체의 46.3%를 차지해 가장 빈번했다.연도별 총 사고발생 건수는 2017년 68건에서 2018년 107건으로 57.3% 증가했다. 이후 2019년에는 54회로 감소했으나, 2020년부터 다시 증가세를 나타내고 있다. 2020년 67회로 전년대비 약 15% 증가했고 2017년에는 76회로 증가, 올해 7월까지 49회로 작년에 비해 더 늘어날 것으로 예상된다.전체 사고 421회 중 복구되기까지 소요된 시간이 24시간 이내인 경우가 393회로 93.3%에 해당됐다. 24시간 초과된 사고는 28회 6.7%로 비교적 적은 편으로 나타났다.그러나 24시간 이상 소요된 사고 28건 중 20회가 시중은행에서 발생했다. 이중 10일 이상 지속 된 사고도 6건이나 되었다. 특히 우리은행은 2018년 정보유출 사고로 인해 ‘인터넷뱅킹 대량 부정접속 발생’ 사고는 복구에만 33일 걸려 최장 시간을 기록했다. 하나은행도 2017년 프로그램 오류로 인해 ‘금리 감면 누락 발생’ 사고가 생기면서 복구시간에 27일이나 소요됐다.양정숙 의원은 “은행 사고가 매년 계속 이어지고 있고 원상복구에 최장 한 달넘게 소요되는 동안 국민 불편은 이루 말할 수 없을 것”이라며 “국민이 입었을 피해에 대한 보상과 확실한 재발방지 대책이 제대로 수립되도록 금융감독 당국의 역할이 중요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>전통 은행앱 치고 올라오는데…카카오뱅크, 화재로 발길까지 '뚝'</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004766382?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>카뱅앱 실사용자수 10% 감소토스 175만 늘 때 52만 증가 그쳐KB·신한·우리銀앱도 맹추격데이터센터 화재에 따른 카카오 서비스 마비 사태로 홍역을 치르고 있는 카카오뱅크의 실사용자수 증가세가 올 들어 주요 은행앱 가운데 가장 둔화한 것으로 나타났다. 토스가 월 1400만 명에 가까운 실사용자를 확보해 독주하는 가운데 전통 은행의 모바일앱 실사용자도 큰 폭으로 늘며 2위인 카카오뱅크를 맹추격하고 있다. 특히 카카오 데이터센터 화재 이후 카카오뱅크 실사용자수가 눈에 띄게 줄어든 것으로 나타났다.앱 데이터 분석회사 와이즈앱에 따르면 토스의 지난달 월간활성이용자수(MAU)는 1379만 명으로, 2위인 카카오뱅크(1236만 명)보다 100만 명 이상 많았다. KB스타뱅킹(1045만 명)과 신한쏠(811만 명), NH스마트뱅킹(755만 명), 우리WON뱅킹(619만 명) 등 전통 은행앱이 카카오뱅크를 추격 중이다.증가세를 보면 토스가 독주하는 모양새다. 토스의 MAU는 올초 대비 175만 명 늘었다. 같은 기간 카카오뱅크의 MAU는 52만 명 증가하는 데 그쳤다. KB스타뱅킹(100만 명)과 우리WON뱅킹(99만 명)이 카카오뱅크를 따라잡는 추세다.반면 최근 신한뉴쏠로 바뀐 신한은행의 신한쏠 MAU는 올초보다 57만 명 증가하는 데 머물면서 다른 은행 앱에 비해 증가세가 둔화한 것으로 나타났다. 농협은행의 NH스마트뱅킹 MAU는 오히려 23만 명 줄어들었다.카카오톡 마비 사태가 터진 지난 15일 카카오뱅크 실사용자수는 353만4807명이었는데 1주일 뒤인 22일 310만2703명으로 급감했다. 16일과 23일을 비교하면 354만8540명에서 294만6698명으로 10% 이상 줄어든 것으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>9월 5대 시중은행 평균 예대금리차 축소...공시 제도 효과?</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003310325?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>5대 은행 중 농협 1.90%p 최대은행권이 예금금리는 높이고 대출금리는 낮추는 등 금리 경쟁에 돌입하면서 지난 9월 예대금리차(대출금리와 저축성 수신금리 차이)가 공시제도 도입 석 달 만에 축소된 것으로 나타났다.20일 은행연합회에 따르면 지난달 취급액 기준 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예대금리차는 평균 1.20% 포인트로 나타났다. 8월 취급액 기준 예대금리차(1.45% 포인트)와 비교하면 0.25% 포인트 축소됐다. 예대금리차 공시제도는 은행권의 과도한 ‘이자장사’를 막겠다는 취지로 지난 7월 도입됐다. 이후 8월 예대금리차 평균은 전달과 비교해 오히려 0.24% 포인트 확대됐으나 지난달 들어 축소된 것이다. 정책서민금융(햇살론뱅크·햇살론15·안전망대출)을 뺀 가계 예대금리차도 평균 1.36% 포인트로 전달과 비교해 0.03% 포인트 줄었고, 가계 예대금리차도 평균 1.50% 포인트로 축소되긴 했지만 0.01% 포인트 줄어 미미했다.5대 시중은행 가운데 NH농협은행이 지난 8월에 이어 지난달에도 가계 예대금리차(1.90% 포인트)가 가장 컸다. 우리은행 1.67% 포인트, 신한은행 1.54% 포인트, KB국민은행 1.20% 포인트로 뒤를 이었고, 하나은행이 1.18% 포인트로 가장 적었다. 정책서민금융을 제외한 가계 예대금리차도 NH농협은행이 1.85% 포인트로 가장 컸다.전체 은행 중에서는 8월과 마찬가지로 전북은행의 가계 예대금리차가 7.38% 포인트로 가장 컸다. 인터넷은행 중에서는 토스뱅크의 가계 예대금리차가 5.07% 포인트로 석 달 연속 가장 높았다.금융당국 관계자는 “공시 제도 도입으로 본격적인 경쟁에 돌입한 결과가 예대금리차로 나타나기 시작한 것”이라고 평가했다. 은행권에서 ‘예대금리차 1등’만은 피하자는 분위기가 형성됐고, 한국은행도 잇따라 기준금리를 올리면서 최근 5대 시중은행은 예금 금리를 4%대 중후반까지 인상했다. 그러나 대출금리도 잇따라 오르면서 생각보다 예대금리차 축소가 크지 않다는 지적도 많다. 예금금리가 오르면 은행의 자금 조달 비용도 오르고, 대출금리의 기준이 되는 코픽스(COFIX·자금조달비용지수)를 끌어올리기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>대출 비교 서비스 뛰어드는 카드사…2금융권 대출만으로 '한계'</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000306967?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[앵커]계속된 금리 인상에 이자 부담이 커지자, 차주들은 어떻게 하면 더 낮은 금리로 대출을 받을 수 있을지가 관심입니다.이에 따라 핀테크 업체들의 대출 비교 서비스가 주목을 받고 있는데요.이 시장에 카드사들도 뛰어들고 있다고 합니다.그런데 대출 상품 비교가 되는 금융사가 2금융권에 국한돼 있어 한계에 부딪힐 수밖에 없다는 지적입니다.이한승 기자, 카드사도 대출 비교 서비스를 하고 있나 보죠?[기자]일부 카드사들이 이미 서비스하고 있고, 여기에 KB국민카드도 서비스를 준비 중입니다.오는 21일까지 개발용역과 관련된 입찰 접수를 받고 있습니다.정확한 서비스 개시 시점이 확정되지 않아 제휴 금융사도 아직 정해지진 않았습니다.이미 대출 비교 서비스를 제공하고 있는 카드사들의 경우 각 사별로 10여 개 금융사만 제휴되고 있고요.시중은행보다는 저축은행이나 캐피탈사와 제휴돼 있는데요. 국민카드도 크게 다르진 않을 것으로 전망됩니다.[앵커]핀테크 업체들의 서비스는 어떻죠?[기자]토스나 카카오페이, 핀다 등 핀테크 업체들은 시중은행을 포함해 50~60개 금융사의 대출 상품을 비교해줘서 인기를 끌고 있습니다.2020년 17만여 건이던 3사의 대출 중개 건수는 지난해 81만여 건까지 폭증했는데요.올해도 상반기까지의 실적만으로도 지난 한 해 실적에 육박하고 있을 정도입니다.카드사 관계자는 대출 비교 서비스에 대해 "큰 수익을 보고자 하는 게 아니라, 고객에게 다양한 서비스를 제공하는 차원"이라고 설명했습니다.SBS Biz 이한승입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>행안부, 마이데이터 활용 본인정보 제공지원센터 개소</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271740?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>행정안전부는 공공 마이데이터 활용을 촉진하기 위해 한국지능정보사회진흥원(NIA)에 ‘본인정보 제공지원센터’를 개소한다고 25일 밝혔다.더불어 육군 인사사령부, 한국전력공사, 롯데카드 등 15개의 행정․공공기관 및 민간기업과 함께, 공공 마이데이터 서비스 공동 추진을 위한 업무협약식도 체결한다.공공 마이데이터는 정보 주체인 국민의 요구에 따라 행정·공공기관이 보유한 본인정보를 본인 또는 제3자에게 제공하는 서비스이다.행정안전부2021년 2월 시범서비스를 개시한 이후, 학자금지원 신청, 신용카드 발급 등 공공·금융 분야의 52종 서비스를 제공하고 있다. 지금까지 2억 건 이상의 제출서류를 간소화해 국민 편익을 도모하고 있다.행정안전부는 이용 분야와 이용량이 확산되고 있는 공공 마이데이터 서비스의 안정적 운영과 고객 문의에 체계적으로 대응하기 위해, 한국지능정보사회진흥원(이하:진흥원)을 공공 마이데이터 전문기관으로 지정하고 NIA 내에 ‘본인정보 제공지원센터’를 설치한다.본인정보 제공지원센터는 공공 마이데이터 시스템 고도화, 본인 행정정보 보유기관 및 이용기관간 업무 지원, 공공 마이데이터 서비스 표준화 및 기술지원 등을 담당하게 된다.개소식에는 한창섭 행정안전부 차관과 황종성 진흥원 원장 등 주요인사가 참석하여 현판식을 가질 예정이다.협약기관은 강원도, 육군 인사사령부, 한국전력공사, 공무원연금공단, 국민연금공단, 서민금융진흥원, 한국노인인력개발원, 한국무역보험공사, 한국주택금융공사, 한국신용정보원, 토스뱅크, IBK기업은행, KB국민카드, 나이스평가정보, 롯데캐피탈 등이다.이번 협약을 통해 행정안전부는 본인 행정정보를 원활하게 제공하고, 협약기관은 본인 행정정보를 활용하여 서비스를 제공하여, 공공 마이데이터 서비스 활성화에 필요한 정보들을 교류하고 협력한다.업무협약을 통해 향후, 육군 인사사령부의 장교․군무원 모집에 제출하는 병적증명서 등 구비서류를 관공서 방문을 통해 직접 발급할 필요 없이 공공 마이데이터 서비스로 편리하게 제출할 수 있게 된다.한국전력공사에 전기요금 복지할인 신청 시 대상자 확인에 필요한 장애인증명서, 차상위계층확인서 등 8종 구비서류를 공공 마이데이터 서비스를 이용하여 편리하게 제출할 수 있게 된다.정책모기지, 주택연금 등 약 100만 명이 이용하는 주택금융상품 자격요건 검증 서비스를 제공하는 경우에도 국민기초생활수급자증명서 등과 같은 종이서류를 발급·제출할 필요 없이 한 번에 서비스 신청이 가능하다.한창섭 행정안전부 차관은 “본인정보 제공지원센터 개소를 통해 국내를 대표하는 정보화 전문기관의 경험과 기술력을 공공 마이데이터 서비스에 적용할 수 있게 되었다”라며, “행정안전부는 공공 마이데이터 서비스를 더욱 확대해 디지털플랫폼정부 구현에 이바지할 수 있도록 노력하겠다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>카카오처럼 먹통 될라…해외주식 거래 '경고등'</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005033223?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>국내주식처럼 백업의무 없어중소형 증권사 이원화 '미흡'투자자 보호 위해 개선 필요국내 중소형 증권사들의 서학·중학개미 매매 시스템이 최근 발생한 카카오 먹통 사태와 같은 사고에 취약한 것으로 나타났다. 먹통 시스템을 대체할 방법이 없어 거래를 못하게 된다는 얘기다. 20일 윤창현 국민의힘 의원실이 금융감독원으로부터 제출받은 자료에 따르면 일부 증권사들이 해외 주식 주문 시스템에 대한 이원화(백업)를 갖추지 않은 것으로 나타났다. 국내 주식의 경우 주문 시스템에 대한 이원화가 필수인 반면, 해외 주식은 이 같은 의무 규정이 없는 것도 문제란 지적이 나온다.국내 증권사는 해외 주식 거래를 위해 해외 증권사와 계약을 맺는다. 해외 증권사 A사와 거래 계약을 맺더라도 A사에 문제가 생길 경우에 대비해 해외 증권사 B사와도 계약을 체결하는 것이 투자 안전망 확보를 위해 필요하다. 금융감독원 자료에 따르면 일부 중소형 증권사는 카카오톡 먹통 사고와 같은 상황이 발생했을 때 주거래 해외 증권사를 대체할 백업 증권사가 없는 것으로 나타났다. 키움증권의 경우 미국 주식 주문 시스템에 대한 백업은 있지만 중국·홍콩·일본 주식에 대한 백업은 없다. 다올투자증권과 DB금융투자도 중국·홍콩에 대한 백업이 없고, 이베스트투자증권은 중국에 대한 백업이 없다. 이 밖에 신영증권, 유진투자증권, 토스증권, 하이투자증권, 리딩투자증권, SK증권은 미국을 포함한 모든 해외 주식 주문에 대한 백업이 아예 없는 것으로 집계됐다.백업을 갖추지 않으면 주거래 해외 증권사의 브로커에 문제가 생길 경우 해외 주식 매매 서비스가 일시 중지된다. 실제로 IBK·다올투자증권은 지난 6월 미국 현지 브로커 계약을 맺고 있는 미국 LEK증권의 서비스 정지로 모바일트레이딩시스템(MTS)과 홈트레이딩시스템(HTS)을 통한 주문이 잠정 중단됐다. 이후 8월에서야 매매 서비스가 재개됐고 IBK·다올투자증권은 서둘러 미국 주식에 대한 백업을 갖췄다. 다른 증권사들도 "현재 해외 주식 주문 시스템에 대한 백업을 검토·준비하고 있다"고 답했다. 해외 주식의 시세 조회 시스템에 대한 백업은 대부분 증권사에 없는 것으로 파악됐다. 증권사 27곳 가운데 이베스트투자증권, 카카오페이증권, 현대차증권만 시세 조회 시스템에 대한 백업을 갖추고 있다. 국내 주식도 주문 시스템의 백업만 필수이고, 시세 조회 시스템의 백업은 권장 사항이다.윤창현 의원은 "보안과 안전 등 투자자보호 제도는 국내 주식과 해외 주식 투자에 동일하게 적용될 필요가 있다"며 "특히 해외 주식 백업은 시세 조회와 주문 시스템을 제공하는 곳이 아닌 다른 제3의 회사에 맡겨 안전성을 높일 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[국감2022] 금융권 IT 보안 예산·인력 감소··· “금융판 ‘카카오 사태’ 올 수도”</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002135238?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 지난 5년간 금융권의 정보기술(IT)에 대한 투자가 감소한 것으로 나타났다. 강병원 의원(더불어민주당)은 ‘금융권판 카카오 사태’가 발생할 수 있다고 우려를 제기했다.   24일 국회 정무위원회 소속 강병원 의원은 금융감독원으로부터 제출받은 ‘금융권 IT 보안예산 및 인력 현황’을 바탕으로 2017년 대비 2021년 금융권의 IT 보안예산·인력 비중이 감소했다고 꼬집었다.   구체적으로 IT 예산 편성액 대비 정보보호예산 편성액 비중, 또 IT 인력 대비 정보보호 인력 비중이 감소했다는 지적이다.    강 의원에 따르면 은행의 IT 보안 비중은 2017년 11.9%에서 2021년 10.9%로 감소했다. 저축은행은 29.5%에서 26.5%, 증권은 15.4%에서 13.3%로, 생명보험은 13.7%에서 9.3%, 손해보험은 13.6%에서 12.1%, 상호금융은 21%에서 13%로 전반적인 감소세를 보였다.   상호금융을 제외하면 전 분야의 IT 보안 인력도 줄었다. 은행 9.3%에서 9%, 저축은행 41.1%에서 34.5%, 증권 12.7%에서 9.5%, 생명보험 10.5%에서 9.7%, 손해보험 9%에서 8.8% 등이다.   특히 IT 보안 예산 편성액이 낮은 것은 전북은행, 제주은행, 광주은행, 경남은행, 토스뱅크 등 순이다. 보안 인력이 적은 것도 이들 기업으로 나타났다.    강 의원은 “카카오 사태의 교훈은 사실상 국가 기간 서비스로 작동하는 IT 기업이라면 최고 수준의 인력과 예산을 확보해 재해에 대비했어야 한다는 것”이라며 “국민의 재산을 안전히 관리할 책임이 있는 금융권 역시 최고 수준의 인력과 예산을 확보할 의무가 있다”고 말했다.   이어서 “그러나 현재 금융권의 보안 인력과 예산 비중은 모두 감소하고 있다. 금융당국은 가이드라인 수준에 그치는 보안 예산과 인력의 비중을 확충하기 위한 대책을 내놓고 만일의 사태에 철저히 대비해야 한다”고 부연했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>앱토스 NFT 시장 열기 후끈…'솔라나 킬러' 떴다</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006423575?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>메타 출신 개발진이 만든 블록체인 앱토스, NFT 시장도 빠른 성장세앱토스 NFT 마켓 론칭 기간 동안 솔라나 NFT 거래량 줄어앱토스 NFT 마켓플레이스 토파즈. (토파즈 홈페이지 캡처)(서울=뉴스1) 김지현 기자 = 메타(구 페이스북) 출신 개발진이 만든 블록체인으로 주목을 받은 앱토스가 최근 대체불가능토큰(NFT) 시장에서도 빠른 성장세를 보이고 있다.불안정한 거시 경제 상황으로 인해 NFT 시장의 유동성이 크게 떨어진 가운데서도 앱토스 NFT 컬렉션 중 일부는 크게 주목 받으며 유동성 측면에서 이더리움과 솔라나 등의 유명 NFT 컬렉션을 넘어서고 있다.27일(현지시간) 디스크립트 등 외신 매체에 따르면 앱토스는 최근 NFT 시장에서 '솔라나 킬러'로 불리면서 솔라나 NFT 거래자들의 관심과 자금을 앱토스 쪽으로 끌어오고 있다.데이터 분석 업체 난센에 따르면 솔라나의 NFT 거래량은 지난 30일 간 308만솔라나에서 208만솔라나로 약 33% 감소했다.특히 분석 플랫폼 듄에 따르면 대표적인 솔라나 NFT 마켓플레이스로 불리는 매직 에덴(MAGIC EDEN)의 거래량은 지난 며칠 동안 하락 추세를 보였다. 특히 지난 21일 10만700솔라나였던 거래량이 24일에는 5만8400솔라나까지 뚝 떨어졌다.이는 이달 셋째주 론칭한 앱토스의 NFT 마켓플레이스의 영향을 받아 감소한 것으로 해석된다. 앱토스 초기 NFT 마켓플레이스 중에서는 토파즈와 블루무브가 높은 거래량으로 주목을 받고 있는데 이 중 토파즈가 거래량 상위 컬렉션을 더 많이 보유하면서 대표적인 앱토스 NFT 마켓플레이스로 떠오르고 있다.토파즈의 가명 설립자 0xclickbait에 따르면 토파즈는 지난 18일 출시 이후 이날까지 거래량 546만달러(약 78억원)를 기록했다.앱토스 몽키즈(Aptos Monkeys) NFT 프로젝트. (앱토스 몽키즈 홈페이지 캡처)NFT 컬렉션별 거래량을 봐도 앱토스의 초기 NFT 열풍은 뜨겁다. 토파즈 데이터에 따르면 앱토스 NFT 시장 내 거래량 선두는 앱토스 몽키즈(Aptos monkeys)다. 앱토스 몽키즈는 지난 26일 오후에 출시됐는데 출시 직후 24시간 내 140만달러의 거래량을 보이면서 폴리곤, 이더리움, 솔라나, 아발란체 등 블록체인에 올라있는 유명 NFT 컬렉션들의 거래량을 앞서기도 했다. 토파즈 내 거래량 2위인 앱토밍고(Aptomingos)도 초기 앱토스 NFT 시장에서 인기를 끌고 있다.디스크립트는 "앱토스의 초기 NFT 시장 열풍이 지속될지, 다시 솔라나의 NFT 강세가 시작될지는 두고 볼 일이다"라면서도 "앱토스 NFT의 강세 모멘텀이 형성되고는 있다"라고 진단했다.다만 NFT 시장이 형성된 초기에는 관련 NFT 프로젝트들이 우후죽순으로 생겨나는 경향이 강하기 때문에 NFT 거래 시 급격한 변동성에 유의해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>[출근길money] 대출기간 늘려 월 유동성 확보하세요</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004917641?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 토스뱅크가 대출자가 언제든 대출 상환 기간을 연장해 매월 부담하는 원리금을 줄일 수 있도록 하는 서비스를 시작한다.   토스뱅크는 ‘토스뱅크 신용대출’ 고객을 위해 ‘매달 내는 돈 낮추기’ 서비스를 시작한다고 24일 밝혔다. 토스뱅크에서 대출받은 고객 가운데 상환 기간이 10년 미만이며, 원금과 이자를 매달 함께 갚아나가는 ‘원리금 균등 상환’ 고객이 대상이다.   고객들은 서비스 신청과 함께 곧바로 연장된 기간을 적용 받는다. 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이다.   가령 올 3월 연 3.5% 금리로 3년 만기, 7000만원을 대출받은 고객 A씨는 6개월 새 급격히 대출 금리가 상승함에 따라 매달 원리금으로 216만원(연 5.46% 금리 적용)을 부담해야 했다.   A씨가 ‘매달 내는 돈 낮추기’ 서비스를 이용해 대출 상환 기간을 7년으로 늘릴 때 월 상환액은 90만8000원(연 5.62% 금리 적용)이 된다. 월 고정비용 부담이 절반 이하로 줄어드는 셈이다.   특히 고객들은 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산 금리에도 변동이 없다. 단 고객이 신청한 기간에 따라 발생하는 위험 비용인, ‘유동성 프리미엄’은 최소 0.08%p~최대 0.2%p가량 반영될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>SW산업협회 '1조 클럽' 17곳으로 늘어…카겜·두나무·빗썸 합류</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013534575?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>연매출 300억 이상 SW기업 371곳…매출 총액 112조 5천억'2022 SW 조 클럽' 신규 합류한 회사들[연합뉴스 자료사진](서울=연합뉴스) 임성호 기자 = 카카오게임즈와 두나무, 빗썸코리아, KG이니시스가 지난해 매출 1조원을 넘기면서 한국SW(소프트웨어)산업협회의 'SW조클럽'에 새로 포함됐다.    한국SW산업협회는 27일 서울 송파구 IT벤처타워에서 기자간담회를 열고 지난해 매출액 기준으로 조사한 '2022년 SW천억클럽'을 발표했다.     협회는 2013년부터 매년 SW를 주요 사업으로 하는 기업들의 전년 매출액, 종업원 수 등 주요 경영지표를 조사해 매출액 구간별로 SW조클럽, SW5천억클럽, SW1천억클럽, SW500억클럽, SW300억클럽 등 'SW천억클럽'을 발표하고 있다.     연 매출이 1조원 이상인 '조 클럽'에 속한 SW기업은 17곳으로, 카카오게임즈 등 4곳이 새로 포함됐다.     SW조클럽에는 SK, 네이버, 카카오, 삼성SDS, NHN, 엔씨소프트, 넷마블, 넥슨코리아, 크래프톤, LG CNS, 현대오토에버, 우아한형제들, 다우데이타도 포함됐다.    SW5천억클럽에는 카카오엔터테인먼트, 토스 운영사 비바리퍼블리카, KT DS, SK쉴더스, CJ올리브네트웍스 등이 새로 이름을 올렸다.    작년 연 매출이 300억원 이상인 SW기업은 371곳으로 집계됐다. 2020년 기준 326곳에서 약 13.8% 늘었다. 이들 기업의 매출 총액은 112조 5천269억 원으로 전년 86조9천376억 원) 대비 29.4% 증가한 것으로 나타났다.한국SW산업협회 '2022년 SW천억클럽' 발표 기자간담회[촬영 임성호]한국SW산업협회는 올해 조사에서 주 업종 분류체계를 일부 변경했다. '인력자원공급' 기업 대부분이 시스템 통합 및 유지관리 사업을 함께 운영하는 점을 고려해 'IT서비스'로 통합했다. '패키지SW'는 소프트웨어 진흥법 표기 등에서 일반적으로 통용되는 '상용SW'로 명칭을 바꿨다.    협회는 또 별도 조사를 통해 작년 연 매출 300억 원 이상의 SW유통 기업 수를 25개로, 매출 합계는 2조 1천816억 원으로 집계했다고 밝혔다.    협회는 그간 유통을 통해 올린 매출과 기술 기반의 SW개발로 발생한 매출을 구분하기 위해 SW유통 기업을 조사 대상에서 제외했지만, 최근 기술 및 서비스 변화에 따라 조사를 시작했으며 변화 추이를 관찰하겠다고 설명했다.     조준희 회장은 "코로나19 상황에도 불구하고 SW산업은 전통산업부터 신산업을 아우르며 중요성을 나타내고 있다"며 "SW산업의 저변을 확대하고 SW의 가치를 더욱더 높이기 위해 노력할 것"이라고 말했다.[한국SW산업협회 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>세종대, ‘제3회 SW코딩역량평가’ 개최… 코딩 기술 평가해 인증서 수여</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003310197?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>‘제3회 SW코딩역량평가 인증시험’ 포스터세종대학교 산학협력단 SW역량평가인증원은 다음달 5일 세종대 대양AI센터에서 ‘제3회 SW코딩역량평가(토스크)’를 개최한다고 20일 밝혔다.토스크는 SW코딩 능력 향상과 저변 확대를 위해 마련됐다. 세종대는 지난 4월 개최된 제1회 토스크에서 국내 대학 처음으로 등급별 SW코딩 인증서를 수여했으며, 지난 7월 제2회 시험에도 같은 인증서를 줬다.세종대 관계자는 “토스크는 논리적인 사고와 문제해결 능력을 바탕으로 코딩 기술을 평가한다”며 “4차 산업혁명에서 가장 중요한 것이 컴퓨터 언어인 코딩 능력으로, 토스크 취득은 국내·외 4차 산업혁명을 주도하는 주요 소프트웨어기업 취업에 도움이 될 것”이라고 말했다.세종대는 코딩을 전교생에게 의무 교육한다. 토스크는 1~2급과 3~5급을 선택할 수 있다. 1~2급은 논리적 사고와 알고리즘 구현이 가능한 전공자 수준의 문제로 구성돼 있고, 3~5급은 코딩기술로 문제를 해결할 수 있는 비전공자 수준의 문제로 이뤄졌다.토스크는 오프라인으로 진행한다. 사용언어는 파이선(Python)과 C를 선택할 수 있다. 채점은 세종대에서 개발한 온라인코딩평가시스템(OJ)에서 실시간으로 진행된다. 시험은 다음달 5일 오전 10시 30분부터 12시까지 90분간 진행된다. 응시자는 오전 10시부터 10시 25분까지 고사장에 입실하면 된다.시험은 초·중·고, 대학생, 일반인 등 누구나 응시할 수 있다. 신청은 선착순으로 100명까지 할 수 있으며, 토스크 홈페이지(tosc.kr)에서 가능하다. 응시료는 1~2급은 1만 5000원, 3~5급은 1만원이다.자세한 신청 방법과 샘플 문제는 토스크 홈페이지나 SW역량평가인증원(이메일 sw1@sejong.ac.kr·전화 6935-2416, 2535)으로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>‘짧고 굵게 굴리자’ 눈치 빠른 예금환승족 사로잡은 ‘중도해지 예금’</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004921180?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>‘예금 갈아타기’ 시대11월 한은 추가 기준금리 인상 가능성 염두중도해지해도 약정이율 주는 예금 인기인터넷은행, 일제히 파킹통장 금리 인상키도 31일 서울 시내의 한 금융기관에 상품 안내가 게시돼 있다. 2022.10.31/뉴스1 [파이낸셜뉴스]‘오늘 금리가 가장 낮은’ 시기가 도래하자 중도해지 시에도 고금리를 제공하는 특수 예금들이 각광받고 있다. 지금 1년 만기 정기예금에 가입하는 것보다 짧게 여유자금을 굴리며 기준금리가 절정에 도달했을 때까지 기다리는 것이 합리적이라는 분위기가 형성된 탓이다.   본래 정기예금은 상품마다 다르지만 만기가 얼마 남지 않았을 경우 중도해지하면 약정이율의 60% 정도밖에 받을 수 없어 타사에서 더 높은 금리의 상품이 나오더라도 유지하는 것이 더 이득이었다. 그러나 한국은행이 7월, 10월 모두 빅스텝(금리 0.5%p 인상)을 밟고 다음 달에도 기준금리를 인상할 것이라는 분석이 기정사실화되자 추가 금리 인상의 혜택을 보기 위해 예·적금을 중도에 해지하는 비율이 늘고 있다. 지난 25일 기준 4대 은행의 대표 정기예금 상품의 중도해지비율은 30.6~45.7%로 지난 1월(18.2~26%)보다 두 배 가량 높아진 바 있다.    이같은 상황에서 먼저 ‘예금환승족’ 사로잡기에 나선 곳은 저축은행들이다. 우리금융저축은행의 ‘더마니드림e-정기예금’은 36개월 만기 상품이지만 중도해지 시 약정이율이 적용돼 예치기간을 정하기 어려운 여유자금을 예치하기에 적합하다. 최대 연 4.50% 금리가 적용되며 만기 전 3번까지 분할 해지가 가능하다.   하나저축은행의 '내맘대로 중도해지 정기예금'도 2년 만기 상품이지만 중도해지한 경우에도 연 4.20%의 기본 금리를 제공한다. 예치 기간이 3개월 이상 6개월 미만이라면 연 3.8%가 적용돼 사실상 3개월 만기에 연 3.8% 금리를 받는 단기 예금 효과를 누릴 수 있다. 6개월 이상 맡기면 설령 2년을 채우지 않아도 연 4.2%의 금리가 적용된다.   OK저축은행의 ‘중도해지OK정기예금369’ 역시 중간에 해지해도 가입 당시 금리가 적용된다. 3개월 변동금리로 운영되는 해당 상품의 금리는 연 4.0%다. 다올저축은행이 출시한 ‘Fi 자유해지 정기예금’ 또한 중도해지 시에 페널티가 없다. OK저축은행의 상품과 더불어 3년 만기인 해당 상품은 비대면으로 가입할 경우 3년 만기 연 4.5%의 금리를 제공하고 있다.   파킹통장의 인기도 높다. 특히 인터넷전문은행들을 중심으로 금리를 인상 중이다. 케이뱅크는 지난 27일 파킹통장 ‘플러스박스’의 금리를 0.2%p 인상한 연 2.7%로 설정했다. 납입 최대 한도는 3억원이다. 토스뱅크도 지난 6일 ‘토스뱅크통장’의 금리를 연 2.3%로 0.3%p 상향했다. 보름 후에는 금리 적용 상한선인 1억원도 해제했다. 카카오뱅크는 19일 ‘세이프박스’의 기본 금리를 0.4%p 올려 2.6%로 인상했다. 최대 보관한도는 1억원이다.   이렇게 만기를 짧게 나눠 분산 투자할 수 있는 중도해지 예금이나 파킹통장 상품에 가입할 때는 ‘단기간 다수계좌 개설 제한’을 주의해야 한다. 대포통장 및 보이스피싱 방지를 위해 금융감독원이 도입한 해당 조항에 따라 금융권 한 곳에서 입출금 통장을 개설했다면 영업일 기준 20일 동안 타 금융기관에서 입출금 통장을 만들 수 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>위기의 '카뱅', 자영업자 대출로 승부수…'리스크 관리'는 과제</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000308175?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 카카오뱅크가 개인사업자 대출 시장에 뛰어듭니다. 장기적으로는 신상품 출시 등으로 여신 절반을 기업대출로 채우겠다는 목표도 밝혔는데, 부실 우려는 과제로 꼽히고 있습니다. 개인사업자 대출 가세…차별점은 '편의성' [이병수 카카오뱅크 개인사업자스튜디오 팀장이 27일 오전 서울 여의도 63빌딩에서 열린 기자간담회에서 개인사업자 뱅킹 서비스에 대해 설명하고 있다. (자료=카카오뱅크)]카카오뱅크는 오늘(27일) 오전 서울 여의도 63빌딩에서 기자간담회를 갖고, 자영업자 등을 대상으로 한 개인사업자 대출을 다음달 1일 출시한다고 발표했습니다. 출시될 개인사업자 신용대출의 한도는 1억원이며, 대출 금리는 26일 기준 최저 5.491%입니다. 대출 기간은 최소 1년부터 최대 10년으로, 상환 방법은 만기일시상환과 원금균등분할상환 중 선택할 수 있습니다. 중도상환해약금은 100% 면제합니다. 사업과 관련된 별도의 서류를 제출할 필요 없이 개인 신용 대출만큼이나 쉽고 빠르게 신청할 수 있다는 설명입니다. 이병수 카카오뱅크 개인사업자스튜디오 팀장은 "카카오뱅크가 중저신용자 대출 확대 등 포용금융을 통해 고신용자와 저신용자 사이의 '금리 절벽'을 메워온 것처럼, '개인사업자에게 좋은 은행을 만들자'는 방향성 아래 개인사업자의 편리성과 혜택 강화에 초점을 맞췄다"고 밝혔습니다. 앞서 경쟁사인 토스뱅크는 지난 2월에, 케이뱅크도 지난 5월 개인사업자 대출을 출시한 바 있습니다. 가장 먼저 시장에 뛰어든 토스뱅크는 출시 석달 만에 4000억원을 돌파한 데 이어, 어제(27일) 기준으로는 1조713억원까지 빠르게 몸집을 키웠습니다. 대출 한도와 상환기간, 담보가 없는 신용대출이라는 점 등에서 카카오뱅크가 내놓을 상품은 토스뱅크와 경쟁이 불가피한 상황입니다. 차별점에 대한 질문에 이병수 팀장은 "사업자들이 매년 세금 신고를 하는데, 이 부분에서 전에 없는 경험으로 개선해 드리기 위해 내부적으로 준비하고 있다"고 말했습니다.이어 "매출 관리에 대한 부분들도 많은 경쟁사들이 서비스를 제공하고 있지만 아직 불편하다"며 "고객 입장에서 굉장히 단순하고 편리하고 빠른 경험을 하실 수 있을 것"이라고 덧붙였습니다. 카카오뱅크는 내년 상반기에는 보증부 대출을 출시할 예정이며, 담보대출 역시 준비 중이라고 전했습니다. "3년 내 대출 규모·앱 활동성 1위 목표" 금리 인상기 속에 전반적인 대출 수요가 줄어드는 흐름도 나타나고 있는 가운데, 카카오뱅크는 자영업자 등이 찾는 개인사업자 대출의 시장성이 여전히 높다고 판단하고 있습니다. 한국은행에 따르면, 지난달 개인사업자 대출 잔액은 전달보다 1조8000억원 증가한 443조1000억원으로 집계됐습니다. 이 팀장은 "개인사업자 대출 수요는 충분히 있고, 지속적으로 있을 것으로 생각한다"고 말했습니다. 그러면서 "3년 이내에 가장 많은 사업자 수와 활동성을 보유한 앱이 되려고 한다"며 "장기적으로는 전체 여신의 절반 이상을 기업대출로 채우기를, 단기적으로는 전체 여신 연간 성장의 30~50% 가까이를 기업대출로 채울 수 있는 것을 단기적인 목표로 하고 있다"고 덧붙였습니다. 향후 개인사업자 대출의 성패는 카카오뱅크 전체로서도 중요할 전망입니다. 최근 카카오뱅크는 카카오 먹통 사태의 불똥이 튀며, 연쇄적으로 이미지 타격을 입었습니다.또 이에 따른 정부의 플랫폼 기업에 대한 규제 강화 전망 등으로 은행 가치를 가늠할 수 있는 주가 전망에도 먹구름이 낀 상황입니다. 지난해 상장한 카카오뱅크의 주가는 한때 9만4400원까지 뛰었지만, 어제 종가는 1만5950원으로 83%나 급락해 있습니다. '부실폭탄' 관리 과제…"신용평가모형 고도화"  이병수(왼쪽) 카카오뱅크 개인사업자스튜디오 팀장과 김진호 카카오뱅크 신용리스크모델링팀 매니저가 27일 오전 서울 여의도 63빌딩에서 열린 기자간담회에서 개인사업자 뱅킹 서비스에 대해 설명하고 있다. (자료=카카오뱅크)]카카오뱅크가 공격적인 목표를 앞세우며 개인사업자 대출에 승부수를 띄었지만, 우려의 시선도 적지 않습니다. 코로나19 상황 속 눈덩이처럼 불어나 자영업자 대출은 언제 터질지 모를 '부실폭탄'으로 꼽히고 있기 때문입니다. 이날 기자간담회에서도 연체율과 리스크 관리 등에 관한 질문이 쏟아졌습니다. 김진호 카카오뱅크 신용리스크모델링팀 매니저는 "앞으로는 금리도 오르고 연체가 발생할 수 있다"면서도 "개인 사업자 전체를 평가할 수 있는 범용 평가 모형을 운영 중이기 때문에 그런 모형이 잘 작동(워킹)할 수 있지 않을까 생각한다"고 말했습니다. 카카오뱅크는 개인사업자의 사업 역량을 다각적으로 평가할 수 있도록 신용평가모형 고도화 계획도 같이 발표했습니다. 카카오뱅크는 업종별 특화 모형 구조를 설계하고 다양한 데이터를 이에 맞게 적용해 사업자 데이터 활용성을 극대화한다는 계획입니다. 김 매니저는 "사업자 개인뿐 아니라 사업장의 정보도 최대한 많이 활용한다"며 "사업장의 매출 정보와 위치, 고객 방문 수 등을 항목으로 활용해 모형을 구성하고 있다"고 설명했습니다.  또 자금 조달 우려에 대해서도 "문제가 없을 것"이란 점을 강조했습니다. 이 팀장은 "상장을 통해 충분한 자본을 가지고 있다"며 장기적으로 대출을 늘리는 데 있어서 전혀 자금적인 문제는 없다고 확실히 말씀드린다"고 전했습니다. 카카오뱅크의 성장 방향을 살펴볼 수 있는 3분기 실적은 다음달 2일 발표될 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>금융보안원, 사이버침해 위협분석 대회 'FIESTA 2022' 개최</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271677?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카·카카오뱅크·토스페이먼츠, 금융회사 부문 수상금융보안원은 금융권에 특화된 사이버 침해위협 분석 대응 역량 강화를 위해 개최한 'FIESTA 2022'에서 우수한 성적을 거둔 참가팀에 대한 시상식을 지난 24일 개최했다고 밝혔다.FIESTA는 2018년부터 금융보안원이 개최해오고 있는 금융권에 특화된 사이버침해 위협분석 대회다.올해는 랜섬웨어, 공급망 공격, 지능형 지속 공격(APT), 악성 앱 분석 시나리오 문제와 침해대응 기본 문제로 구성해 다양한 침해사고 사례를 경험하고 위협분석 역량을 향상시킬 수 있는 문제가 출제됐다.금융회사 46개팀을 비롯해 총 195개팀, 372명이 참여해 11일 간 대회를 진행했다. 금융보안원은 올해 참가인원이 전년대비 27% 증가했다고 밝혔다.대회 결과 금융회사 부문 5팀, 대학(원) 부문 5팀, 총 10팀이 수상했다.금융보안원은 지난 24일 '피에스타 2022'시상식을 개최했다.금융회사 부문에서는 비바리퍼블리카가 최우수상, 카카오뱅크가 우수상, 토스페이먼츠가 장려상을 수상했다.대학(원)생 입상자에게는 금융보안원 입사 지원 시 우대 혜택을 제공한다.금융보안원 김철웅 원장은 “올해 대회는 금융권 정보보호 담당자와 대학(원)생들의 보다 많은 참여를 위해 상금과 수상 범위를 확대하고, 다양한 침해사고 사례를 경험할 수 있는 문제를 출제하였다”며 “향후에도 금융권 정보보호 담당자들의 침해대응 역량 향상과 금융권 정보보호 인재 발굴·양성에도 지속적으로 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스 10년 성장기 다룬 '유난한 도전' 내달 2일 출간</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013537350?sid=103</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>이승건 대표 "'철없지만 낙관적인' 신념 기여한다면 가장 큰 족적"토스 '유난한 도전'[교보문고 홈페이지 캡처. 재판매 및 DB 금지](서울=연합뉴스) 임성호 기자 = 모바일 금융 서비스 토스 운영사 비바리퍼블리카는 2011년 창업 이후 지난 10여년간 걸어온 길을 담은 책 '유난한 도전'을 다음 달 2일 출간한다고 28일 밝혔다.    책은 2011년 이승건 대표가 창업을 결심한 순간부터 토스 사용자 수가 지난해 2천만 명을 넘어서기까지의 이야기를 다룬다. 지난 1년간 이 대표를 포함해 전·현직 토스팀원 35명을 인터뷰했다. 사내 메신저에서 오간 대화와 이메일도 바탕이 됐다.    총 6장으로 구성됐다. 1장 '선을 넘는 용기'는 초기 창업 멤버가 모여 여러 실패 끝에 간편송금을 발견하기까지의 이야기다. 2장 '정성스럽게 그러나 포악스럽게'는 급격한 성장과 더불어 수익 모델을 찾아 분투한 시기, 3장 '세상에서 가장 빨리 크는 스타트업'은 금융 플랫폼으로서의 정체성을 확립하고 신용조회 등의 새로운 아이템을 성공시킨 과정을 이야기한다.    4장 '로드바이크가 불편한 이유'는 토스팀이 빠른 속도와 더 나은 품질 사이에서 갈등하며 개발을 이어간 이야기를, 5장 '위대한 도전이라는 신호'는 토스가 증권사와 인터넷 은행, PG(전자지급 결제 대행) 사업 등에 진출을 추진하는 과정을 다뤘다. 6장 '혁신에는 시작도 끝도 없다'에서는 여전히 사업과 문화 양쪽에서 실패와 도전을 거듭하며 나아가는 현재의 토스팀 이야기를 전한다.토스 '유난한 도전' 출간[토스 제공. 재판매 및 DB 금지]책은 토스가 처음으로 자체 제작한 단행본이다. 토스 브랜드커뮤니케이션팀이 기획하고 신문기자 출신인 정경화 콘텐츠 매니저가 집필했다. 판매 수익은 모두 창업 관련 커뮤니티에 기부할 예정이다.    이승건 대표는 직접 쓴 책 에필로그에서 "토스를 만들어가는 일은 그야말로 '안될 거야'라고 말하는 수많은 내외부의 선입견과 마주하는 일이었다"고 말했다.    그는 "토스의 성공이 혁신가의 DNA를 가진 수백만 미래 세대에 용기를 주고 우리 사회에 적지 않은 사람이 '조금은 철없지만 낙관적인' 신념을 갖게 해주는 데 기여할 수 있다면 토스팀이 사회에 남긴 가장 큰 족적이 될 것"이라고 덧붙였다.    북스톤. 336쪽. 1만7천원.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"모은 돈 사라진 상상만 해도 끔찍…카뱅 손절합니다" [채선희의 금융꼬투리]</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004765825?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>5년 만에 '뱅크런' 우려까지…편리함이 독 된 카뱅"믿고 이용해달라" 사과에도…손절 인증글 여전예적금 금리 1.2%p 인상…고객 달래기 나서IT 강점이라더니…전자금융사고 시중은행보다 많아카카오뱅크 판교오피스.(사진=카카오뱅크)"힘들게 번 돈을 내가 원할 때 쓸 수 없다거나, 그 돈이 없어지는 걸 상상만해도 끔찍합니다. 다른 건 몰라도 금융기관에서 시스템에 관한 위기가 생기면 전 그냥 손절합니다."(재테크 커뮤니티)"카뱅은 카카오톡과 연계돼있고 사용하기 편하긴 한데…이외에 장점이 하나도 없네요. 시중은행 대비 금리 수준도 경쟁력이 없고, 고신용자에게는 별 혜택도 없어 이참에 손절합니다."(금융투자 커뮤니티)"카뱅에 있던 투자금 6000만원, 주거래 은행으로 옮겼습니다. 괘씸합니다. 사태 터진 후 그 흔한 사과문조차 바로 안올라오더군요."(40대 직장인 A씨)은행의 대규모 예금 인출 사태를 의미하는 '뱅크런(Bank Run)'. 금융사에는 치명적인 이 단어가 1940만명의 고객을 보유한 카카오뱅크에서 등장했습니다. 실제 뱅크런 가능성은 적다는 게 업계 중론이지만, 카카오 전산센터 화재 이후 현재까지도 카뱅 고객들이 타 은행으로의 '갈아타기' 인증글을 올리고 있는 점은 우려스럽습니다.22일 금융권에 따르면 카카오뱅크(카뱅)는 예·적금 기본 금리를 최대 1.2% 포인트 인상했습니다. 카뱅은 한국은행 기준금리 인상분을 반영해 수신금리를 올렸다는 설명이지만, 최근 불안함이 커진 고객 달래기를 위한 성격도 있다는 분석입니다. 특히 하루만 맡겨도 이자를 받을 수 있는 '파킹통장'인 세이프박스 기본 금리를 0.4% 포인트나 인상한 점이 눈에 띕니다. 카뱅의 대표 상품인 26주 적금은 최고 4%의 금리를 받을 수 있고 정기예금 금리는 4.5%(1년 기준)까지 올렸습니다.모든 서비스가 정상화된 이후 카카오뱅크는 지난 17일 사과와 함께 "금융시스템은 문제가 없으며 안심하고 믿고 이용해도 된다"고 밝혔습니다. 실제 데이터센터를 서울과 경기, 부산 등에 분산 운영 중인 카뱅 입장에선, 카카오 먹통 사태로 뛴 불똥이 억울한 측면도 있을 겁니다.다만 고객이 소중한 돈을 믿고 맡기는 금융사로서의 대처는 다소 미흡했다는 지적이 나옵니다. 금융거래 오류가 일부 서비스에만 국한되었다고 하더라도 그 이유에 대한 상세한 고지를 진행하는 등 고객 불안을 곧바로 진화시키려는 노력이 부족했기 때문입니다.사진=카카오뱅크국회 정무위원회 소속 양정숙(무소속) 의원이 금융감독원에서 제출받은 자료에 따르면 최근 5년 간 카뱅에서 발생한 전자금융사고만 52건입니다. 신한은행(44건), SC제일은행(43건), 하나은행(34건), 국민은행(31건) 등 같은 기간 시중은행보다 많은 사고가 났습니다. 또다른 인터넷은행인 케이뱅크와 토스뱅크에서도 각각 37회, 16회 사고가 발생하며 적지 않은 금융사고가 났습니다. 출범한 지 1년 밖에 되지 않은 토스뱅크는 매달 1회 이상 사고가 발생한 셈입니다."인터넷은행이 출범할 때만 해도 업계에 혁신적인 메기 역할을 해줄 것으로 기대됐지만 지금은 주변 물만 다 흐려놓는 메기가 되었습니다."(시중은행 관계자)인터넷은행은 정보기술(IT)을 강점으로 혁신성과 편리함을 내세우며 고속 성장했습니다. 자본금 3000억 원으로 시작한 카뱅은 5년 만에 자본금이 2조3000억 원대로 늘며 8배 가까운 성장을 이뤘습니다. 그러나 현재는 추가 성장성에 대한 의구심에 주가가 폭락하고, 고객 불안감까지 더해져 존립 이유를 시험받고 있습니다. 강점인 IT가 오히려 신뢰도를 저해할 수 있는 독이 되는 모양새입니다.인터넷은행은 오프라인 영업점이 없어 모든 금융거래가 온라인에서 진행됩니다. 같은 전산 사고가 발생해도 시중은행 이용자들은 영업점에 달려가 문제를 해결하고 불안감을 잠재울 수 있지만, 인터넷은행 이용자들은 불안을 달랠 길이 막막합니다. 쉽게 완화되지 않은 불안감은 은행 시스템에 대한 불신으로 이어질 가능성이 높습니다. 카뱅 뿐 아니라 인터넷은행 모두 혁신 만큼 소비자 보호를 위한 정책과 시스템을 갖췄는 지 스스로 돌아봐야 할 때입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"천천히 갚으세요" 경기 불안에 대출 만기 늘려주는 은행들</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006421865?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>신용·주담대 만기 연장 흐름 지속…총이자 상승 가능성은 유의ⓒ News1 DB(서울=뉴스1) 한유주 기자 = 은행권을 중심으로 대출 만기를 연장하는 흐름이 이어지고 있다. 초기에는 고금리 시대 만기 연장으로 DSR 규제를 완화하는 효과가 주목받았다면 최근 들어 경기 불안이 고조되면서 상환 부담을 조금이라도 유예할 수 있다는 점에서 관심이 모인다. 28일 은행권에 따르면 토스뱅크는 지난 24일 원리금 균등상환 방식 신용대출의 최장 만기를 10년으로 연장했다. 원금과 이자를 매달 함께 갚아나가는 원리금 균등 상환 고객이 서비스를 신청하면, 최초 대출 기간을 포함해 최장 10년까지 상환 기간을 연장할 수 있다. 이같은 은행권의 대출 만기 연장 흐름은 금리인상기가 본격화된 올 상반기부터 시작됐다. 지난 4월부터 주요 은행, 보험사들까지 합세해 주택담보대출의 최장 만기를 40년으로 늘리더니 분할상환 신용대출의 최장 만기까지 10년으로 속속 늘렸다. 그간 시장에서 대출 만기 연장은 곧 '총부채원리금상환비율(DSR) 규제 완화' 효과로 통했다. 상환 기간이 늘면 차주가 매달 갚아야 하는 원리금 상환액은 줄어든다. DSR 규제에 따라 연간 상환해야 하는 원리금이 연소득의 40%로 제한돼 있는데, 이를 완화해 대출 한도에 여유가 생기는 셈이다.다만 만기가 늘어나는 만큼 이자의 총액이 함께 늘어난다는 점에선 우려의 목소리가 제기됐다. 고금리 상황에서 당장 매달 내야 할 원리금이 줄고 한도까지 늘 수는 있어도, 총 상환기간으로 따지면 더 많은 이자를 지불해야 하기 때문이다.  하지만 최근에는 경기 불황으로 "급한 불부터 끄고 보자"는 심리가 확산하면서, 당장의 상환부담을 줄일 수 있다는 점에도 관심이 모인다. 토스뱅크는 앞서 신용대출 최장 만기를 연장한 시중은행들과 비교해 '매달 내는 돈 낮추기' 효과를 강조했다. 토스뱅크에 따르면 올 3월 연 3.5% 금리로 3년 만기, 7000만 원을 대출받은 차주 A씨는 금리가 오르면서 연 5.4%를 적용해 매달 원리금으로 216만원을 부담해야 했다. 하지만 이 서비스로 만기를 7년으로 늘리면, 만기 연장으로 금리가 연 5.62%로 올라도 매달 부담하는 상환액은 90만8000원으로 낮아진다. 토스뱅크는 서비스를 출시하며 "급격한 금리 상승과 인플레이션 등 고객의 가계 부담이 크게 늘어나는 가운데 월 고정 비용이 일부 상쇄된다면 어려운 시기를 이겨내는데 보탬이 될 것으로 판단했다"고 밝혔다. 총이자가 늘어나는 부담은 있지만, 당장의 상환 부담을 일부라도 덜고자 하는 차주들에게 선택지를 제시한 셈이다.  성격은 다르지만 우리은행도 26일부터 만기 일시상환 신용대출의 최장기간을 5년에서 10년으로 늘렸다. 만기 일시상환이기 때문에 DSR을 완화하는 효과는 없지만, 재약정보다 손쉬운 방법으로 대출을 연장할 수 있는 효과를 낼 것으로 보인다.금융당국 역시 당장 상환이 어려운 차주들을 위해 '상환 유예' 카드를 꺼내놨다. 현재 은행들은 주택가 6억원 이하의 1주택자 주담대 차주들이 실직·폐업·질병으로 어려운 상황에 처했을 경우 분할상환, 최대 3년의 원금상환 유예 등을 지원하고 있다. 금융위원회는 전날 내놓은 '가계 금리부담 경감책'에서 앞으로 매출액 급감, 금리상승으로 정상적인 원리금 상환이 곤란한 차주들에게도 이같은 채무조정이 적용될 수 있도록 추진하기로 했다. 한 은행권 관계자는 "상품마다 다를 수 있겠지만 만기 연장으로 총이자가 늘어나는 것을 감안하고도 당장의 고정비용부터 줄이고 싶은 수요가 있을 것으로 보인다"며 "원리금 증가분, 가계 상황 등을 고려해 판단하는 것이 좋다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>이혼 당할 판인데 '먹통' 악재까지…'카뱅' 팔아야 하나 [SML]</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004110749?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[서울경제] ?카카오뱅크의 주가가 돌연 급등하고 있습니다(10월 14일 기준). 전일 장마감 후 카카오게임즈의 자회사 라이온하트스튜디오가 상장 철회를 공시한 영향인데요. 카카오게임즈 뿐 아니라 카카오, 카카오뱅크, 카카오페이 등 그룹주가 모두 함께 반등한 덕분이죠. 연일 52주 신저가를 다시 쓰던 주가가 반등하면서 지금이 기회라고 생각하는 분들 많을텐데요. 하지만 하루 가격이 움직였다고 해서 성급히 판단하는 건 좋지 않습니다. 특히 카카오뱅크는요. 많은 증권사가 카카오뱅크의 목표주가를 낮추고 있기 때문이죠. 일부 증권사의 목표주가는 현재 가격보다도 낮습니다. 신중해야 하는 이유입니다. 이번주 서울경제머니라이브(SML)는 카카오뱅크를 향한 최근 시장의 시선을 분석해봤습니다. 이런 가운데 주말 카카오 먹통 사태까지 터지면서 주가 향방에 더욱 관심이 쏠리고 있습니다기사 맛보기1. 연초 이후 주가 70% 하락한 카카오뱅크, 14일 ‘반짝 반등’2. 후발주자도 따라잡은 혁신…"카카오뱅크 주가 애초에 너무 높았다" 의견에 힘 실려3. 금리인상도 악재, 증권사 ‘매도’ 의견도 나와…추가 투자는 신중해야지난해 8월 상장 직후 카카오뱅크는 KB금융을 누르고 시가총액 12위까지 오르며 흥행했습니다. 하지만 잠깐이었죠. 9만 원 대까지 치솟았던 주가는 공모가 3만9000원의 반절 수준인 1만6000원 수준으로 내려앉았습니다. 시가총액 상위권에 있는 대형주가 1년 사이 70% 수준의 폭락을 시현 한 것입니다. 투자자들은 갸우뚱합니다. 기존 시중은행과 다른 ‘혁신’을 가져다 줄 인터넷전문은행이었는데 아무리 하락해도 이 정도 수준은 해도 너무한 거 아닌가 하는 의문도 나옵니다. 하지만 일각에서는 애초에 처음부터 가격이 잘못됐다는 의견도 조심스럽지만 많습니다. 지난해 8월 6일 상장일 마감가(6만9800원) 기준으로 시가총액은 33조1620억 원이었는데요. 이는 금융 대장주인 KB금융(21조7052억원)이나 신한지주(20조원), 하나금융(13조원)보다 월등히 높은 수준이었죠. 증권가는 “카카오뱅크는 플랫폼”이라며 목표주가를 7~8만 원대로 제시하며 당시의 주가를 정당화했습니다. 이름이 ‘뱅크’지만 일반적인 은행과는 다른 무언가가 있다는 얘기죠.━‘카카오뱅크=플랫폼’ vs ‘카카오뱅크=은행’…누구 말이 맞나출범 당시 카카오뱅크는 당연히 기존 은행과 달랐습니다. 카카오뱅크가 플랫폼이라면 애플리케이션(앱)을 활용한 다양한 금융 연계 활동이 이뤄져야 합니다. 카카오뱅크의 대표 상품인 26주적금, 모임통장, 미니 등이 사례입니다. 지난 8월 카카오뱅크 측 발표에 따르면 7월 31일 기준 카카오뱅크의 고객 수는 1938만 명입니다. 월간 활성이용자 수는 1542만 명으로 은행 앱 중에서는 단연 1위죠. 26주적금 누적 신규 계좌수는 1000만 좌, 모임통장 이용자 수도 1000만 명을 넘어섰습니다. 콧대 높은 은행들의 진입장벽을 크게 낮추는 데 혁신 기업으로서 카카오뱅크의 공을 무시할 수는 없습니다.하지만 시간이 지나며 혁신의 효과는 희미해지고 있습니다. 후발주자인 토스뱅크는 연2% 이자 지급의 파킹 통장, 체크카드 캐시백 등 다양한 신개념 상품을 내놓고 있으며, 기존 은행은 앱 사용 편의성을 크게 높였습니다. 카카오뱅크가 은행이 아닌 플랫폼이라면 다른 금융기업도 모두 플랫폼일 수 있다는 주장이 나오는 이유죠. 반대로 다른 금융 기업이 그저 은행이라면 카카오뱅크도 은행이라는 의견에도 힘이 실립니다.━금리인상기 발목 잡은 ‘카카오뱅크=플랫폼’더 중요한 건 증권사들의 변심입니다. 사실 상장 직전 카카오뱅크의 주가가 2만4000원까지 떨어질 것이라 ‘예언’한 증권사도 있습니다. 카카오뱅크는 IPO 기자간담회에서 “카카오는 플랫폼이다”라고 주장했는데요, 해당 리포트는 “카카오는 은행이다”라는 도발적인 제목으로 이 주장을 정면으로 반박했죠. 다만 이 곳 뿐이었습니다. 상장 이후 나온 증권사 애널리스트 리포트는 모두 카카오뱅크가 플랫폼이라는 데 찬성했습니다. 목표주가를 공모가의 두 배로 제시하고 ‘위기를 기회로 활용하는 카카오’ ‘고성장주로서 희소성’ 등 자극적인 문구로 카카오뱅크의 성장을 자신했죠. 점포가 없는 ‘비대면 금융 앱’이기 때문에 비용은 대거 낮출 수 있고, 26주 적금과 같은 혁신적 상품을 계속 내놓을테니 앞으로 사람들은 카카오뱅크로 더 모여들 것이란 의견이었습니다. 하지만 토스뱅크 등 후발주자가 바짝 따라붙고, 다른 은행 앱이 사용자 편의를 높이면서 사람들이 모여드는 속도는 둔화 하기 시작했습니다.여기에 시장은 시장대로 카카오뱅크의 편이 아니었습니다. 전 세계적으로 본격적으로 금리인상이 시작된 거죠. 금리인상은 대출금리를 높이기 때문에 은행에게는 좋은 소식이어야 합니다. 하지만 카카오는 막 상장한, ‘플랫폼 기업’, ‘성장주’이기 때문에 달랐습니다. 상장 초기 카카오뱅크의 PER는 KB금융의 40배 이상 높았습니다. 시장이 카카오뱅크의 성장성에 몰표를 던진 셈입니다. 이런 성장주는 금리인상기에 주가가 하락합니다. 카카오뱅크는 다른 어떤 금융기업보다도 큰 폭의 하락세를 시현했습니다. 이에 따라 증권사들도 부정적 리포트를 내기 시작했습니다. 금리인상으로 대출이 줄어들 것이고, 이에 따라 카카오뱅크의 수익성도 낮아질 것이란 전망입니다. 어찌보면 당연한 일입니다. 카카오뱅크가 제아무리 혁신적인 상품을 대거 내놓아도 결국은 돈을 버는 근원은 ‘예대마진’이니까요. 카카오뱅크는 결국 은행의 역할을 하고 있었던 건 아닐까 싶습니다.━투자의견 ‘매도’도 나왔는데…지금이 저점 맞나?최근 일부 증권사는 카카오뱅크의 목표주가를 현재 주가보다도 낮은 수준에서 제시하고 있습니다. 씨티증권은 투자의견을 ‘매도’로 바꿔버렸죠. 이런 상황에도 ‘지금이 저점’이라며 투자를 고민하는 분들이 분명 있을 겁니다. 물론 그렇게 생각할 수 있죠. 투자 판단의 책임은 당사자에게 있습니다. 하지만 이 한 가지는 조언할 수 있습니다. 금리인상은 아직 끝나지 않았습니다. 지금 시장에서는 미국 연방준비제도(Fed)가 4회 연속 자이언트스텝(기준금리를 한 번에 0.75%포인트 인상하는 것)을 밟을 것이란 전망이 나옵니다. 사상 초유의 일이죠. 이 경우 미국 기준금리는 4% 대가 되는데요. 우리 증시의 하방 압력은 더욱 커질 것입니다. 최근 목표주가를 1만6200원으로 하향 조정한 DB금융투자의 문구를 인용해 보겠습니다.“(우리는) 연간 4조원 내외의 성장세 유지 가정 하에 카카오뱅크에 대한 목표주가를 제시했다, 하지만 부동산 시장 침체로 전세대출 증가세가 둔화하고 금리 상승으로 신용대출이 역성장하면서 카카오뱅크의 대출 증가세가 급격히 둔화 했다…(중략)…목표주가는 대출 성장세에 민감할 수밖에 없다”</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>위메프, 토스 출신 김동민 CPO 영입… “플랫폼 경쟁력 강화”</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000851260?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>위메프가 김동민(사진) 전 토스증권 이사회 보드멤버를 CPO(최고제품책임자)로 영입했다고 31일 밝혔다. 지난 8월 애플 본사 출신 이진호 박사가 CTO(최고기술책임자)로 합류한 지 두 달여 만에 C레벨 주요 인사를 추가로 영입하며 플랫폼 경쟁력 강화에 속도를 낸다는 목표다.김 CPO는 미국 웰즐리 대학교와 노스웨스턴대 켈로그 MBA를 졸업했다. 삼성전자 모바일사업부와 외국계 증권사 CLSA에서 근무했으며, 2017년 토스(비바리퍼블리카)에 합류해 토스의 초기 빠른 성장에 기여했다.특히 2018년부터 최근까지 토스증권의 창립멤버이자 이사회 보드멤버로 활약했다. PO(서비스 기획자)로서 초보 투자자들이 쉽게 주식 투자에 입문할 수 있는 서비스 전략을 마련했고, 이에 토스증권은 서비스 시작 6개월 만에 이용자 400만 명을 확보하며 빠르게 성장했다.김 CPO는 이런 경험과 역량을 토대로 커머스 시장의 기존 문법과는 다른 서비스 전략을 마련한다는 계획이다. 사내 축적된 테크 기반 경쟁력에 김 CPO의 기획 역량을 더해 위메프가 이용자에게 최적의 쇼핑 환경을 주는 커머스 플랫폼으로 도약할 수 있도록 힘을 보탤 예정이다.하송 대표는 “김 CPO 영입으로 위메프는 플랫폼 본연의 경쟁력인 기술 역량에 서비스 전략 개발 경쟁력을 더하게 됐다”며 “철저하게 이용자 관점에서 경쟁력을 갖춘 쇼핑 플랫폼으로 나아갈 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>박원순 女비서 “사랑해요” 텔레그램에… 진혜원 검사가 남긴 말</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005343869?sid=102</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[이데일리 송혜수 기자] 고(故) 박원순 전 서울시장 성폭력 사건의 피해자와 박 전 시장이 생전 나눴던 텔레그램 대화 내용 일부가 공개된 가운데, 진혜원(47·사법연수원 34기) 부산지검 부부장 검사는 “공동체주의자 한 분이 자살당했다”라고 말했다.진혜원 검사가 2020년 7월 자신의 페이스북에 올린 사진. (사진=페이스북)진 검사는 지난 2020년 7월 박 전 시장의 성폭력 논란이 공론화되자 박 전 시장과 팔짱을 낀 사진을 본인 페이스북에 올리며 “자수한다. 팔짱을 끼는 방법으로 성인 남성을 추행했다”라고 적어 2차 가해 논란을 빚은 인물이다. 이로 인해 그는 법무부 검사징계위원회로부터 정직 1개월 징계를 받기도 했다. 18일 진 검사는 전날 공개된 박 전 시장과 그 피해자 간 주고받은 텔레그램 대화 내용 일부를 자신의 페이스북에 공유하며 ‘2차 가해 프레임’이라는 제하의 글을 적었다. 해당 글에서 그는 “파이드라는 나이 많은 그리스의 왕 테세우스의 두 번째 부인이었는데, 남편 전처의 아들인 히폴리토스에게 더 관심이 많았다가 어느 날 남편이 지방 시찰을 나간 틈에 히폴리토스에게 추파를 던진 뒤 거절당하자 ‘히폴리토스한테서 성폭행당했다’는 유서를 쓰고 자살해버렸다. 테세우스는 거짓 유서를 믿고 아들을 저주했으며, 아들은 저주를 받아 바위에 부딪쳐 사망한다”라고 운을 뗐다.이어 “2020년 7월 9일 시장님 실종 기사 직후 난데없이 성추행범으로 선동하는 기사로 도배될 때 작전의 느낌이 들었다. 그때 바로 생각난 그리스 비극이 ‘히폴리토스’였다”라며 “성범죄는 구성요건도 다양하고, 우리나라 특유의 문제점도 있으므로 언론에 의한 선동으로는 진실을 알 수 없다”라고 했다.진 검사는 “그래서 범죄에 대한 주장이 제기될 때 사실관계를 먼저 확인하고, 그 사실관계를 토대로 범죄가 되는지 여부를 법리적으로 검토해야 한다는 의견을 바로 게시했다”라며 “그때부터 각종 여성단체들이 2차 가해자로 몰아 징계를 청구했고, 1년 반 뒤 결국 퇴임 직전의 양산문워크로부터 한 달 푹 쉬라는 결정을 받았다”라고 밝혔다.그는 “늘 그렇듯이, 자신들의 선동 흐름을 끊어서 기분이 나빴던 것 같다”라며 “2020년 4월부터 포스팅을 죽 보니 공동체주의자들을 대상으로 공작이 진행될 것이라는 경고가 커뮤니티에 자주 보였고, 갑자기 난데없이 수사기관발 N번방 사건으로 커뮤니티에 소개되는 뉴스가 도배되기 시작했으며, 불과 한 달 만에 아래 문자를 보낸 것으로 알려진 사람+@로 인해 공동체주의자 한 분이 자살당했다”라고 주장했다.끝으로 진 검사는 “이 사건을 일으킨 분들도 결국 진실이 드러나는 것을 막지는 못했다. 이 사건 하나로 끝날 일이 아니어서 성, 성적 전략, 유희로서의 성, 성범죄 전반에 대한 성찰을 담은 에세이를 신나게 썼다”라고 밝히며 지난달 발간한 자신의 저서 ‘진실과 정의에 대한 성찰’ 중 성과 관련한 목차 일부를 덧붙였다.정철승 변호사가 17일 페이스북 통해 공개한 고 박원순 전 서울시장과 성폭력 피해자가 주고받은 텔레그램 대화 내용 (사진=페이스북)앞서 박 전 시장 유족 측 법률대리인을 맡았던 정철승 변호사는 관련 행정소송 선고를 하루 앞둔 전날 자신의 페이스북을 통해 “이번 행정소송에서 고소인 여비서와 박 전 시장 사이에 주고받은 텔레그램 대화 내용이 일부 공개됐다”라며 사진 한 장을 첨부했다.해당 사진에는 박 전 시장과 피해자가 주고받은 텔레그램 대화 일부가 담겼는데, 내용에 따르면 비서였던 피해자는 박 전 시장에게 “사랑해요” “꿈에서 만나요” “꿈에서는 돼요” “굿밤” “시장님 ㅎㅎㅎ 잘 지내세용”이라고 메시지를 보냈다. 박 전 시장은 “그러나 저러나 빨리 시집가야지 ㅋㅋ 내가 아빠 같다”고 답했고, 피해자는 “ㅎㅎㅎ 맞아요 우리 아빠”라고 했다.이를 두고 정 변호사는 “박 전 시장이 ‘고소인과 주고받은 문자가 있는데 고소인이 문제를 삼으면 문제가 될 소지가 있다’고 말했던 그 대화내용으로 보인다”라며 “박 전 시장은 이런 대화가 공개되는 것이 수치스러워서 자살한 모양”이라고 했다.그는 또 다른 글에서 박 전 시장 사건을 다룬 ‘비극의 탄생’ 저자 손병관 오마이뉴스 기자의 페이스북 글을 공유하며 “상사에게 선을 넘는 접근을 하는 이성 직원은 아무리 충실해도 거리를 두어야 한다”라며 “박 전 시장은 시민단체 활동만 오래 했기 때문에 이 사건 전까지 상사에게 선을 넘는 접근을 하는 이성 부하직원을 겪어보지 못했을 것이다. 치명적인 실수였다고 생각한다”라고 덧붙이기도 했다.정 변호사가 공개한 텔레그램 문자는 국가인권위원회가 박 전 시장 유족이 낸 행정소송에 맞서 증거 자료로 법정에 제출한 것으로 알려졌다.박 전 시장 유족은 인권위가 지난해 1월 ‘박 전 시장이 피해자에게 행한 성적 언동은 성희롱에 해당한다’라고 판단하자 결정을 취소해 달라며 지난해 4월 서울행정법원에 소송을 냈다.지난해 9월 7일 심리에 들어간 서울행정법원 행정8부(이장희 부장판사)는 1년 1개월간의 재판 일정을 마무리하고 이날 선고할 예정이었으나 11월 15일로 4주 연기했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐' 가입자 1500만명 돌파</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005343111?sid=100</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>국민 4명 중 1명 이상 사용국민생활 속 행정비서로 자리매김10월20일~11월 2일 이벤트 진행[이데일리 양희동 기자] 행정안전부는 국민비서 ‘구삐’의 가입자 수가 지난 13일 1500만명(전 국민 29%)을 돌파했다고 17일 밝혔다. 행안부는 구삐가 국민 4명 중 1명 이상 사용하는 국민 생활 속 행정비서 서비스로 자리매김했다고 설명했다.국민비서 구삐. (자료=행안부)국민비서는 지난해 3월 29일부터 서비스를 시작해 건강검진일, 운전면허 갱신기간, 교통과태료 등 생활정보 27종을 알려주고 있는 정부의 대표적인 행정서비스다. 코로나19 상황 속에서 백신접종 예약, 재택치료 등의 유용한 알림도 제공해 오고 있다. 네이버앱과 카카오톡, 토스, 금융앱 등 내가 자주 이용하는 8종의 민간 모바일 앱등을 활용해 제공, 지난 17개월간 5억건 이상의 알림을 국민에게 제공했다.국민비서 마스코트인 ‘구삐’는 전 세계가 연결된 네트워크 세상에 사는 인공지능 토끼 로봇이다. 국민비서 서비스의 취지에 맞춰 국민이 직접 제안하고, 투표한 공모전과 전문가 자문을 거쳐 탄생했다.국민비서는 정부서비스나 민원정보에 대한 궁금한 내용을 24시간 언제나 채팅로봇(챗봇)으로도 상담하는 서비스를 제공하고 있다. 현재 17개 행정·공공기관과 협업해 전자통관, 정부보조금, 휴양림 예약, 특허 등 23종의 상담서비스를 제공하고 있다. 또 지난해 하반기에 국민 상생 지원금 지급시 채팅로봇을 통한 상담을 통해 정부 콜센터의 업무부담도 줄이는 역할을 했다.행안부는 앞으로 국민비서를 통해 지방세 알림, 정부24(보조금24) 알림, 국민연금 안내 등 다양한 알림·고지 서비스를 확충할 계획이다. 또 국민비서 알림을 받은 뒤 곧바로 행정서비스 상담과 신청 등이 가능하도록 서비스의 완결성을 높여나갈 예정이다.행안부는 국민비서 가입자 1500만명 돌파 온라인 행사(이벤트)를 오는 20일부터 다음달 2일까지 진행한다. 국민비서 가입자는 누구나 행사(이벤트) 알림메시지를 받아 응모할 수 있다. 신규 가입자의 경우는 국민비서 누리집이나 행안부 페이스북, 인스타그램 등 사회관계망서비스(SNS)에 접속해 응모할 수 있다. 여기에 댓글 행사(이벤트)도 25일부터 11월 2일까지 진행하며, 국민 누구나 행안부 유튜브 채널에서 응모할 수 있다.이상민 행안부 장관은 “국민비서는 민간과 정부가 함께하는 디지털플랫폼정부의 대표 사례”라며 “앞으로도 국민이 보다 편리하게 정부서비스를 이용할 수 있도록 국민비서를 더욱 발전시켜 나아가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>금융사 재해발생시 비상계획 미흡…금융당국 "사후관리 강화"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004116736?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>주요 시중은행도 지난해 '비상대응계획 수립 미비' 지적 받아카카오페이 등 빅테크도 재해 복구 훈련 미흡 개선 요구"금감원 사후관리 강화해 재발 방지 해야"[서울경제] 금융당국이 국내 금융사들의 데이터 관리에 대해 ‘경영유의’ 조치 등을 내렸지만 데이터센터 안정성을 높이려면 강화된 사후 관리가 필요하다는 지적이 나왔다. ‘카카오톡 먹통 사태’와 같은 대형 사고가 금융권에서 재발되지 않도록 당국의 세심한 관리가 필요하다는 목소리가 나와서다.31일 금융권에 따르면 김종민 더불어민주당 의원이 금감원으로부터 제출받은 ‘최근 3년간 금융사별 비상 대응 계획·훈련 관련 금융 당국 조치’ 자료에 따르면 올해 3월 IBK기업은행은 대외 업무 연속성 강화 차원에서 통신망을 강화해야 한다는 내용의 ‘경영유의’ 조치를 받았다. 금감원은 기업은행이 핵심 업무 관련 일부 대외 기관과의 통신 회선을 이중화하지 않아 통신장애 시 신속한 복구에 어려움이 예상된다면서 핵심 업무와 연관된 대외 기관의 통신 회선을 이중화하고, 주전산센터에 집중된 통신 회선을 재해복구센터로 분산하라고 권고했다.주요 시중은행인 국민은행과 신한은행도 비상 대응 계획이 제대로 수립되지 않았다는 지적을 받았다. 국민은행은 일부 업무에 대한 복구 목표 시간이 설정돼 있는데도 불구하고 구체적인 복구 계획이나 재해 복구 시스템이 구축돼 있지 않다는 이유로 지난해 2월 금감원으로부터 경영유의 통보를 받은 뒤 같은 해 6월 사후 조치 후 금감원에 보고했다. 신한은행은 지난해 5월 재해 복구 모의 훈련이 미흡한 점을 지적받았다. 카카오톡 먹통 사태로 금융 서비스 제공에 한동안 어려움을 겪었던 카카오페이 역시 지난해 5월 금감원으로부터 “재해 복구 훈련을 실시하지 않은 일부 서비스에 대한 비상 대응 훈련을 실시해 전자금융거래에 대한 상황별 대응 능력을 높여야 한다”는 경영유의 통보를 받았다. 모바일 금융 서비스 토스 운영사인 비바리퍼블리카 역시 지난해 3월 하드웨어 고장과 일부 정보 시스템 장애, 전력공급 중단 등 각종 비상 상황 발생에 대비한 재해 복구 훈련이 미흡하다는 점을 지적받았다.금융사들은 제재를 받으면 금융 당국의 조치 요구 사항을 정비한 후 보고해야 한다. 문책 사항 통보를 받은 금융사는 2개월, 자율처리필요·주의·변상·개선사항의 경우 3개월, 경영유의 조치를 받으면 6개월 내로 재보고 해야한다. 금감원은 이를 바탕으로 추가 제재 절차 등을 결정한다. 금융의 디지털화로 데이터센터 관리 등에 대한 중요성이 커진 만큼 보다 강화된 사후 조치가 필요하다는 목소리가 나온다. 카카오뱅크의 경우 지난 7월 금감원으로부터 재해 발생 시 비상 대응 계획이 미흡하다는 지적을 받았지만, 3개월 후 일어난 화재 사고에서는 카카오톡을 통한 간편이체 등 일부 서비스가 작동하지 않아 소비자들이 불편을 겪었다.전성인 홍익대 경제학부 교수는 “금융사가 금융 업무를 할 때 전산 등 디지털은 더 이상 떼어 놓고 이야기할 수 없기 때문에 해킹이나 개인 정보 보호, 화재 등 각종 위험을 예방하기 위한 대비책을 이중 삼중으로 마련해야 한다”면서 “금융 당국도 금융사의 디지털 분야에 대한 관리에 연속성이 있어야 한다”고 지적했다. 김종민 의원은 “이번 화재 사태를 계기로 금융사의 데이터 보호 중요성은 더욱 커졌다”면서 “과학기술정보통신부에서 화재 사태를 계기로 예방 조치를 강화하면서 공정거래위원회에서는 온라인플랫폼 독점 구조에 대한 근본적인 검토도 함께 이뤄져야 할 것”이라고 말했다. 이와 관련해 금감원은 “검사 과정에서 발견된 문제점은 향후 금융사가 정상적으로 운영하는지 점검하고, 유사사고가 재발되지 않도록 필요한 대책을 마련해 조치하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1억원 이상도 연 2.3% 준다</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271239?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>21일부터 적용인터넷전문은행 '토스뱅크'가 토스뱅크통장에 연 1억원을 넘게 맡겨도 연 2.3%의 금리를 제공한다고 20일 밝혔다.그 동안 토스뱅크는 연 1억원 이하에 한해서면 연 2.3% 금리를 적용했으나, 이를 21일부터 바꾸는 것이다.토스뱅크 로고.토스뱅크 관계자는 "예치 금액 한도 제한이 풀림에 따라 일 복리 등의 효과를 누릴 수 있을 것이라 기대한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[TF비즈토크&lt;하&gt;] 에이스침대, 연구개발비 고작 1% 미만…"과학 맞나요?"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000179738?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>'카카오 사태'에 인터넷은행 사용자들 우려 커져카카오뱅크 경쟁사 반사이익 가능성도'침대는 과학’이라는 슬로건을 앞세운 에이스침대가 매출액 대비 연구개발비 비중은 1%에도 못 미치는 것으로 나타났다. /더팩트 DB☞&lt;상&gt;편에 이어◆ "침대는 광고" 소비자 불만이 된 에이스침대 슬로건-유통업계 소식을 들어보겠습니다. 에이스침대가 연구개발비로 16억 원을 지출하는 데 반해 광고선전비로 295억 원을 쓴다는 지표가 나왔습니다. 침대 품질 개선보다 광고 마케팅에 주력한다는 따가운 지적을 받고 있습니다.-금융감독원 전자공시시스템에 따르면, 에이스침대의 지난해 매출액 대비 R&amp;D 비중은 0.47%로 나타났다. 최근 3년 동안 R&amp;D 비중은 △0.60%(2019년) △0.51%(2020년) △0.47%(2021년)로 R&amp;D 비중은 계속 하락했습니다. 연구개발비가 늘어나더라도 매출액이 더 크게 늘면 비중이 낮아질 수도 있습니다. 에이스침대는 연구개발비 규모 자체가 준 것으로 드러났습니다. 연구개발비는 △16억6000만 원(2019년) △14억6000만 원(2020년) △16억2000만 원(2021년)입니다.매출액은 지난해 3463억 원으로 역대 최대치를 달성했죠. 2016년부터 2020년까지 2000억 원대 매출액에 머문 에이스침대가 지난해 매출액 3000억 원을 돌파했습니다. 에이스의 매출액은 △2036억 원(2016년) △2060억 원(2017년) △2449억 원(2018년) △2774억 원(2019년) △2894억 원(2020년) △3463억 원(2021년)으로 꾸준히 늘어났습니다.그런데 R&amp;D 금액이 줄면서 R&amp;D 비중은 매출액 대비 1% 미만에 불과합니다.-소비자들 반응은 어떤가요.-대다수가 큰 실망감을 드러내고 있습니다. 소비자들은 "침대는 광고비"라며 '침대는 과학'이라는 에이스침대 슬로건을 비꼬고 있습니다. 특히 일부 소비자들은 에이스침대 불매운동에 나서자고 목소리를 높였습니다.-에이스침대 광고모델이 '톱스타'에 집중됐다는 의견도 있었다고 들었습니다.-예. 실제로 에이스침대는 광고모델로 '톱스타'를 전면 내세웠습니다. 대표적으로 △배우 이정재 △배우 고현정 △배우 지성 △배우 이보영 △가수 제니 △배우 박보검 등입니다. 일부 소비자들은 광고모델만 봐도 최정상급 스타뿐이니 광고비가 많이 지출되겠다며 그 돈으로 연구를 더 하라는 비판의 목소리도 냈습니다.-이 외에 또 다른 의견은 없었나요.-예. 가격이 너무 비싸다는 의견이 있었습니다. 한 소비자는 중소기업 회사 매트리스는 40만 원이면 구입 가능하지만 에이스침대 등 유명 브랜드는 200만 원이 넘는다며 ‘가격 거품’이 심하다고 했습니다. 중소 회사와 에이스침대 매트리스를 함께 사용 중이라고 밝힌 한 소비자는 "에이스침대가 더 불편감이 있다"고 꼬집기도 했습니다.-연구개발비가 미흡하다는 지적에 대한 에이스침대는 뭐라고 하는가요.-에이스침대 측은 연구개발에 계속 관심을 기울이고 있으며 연구개발비 비중이 적은 것은 자체 연구소 덕에 위탁용역비가 줄어든 영향이 크기 때문이라고 해명했습니다. 자체 연구개발에 나서면서 연구개발비 항목에 잡히지 않을 뿐 오히려 더 관심을 갖고 투자를 하고 있다고 다시 한번 강조했습니다.지난 15일 판교 SK C&amp;C 데이터센터 화재로 인해 카카오뱅크의 일부 서비스에 오류가 나면서 금융소비자들의 불안감이 커지고 있다. /카카오뱅크 제공◆ 카카오 사태에 더 바쁜 케이뱅크·토스뱅크...불똥 or 기회-이번에는 금융권 소식을 들어보겠습니다. 지난 주말 경기도 판교 SK C&amp;C 데이터센터 화재로 '카카오 먹통 사태'가 발생한 것의 후폭풍이 거세네요. 특히 카카오뱅크를 이용하는 금융 소비자들의 불안이 커졌다면서요.-네, 카카오뱅크는 자체 데이터센터를 갖고 있어 주요 서비스가 비교적 빠르게 정상화됐음에도 일부 소비자들은 불안감을 감추지 못했습니다. 카카오와 연동된 간편 이체 등 일부 기능은 장애가 있었기 때문이죠.-그렇군요. 그런데 일은 카카오에서 터졌는데 케이뱅크, 토스뱅크 등 다른 은행들이 오히려 더 바빴다는 후문이 전해진다면서요.-네, 케이뱅크나 토스뱅크 등 인터넷은행을 이용하는 금융 소비자들의 불안도가 덩달아 높아졌기 때문입니다. '인터넷 보안이 취약하면 내 돈이 날아갈 수 있다'는 불신이 확산한 거죠. 한 인터넷은행 관계자는 "요새 관련 문의를 너무 많이 받았다"면서 "사고는 카카오 쪽에서 터졌는데 오히려 우리가 더 바쁜 것 같다"라고 말했습니다.-다른 은행들의 경우는 어떤 대비 체계를 갖추고 있나요?-카카오뱅크도 마찬가지지만 다른 은행들도 데이터센터 화재 같은 돌발 사고가 나도 문제가 없다는 입장입니다. 케이뱅크의 경우 데이터센터를 목동, 분당, 충정로 등 3중으로 나눠 운영하고 있습니다. 비상시 주데이터센터가 셧다운될 경우 재해복구설치를 지정한 다른 데이터센터로 전환되고, 토스뱅크 역시 주센터와 DR(재해복구)센터로 구성해 운영 대기 상태로 운영 중입니다.인터넷 은행 관계자는 "카카오뱅크도 자체 데이터센터를 갖추고 있어 큰 피해가 없이 잘 넘어간 것으로 안다"면서 "이번 사태로 인터넷뱅킹에 대한 소비자들의 불신이 커지지 않길 바란다"고 말했습니다.-불똥이 튈까 걱정하는 모양새군요. 반면 이번 카카오 사태를 '기회'로 바라본다는 의견도 나온다죠?-카카오뱅크에 예치한 돈을 타사로 갈아타는 사례가 온라인 커뮤니티 상에서 종종 나오면서 이를 기회로 삼을 수 있는 게 아니냐는 의견입니다.-카카오뱅크의 예치금이 넘어온다고 하더라도 전체 업권의 신뢰 문제와 결부된 만큼 마냥 좋아할 수만은 없겠네요.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.10.30.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜, 사업자대출 비교 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000851145?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜은 개인사업자가 신용대출 상품을 비교할 수 있는 ‘네이버페이 사업자 대출비교’ 서비스를 시작한다고 30일 밝혔다.이는 은행, 저축은행, 캐피탈 등 금융사의 사업자 신용대출 금리와 한도를 비교하고 금융회사의 대출 신청 창구로 연결해주는 서비스다. 만 19세 이상의 국내 개인사업자라면 누구나 이용할 수 있다. 네이버 인증서와 연동돼 대출 비교 단계부터 소득·매출 등의 정보가 활용된다. 금융사의 대출 심사 과정에서도 네이버 인증서가 적용된다.대출 실행 시 대표자 개인의 신용 점수에 영향을 주지 않는 사업자 상품만 입점해 있다는 게 회사 측 설명이다. 금리나 한도만 조회하더라도 신용점수에 아무런 영향을 미치지 않는다. 현재 1금융권은 우리은행·전북은행·토스뱅크·케이뱅크, 2금융권은 KB국민카드·롯데캐피탈·웰컴저축은행·한국투자저축은행·OK저축은행이 입점해 있다. 현대캐피탈도 개발이 완료되는 대로 입점할 예정이다.박상진 네이버파이낸셜 대표는 “금융사들과 지속 협력해 사업자들에게 도움이 될 수 있는 전용 상품을 공동 개발하는 등 서비스를 고도화 해 나갈 예정”이라고 말했다. '네이버페이 사업자 대출비교' 서비스. /네이버파이낸셜</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[현명한 금융생활 꿀팁]금리 상승기에는 변경금리 적용 만기일까지 늦추는 편이 유리</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000930404?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>(34)대출 연장시 변경금리 언제 적용해야 할까김태호 금융감독원 강원지원장김태호 금융감독원 강원지원장Q:최근 국내외에서 지속적으로 금리가 상승하는 금리상승기를 맞아 대출을 연장할 경우 언제, 어떻게 변경금리를 적용해야 유리한지 알아보자. A:금융기관이 대출을 연장할 때는 변경금리를 적용하는 시점에 따라 소비자에게 유불리가 발생할 수 있다. 금리 상승기에는 변경금리를 만기일부터 적용받는 편이 만기일 전인 대출 연장 실행일부터 적용받는 것보다 더 유리할 수 있다. 반대로 금리가 하락하는 시기라면 저금리를 좀 더 일찍 받도록 연장 시행일부터 적용받는 것이 더 유리하다. 한 예로 A씨는 신용대출 만기일이 지난달 27일로 도래함에 따라 대출금리를 인상(2.0%→3.0%)하는 조건으로 3주 전인 지난달 6일 대출 기간을 1년 연장했다. 이때 A씨는 변경 금리(3.0%)가 신용대출 만기일 다음 날인 28일부터 적용될 것으로 기대했으나 해당 은행은 변경금리를 대출 연장 실행일(지난달 6일)부터 적용했다. 이처럼 은행들이 대출 연장 시 변경금리를 적용하는 시점은 만기일, 대출 연장 실행일, 만기일과 대출 연장 실행일 중에서 금융소비자가 직접 선택 가능한 방식으로 각각 구분된다. 먼저 대면 채널의 변경금리 적용 시점은 우리은행 등 12개 은행은 만기일을, 광주·제주은행은 대출 연장 실행일을, 대구은행은 대출 연장 실행일 또는 만기일 중 소비자가 선택하는 날을 각각 적용하고 있다. 또 비대면 채널의 경우 우리은행 등 14개 은행은 만기일을, 제주·경남은행은 대출 연장 실행일을, 케이뱅크는 대출 연장 실행일 또는 만기일 중 소비자가 선택하는 날을 각각 적용하고 있다. 또 SC은행은 대출 연장 신청이 대면 채널(영업점)에서만 가능하며, 카카오뱅크, 토스뱅크, 케이뱅크 등은 인터넷전문은행이므로 비대면 채널(온라인)에서만 대출 연장이 가능하다. 특히 광주·대구·경남은행은 대면과 비대면 채널 간에 대출 연장 시 변경금리 적용방식이 상이하다. 광주은행의 경우 대면 채널은 대출 연장 실행일이 적용되고 비대면 채널은 만기일이 적용된다. 대구은행은 대면 채널의 경우 대출 연장 실행일과 만기일 중 선택하여 적용할 수 있지만 비대면 채널은 만기일에 적용된다. 경남은행은 대면 채널의 경우 만기일에 적용되며, 비대면 채널의 경우에는 대출 연장 실행일에 적용된다.이에 따라 소비자는 금융기관에서 대출을 연장하고자 하는 경우 다음의 사항에 주의를 기울여야 한다. 먼저 해당 금융기관이 변경금리를 적용하는 일자(대출 연장 실행일 또는 만기일 등)를 직원에게 문의하는 등 꼼꼼히 확인해야 한다. 만약 금융기관이 변경금리를 대출 연장 실행일부터 적용한다면 금리 상승기에는 대출 연장 실행일을 만기일까지 될 수 있는 대로 늦추는 것이 유리할 수 있습니다. 또한 소비자가 변경금리 적용 일자를 선택할 수 있다면 금리 상승기에는 대출 연장 실행일보다는 만기일로 선택하는 것이 유리할 수 있다. 특히 비대면(온라인)을 통해 대출 연장을 신청하는 경우에는 온라인상의 변경금리 적용 일자를 반드시 확인해야 한다. 예를 들어 케이뱅크의 경우 비대면(온라인)화면에서 변경금리를 대출 연장 실행 시점에 바로 적용하는 방식과 만기일에 적용하는 방식 중에서 소비자가 직접 선택하도록 되어 있다. 특히 한 번 선택한 후에는 변경할 수 없으므로 주의해야 한다. 금감원은 금융기관이 대출 연장 시 변경금리의 적용 시점에 대해 금융소비자에게 제대로 전달할 수 있도록 변경금리의 적용 시점에 관한 사항을 약관 및 비대면거래의 온라인화면 등에 명확히 기재하도록 할 계획이므로 소비자는 대출 연장 시 꼼꼼히 확인해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>[단독] 비바리퍼블리카, 토스페이먼츠 지배력 높였다</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005033103?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>전환우선주 614억 규모 취득지분율 약 70%까지 높여…안정적 경영 도모 차원업계 "페이먼츠 상장 당분간 안 할 듯"종합 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카가 전자결제(PG) 계열사 토스페이먼츠 지분을 추가로 사들였다. 자회사에 대한 지배력을 강화하기 위한 조치로 풀이된다. 비바리퍼블리카는 지난 2020년 LG유플러스의 PG사업부를 인수하며 전자결제 사업에 뛰어들었다. 20일 투자은행(IB) 업계에 따르면 비바리퍼블리카는 최근 614억원 규모의 유상증자를 통해 토스페이먼츠 지분을 약 20% 취득했다. 토스페이먼츠의 2대 주주인 특수목적회사(SPC) 지분을 추가로 사들인 것이다. 이번 증자는 일반적인 유상증자로 보기는 어렵다는 분석이다. 특수목적회사(SPC)가 보유 중인 지분에 대해 비바리퍼블리카가 콜옵션을 행사한 것이기 때문이다.앞서 비바리퍼블리카는 지난 2020년 LG유플러스 PG사업부를 약 3650억원에 인수했다. 당시 인수 대금을 치르는 과정에서 LB프라이빗에쿼티와 프리미어파트너스를 투자자로 초청했다. 영업적자 상태인 점을 고려해 사모투자펀드(PEF)를 초청해 인수 작업을 마무리지었다는 얘기다. 그 때 양 측은 주식매매계약을 체결하며 비바리퍼블리카에 콜옵션을 행사할 수 있도록 약정한 바 있다. 이로써 비바리퍼블리카의 토스페이먼츠 지분율은 약 70%까지 늘어나게 됐다. 전년도 감사보고서에 따르면 비바리퍼블리카와 SPC의 지분율은 각각 48.5%씩이었다. SPC에 대한 지분율이 2%대에서 40%대까지 불어나면서 토스페이먼츠에 대한 지배력 역시 공고해지게 됐다.  비바리퍼블리카 관계자는 "2년 전 LG유플러스 PG사업부를 인수할 당시부터 지배력을 높이고자 하는 청사진을 갖고 있었다"며 "경영 환경을 보다 안정적으로 가져가기 위해 콜옵션을 행사하기로 한 것"이라고 배경을 설명했다.토스페이먼츠는 비바리퍼블리카에서 전자결제 사업을 담당하고 있다. 감사보고서에 따르면 전년도 영업수익은 3803억원, 영업손실은 303억원이었다. IB 업계에서는 비바리퍼블리카가 현 시점에서 토스페이먼츠의 상장을 고려하고 있지 않은 것으로 보고 있다. 한편 비바리퍼블리카는 최근 두 차례에 걸쳐 약 5300억원 규모의 유상증자를 진행했다. 이번 투자 유치 과정에서 책정된 기업가치는 약 9조1000억원(납입 이후 수준)에 달한다. 이는 지난 상반기 대비 소폭 높은 수준에 해당한다. 증자에 참여한 신규 투자자들은 토스의 수익성이 줄곧 개선세인 점을 높이 평가한 것으로 알려져 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>코로나 병상 단톡방 멈춰, 환자 20시간 대기…“정부도 너무 의존”</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002610434?sid=102</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>“과도한 의존도 낮추고 책임성 강화” 목소리15일 오후 3시30분께 에스케이씨앤씨(SK C&amp;C) 분당 데이터센터 화재로 전면 중단된 카카오의 카카오톡 서비스가 16일 새벽 일부 복구됐다. 하지만 스마트폰에서 문자를 주고받는 정도의 서비스만 이뤄지고 있다. 피시(PC)에서는 안되고, 부가 기능들도 안되거나 불안정한 상태다. 박종식 기자 anaki@hani.co.kr카카오 먹통 사태를 계기로, 정부가 민간 플랫폼인 카카오에 각종 대국민 행정서비스를 ‘위임’하는 현행 시스템에 대해서도 재검토가 필요하다는 지적이 나온다. 정부가 비용 절감과 편의성 등을 이유로 사기업 독점을 강화시켜주는 셈인데, 이를 완화하거나 그에 걸맞은 사회적 책임을 카카오 쪽에 요구해야 한다는 것이다.현재 국세청과 경찰청, 행정안전부 등 16개 행정기관이 민원 서비스에 카카오톡을 활용하고 있다. 대표적인 카카오 기반 공공 서비스는 ‘국민비서 구삐’다. 구삐는 카카오톡 등 민간 앱을 통해 운전면허 적성검사 갱신 기한, 과태료 납부 기한 등 행정정보를 알려주고, 민원 상담을 할 수 있는 인공지능 행정서비스다. 2021년 3월에 시작한 이 서비스는 코로나19가 급속히 확산하는 상황에서 백신 접종 예약과 국민지원금 안내 등을 담당하며 이용자가 확 늘었다. 네이버, 토스, 페이코 등으로도 구삐 서비스를 받을 수 있지만 국내 이용자 비중이 압도적으로 높은 카카오톡을 통한 사용이 가장 많을 것으로 보인다. 구삐는 16일 “카카오톡 장애로 인해 알림 발송이 문자 등으로 대체될 수 있다”고 공지했다. 예비군훈련 신청(병무), 세금납부(세무) 등 필수 행정 인증 업무도 카카오 인증서로 가능하다. 지방세·국세부터 과태료, 전기·수도·가스 요금 고지서도 카카오페이로 받고 납부할 수 있다. 정부는 지방세 등을 카카오페이 등으로 내면 1천원 세액 공제해주는 혜택 등을 주며 전자고지서 사용을 유도해왔다.16일 국민비서 구삐 누리집은 카카오톡 장애로 인한 알림 서비스 중단을 공지했다. 국민비서 구삐 누리집 갈무리코로나19 환자 병상배정도 카카오톡으로 이뤄지고 있다. 지난 15일 오후부터 카카오톡 오류로 중앙사고수습본부 수도권긴급대응상황실 병상배정반 업무에 차질이 생기면서 코로나19 환자가 20시간 넘게 병원 응급실에서 대기하는 일도 벌어졌다. 송명제 가톨릭관동대 국제성모병원 응급의학과 교수는 “중앙사고수습본부 병상배정반과 병원 의료진 20여명이 함께 있는 단체 카톡방에서 병상 배정을 논의해왔는데, 카카오톡이 되지 않아 병상배정이 매우 늦어졌다”고 말했다.필수 행정서비스의 경우 과도한 민간 의존도를 낮추고, 기업의 사회적 책임을 강화해야 한다는 목소리가 나온다. 위정현 중앙대 교수(경영학)는 “카카오는 군 작전에도 이용할 정도로 공공재처럼 작동하고 있다. 국가 기능이 카카오톡으로 운영되는데 민간 사업자로만 볼 수는 없다. 문제가 발생했을 때 처벌을 포함한 부가통신 사업자의 책임 규정을 명확하게 해놓는 게 중요하다”고 했다. 이삼열 연세대 교수(행정학)는 “정부가 민간의 플랫폼 활용하는 방향성은 좋지만 민간 의존도가 높아지거나 대체 수단이 없는 것에 대해서는 정부가 복안을 마련해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>SW산업협회 '1조 클럽' 17곳…카겜·두나무·빗썸 합류</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004768032?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>연매출 300억 이상 SW기업 371곳매출 총액 112조5000억카카오게임즈, 두나무, 빗썸코리아, KG이니시스가 '한국소프트웨어(SW)산업협회 조 클럽'에 새로 이름을 올렸다. SW를 주요 사업으로 하면서 작년 매출 1조원을 넘긴 곳들이다. 한국SW산업협회는 27일 서울 송파구 IT벤처타워에서 기자간담회를 열고 '2022년 SW 1조클럽'에 기업 총 17곳이 속했다고 발표했다. 올해 새로 포함된 기업 네 곳을 비롯해 SK, 네이버, 카카오, 삼성SDS, NHN, 엔씨소프트, 넷마블, 넥슨코리아, 크래프톤, LG CNS, 현대오토에버, 우아한형제들, 다우데이타 등이다. 이 협회는 2013년부터 매년 SW를 주요 사업으로 하는 기업들의 전년 매출액, 종업원 수 등 주요 경영지표를 조사해 매출액 구간별로 SW조클럽, SW5000억클럽, SW1000억클럽, SW500억클럽, SW300억클럽 등을 발표하고 있다.SW5000억클럽에는 카카오엔터테인먼트, 토스 운영사인 비바리퍼블리카, KT DS, SK쉴더스(옛 ADT캡스), CJ올리브네트웍스, 아이티센, 신세계아이앤씨 등이 새로 이름을 올렸다.아이티센의 매출은 2020년 4573억원에서 지난해 6187억원으로 35% 급증했다. SK쉴더스 매출은 2020년 3051억원에서 지난해 5799억원으로 올랐다. 2020년 11월 SK인포섹과 ADT캡스의 합병에 따라 매출액이 대폭 상승한 것으로 풀이된다.작년 연 매출이 300억원 이상인 SW기업은 371곳으로 집계됐다. 2020년 기준 326곳에서 약 13.8% 늘었다. 이들 기업의 매출 총액은 112조5269억원으로 전년 86조9376억원 대비 29.4% 증가한 것으로 나타났다. 신SW 분야 기업 중에선 클라우드 업종 관련 기업 수가 가장 많았다. 신SW분야 기업 수는 클라우드(86), 인공지능(39), 빅데이터(38) 순으로 집계됐다.한국SW산업협회는 올들어 조사에서 주 업종 분류체계를 일부 변경했다. '인력자원공급' 부문은 IT서비스 부문에 합쳤다. 인력자원공급 기업 대부분이 시스템 통합·유지관리 사업을 함께 운영하는 점을 고려했다는 설명이다. '패키지SW'는 소프트웨어 진흥법 표기 등에서 일반적으로 통용되는 '상용SW'로 명칭을 바꿨다.그간 조사 대상에서 제외했던 SW유통기업을 추가했다. 한국SW산업협회는 앞서는 기술기반 SW 개발로 발생한 매출만 조사 집계해왔다. 최근 기술·서비스 트렌드 변화에 따라 SW유통기업도 조사 대상에 넣었다는 설명이다. 한국SW산업협회에 따르면 작년 연 매출 300억원 이상인 SW유통 기업은 25곳이었다. 이들의 총 매출액은 2조1816억 원으로 집계됐다. 조준희 한국SW산업협회 회장은 "SW산업은 전통 산업부터 신산업을 아우르며 중요성을 나타내고 있다"며 "SW산업의 저변을 확대하고 SW의 가치를 더욱더 높이기 위해 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>[시론] 금산분리규제 완화 지금이 적기다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004769174?sid=110</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>경계 뒤섞이는 '빅블러' 시대금융업, 산업계 진출 허용해야시론최준선 성균관대 법학전문대학원 명예교수금산분리정책은 산업자본과 금융자본의 결합을 제한하는 제도다. 거대 산업자본이 금융기관을 소유하면 그것이 재벌의 사금고화돼 무분별한 투자와 사업 확장으로 시장 지배력이 강화될 수 있고, 이 과정에서 투자 부실이 발생하면 국가 경제가 혼란에 빠진다는 논리다. 재벌이 금융기관을 가지면 그것이 재벌의 사금고화된다는 논리는 더 이상 설득력이 없다. 금융감독과 공정거래법상 규제로서 감시와 통제가 엄격하고, 계열 금융회사 자금 유용은 거의 불가능하다. 금산분리정책의 존립 근거는 사실상 없어졌다.최근 산업과 금융의 경계가 모호해지는 빅블러(Big-Blur) 시대를 맞아 주요 선진국은 금산분리 규제를 완화하고 있다. 한국도 핀테크 바람을 타고 일부 완화 조치가 이뤄져 인터넷전문은행법이 제정됐다. 정보통신기술(ICT) 기업은 인터넷전문은행 주식을 34%까지 소유할 수 있어 카카오뱅크, K뱅크, 토스뱅크를 설립·운영하고 있다. 예컨대 카카오그룹은 플랫폼을 활용해 카카오뱅크, 카카오페이, 카카오페이 증권(매매 중개), 카카오페이 손보(보험 모집) 등 사실상 금융그룹과 비슷하게 발전했다. 그럼에도 은행지주회사 관련 규제를 받지 않는다. 총자산의 과반수가 금융업 및 금융 관련 사업에 해당해야만 금융지주회사법 적용 대상이 되기 때문이다. 따라서 자본시장법상 정보교류차단 규정도 적용되지 않고, 금융·비금융 플랫폼 내에서 발생하는 각종 데이터를 금융 사업 확장에 자유롭게 활용할 수 있다.반면, 금융업자에게는 산업계 진출은 여전히 막혀 있다. 금융지주회사는 일반 기업의 의결권 있는 지분 5%까지, 은행과 보험사는 15%까지만 취득이 가능하다. 정보의 상호 교류가 금지돼 데이터 기반 마케팅도 제한적이다. 동일기능 동일규제 원칙은 여기서는 작동하지 않는다. 금융자본은 운동장의 기울기가 심하다 못해 손발이 묶인 채 플랫폼기업들과 달리기 경주를 하는 셈이라고 불만이다. 그렇다고 플랫폼기업들에 대한 규제를 전통 금융기업 수준으로 강화하라는 말이 아니다. 전통 금융기업에 대한 규제를 플랫폼기업 수준으로 완화해 균형을 맞춰야 한다는 말이다.금융지주그룹의 지분투자 규제를 대폭 완화해야 한다. 사모펀드(PEF) 및 벤처투자조합 등에 대한 투자, 비금융회사들과의 제휴도 가능케 해야 한다. 은행의 자회사 업종은 ‘금융위가 정하는 업종’으로 제한한 것도 풀어야 한다. 은행 고유업무(수신·여신·환 업무)와의 연관성이 존재하는 경우만 인정되고 있는 ‘부수업무’ 범위도 더 확대돼야 한다. 통신, 유통, 여행 등을 하지 못할 이유가 없다. 플랫폼기업은 아무 제약 없이 하고 있는 업무들이다.금융회사는 금융서비스의 본질에 대한 이해를 바탕으로 신용 리스크 등 위험관리 인프라가 잘 구축돼 있고 풍부한 경험을 보유하고 있다. 오히려 금융업체의 플랫폼 사업 진출이 더 바람직한데 현재는 이것이 금지돼 있는 반면, 플렛폼 기업의 금융업 진출만 일방적으로 허용돼 있다.금융산업의 대형·겸업화가 심화됨에 따라 금융지주회사의 자회사 등에 대한 효율적 관리도 절실하다. 금융산업의 디지털화가 빠르게 진행됨에 따라 디지털 사업끼리 묶어 집중 관리해야 할 필요성이 커지고 있다. 디지털 중간지주회사 설립을 허용해 금융업종별 자회사 관리의 효율성을 제고할 수 있게 해야 한다. 금융허브, 금융강국은 저절로 되지 않는다. 윤석열 정권 초기인 지금 금산분리 완화로 금융강국 도약의 첫걸음을 내디딜 절호의 기회다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>손절하고 떠나는 비트코인 투자자들…고래는 조용히 사들인다 [한경 코알라]</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004765286?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>10월 21일 한국경제신문의 암호화폐 투자 뉴스레터 '코알라'에 실린 기사입니다. 주 3회 발행하는 코알라를 받아보세요!무료 구독신청 hankyung.com/newsletter미국 대형은행과 기업 실적 호조에도 비트코인은 2만 달러를 밑돌고 있다. 미국 증시의 상승세도 꺾인 탓에 비트코인도 모멘텀을 이어가지 못하는 상황이다. 금주 메타(Meta) 토큰으로도 불리는 앱토스(APT) 코인이 국내외 주요 거래소에 동시다발적으로 상장하면서 큰 기대를 모았다. 하지만 상장 당일 앱토스 코인의 거래량만 늘었을 뿐, 비트코인을 포함한 다른 코인들에 반등 추세에 도움을 줄 정도로 큰 파급효과를 가져다주진 못했다.풀린 유동성을 잡기 위한 금리 인상 행보가 끝나지 않은 상황이기 때문에 고래들은 여전히 관망세를 유지 중이다. 급락 가능성을 점치기에는 매도세도 뚜렷하지 않은 상황이다. 단기투자자 중심으로 횡보가 이어질 것으로 예상된다.비트코인 1일봉 차트 (출처 : 바이비트 거래소)1일봉 기준, 지난 주에 이어 삼각수렴 구간대 안에서 정체 중이다. 하락 추세선을 따라 저항에 부딪히고 있지만 매도 압력이 크게 높지 않은 상태다. 일정 매수세가 붙어준다면 추세선을 이탈해 다시 오를 가능성도 아직 남아있다. 이달이 지나기 전까지는 추세를 벗어나는 모멘텀이 나올지 지속적으로 관찰할 필요가 있다.비트코인 축적 트렌드 주봉 지표 (출처 : glassnode)약세장에도 불구하고 온체인 상 비트코인은 1만9000달러 수준에서 비교적 탄탄한 가격 지지선을 형성하며 일정 범위 내에서 거래되고 있다. 하락장에서 나타나는 상승 모멘텀은 대체로 빠르게 움직이는 단기 투기 세력 또는 특정 고래들의 대량 매집 후에 이어진다. 최근 축적 추세 점수는 시장이 일시적 균형 상태에 있음을 의미하는 중립적인 시장 구조를 시사하고 있다. 비트코인 보유자 중 소규모 혹은 중간 규모 그룹에서 매수 혹은 매도 어디에도 쏠리지 않는 모습이 나타나고 있다. 비트코인 1000개 이상을 보유 중인 대량 보유자들의 경우 지난달 말부터 적당히 보유분을 쌓는 것으로 보인다. 비트코인 1만개 이상을 보유한 초대형 '고래'들은 비슷한 기간 내 보유한 코인을 거래소 밖으로 유통시키는 경향을 보이고 있다.비트코인 채굴 난이도 지표 (출처 : glassnode)해시레이트 및 블록 생성 급증 후, 비트코인 채굴 난이도는 17개월 만에 가장 큰 조정을 겪었다. 채굴 난이도는 13.55% 상승하며 사상 최고치를 경신했다. 난이도가 급격히 올라가면서 최근 개인투자자들의 대량 매도를 버틴 채굴자들의 수익률에 조금 숨통이 트일 것으로 예상된다. 비트코인이 지속적으로 1만9000달러대에 머물면서, 에너지 효율이 낮은 채굴자들은 순차적으로 이탈할 수도 있다. 반면 저렴한 에너지 공급원을 보유한 대규모 채굴자들이 시장 점유율을 추가로 확보하는 기회로 삼을 수 있을 것이다.비트코인 단기 투자자 SOPR 배수 지표 (출처 : glassnode)해당 지표는 단기 투자자의 수익성을 추적 및 추측할 수 있는 SOPR 지표다. 지표 상 SOPR 배수가 최근 약세장에서 모멘텀 변화를 위해 꾸준한 우상향 움직임을 보여주고 있다. 차트 구간대마다 하락의 깊이는 점차 감소하고 있으며, 이는 많은 단기 투자자들이 지속적인 매도 압력으로 인한 반등 실패를 겪으며 시장에서 떠나가고 있음을 시사한다.▶이 글은 암호화폐 투자 뉴스레터 구독자를 대상으로 다양한 관점을 제공하기 위해 소개한 외부 필진 칼럼이며 한국경제신문의 입장이 아닙니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[POWER COMPANY] `성장성` 세계 1등 인터넷 은행… 창립 5년 케이뱅크, 파란을 일으키다</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002760300?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>100대 디지털은행 종합점수 13위창업 5년 만에 '고객 800만명' 돌파성장성 10점 만점 획득… 단 5곳뿐작년 당기순이익 225억 흑자 전환2020년 업계 첫 비대면 담보 대출코로나 시대 고객 편의 발빠른 대응대한민국 최초의 인터넷 전문은행인 케이뱅크의 성장세는 전세계 디지털 은행 중 가장 빠르다. 창립 5년만에 고객수 800만명을 넘어섰으며, '비대면 아파트담보대출' '사잇돌대출' '챌린지 박스' '기분통장' 등 다양하고 혁신적인 상품으로 인기를 모으고 있다.  케이뱅크 제공    케이뱅크는 대한민국 최초의 인터넷 전문은행으로, 2017년 4월 3일 영업을 시작했다. 이제 다섯돌을 넘긴 셈인데, 성장세는 전세계 인터넷 전문은행 중 가장 빠르다.18일 금융권에 따르면 케이뱅크는 글로벌 리서치기관 '탭인사이츠(TABInsights)'가 최근 발표한 '2022년 글로벌 100대 디지털은행 순위(Global Top 100 Digital Bank Ranking 2022)'의 성장성(수익 성장) 부문에서 최고점을 획득했다.아시아뱅커 산하 글로벌 리서치기관인 '탭인사이츠'는 전 세계 36개국 주요 지역에 자리잡은 인터넷 전문은행 100여곳에 대한 평가를 진행해 순위를 매겼다. 전문 리서치기관이 세계 인터넷 전문은행에 대한 종합 평가를 진행한 것은 이번이 처음이다.'탭인사이츠'는 △고객 (고객수, 월고객 증가, 고객·직원 비율) △시장 및 상품의 범위(진출한 시장, 상품의 종류) △재무구조(자기자본이익률, 총수익, 수익성장, 이용자당수익, 영업이익경비율) △대차대조표(자산, 예금, 예대율) △자금 조달 등 크게 5가지 항목, 10개 세부항목으로 분류해 이에 대해 평가했다.케이뱅크는 종합점수 43.5점으로 13위를 기록했다. 10년 일찍 설립된 일본 SBI스미신(15위), 챌린지 뱅크의 상징으로 알려진 영국의 레볼루트(22위)보다 좋은 평가를 받았다. 국내 세 곳의 인터넷 은행 중 카카오뱅크는 48.4점으로 8위, 토스뱅크는 18.8점으로 59위를 기록했다. 특히 케이뱅크는 지난해 '수익 성장' 항목에서 10점 만점에 10점을 획득하며, 성장성 분야에서 국내는 물론 전 세계에서 가장 우수한 성과를 낸 것으로 평가받았다. 수익 성장에서 만점을 획득한 은행은 케이뱅크를 포함해 100여곳 중 5곳뿐이었다. 케이뱅크는 지난해 당기순이익 225억원을 기록하며 처음으로 연간 흑자전환에 성공했다. 전년인 2020년 1054억원 적자에서 극적인 실적 반등을 이뤄냈다. 올해 상반기에는 457억원의 순이익을 내며 지난해 연간 실적을 넘어섰다. 본격적인 흑자 궤도에 올라선 셈이다.케이뱅크는 월간 고객 성장에서도 10점 만점에 6점을 받았다. 케이뱅크의 고객은 2019년 4월 100만명을 돌파한 후 2021년 300만명, 같은해 5월 500만명, 12월 700만명을 돌파하며 가파른 성장세를 보이고 있으며 올들어선 지난 9월말 현재 800만명을 넘어서는 등 성장세를 이어가고 있다.  케이뱅크는 상품의 종류, 예대율(LDR) 항목에서도 10점 만점에 9점을 획득, 상품 다양성과 재무 안정성에서 측면에서도 좋은 평가를 받았다.케이뱅크는 지난 2020년 최초의 100% 비대면 아파트담보대출 상품을 출시한 것을 비롯해 지난해 '사잇돌대출'과 전세대출, '챌린지 박스' 등을 내놨다. '사잇돌대출'은 중·저 신용자에게 제공하는 중금리대출 상품이다. '챌린지 박스'는 자동으로 목돈을 모은다는 콘셉트의 상품으로, 매주 자동 모으기 기능을 통해 목표한 금액을 목표일까지 모으는 통장이다.이어 올해는 사장님대출(보증), '기분통장', 사장님 신용대출 등을 출시하며 상품군을 확대하고 있다. '기분통장'은 매일 느끼는 기분을 반영한 감정 이모지를 선택하고, 일기처럼 메시지를 적고 난 뒤 저금할 금액을 직접 정할 수 있는 것이 특징이다. 오늘 하루 느끼는 감정을 소중히 기록하고 소액 저축에 대한 욕구가 강한 MZ세대를 겨냥한 상품이다.케이뱅크는 타 금융사와의 제휴를 통해 고객 서비스를 확대하고 있다. 증권사의 경우 NH투자증권을 시작으로 미래에셋증권, 삼성증권 등과 계좌개설 제휴를 맺어 케이뱅크 앱에서 주식을 사고 팔 수 있는 서비스를 제공한다. 또 지난해 7월 첫 신용카드인 '케이뱅크SIMPLE카드'를 시작으로 올 4월 '케이뱅크 롯데카드', 8월 '케이뱅크 삼성iD카드' 등을 출시했다. 이밖에 업비트(가상자산 거래소), 당근페이(중고물품 거래 플랫폼인 당근마켓의  간편결제 서비스), 동행복권(기획재정부 복권위원회로부터 수탁 받아 발행 및 판매하는 복권) 등과도 제휴 서비스를 제공하고 있다. 케이뱅크 관계자는 "인터넷 전문은행 중 성장성과 수익성, 상품 다양성을 인정받은 것"이라며 "앞으로도 혁신 상품과 제휴 서비스로 고객들의 편의성을 제고하고 성장성과 수익성도 강화하겠다"고 말했다.케이뱅크가 글로벌 리서치기관 평가에서 성장성 부문 최고점을 받았다. 케이뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>양산부산대병원, 카자흐스탄 국립의료기관 2곳과 의료협력 체결</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000023640?sid=103</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>양산부산대병원은 최근 카자흐스탄 국립의료기관 2곳과 보건의료 분야에서의 상호 협력을 위한 양해각서(MOU)를 잇따라 체결했다고 27일 밝혔다.이번 협약식은  카자흐스탄의 아스타나에 있는 국립연구암센터, 알마티에 있는 국립의과대학 부속병원에서 각각 진행됐다. 협약서에는 의료진 교육·연수, 현지 환자에 대한 자문·의뢰, 공동 연구 및 학술활동 지원 등을 비롯해 상호 협력체계를 구축하는 내용이 담겼다고 한다.양산부산대병원은 이번 협약에 따라 우리의 의료 및 융합과학기술이 카자흐스탄의 보건의료시스템에 기여할 것으로 보고 있다. 아울러 상호 교류를 통해 양국의 의학 발전방안도 모색할 계획이다. 한편, 양산부산대병원은 한국보건산업진흥원이 주관하는 ‘ICT 기반 의료시스템 해외 진출 시범사업’으로 아스타나와 알마티의 지역거점 협력병원들에 대한 ‘AI 기반 캡슐내시경 원격 판독시스템’을 ㈜캡토스와 공동 양산부산대병원은 최근 카자흐스탄의 국립의료기관 2곳과 보건의료 분야에서의 상호 협력을 위한 양해각서를 잇따라 체결했다.수행하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 예·적금 금리 최대 1.2%p 인상… 파킹통장 2.6% ‘인뱅 최고’</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000848300?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>1년 정기예금 금리 4.50%26주적금은 최고금리 기준 4.00%        인터넷전문은행 카카오뱅크는 지난 12일 한국은행 기준금리 인상분을 반영해 예·적금 기본 금리를 최대 1.20%포인트(p) 인상하기로 결정했다고 18일 밝혔다. 변경된 예·적금 금리는 19일 신규 가입부터 적용된다.카카오뱅크 판교 오피스. /카카오뱅크 제공        카카오뱅크는 우선 ‘파킹통장’ 세이프박스 기본 금리를 0.40%포인트 인상해 연 2.60% 금리를 적용한다. 세이프박스는 계좌 속 금고로 자유로운 입출금을 통해 통장의 여유자금을 간편하게 분리해서 관리할 수 있다. 최대 보관 한도는 1억원으로 입출금계좌당 1좌씩 개설 가능하며, 하루만 맡겨도 연 2.60% 금리를 제공한다.이번 금리 인상으로 카카오뱅크는 케이뱅크, 토스뱅크 등 인터넷전문은행 파킹통장 중 가장 높은 금리를 제공하게 됐다. 케이뱅크의 경우 2.50%, 토스뱅크는 2.3%를 제공한다. 최근 인터넷전문은행은 금리 인상기 고객 이탈을 방지하기 위해 잇달아 금리를 올리고 있다.아울러 카카오뱅크는 예·적금 기본 금리를 최대 1.2%포인트 인상한다. 26주적금 금리는 0.30%포인트 인상한다. 이에 따라 26주 동안 자동이체 성공 시 0.50%포인트 우대금리를 제공해 최대 연 4.00%의 금리가 적용된다.정기예금 금리 최대 1.20%포인트 인상한다. 1년 만기 기준 연 4.50%, 2년 기준 4.55%, 3년 기준 4.60% 금리를 제공한다.자유적금 금리는 0.40~0.70%포인트 인상한다. 자유적금은 자동이체 신청 시 0.20%포인트 우대금리를 적용하는데 우대금리 적용 시 1년 만기 자유적금은 최고 연 4.40%다. 3년 만기 자유적금은 최고 연 4.50%의 금리를 제공한다.카카오뱅크 관계자는 “지난 10월 12일 한국은행 기준금리 인상분을 반영하여 수신금리를 올렸다”며 “고객에 편리한 금융 뿐 아니라 보다 많은 혜택을 드리기 위해 앞으로도 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.10.26.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>이창용 총재, 시중 은행장들과 만찬 회동…“금융시장 안정 위해 협력”</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005351086?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>국내외 금융시장 동향 공유 및 은행산업 현안 논의 진행김광수 회장 “단기금융·채권시장 안정화 책임 다할 것”[이데일리 정두리 기자] 이창용 한국은행 총재가 15개 시중은행장들과 만찬 회동에 나섰다. 최근 국내외 금융시장 동향에 대해 점검하고 금융시장 불안정성 대응을 위한 은행권과의 협력을 도모했다. 은행연합회는 26일 한국은행 총재 초청 은행장 간담회를 개최하고, 최근 국내외 금융시장 동향에 대한 인식을 공유하는 등 은행산업 현안에 대해 논의하는 시간을 가졌다. (아랫줄 왼쪽부터)권준학 농협은행장, 진옥동 신한은행장, 유명순 한국씨티은행장, 김광수 은행연합회 회장, 이창용 한국은행 총재, 강석훈 산업은행 회장, 윤종원 기업은행장, 박종복 SC제일은행장, 윤희성 수출입은행장. (윗줄 왼쪽부터)박성호 하나은행장, 홍민택 토스뱅크 대표, 윤호영 카카오뱅크 대표, 서한국 전북은행장, 이원덕 우리은행장, 이재근 국민은행장, 최홍영 경남은행장, 서호성 케이뱅크은행장, 이상형 한국은행 부총재보. (사진=은행연합회)은행연합회는 한국은행과의 소통을 강화하고 금융현안에 대한 이해의 폭을 넓히기 위해 26일 ‘한국은행 총재 초청 은행장 간담회’를 개최했다고 밝혔다.이날 자리에는 이창용 총재와 김광수 은행연합회장를 비롯해 15개 시중 은행장(산업은행·농협은행·신한은행·우리은행·SC제일은행·하나은행·기업은행·국민은행·한국씨티은행·수출입은행·전북은행·경남은행·케이뱅크·카카오뱅크·토스뱅크)이 참석했다. 간담회에서 이 총재와 은행장들은 최근 국내외 금융시장 동향에 대한 인식을 공유하고, 은행산업 현안에 대해 논의를 진행했다.이 총재는 이달 통화정책방향 결정배경을 설명한 데 이어, G20 회의 및 IMF 연차총회 당시 논의됐던 글로벌 금융시장의 주요 이슈에 대한 국제금융계의 시각을 소개하고 의견을 교환했다. 한은 금융통화위원회는 지난 12일 연 2.50%인 기준금리를 3.00%로 0.50%포인트(p) 인상하는 ‘빅 스텝’을 단행한 바 있다. 당시 이 총재는 “물가 상승률이 5%대라면 원인이 수요 측이든 공급 측이든, 경기를 희생하든지 간에 금리인상 기조를 가져가겠다“면서 “물가 오름세를 꺾기 위해 물가 중심으로 경제를 운영할 수밖에 없다”고 설명했다. 그러면서 11월 금통위에서도 사실상 기준금리를 추가 인상할 방침임을 시사한 바 있다. 또한 이 총재는 최근 변동성이 높아진 신용채권시장과 단기금융시장 상황에 대해 은행장들과 논의한 데 이어 금융시장의 안정을 위해 함께 소통하고 협력해 나가기로 했다. 김광수 회장은 한은이 최근 정기적금 최단만기 규제 완화 등 금융환경 변화에 대응해 적시에 규제개선을 추진해 온 점에 대해 감사의 뜻을 표했다. 앞서 한국은행은 내년 4월부터 1개월짜리 초단기 적금을 만들 수 있도록 관련 규정개정을 발표했다. 현재 은행 정기적금은 최소 6개월 이상부터 가능하도록 규정돼 있지만 바뀐 소비습관에 따라 개정될 필요성이 제기되자 이를 1개월로 줄이겠단 방침이다. 은행권에서도 지난달 초 은행 정기적금 최소 만기를 1개월로 단축해달라고 한은에 건의한 바 있다. 한은은 다음달 금융통화위원회에서 개정안에 대한 의결을 진행할 것으로 보인다.그러면서 김 회장은 “앞으로 중앙은행디지털화폐(CBDC)를 비롯한 다양한 금융 혁신 추진 과정에서도 은행권과 긴밀히 소통하기를 기대한다”고 밝혔다.아울러 김 회장은 “최근 금융시장 불안정성에 대응해 은행권도 정부와 한국은행과 협력해 시장 유동성 공급 확대에 적극 노력함으로써, 단기금융시장 및 채권시장 안정화를 위한 책임을 다하는 한편, 일시적인 유동성 부족으로 어려움을 겪는 기업부문에 대한 대출을 차질없이 지원하는 등 자금 실수요 공급에도 최선을 다하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>금감원 ‘금융 비상대응’ 전방위 점검</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002053407?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>카카오뱅크·페이 등 자료 요구시간대별 매뉴얼 등 이행 체크금융감독원이 SK C&amp;C 데이터센터 화재로 서비스 장애가 발생한 카카오의 금융 계열사들을 대상으로 비상 대응이 적절했는지 전방위 점검에 나선다. 다른 금융사에 대해서도 전산센터 화재에 대비한 비상대응계획을 재점검할 방침이다.17일 금융권에 따르면 금감원은 이날부터 카카오뱅크, 카카오페이, 카카오증권 등 카카오 금융계열사를 대상으로 화재로 인한 전산센터 문제 발생에 따른 비상 대응에 문제가 있었는지 대대적인 점검에 나선다.금감원은 카카오 금융 계열사들이 화재로 전산센터에 문제가 생긴 15일부터 16일까지 시간대별로 어떤 대응을 했는지와 비상 대응계획 매뉴얼 및 시나리오를 제출받아 그대로 이행했는지 증빙 자료를 제출하라고 요구할 계획이다.금감원 관계자는 “점검에서 위규 사항이 발견되면 현장 점검이나 검사에 바로 돌입하게 된다”고 말했다.일반적으로 시중은행들은 2~3개 데이터센터에서 데이터를 관리하고, 재해복구시스템(DR)도 둔다. 가령 신한은행은 경기도 주전산센터를 죽전에, DR센터를 일산(DR)에 운영하는 한편, 백업데이터는 별도로 보관하고 있다. 주전산센터 데이터는 실시간으로 DR센터에 동기화 되고, 주전산센터에서 문제가 생기면 DR센터가 주전산센터 역할을 수행한다. 매년 1회 이상 재해 발생 대비 훈련도 실시하고 있다. 또 하나은행은 인천 청라, 경기 분당, KB국민은행은 경기 김포, 서울 여의도, 우리은행은 서울 상암, 경기 분당 등에 데이터센터를 두고 유사한 방식으로 운영하고 있다.빅테크도 마찬가지다. 네이버는 메인 서비스 서버를 강원도 춘천에 있는 자체 데이터센터 ‘각’ 에 두고 있고, 일부 서비스 서버는 판교 등에 분산, 재난 발생에 대비하고 있다. 내년 상반기엔 제2데이터센터인 ‘각 세종’도 열 예정이다. 토스도 주센터와 DR센터를 나눠 데이터 관리를 이중화하고 있으며, 주센터와 DR센터를 동시에 활성화해 장애 시 빠른 대응이 가능하도록 하고 있다.카카오뱅크 전산센터는 화재가 난 경기도 판교가 아닌 서울 상암과 부산(DR)에 있다. 이에 화재로 인한 전산상 직접 손상은 없었다.현재는 대부분 복구가 완료된 상태지만, 장시간 먹통으로 인증 서비스 등에 문제가 생겨 자칫 대형 금융 사고로 이어질 수 있었다고 금감원은 보고 있다.금감원은 나머지 모든 금융사에 대해서도 화재로 인한 전산센터 장애에 대한 비상 대응계획을 자체적으로 점검하도록 했다.은행권 관계자는 “은행들은 전산에 민감하고 그간 자잘한 사고들도 있었기 때문에 미리 대비를 철저히 해 뒀다”라며 “화재 발생 시 상세 대응 계획과 작동 여부를 재점검할 것”이라고 말했다.금융당국 관계자는 “이번 사태로 카카오 금융계열사에서는 카카오톡과 연계되는 서비스와 인증 서비스 등이 정상적으로 작동하지 않는 상황이 발생했다”면서 “이런 유사한 서비스와 연계돼 영향을 받는 모든 금융사도 비상 대응계획을 재점검해야 할 필요가 있다”고 말했다. 김성훈·박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>빅테크에 눈초리 보내는 요즘...‘제품윤리’ 화두 꺼낸 토스 [서정은 기자의 나·알·아]</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002054431?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>“옳고 그름 생각해야” 사내 캠페인 조용히 진행 고객 해지 편하게 하고, 불쾌감 없어야[헤럴드경제=서정은 기자] “토스가 그동안 앞만 보고 크느라 안티(Anti) 세력이 많았잖아요. 최근엔 좀 달라진 것 같던데요?” 금융당국 관계자는 최근 토스 내에 갑자기 ‘윤리 경영’ 바람이 분다고 했다.토스가 하고 있는 윤리 캠페인은 금융당국이 빅테크나 테크핀 등의 내부통제를 주의깊게 바라보는 것과 결을 같이 한다는 게 업계 해석이다. 당국은 앞서 핀테크 업계가 알고리즘 등을 이용해 자사에게 유리한 정보를 제공하는 등 편의주의적 서비스 제공에 나서고 소비자 보호에 소홀히 할 수 있다는 지적을 꾸준히 해왔다. 이에 토스도 잘못 개선 차원이 아닌 소비자 권익 보호를 재인식하는 것으로 캠페인을 펼치고 있다. 실제 토스 내에 진행된 제품윤리 캠페인 내용을 보면 ▷이탈, 삭제, 해지 등을 편하게 해 거부할 고객 권리 존중하는 것 ▷고객에게 불안감, 조급함, 불쾌함을 유도하지 않는 것 ▷투명하게 의도와 비용, 결과를 인지시키는 것 ▷사용자 모르게 정보가 공개 되도록 체크해두지 않는 것 ▷국적, 성별, 나이 등에 대한 차별이나 선입견을 드러내지 않고 사회적 문제에 대한 예민함을 가지는 것 ▷누구나 차별없이 토스를 사용할 수 있도록 하는 것을 중점으로 뒀다.아울러 지난 8월 한달 동안은 토스 앱 내에서 제품 윤리에 맞지 않는 사례를 사내 직원들이 직접 제보하는 캠페인을 진행하기도 했다. 8~10월 사이에는 월 1회씩 제품을 만들고 개선할 때 옳고 그름에 대한 판단 기준을 세울 수 있도록 하는 윤리 강좌를 신설했다. 계열사인 토스플레이스는 최근 공정거래 자율준수 프로그램을 도입했는데, 공정거래법 위반 ‘소지’ 자체를 사전에 예방하고 차단하는게 목적이다.이번 조치는 그간 토스에 쏟아진 비판과도 무관하지 않다. 최근 국회 정무위원회 소속 황운하(더불어민주당) 의원에 따르면 토스는 2018년부터 지난 8월까지 토스 앱 내 보험상담을 신청한 이용자의 개인신용정보 84만건 이상을 법인 보험대리점과 개인 보험설계사에 판매해 200억원대의 매출을 올린 것으로 확인됐다.토스는 마이데이터 사업자 자격을 취득했으므로 불법이 아니라는 입장을 내놨었다. 그러나 고객들에겐 불쾌감을 일으킬 수 밖에 없는 이슈다. 이후 개인정보 유상판매 논란이 일자 지난 6월 앱 이용자 약관에 이용자 정보가 유상판매 될 수 있다는 내용을 포함하기도 했다. 금융당국 관계자는 “토스 뿐 아니라 빅테크들의 행태가 소비자들에게 편의를 제공한다는 명목으로 가장 본질적인 소비자 보호를 놓치는 대목이 있다”며 “‘불법만 아니면 돼’라는 사고에서 벗어나 최근 빅테크 영향력이 커지는 시대에 역할을 재정립하고 고민하는 계기가 돼야할 것”이라고 말했다.토스 관계자는 측은 “과거에 어떤 잘못을 했으니 이것을 개선하자는 차원보다는 ‘본질적인 것’에 집중하자는 데 내부 공감대가 모였다”고 “신뢰회복 차원이라고 이해해달라”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>최근 6년간 은행권 전자금융사고 421건</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003746107?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>우리 72건, 카카오 52건, 신한 44건, SC 43건, 케이 37건    뉴시스     지난 주말 발생한 SK C&amp;C 판교 데이터센터 화재에 따른 카카오 '먹통' 사태로 카카오 금융계열사들의 일부 서비스도 차질을 빚은 가운데 은행권에서 지난 6년 간 발생한 전자금융사고가 421건에 달하는 것으로 나타났다.   19일 금융감독원이 국회 정무위원회 소속 양정숙 무소속 의원에게 제출한 자료에 따르면 지난 2017년부터 올해 7월까지 국내 13개 은행에서 발생한 전자금융사고는 총 421건이며 이 가운데 28건은 장애 지속시간이 만 하루를 넘긴 것으로 집계됐다.   은행 종류별로 보면 시중은행(국민·우리·신한·하나·SC·씨티)에서 발생한 사고가 전체의 58.6%에 해당하는 247건으로 가장 많았고 인터넷은행(케이·카카오·토스) 105건, 특수은행(산업·기업·농협·수협) 69건 등의 순이었다.   시중은행 중에서는 우리은행이 72건으로 가장 많은 전자금융사고가 발생했고 이어 신한은행 44건, SC제일은행 43건, 하나은행 34건, 국민은행 31건, 씨티은행 23건 등의 순이었다.   인터넷은행은 카카오뱅크가 52건으로 가장 많았으며 이어 케이뱅크 37건, 토스뱅크 16건이었다. 다만 2021년 10월부터 영업을 시작한 토스뱅크의 경우 집계 기간이 2021년부터 올해 7월까지여서 짧은 업력에 비해 많은 전자금융사고가 발생한 것으로 볼 수 있다.   특수은행 중에서는 산업은행이 32건으로 가장 많았으며 수협은행 16건, 농협은행 15건, 기업은행 6건 등이었다.   13개 은행의 연도별 전자금융사고는 2017년 68건에서 2018년 107건으로 57.3% 증가한 이후 2019년 54회로 줄었지만 2020년부터 다시 증가세로 돌아섰다. 2020년 67건으로 전년대비 약 15% 증가한 데 이어 올해는 7월까지 49건이 발생해 연말까지 가면 지난해보다 증가할 것으로 예상된다.   피해복구에 걸린 시간을 살펴보면 전체 사고 중 복구에 소요된 시간이 24시간 이내인 경우는 393건(93.3%), 24시간을 넘긴 사고는 28건(6.7%)이었다.   복구에 24시간 이상 소요된 사고 가운데 20건은 시중은행에서 발생했는데 우리은행이 12건으로 가장 많았다. 하나은행은 3건, 국민은행과 씨티은행은 각 2건씩이었으며 신한은행은 1건, SC제일은행은 0건이었다.   시중은행을 제외한 나머지 은행들 중에서 복구에 만 하루가 넘게 걸린 사고는 농협은행 3건, 수협은행 2건, 카카오뱅크 2건, 토스뱅크 1건 등이었으며 나머지 은행은 없었다.   복구에 열흘 이상 시간이 걸린 사고도 6건 있었는데 우리은행 2건, 국민은행·하나은행·수협은행·카카오은행 각 1건씩이다.   특히 우리은행은 2018년 정보유출 사고로 '인터넷뱅킹 대량 부정접속'이 발생해 복구에만 33일이 걸렸다. 하나은행도 2017년 프로그램 오류로 인해 '금리 감면 누락 발생' 사고가 생기면서 복구에 27일이 소요됐다.   지난 2020년에는 카카오뱅크에서 외부요인으로 발생한 '후불 교통카드 기능 불가' 사고가 복구에 16일이 걸렸다. 올해 들어서는 지난 6월 수협은행에서 프로그램 오류로 '지급이자 과소 계산' 사고가 발생했으며 12일이 지나 복구됐다.   양 의원은 "은행들의 전산금융사고가 매년 줄어들지 않고 늘어나는 것은 사고발생시 강력한 제재와 재발 방지책 마련이 소홀했기 때문"이라며 "국민이 입었을 피해에 대한 보상과 확실한 재발방지 대책이 제대로 수립되도록 금융감독 당국의 역할이 중요하다"고 했다.   우리은행 관계자는 "전산사고 72건중 약 60%가 2018년 차세대 시스템 도입 당시 발생했다"며 "은행 시스템 전체를 바꾸는 과정에서 발생한 특수성을 감안하면 타행과 비슷한 수준"이라고 말했다.   그러면서 "현재 우리은행 전산시스템은 안정적으로 운영 관리되고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>삼양사, ‘HI JAPAN 2022’ 참가…스페셜티 소재 인지도 높여</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002288309?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>일본 동경 건강식품원료박람회 ‘HI JAPAN 2022’ 홍보 부스 운영‘난소화성말토덱스트린’ ‘알룰로스’ 등 스페셜티 소재 알려차세대 기능성 소재 ‘케스토스’ 선뵈 ◆…삼양사 식품그룹 최낙현 대표(가운데)가 지난 12~14일 일본 동경 빅사이트 전시장에서 열린 ‘HI JAPAN 2022’의 삼양사 홍보 부스를 방문해 임직원을 격려했다.   사진=삼양사 제공      삼양그룹 식품·화학 계열사인 삼양사(최낙현 대표)는 최근 일본 동경에서 열린 건강기능성 원료 및 제품 전시회 ‘HI(Health Ingredients) JAPAN 2022’에 참가해 스페셜티 소재 홍보 부스를 운영했다고 17일 밝혔다.   삼양사는 이번 전시회에서 일반 식품에 기능성을 표시할 수 있는 소재인 난소화성말토덱스트린을 중점적으로 알렸다.   수용성 식이섬유인 난소화성말토덱스트린은 섭취 시 △배변활동 원활 △식후 혈당 상승 억제 △혈중 중성지질 개선 등에 도움을 줄 수 있는 기능성 원료로 음료, 제과, 제빵 등 다양한 제품에 활용할 수 있다. 현재 삼양사는 ‘화이버리스트(Fiberest)’라는 브랜드로 분말 및 액상형 난소화성말토덱스트린을 생산하고 있다.   당류 저감에 특화된 ‘알룰로스’도 비중 있게 소개했다. 삼양의 대표적인 스페셜티 소재인 알룰로스는 무화과, 포도 등에 함유된 단맛 성분으로 설탕과 비슷한 단맛을 내지만 칼로리는 ‘제로’ 수준이어서 최적의 차세대 감미료로 불린다. 삼양사는 최근 울산에 스페셜티 전용 공장을 짓고 유통에 용이한 결정형 알룰로스를 생산하고 있다.   이외에도 건강기능식품 원료로 사용되는 프락토올리고당의 일종인 ‘케스토스’를 선보였다. 삼양사는 케스토스를 건강기능식품 원료로 인정받기 위한 인체 적용 시험을 진행중이다.   전시회가 열리는 일본은 제과, 제빵, 음료, 보충식 등 다양한 식품 개발에 기능성 소재 사용이 활성화 되어 있다.   일반 식품 기능성 표시 제도는 우리나라보다 6년이나 앞선 2015년에 도입했다. 특히 난소화성말토덱스트린은 여러 기능성 원료 중에서도 일본 기능성 표시 식품 시장에서 가장 많이 사용되는 소재 중 하나다.   삼양사는 이 같은 핵심 스페셜티 소재들의 효과적인 홍보를 위해 원료 샘플과 함께 음료, 당류가공품, 단백질바, 시럽 등 실제 소재가 적용된 제품을 카테고리별로 나눠 전시했다. 방문객들의 이해를 돕고 주목도를 높이기 위해 시식 샘플과 함께 브로슈어, 리플릿 등도 제공했다.   삼양사 식품그룹의 최낙현 대표는 “잠재 고객사를 대상으로 삼양의 스페셜티 소재를 알리기 위해 전시회에 참가했으며 행사 기간 사흘간 600여 명 이상이 방문해 삼당할 정도로 성황을 이뤘다”며 “앞으로도 일본 기능성 소재 관련 전시회에 지속 참가할 예정이며 일본 외 글로벌 해외 식품원료 전시회에도 적극 참가해 삼양의 스페셜티 소재 인지도를 높이고 이를 이용한 신제품 개발을 유도할 것”이라고 강조했다.   삼양사는 이번 ‘HI JAPAN 2022’에 참가한 데 이어 오는 11월 미국 라스베이거스에서 열리는 ‘라스베이거스 식품원료 박람회(Supply Side West, SSW) 2022’에도 참가해 삼양의 스페셜티 소재를 해외 시장에 선보일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>양산부산대병원, 카자흐스탄 국립의료기관 2곳과 의료협력 MOU</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011501301?sid=102</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>기사내용 요약카자흐스탄 국립연구암센터·알마티 국립의과대학 부속병원에서 각각 진행 [양산=뉴시스] 안지율 기자 = 경남 양산부산대병원이 카자흐스탄 국립의료기관 2곳과 향후 보건의료 분야에서 지속적 협력을 위한 양해각서(MOU)를 체결했다고 27일 밝혔다.이번 협약식은 각 기관의 주요 보직자들이 참석한 가운데 카자흐스탄 아스타나에 있는 국립연구암센터(National Research Oncology Center)와 알마티에 있는 국립의과대학 부속병원(Interna Clinic)에서 각각 진행됐다.주요 협약내용으로 의료진 교육과 연수, 현지 환자에 대한 자문 및 의뢰 그리고 공동연구 및 학술활동 지원 등 양 병원 간 상호협력체계를 구축하기로 했다.이번 협약체결에 따라 양산부산대병원의 의학과 기초과학을 접목한 융합과학기술을 토대로 카자흐스탄의 보건의료시스템에 이바지할 것으로 기대된다. 더불어 기관 간 꾸준한 의료 교류를 통해 양국의 의학 발전방안도 모색할 계획이다.한편 양산부산대병원은 한국보건산업진흥원(KHIDI)에서 주관하는 ‘2022년 ICT기반 의료시스템 해외 진출 시범사업 운영’을 통해 아스타나와 알마티 지역 거점 협력병원과 ‘A.I.기반 캡슐내시경 원격판독시스템’을 ㈜캡토스와 공동수행 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>결국 2%?… 빅테크 보험 중개, 계약 건수별로 수수료 받는다</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000861267?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>빅테크의 보험 중개 플랫폼 수수료를 둘러싼 갈등이 심화하고 있다./그래픽=이미지투데이 금융위원회가 네이버와 카카오, 토스 등 빅테크들이 보험상품을 비교·추천하고 받는 수수료를 판매 규제 방안에 담기로 했다.  그동안 빅테크들은 시장 자율에 맡겨야 한다며 명문화 하는 것을 반대했지만 금융위원회가 이를 받아들이지 않은 것이다. 조만간 금융위원회는 수수료율도 최종 확정할 예정이다. 18일 금융권에 따르면 금융위원회는 이달 말 열릴 핀테크들과 회의에서 보험 비교·추천 서비스에 적용할 수수료율을 확정할 예정이다. 즉 금융위원회가 보험 계약 건수별로 수수료 지급하는 것을 가이드라인에 명시하자는 보험사들의 의견을 받아들이기로 한 것이다.  반면 수수료 지급 방식을 명시하지 않아야 한다는 빅테크들의 의견은 반려했다.  현재 보험사들은 빅테크 플랫폼에 적용할 수수료율 상한선을 2%로 주장하고 있다. 네이버가 네이버쇼핑 등을 소상공인들에게 받는 수수료율인 2%를 보험 플랫폼에도 동일하게 적용해야 한다는 입장이다.  보험사들은 비대면 채널에서 수수료를 받지 않고 있는 상황에서 플랫폼을 통한 판매가 추가 될 경우 새로운 형태의 수수료가 생겨나고 이에 따른 비용이 보험료 인상으로 이어질 것을 우려하고 있다. 반면 빅테크들은 역마진 등을 우려해 최대 10%의 수수료율을 요구하고 있다. 보험업계 관계자는 "빅테크의 보험 비교, 추천 서비스는 사실상 보험 판매와 다름없다"라며 "플랫폼의 영향력이 커지면 중장기적으로 보험사들이 플랫폼에 종속 될 것이 우려된다"라고 말했다.  빅테크사 한 관계자는 "업체마다 사정이 다른데 수수료율을 정해 명문화 하는 것은 시장 논리에 맞지 않다"라고 전했다.  지난 8월 금융위원회가 온라인 플랫폼의 보험 비교·추천 서비스를 허용하겠다고 밝힌 이후 빅테크 업체는 환영하는 분위기가 강한 가운데 보험업계는 플랫폼에 휘둘릴 수 있다는 우려가 크다. 온라인 플랫폼에 들어갈 보험상품과 보장금 수준도 쟁점이다.  보험 비교·추천 서비스는 온라인 금융플랫폼에서 여러 보험사의 상품을 비교하고 추천하는 것이다. 현재 보험업 라이선스가 없는 빅테크는 보험상품을 비교·추천할 수 없는데 이를 혁신 금융 서비스로 지정해 규제를 풀겠다는 것이다. 네이버와 카카오의 보험 비교·추천 서비스 진출은 대면 영업 위주인 보험시장의 비대면 영업 전환을 촉진시킬 가능성이 크다. 당초 금융위원회는 이달 중순부터 약 1개월 동안 빅테크의 보험 비교·추천 서비스를 시범운영한 후 이르면 오는 11월 말 제도화 할 예정이었다. 하지만 보험대리점과 보험사들의 거센 반발에 일정을 연기했다. 금융당국은 이달 말 빅테크 실무진들과 만나 단계별 상품 판매 규제 방안을 최종 조율해 시행안을 발표할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>일부 정상화됐지만 복구 지연…고개 숙인 카카오</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000565357?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[앵커] 어제(15일) 오후 국민메신저 카카오톡을 비롯한 대부분의 카카오 서비스에 일제히 장애가 발생했습니다. 서버가 있는 데이터센터의 화재 탓이었는데요. 밤샘 복구 작업으로 일부 서비스는 정상화 됐지만, 완전 복구까지는 긴 시간이 걸릴 전망입니다. 김동욱 기자입니다.[기자] 화재 발생 당일 밤샘 복구 작업까지 거치며 카카오 서비스가 차츰 정상화 수순을 밟고 있습니다. 다음 뉴스 서비스를 시작으로, 카카오톡의 경우 현재 문자 메시지 주고 받기 정도는 가능해졌습니다.카톡 PC 버전 로그인도 가능해졌지만 사진과 동영상 전송 등의 서비스는 여전히 복구가 진행 중입니다. 서비스들이 먹통이 된 건 카카오가 입주해있는 SK C&amp;C 판교 데이터센터에 화재가 발생하면서부터입니다.다행히 불이 서버나 전산실로는 번지지는 않아 데이터 손상은 없었을 것으로 추정되지만, 복구는 지연되고 있는 상황입니다.&lt;양현서 / 카카오 부사장&gt; "화재 현장이었기 때문에 진입이 어려운 점이 있었습니다. 그래서 조금 더 시간이 지연되고 있어서 최선을 다하고 있지만 전원 공급에 따라 복구 시점이 언제가 될지는…"같은 데이터센터를 이용하는 다른 기업들도 비슷한 문제를 겪으면서 네이버와 IBM클라우드 등에 대한 복구 작업도 이뤄지는 중입니다.&lt;김완종 / SK C&amp;C 부사장&gt; "월요일 출근해서 회사 업무들을 보실 텐데 그런 업무에 지장이 없도록 조치를…"이번 사태로 가장 큰 장애를 겪은 카카오는 고개를 숙였습니다.남궁훈·홍은택 카카오 각자대표는 사과문을 통해 "이번 사태로 인해 불편을 겪고 계신 모든 이용자들에게 고개 숙여 진심으로 사과한다"고 밝혔습니다.한편, 네이버와 토스, 우티 등 카카오 경쟁사들이 카톡 먹통 와중에 경쟁 서비스 적극 홍보에 나서면서 눈길을 끌었습니다.연합뉴스TV 김동욱입니다. (dk1@yna.co.kr)#카카오 #서비스장애 #복구지연 #사과 #카카오톡  연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>'청담동 술자리' 확전…한동훈 "민주당 사과" 야 "제2 국정농단"</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000319216?sid=100</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[앵커]민주당 지도부가 청담동 심야 술자리 논란의 판을 키우고 있습니다. 그러면서 민주당과 한동훈 법무부 장관 간의 공방으로도 확전되는 모양새인데요. 민주당은 의혹을 제기한 김의겸 의원을 감싸며 제2의 국정농단이라는 표현까지 썼습니다. 한 장관은 허위 사실 유포라며 민주당 차원의 사과를 공식적으로 요구했습니다. 박준우 마커가 '줌 인'에서 관련 소식 정리했습니다.[기자][술 마시고, 노래 부르고… 무슨 배지 뭐 이런 거 있어, 대한민국 태극기 배지.][장경태/더불어민주당 최고위원 (어제) : 첼리스트가 억압된 상황에 강요된 진술이 아닌, 친구와 편하게 대화하는 녹취라 신빙성이 더욱 높아 보입니다.]김의겸 의원이 쏘아올린 작은 공, 이제 작은 공이 아니라 정가를 뒤흔드는 대포알 수준이 됐습니다. 윤석열 대통령과 한동훈 장관의 심야 술자리 논란, 김 의원이 토스하고 민주당이 스파이크를 날릴 준비 중인데요. 지도부가 직접 팔을 걷어붙이고 판을 키우고 있죠. 오늘(27일)은 '제2의 국정농단'이라는 네이밍까지 들고 나왔는데요.[김성환/더불어민주당 정책위의장 : 만약에 이것이 사실이라면 그야말로 이 일은 제2의 국정농단에 해당될 만큼 엄청난 사건이 아닐 수 없습니다. 이 시기에 뭐 잘 아시겠지만, 김앤장 만난 것 자체로도 문제입니다만, 김앤장이 론스타 사건을 맡고 있고, 또 일제 강제징용과 관련한 소위 일본 측을 대리한 그런 상황 아닙니까.]화살의 최종 목표물은 윤 대통령이었습니다. 민주당 김성환 정책위의장, 혹시 다정회 애청자인 정회원일까요? 김 위원장의 논리대로라면 이 소주를 마시는 사람들을 모두 '주사파(主思派)'로 몰 수도 있는 셈입니다. 아, 물론 이 술을 마시는 사람 중엔 주류정화 실장처럼 실제 '주사파(酒四派)'도 있긴 합니다. 주 4일제를 시행 중이죠.김 의장은 윤 대통령을 향해 '주사파(酒四派)'라고 쏘아붙였습니다.[김성환/더불어민주당 정책위의장 : 특히 대통령은 그전에도 가까운 술집에서 새벽까지 술 마시는 것 때문에 국민들의 우려를 자아낸 바 있지 않습니까. 민생은 안 돌보고 새벽까지 술판만 벌이는 게 그게 주사파 아닙니까.]민주당, 그렇잖아도 이재명 대표를 향한 검찰의 칼날을 방어하느라 고전 중이죠.[더불어민주당 민생파탄·검찰독재 규탄대회 (어제) : 민주 말살 대통령이 책임져라! 책임져라! 책임져라! 책임져라!]그 와중에 김의겸 의원을 위한 방탄까지 추가로 마련했나 봅니다. 김 의원 감싸기에도 나섰습니다.[우상호/더불어민주당 의원 (YTN '뉴스킹 박지훈입니다') : 그래서 제보와 녹취가 없었다면 무리한 폭로라고 볼 수 있는데 제보가 있는데 야당 의원이 확인을 안 할 수는 없는 노릇이다, 저는 그렇게 보여지고요. 그런데 다만 여기서 제가 이해할 수 없는 건, 그렇다고 법무부 장관이 야당 의원을 고발하는 행태는 너무 과도하다, 오만하다.]정작 의혹 제기 당사자 김 의원은 지난 25일 이후 침묵을 지키고 있는데요. 그 사이 한동훈 장관은 오늘 개인 자격으로 입장문을 하나 더 냈습니다. 민주당에 당 차원의 사과를 요구한 건데요.[한동훈/법무부 장관 (음성대역) : '민주당 당 차원에서' 다수당에게 주어지는 공신력을 악용하여 저질 가짜뉴스를 진실인 것처럼 공인함으로써, 국민들을 상대로 허위사실을 유포하여 '각인'시키는데 적극 가담한 것입니다. 저는 '허위사실 유포의 피해자'로서, '민주당 차원의 진솔한 사과와 책임있는 조치'를 요구합니다.]국민의힘도 거들었습니다. 김 의원의 빠른 사과만이 김 의원도 살고 민주당도 사는 길이라고 맞섰는데요,.[하태경/국민의힘 의원 (CBS '김현정의 뉴스쇼') : 저는 김의겸 의원이 이제는 사태를 빨리 좀 파악을 끝내고 사과를 했으면 좋겠어요. 그래서 아마 이 사태가 커지게 되면 민주당한테 이로울 게 없고 그래서 아마 지도부에서는 정확한 진상을 파악해라라는 지시가 떨어졌을 것 같고요.][김기현/국민의힘 의원 (YTN '뉴스라이더') : 김의겸 의원이 지금 할 수 있는 최선의 방법은 싹싹 비는 것이다, 한 번만 용서해달라고 비는 것이다, 저는 그렇게 생각합니다.]김기현 의원은 김의겸 의원이 똥볼을 찼다는 표현까지 썼는데요. 김 의원이 다음 총선 공천을 받으려고 과욕을 부리다 벌어진 일이라고 꼬집었습니다.[김기현/국민의힘 의원 (YTN '뉴스라이더') : 저는 김의겸 의원이 공천을 받기 위해서 몸부림치는 과정 중의 하나다. 김의겸 의원, 그러면 제일 먼저 생각나는 것이 흑석거서 아닙니까? 사실 국회의원 자격이 없는 분이 저는 들어왔다고 생각합니다. 그런데 비례대표니까 다음에 지역구 공천 받기 위해서 여러 가지 좀 공을 세워야 되겠다, 그러다 보니까 오버 페이스를 해도 한참 많이 했다.]이러니저러니 해도 결국 가장 중요한 건 진실일 텐데요. 현재로선 민주당의 스파이크가 득점으로 이어질지는 미지수입니다. 토스 받은 배구공의 실체가 불분명하기 때문입니다. 심야 술자리의 증거로 제시된 걸 하나씩 살펴볼까요.[김성환/더불어민주당 정책위의장 : 그것(술자리)을 목격했던 그 첼리스트의 오빠가 그 녹취록은, 녹취된 것은 맞다고 그 사실을 인정했습니다.]먼저 술자리가 있었다고 증언한 증인, 첼리스트입니다. 첼리스트의 친오빠가 한 언론과 인터뷰에서 녹취록의 존재를 인정했는데요. 누군가 인위적으로 만들어내거나 조작한 게 아니라 실제 통화 내용을 녹음한 것이란 뜻이겠죠. 다만 녹취록 내용이 사실인지 아닌지는 별개로 살펴봐야 할 문제입니다. 보통 메시지의 신빙성을 따져보기 위해선 메신저를 검증하곤 하는데요. 문제는 이 메신저인 첼리스트가 잠적한 상황이란 겁니다. 술자리 의혹을 제기한 유튜브 채널 더탐사 측도 첼리스트로부터 '연락 좀 하지 말아달라, 차단하겠다'는 문자를 받았다고 하죠. 민주당 내에서조차 팩트 체크는 어렵게 됐다는 한탄이 나왔습니다. 기자 출신인 신경민 전 의원입니다.[신경민/전 더불어민주당 의원 (YTN '이슈&amp;피플' / 어제) : 여기서 팩트는 녹음이 나온 첼로 연주자입니다. 첼로 연주자를 확인을 했어야죠. 직접이 만약에 안 되면 간접적으로 해야 되는데, 이제 이 첼로 연주자는 이제 땅속으로 숨었을 겁니다. 그래서 이제 이게 말하자면, 어떻게 보면 '10·26의 심수봉' 같이 돼 버린 거예요.]그럼 심수봉이 이미자의 동백아가씨를 연주한 상황이 되는 건가요? 첼리스트와 연락이 두절되자 더탐사는 첼리스트의 일부 개인정보를 공개하기도 했습니다.[유튜브 '시민언론 더탐사' (어제) : 참고로 그 첼리스트는 7월 그 문제가 되는 술자리에 참석할 때까지만 해도 강한 민주당 성향의 지지자였습니다. 그리고 이제 본인 스스로 자기를 개딸이라고 얘기를 했고, 트위터에서도 상당히 민주당 지지 성향을 이제 드러냈고요.]개딸, 이재명 대표의 강성 지지층을 가리키죠. 이게 맞다면 해당 첼리스트는 현재 정부·여당에는 반감을 갖고 있을 것으로 추측해볼 수 있는데요. 여권은 윤 대통령과 한 장관에게 비우호적인 첼리스트가 지어낸 이야기라고 보고 있습니다.[하태경/국민의힘 의원 (CBS '김현정의 뉴스쇼') : 지금 첼리스트라는 분 아프다고 드러내지도 않고 있잖아요. 숨은 거잖아요. {거짓말이라고 보세요?} 거짓말해서 너무 아프겠죠, 마음이. 자기 거짓말 때문에 일이 일파만파로 커지니까 어찌할 바도 몰라서. {그런데 어떻게 이렇게 구체적인 거짓말을 해요? 너무 구체적이던데.} 소설 잘 쓰는 분들이 있잖아요.]여기에 첼리스트의 친오빠도 술자리가 있었던 게 사실이냐는 질문에는 입을 닫았는데요. 오히려 첼리스트의 동의 없이 녹취를 공개한 전 남자친구에 대해 법적 조치를 고려 중이라고 합니다.[김행/국민의힘 비상대책위원 : 동의 받지 않은 녹음 내용과 제보 내용이 여과 없이 국회에서 그대로 흘러나왔다는 것은 남자친구, 더탐사, 그리고 김의겸 의원이 데이트폭력의 공범이자 2차 가해자가 될 수도 있다는 증거입니다.]제보 검증을 위한 두번째 핵심 메신저는 이세창 전 자유총연맹 총재 권한대행인데요. 더탐사 측과의 통화 내용을 보면 이 전 대행은 마치 술자리가 있었던 뉘앙스로 얘기합니다.[이세창 총재 (한국자유총연맹) : {대중가요나 반주 이런 것도 다 가능하죠 OO씨는?} 다 못하는게 없죠. 못하는 것이 없지 {대통령도 굉장히 칭찬했다면서요 연주를 듣고} 그러니까]하지만 이 전 대행은 이후 태도가 180도 돌변하는데요. 더탐사가 자신과의 통화 내용을 짜깁기한 것이라고 반발했죠. "한동훈이라는 이름의 '한' 자도 아는 사실이 없다. 사적으로 대통령을 만난 사실이 없음을 하늘을 두고 맹세한다"며 반박 기자회견까지 열었는데요. 오늘은 김의겸 의원과 더탐사 측을 고소까지 했습니다.[이세창/전 자유총연맹 총재 권한대행 : 김의겸 의원과 더탐사, 지금 연이어 나오는 모든 일들은 단 1%의 진실이 없습니다.]진술이 뒤바뀐 지금으로선 이세창이란 메신저의 신빙성도 담보할 수 없게 됐는데요.그렇다면 명백한 추가 증거가 필요하겠죠. 술자리가 열렸다는 청담동 고급 바의 위치와 바 운영자나 그랜드피아노 연주자 등 다른 증인의 진술을 확보해야 할 텐데요. 하지만 그 무엇 하나 제대로 파악된 건 없습니다.[진중권/전 동양대 교수 (CBS '박재홍의 한판승부' / 지난 25일) : 지하에 딱 들어갔더니 그랜드 피아노가 있고 첼리스트가 '동백꽃 아가씨'를 연주한다, 이게 무슨 장르상으로도 말도 안 되는 이런 얘기들인데…]술자리에 참석했다는 대형로펌 변호사 30여명의 명단을 파악하고 직접 접촉해보는 것도 필수인데요. 이 역시 암중모색 단계입니다.[하태경/국민의힘 의원 (CBS '김현정의 뉴스쇼') : 특히 김앤장 변호사 30명. 그 30명 중에 증인들이 나오지 않기 어렵다고 저는 보거든요. {30명이나 된다면, 어떻게든지 소문은 난다.}]이러다 보니 민주당 내에서도 우려의 목소리가 터져나오고 있는데요.[최재성/전 청와대 정무수석 (MBC '표창원의 뉴스하이킥') : 그래서 저거는 설정 자체가 조금 납득하기 어려운 거다. 조금 실책을 한 거다고 보고요. 그런데 김의겸 의원이 그냥 의원이 아니고 또 당의 직책을 맡고 있고 또 이거를 또 민주당 지도부 회의석상에서 또 거론을 하고 또 녹취록을 틀었단 말이에요. 그래서 빨리 이거는 거둬들이고 또 인정할 거 인정을 하고…]김 의원의 실책이니 인정하고 넘어가자는 주장입니다. 이재명 대표의 오른팔인 정성호 의원도 한 장관을 상대하려면 준비를 철저히 했어야 했다고 지적했죠. 그 말을 꺼냈다가 민주당 지지층에게 뭇매를 맞았다는 건 안 비밀입니다.[정성호/더불어민주당 의원 (KBS '최경영의 최강시사') : 아니, 그냥 방송에서 얘기한 건데 한동훈 법무부 장관을 똑똑하다고 얘기했다고 해갖고 제가 비난을 많이 받고 있습니다. {민주당 지지자들에게?} 뭐 어떤 분인지 잘 모르겠지만요. {아니, 똑똑한 거는 같아요, 저도.} 굉장히 답변 능력이 뛰어난 사람이기 때문에. {네, 논리적인 것 같아요.} 답변 능력이 뛰어나고 논리적이기 때문에 그거에 대해서 지적하려고 하면 좀 철저하게 준비해야 된다, 그런 취지였습니다.]자, 오늘은 술자리 공방의 확전 양상을 살펴봤습니다. 진실이 명확히 드러나지 않는 한 공방전은 지리하게 이어질 것 같은데요. '줌 인' 한 마디는 드라마의 한 장면으로 정리합니다.[JTBC '허쉬 : 제보자나 취재 과정이 문제 없을 거라고 믿지만 몇번이고 확인하고 또 확인하는 거 그게 팩트 체크야 제보의 사실 여부와 함께 나를, 내 취재 과정을 체크하는 것]</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.10.26.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>앱토스, '메타 출신' 타이틀로 인기몰이…블록체인 대중화 도전</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005167696?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>앱토스 코인, 가파른 상승세메타 출신 프로젝트 참여에 관심 ↑확장성 통해 블록체인 대중화 목표앱토스 로고[이미지 출처=앱토스랩 트위터]상장 8일 만에 시가총액 11억달러(약 1조5741억원)를 돌파한 앱토스 코인. 가상화폐 시황 중계 사이트 코인마켓캡 집계 시가총액 순위는 48위까지 치솟았다. 앱토스가 빠르게 규모를 키울 수 있었던 요인은 확장성·속도 개선을 바탕으로 블록체인의 사용성을 입증할 수 있을 것이라는 시장의 기대가 반영됐기 때문이다.프로젝트에 참여한 이들은 누구나 자유롭게 디지털 자산에 접근할 수 있는 메인넷 앱토스를 구축하겠다는 방침이다. 앱토스 코인은 이러한 메인넷에서 지불·스테이킹(블록체인 네트워크에 코인을 예치해 운영, 신뢰성 검증에 참여하고 이에 대한 보상을 받는 것) 수단 등으로 활용된다.앱토스는 메타(舊 페이스북) 출신 핵심 인력이 참여해 만든 메인넷이라는 점에서 유명세를 탔다. 앞서 페이스북은 달러·유로 등 여러 안전자산과 고정돼 변동성을 줄인 스테이블코인 리브라를 포함한 리브라 프로젝트를 주도했다. 은행을 거치지 않고 송금·결제를 할 수 있도록 하겠다는 계획은 2019년 6월 발표 이후 규제 당국의 반발에 부딪혔다. 결국 개별 법정 화폐와 연동된 스테이블코인 발행으로 변경하고 프로젝트 이름을 디엠으로 바꿨지만 이마저도 좌초됐다. 이런 상황에서 앱토스가 디엠 프로젝트를 실질적으로 계승하자 큰 기대가 쏠렸다.이처럼 앱토스는 '메타 출신'이라는 수식어로 인해 올해 하반기 코인 사장의 뜨거운 감자가 됐지만 진짜 강점은 유명세가 아니라 확장성이다. 앱토스는 스마트 컨트렉트(블록체인 이용 계약 체결)를 지원하는 이더리움 등의 기존 레이어 1 블록체인이 가지고 있는 느린 속도와 높은 수수료 문제를 풀 수 있을 것으로 기대된다.이를 가능케 하기 위해 앱토스는 무브(Move)라는 프로그래밍 언어를 채택했다. 무브는 디엠 블록체인에 사용하기 위해 메타에서 개발한 오픈소스 언어다. 디지털 자산에 대한 표현력에서 우수하고 높은 수준의 보안성을 가지고 있는 것으로 알려졌다. 또 무브 프로버(Move Prover)라는 검증 도구를 이용해 개발자의 의도대로 코드를 작동시킬 수 있다.가상화폐 평가·공시 플랫폼 쟁글의 Ponyo 연구원은 "보안 관련 이슈들이 지속적으로 발생하고 있어 취약점이 적은 언어에 대한 수요가 그 어느 때보다 큰 상황"이라며 "무브가 내세우고 있는 보안성과 같은 장점들은 개발자들에게 특히 매력적으로 다가온다"고 설명했다.아울러 앱토스는 합의 알고리즘으로 AptosBFT 채택했는데 이는 네트워크 부하가 적고 합의 속도가 빠르다는 특징을 가진다. 블록체인에서 합의 알고리즘에 따라 의사결정을 내리는 최소 시간 단위인 라운드에서 검증인은 리더와만 통신하기 때문에 네트워크 왕복 2회로 줄어든다. 때문에 각 라운드에서 검증인이 서로 통신하는 경우보다 전송 메시지 수가 줄어 속도 개선을 가능케 한다.BlockSTM(Block Software Transactional Memory) 기술도 속도 향상에 영향을 미칠 것으로 분석된다. 이더리움 등 기존 블록체인은 직렬 구조 엔진 사용한다. 이는 상호 연관이 없더라도 순차적으로 처리가 되기 때문에 네트워크 성능 저하로 이어질 수 있다.하지만 병렬 처리할 경우 상호 연관성 있는 거래내역에 대해서만 처리를 요구해 속도 상승이 가능하다. BlockSTM은 병렬 처리를 효율적으로 하기 위해 사용되는데 우선 검증과 합의 이후 처리하는 게 아닌 선 처리 후 검증하는 방식으로 실행된다.앱토스 메인넷에서는 앱토스 코인을 활용한 생태계가 유지된다. 앱토스 코인은 거래 수수료, 대체불가토큰(NFT) 등 디지털 자산 지불과 스테이킹의 수단으로 활용된다. 스테이킹에 참여하면 블록체인 검증의 대가로 추가 앱토스 코인을 얻게 되며 정체성 유지, 업그레이드 진행 등을 결정할 때 투표권도 획득하게 된다.다만 메인넷 앱토스가 모든 면에서 완전한 것은 아니다. 앱토스 코인의 생성과 할당에서 문제점이 지적됐다. 앱토스 코인 최초 발행량은 10억개이며 최대 발행량에는 제한이 없다. 그러나 락업(보호예수)이 부여됐음에도 최초 발행량 10억개 중 절반가량인 48.98%가 개발팀과 투자자에게 할당된 것이 과도하다는 지적이 나왔다. 앱토스 최초 발행량 중 핵심 기여자와 재단, 투자자 보유 비중은 각각 19%, 16.5%, 13.48%를 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>카카오 말고도… 2022년 금융권 전산 장애 159건</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003747186?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>4년간 781건… 은행 275건 ‘최다’피해 추정액만 346억4000만원전체선 케이뱅크 34건으로 ‘1위’“인뱅서 더 많은 오류 발생 확인세분된 피해보상 규정 마련을”금융권에서 올해에만 159건의 전산 장애가 발생한 것으로 나타났다. 최근 카카오톡 서비스 중단에 따른 사회적 혼란이 컸던 만큼, 금융소비자의 불편을 예방하기 위해 당국의 대책 마련이 시급하다는 지적이 나온다.  23일 금융감독원이 국민의힘 윤창현 의원실에 제출한 자료에 따르면, 금융권에서 올해 들어 8월까지 발생한 전산 장애는 은행 60건, 증권사 56건, 보험사 25건, 저축은행 10건, 카드사 8건 등 모두 159건으로 집계됐다.     사진=뉴시스    금융권의 전산 장애는 최근 들어 매년 증가하는 추세다. 2019년 196건, 2020년 198건, 지난해 228건으로 증가해왔다. 2019년부터 올해 8월까지 최근 4년간 전산 장애는 은행이 275건으로 가장 많았고 증권사(246건), 보험사(137건), 저축은행(66건), 카드사(57건) 등 순이었다.  이 기간 은행 중에서는 케이뱅크의 전산 장애가 34건으로 가장 많았으며, 신한은행(32건), 카카오뱅크(27건), 산업은행(25건), SC제일은행(23건), 토스뱅크(17건), 하나은행(16건), KB국민은행(15건), 수협은행·우리은행(14건) 등이 뒤를 이었다.  인터넷 은행인 케이뱅크의 경우, 전산 장애가 2019년과 2020년에 각각 7건, 지난해 14건, 올해 1∼8월 6건이 발생하는 등 최근 4년간 꾸준히 문제가 발생해왔다.  저축은행에서는 신한저축은행과 OSB저축은행의 전산 장애가 각각 10건으로 가장 많았고 보험사는 교보생명(18건), 증권사는 NH투자증권(22건), 카드사는 삼성카드(12건)가 각각 최다로 나타났다.  최근 4년간 전산 장애로 인한 금융권의 피해 추정액은 346억4137만원에 달했다.  금융당국은 금융권별로 분산된 전산 보안 컨트롤타워를 금융보안원으로 통합하고, 금융사의 망 분리를 의무화하는 등 내부 통제를 강화하고 있지만 매년 전산 장애는 줄어들지 않아 보다 근본적인 대책이 필요하다는 비판이 제기된다. 윤 의원은 “비대면 거래만 가능한 인터넷전문은행에는 시중은행보다 더 높은 수준의 전산 실력이 요구되지만 실제로는 더 많은 오류가 발생하고 있는 것으로 확인됐다”고 지적했다. 이어 “오류 발생 원인과 장애 지속 시간에 따라 세분된 피해보상 규정을 마련하고, 근본적으로는 안정적인 시스템 운용을 위한 투자를 늘려야 할 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>취준생 '다니고 싶은 기업'…삼성전자&gt;SK텔레콤&gt;네이버</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011477168?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>기사내용 요약잡플래닛, 2022년 다니고 싶은 기업 톱 10 [서울=뉴시스] 잡플래닛 '2022년 다니고 싶은 기업 톱 10'. (이미지=잡플래닛 제공) 2022.10.16. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 취업준비생(취준생)이 가장 다니고 싶은 기업은 어디일까. 1위는 삼성전자로 나타났다. 잡플래닛은 16일 올해 다니고 싶은 기업 톱(TOP) 10을 발표했다. 이번 설문조사는 잡플래닛에서 자신의 상태를 취준생으로 설정한 회원 1013명을 대상으로 주요 50개 기업 목록을 제시해 최대 3곳을 선택하거나 목록에 없는 기업은 주관식으로 기재하도록 했다.순위는 삼성전자, SK텔레콤, 네이버, 카카오, 현대자동차, 토스, LG화학, 구글코리아, 라인, 한국전력 등으로 조사됐다. 삼성전자(35.24%)와 SK텔레콤(30.50%)는 각각 30% 이상의 선택 비율을 보이며 1위와 2위로 선정됐다. 네이버는 29.41%로 3위를 기록했다. 특히 SK텔레콤과 네이버를 포함해 4위 카카오, 6위 토스, 8위 구글코리아, 9위 라인까지 10위 이내에만 IT 기업이 6곳에 달했다. 복수 응답으로 물어본 선호 기업의 조건에는 응답자의 77.98%가 '급여와 복지 등 처우 조건이 좋은 기업'을 꼽았다. '칼퇴, 연차 사용 등 업무와 삶의 균형이 가능한 기업'을 선택한 응답자도 66.04%에 달했다. '승진, 자기개발 등 개인의 빠른 성장이 가능한 기업'이 37.51%로 뒤를 이었다.직업관에 대한 응답을 통해 요즘 취준생들의 직장 선택 기준을 엿볼 수 있었다. '존경할 수 있는 경영진이 있는 것은 중요하다' 질문에 '그렇다'(31.49%), '그렇지 않다'(38.10%), '상관 없다'(30.40%)로 비슷한 비율을 보였다. '오너 리스크가 있는 기업에서 일하고 싶지 않다'는 질문에는 70.28%의 응답자가 '그렇다'고 했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>은행권서 5년여간 400회 넘는 전자금융사고…복구에 한달 넘기도</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001179647?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>최근 카카오톡 서비스 중단으로 전국적인 혼란이 발생한 가운데 은행권에서도 지난 5년 반 동안 전자금융사고가 빈번히 발생해 대응책 마련이 시급한 것으로 19일 나타났다.금융감독원이 국회 정무위원회 양정숙 의원에게 제출한 자료에 따르면 2017년부터 올해 7월까지 국내 시중은행, 특수은행, 인터넷 은행 등 총 13개 은행에서 발생한 전자금융사고는 총 421회에 달했다.이 가운데 시중은행에서 발생한 전자금융사고는 247회로 전체의 58.6%를 차지해 인터넷뱅크 105회, 특수은행 69회에 비해 매우 높았다.시중은행 중에서는 우리은행의 전자금융사고가 72회로 최다였고 신한은행(44회), SC제일은행(43회), 하나은행(34회), 국민은행(31회), 씨티은행(23회) 순이었다.인터넷 은행에서는 카카오뱅크가 52회로 전자금융사고가 가장 많았고 케이뱅크(37회), 토스(16회)가 뒤를 이었다.특수은행은 산업은행의 전자금융사고가 32회로 전체의 46.3%를 차지했고 NH농협은행은 15건이었다.은행권의 연도별 전자금융사고 건수는 2017년 68회에서 2018년 107회로 증가했다가 2019년 54회로 줄었으나 2020년 67회, 지난해 76회, 올해는 7월까지 49회로 다시 증가하는 추세다.전자금융사고의 유형은 프로그램 오류, 시스템·설비 장애, 외부 요인, 인적 재해, 정보기술(IT) 사고 등으로 대부분 프로그램 오류와 시스템 문제가 큰 편이다.전체 전자금융사고 421회 중 복구되기까지 걸린 시간이 24시간 이내인 경우는 393회로 전체의 93.3%였다.하지만 24시간 이상이 지난 전자금융사고도 28회나 됐다. 이 가운데 20회가 시중은행에서 발생했으며 개별 은행으로는 우리은행이 12회로 전체의 60%를 차지했다.이 가운데 10일 이상 지속된 전자금융사고는 6회나 됐다. 우리은행이 2회, 국민은행과 하나은행, 수협은행, 카카오뱅크가 각각 1회였다.우리은행은 2018년 정보 유출 사고로 인한 '인터넷뱅킹 대량 부정 접속 발생' 사고의 경우 복구에만 33일이 걸려 최장 시간을 기록했다.하나은행도 2017년 프로그램 오류로 '금리 감면 누락 발생' 사고가 생기면서 복구에 27일이나 소요됐다.2018년에는 KT 아현지사 화재로 하나은행과 농협은행이 장애 복구에 각각 하루씩 걸리기도 했다.2020년 카카오뱅크에서 외부 요인으로 발생한 '후불 교통카드 기능 불가' 사고도 복구에 16일이 걸렸다.지난 6월에는 수협은행에서 프로그램 오류로 '지급이자 과소 계산' 사고가 발생해 복구에 12일이 소요되는 등 그동안 은행권의 전자금융사고는 적지 않은 금융 소비자의 불편을 야기했다.양정숙 의원은 "은행이 멈추면 우리나라 경제시스템이 셧다운 된다"면서 "은행의 전자금융사고가 이렇게 빈번히 발생하면 국민이 불안해 할 수밖에 없다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>빅테크 진출에 분주한 보험사들… 네·카·토와 협업 준비하는 업체도</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000849072?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>보험사들이 네이버·카카오·토스 등 대형IT 기업, 이른바 빅테크들의 보험 시장 진출에 대응하기 위해 바쁘게 움직이고 있다. 빅테크의 진출로 위기감을 느끼는 보험 설계사들을 위한 측면 지원에 나서고 있으며, 한쪽에서는 네이버 등과의 협업을 통해 변화하는 시장 환경에 대응하려는 업체들도 눈에 띈다.28일 서울 소공동 롯데호텔에서 '코리아 핀테크 위크 2022'가 열리고 있다. /김수정 기자        21일 보험업계에 따르면 한화생명 보험판매전문회사(GA)인 한화생명금융서비스는 여러 보험사의 영업지원시스템을 하나의 시스템에서 구현할 수 있는 통합 영업지원 디지털 플랫폼 ‘오렌지트리’를 지난 17일 오픈했다.그동안 여러 생명·손해보험사의 상품을 다루는 GA 소속 설계사들은 각 보험사의 영업지원시스템을 개별 접속해 왔다. 보험사마다 다른 아이디와 패스워드를 통해 접속해야 했고, 각기 다른 시스템으로 고객정보 입력, 보험상품 설계 등을 처리해야 했기에 불편함이 매우 컸었다.이 때문에 설계사들은 각 보험사의 매니저에게 메신저, 전화 등의 방법으로 설계를 부탁해야 했고, 번거로운 일처리 방식 때문에 불완전 판매의 위험도 클 수밖에 없었다.한화생명에 따르면 오렌지트리는 한 번의 로그인으로 제휴 보험사의 영업지원시스템에 접속할 수 있다. 고객정보 입력도 한화생명금융서비스와 제휴사 시스템에 연동해 자동 반영된다.‘통합 영업지원 디지털 플랫폼’ 오렌지트리        현재까지 오렌지트리와 연계한 보험사는 한화생명과 한화손해보험을 포함해 삼성화재, 현대해상, DB손해보험, KB손해보험 등이다. 제휴 보험사와 구축된 전용선을 기반으로 개인정보보호 되는 것은 물론, 정확한 고객 데이터베이스(DB)를 관리할 수 있다.한화생명 관계자는 “현재 한화생명금융서비스 소속 설계사들만 이 시스템을 사용할 수 있지만 향후 타사 GA도 활용할 수 있도록 계획하고 있다”고 설명했다.GA사인 리치앤코도 자사 설계사들의 디지털 역량 강화를 위해 지난 19일 ‘굿리치 보험추천시스템’을 출시했다.현재까지 보험 설계사들의 경우 고객의 보장분석을 통해 ‘(가)설계 의뢰 →(가)설계 확인 →(진)설계’ 등의 여러 단계를 거쳐야만 하고, 고객 상담에서 계약에 이르기까지 최소 두 차례 이상 고객을 만나야만 했다.리치앤코에 따르면 굿리치 보험추천시스템은 보험료는 가장 저렴하면서 수령 보험금이 가장 많은 상품을 실시간으로 추천한다. 특히 단 4번의 클릭으로 해당 조건에 부합하는 최적의 상품을 찾을 수 있다.또 가입자 고지사항 입력을 통해 추후 계약 체결을 위한 원수사 심사 과정에서의 서류 보완, 인수 불가 등의 상황들을 사전에 파악할 수 있도록 챗봇 형태의 심사 가이드를 제공한다.현재 고객이 가입할 수 있는 보험을 실시간으로 추천함으로써 고객들이 계약과 관련된 여러 번거로움을 미연에 방지할 수 있다는 게 회사 측 설명이다.현대해상도 지난 3월부터 토스보험파트너 앱에 GA소속 보험설계사 대상 온라인 설계지원 기능을 신설하고, 가입설계 동의부터 상품설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공하고 있다.5일 서울 종로구 동화면세점 앞에서 열린 '온라인플랫폼 보험진출 저지와 보험영업인 생존권 사수를 위한 2차 결의대회'에서 참석자들이 구호를 외치고 있다./보험대리점협회 제공        보험업계가 이처럼 디지털 지원에 나서는 것은 최근 네이버, 카카오, 토스 등 빅테크의 보험 상품 비교·추천 서비스를 허용하기로 한 금융당국의 방침에 보험 설계사들이 강력히 반발하고 있기 때문이다.대다수가 GA에 소속된 보험설계사들은 “일자리를 위협받는다”면서 최근 광화문사거리에서 빅테크에 반대하는 대규모 집회를 열기도 했다.이런 상황에서 일부 보험사는 빅테크 기업들과의 협력에 나서고 있다. 현대해상을 포함해 DB손해보험, KB손해보험, 롯데손해보험, 캐롯손해보험 등이 네이버파이낸셜이 준비 중인 보험 비교·추천 서비스에 여행자보험 상품 입점을 논의하고 있다.앞으로 이들 5개사 외에 네이버 플랫폼에 참여 보험사들은 더 늘어날 것으로 전망된다. 일부 보험사는 먼저 네이버 측에 서비스 참여 의향을 내비친 것으로 전해졌다. 카카오, 토스도 조만간 보험 비교·추천 서비스를 시작할 것으로 보인다.보험업계 관계자는 “보험설계사 조직이 아직 보험사의 주력 판매채널이다 보니 지원은 계속 이어지겠지만 시대적 흐름이 바뀌는 것은 분명하다”며 “디지털 환경에서 도태되지 않기 위해선 네이버든, 카카오든 누구와도 손을 잡아야 하는 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>[알림] The JoongAng PLUS…내가 보고 싶은 콘텐트만 ‘쏙쏙’</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003231356?sid=102</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>━   The JoongAng PLUS 콘텐트 이용 안내    ·관심사 바꾸고, 시리즈 모아 ‘정주행’  The JoongAng Plus           프리미엄 디지털 구독 서비스 The JoongAng Plus는 독자의 ‘선택권’을 존중합니다. 회원 가입 때 고른 관심사는 언제든 바꿀 수 있습니다. 관심사 설정에 따라 관련 콘텐트가 자동 노출되지만, 직접 원하는 콘텐트만 모아 볼 수도 있습니다. 홈 상단에 있는 ‘시리즈’ 아이콘을 누르면 전체 시리즈 목록이 나오고, 그중 하나를 고르면, 해당 시리즈로 연재된 콘텐트 목차가 나옵니다. 맘에 드는 시리즈를 골라 ‘정주행’해보세요.    ·재미있는 글, 인상 깊은 문장은 ‘두고두고’      The JoongAng Plus 기능           재미있게 읽은 콘텐트는 언제든 쉽게 다시 찾을 수 있습니다. 콘텐트 카드 오른쪽 아래에 있는 ‘북마크’ 아이콘을 클릭하세요. 맘에 드는 문장만 눈에 띄게 표시해 둘 수도 있습니다. 문장을 선택한 뒤 ‘하이라이트’ 기능을 활용해 보세요. ‘북마크’한 콘텐트, ‘하이라이트’한 문장은 내 보관함에 저장됩니다. 홈 상단 ‘메뉴’ 아이콘을 클릭한 뒤 ‘보관함’ 항목을 누르면 확인할 수 있습니다.   ·오늘의 The JoongAng Plus    엘리자베스 워런 미 상원의원. UPI=연합뉴스           〈알고보면 B급 미국정치〉 늙은 광부 연금도 뺏으려했다…‘진보 여전사’ 워런의 실체      대기업에 맞선 여전사. ‘친노조’로 보자면 둘째가라면 서러운 정치인. 워런 미국 상원의원은 정말 진보적일까요? 과거 그가 걸어온 길을 보면 깜짝 놀랄 겁니다.     〈팩플 오리지널〉 배민·쿠팡·토스 다 찾아냈다…청담동 하얀집의 ‘화려한 픽’     〈hello! Parents〉절대 뒤통수 보이지 마라…스티브 잡스 PT의 비밀     〈성호준에게 물어보세요〉 우즈보다 어린 나이에 2승…김주형, 어디까지 성장할까요</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>취준생이 가장 선호하는 기업 1위는?… IT기업 선호하지만 과거에 비해 다양화</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002134714?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>사진은 본 기사와 무관함.- 1위 삼성전자, 2위 SK텔레콤, 3위 네이버 순[디지털데일리 신제인 기자] 취업 준비생들이 가장 다니고 싶어하는 기업에 삼성전자가 1위로 꼽혔다. 16일, 기업정보 플랫폼 잡플래닛이 설문조사한 '2022년 다니고 싶은 기업 톱 10'에 따르면 1위 삼성전자에 이어 2위는 SK텔레콤이 차지했다. 이어 네이버, 카카오, 현대자동차, 토스, LG화학, 구글코리아, 라인, 한국전력 등이 상위에 랭크됐다. 이번 설문조사는 잡플래닛이 자사 취업 준비생 회원 1013명을 대상으로 주요 50개 기업 목록을 제시해 최대 3곳을 선택하거나 목록에 없는 기업은 주관식으로 기재하도록 해 도출한 결과이다.설문 결과에 따르면, 삼성전자(35.24%)와 SK텔레콤(30.50%)는 각각 30% 이상의 선택 비율을 보이며 1위와 2위로 선정됐다. 네이버는 29.41%로 3위를 기록했다. 10위 이내에 IT 기업이 6곳에 달한다. 선호하는 기업의 조건과 관련, 응답자의 77.98%가 '급여와 복지 등 처우 조건이 좋은 기업'을 꼽았으며 '칼퇴, 연차 사용 등 업무와 삶의 균형이 가능한 기업'을 선택한 응답자도 66.04%에 달해 여전히 워라벨에 대한 중시가 눈에 띠었다.  한편 '사내 성범죄나 폭행 등 직장 내 괴롭힘이 있었던 회사는 가고 싶지 않다'는 응답이 88.75%에 달해 주목을 끌었다.이밖에 '정년이 보장된다면 다른 조건은 포기할 수 있다', '연봉이나 복지 등 다른 조건이 충족된다면 사내문화는 상관없다'는 질문에는 56.56%가 '그렇지 않다'고 답했다. IT기업들의 선호도가 높고, 급여 등 복지 수준에 대한 중요성은 여전하지만 전체적으로 보면, 압도적인 1~2개 기업으로 쏠림 현상보다는 이제는 각자 선호 기업들이 크게 다양화됐다는 것이 과거와는 다른 흐름이라는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>두나무·카겜·빗썸·KG이니시스 `연매출 1조클럽`</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002762344?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2022년 SW 천억클럽 조사결과  &lt;SW산업협회&gt;    두나무, 카카오게임즈, 빗썸코리아, KG이니시스가 지난해 연매출 1조원을 넘기면서 SW(소프트웨어) 1조 클럽에 새로 편입됐다. 한국SW산업협회는 27일 '2022년 SW 천억클럽' 조사 결과를 발표했다. 이 조사는 SW를 주요 사업으로 하는 기업의 전년도 매출액을 조, 5000억, 1000억, 500억, 300억 등 구간별로 집계한 결과다. 연 매출 1조원 이상인 '조 클럽'에 속한 SW기업은 17곳(2022년 기준)으로, 이번에 두나무, 카카오게임즈, 빗썸코리아, KG이니시스 등 4곳이 새로 포함됐다. SW조클럽에는 SK, 네이버, 카카오, 삼성SDS, NHN, 엔씨소프트, 넷마블, 넥슨코리아, 크래프톤, LG CNS, 현대오토에버, 우아한형제들, 다우데이타 등이 들어 있다.SW5000억클럽에는 카카오엔터테인먼트, 토스 운영사 비바리퍼블리카, KT DS, SK쉴더스, CJ올리브네트웍스 등 7개사가 새로 추가됐다. SW5000억클럽에 포함된 기업 매출액은 전년 대비 51.2% 성장한 것으로 나타났다. 작년 매출 5000억원 미만 1000억원 이상에 해당하는 SW1000억클럽 구간에는 21개 기업이 추가됐다. 스마일게이트알피지, 데브시스터즈, 소니인터랙티브엔터테인먼트코리아, 아이스크림미디어 등이다. 작년 연 매출 300억원 이상인 SW기업은 371곳으로 집계됐다. 2020년 기준 326곳에서 약 13.8% 늘었다. 이들 기업의 매출 총액은 112조5269억원으로 전년의 86조9376억원보다 29.4% 증가했다. 업종별로는 '인터넷서비스' 분야 매출 증가세가 두드러졌다. 이들 기업의 지난해 매출액은 33조6525억원으로 2020년보다 73.3% 증가했다. 코로나19로 인한 비대면 서비스 확산, 가상화폐 거래 증가 등이 주요 요인으로 분석됐다. IT서비스 분야 매출액도 꾸준히 늘고 있다. 이 분야 기업들의 지난해 매출액 총합계는 43조1220억원으로 전년보다 20.7% 늘어났다. 조준희 회장은 "코로나19 상황에도 불구하고 SW산업은 전통산업부터 신산업을 아우르며 중요성이 커지고 있다"며 "SW산업의 저변을 확대하고 SW의 가치를 더욱 높이기 위해 노력할 것"이라고 말했다.KOSA는 2022 SW천억클럽 기업을 대상으로 'SW 천억클럽 확인서' 발급해 배포할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>네·카·토 선불충전금, 1년새 800억 급증...소비자 보호는?</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002055565?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>3분기말 기준 잔액 6400억원페이 보편화·미성년자 사용 늘어당국 이용자 보호방안 마련 나서네이버파이낸셜, 카카오페이, 토스로 대표되는 빅테크 3사의 선불충전금이 지난 1년간 800억원 넘게 증가한 것으로 나타났다. 선불전자금융업자가 이용자의 선불충전금을 보호해야 한다는 의무가 없는 상황임에도 선불충전금 규모는 ‘페이’ 서비스가 보편화되면서 지속 커지고 있다.21일 선불충전금을 운용하는 전자금융업권 공시에 따르면 빅테크 3사의 올 3분기 말 선불충전금 규모는 6430억원 수준으로 나타났다. 5600억원 수준이었던 1년 전보다 800억원 넘게 불어났고, 지난 분기와 비교해서도 200억원 가까이 늘었다.올 9월 말 기준으로 보면 카카오페이가 선불충전금 잔액 4461억5800만원으로 가장 많았다. 카카오페이는 빅테크 3사 뿐만 아니라 전체 선불전자지급업자 중에서도 잔액이 가장 많다. 네이버페이를 운영하는 네이버파이낸셜(1020억4600만원)은 이번 분기로 잔액이 1000억원을 돌파했다.토스의 경우 지난해 자회사인 토스뱅크 출범으로 선불충전금 용도였던 ‘토스머니’와 이와 연동된 카드를 폐지하며 선불충전금 규모가 계속 줄어드는 상황이었는데 이번 분기 다시 상승세로 돌아섰다. 토스 관계자는 “선불충전 기반의 ‘토스 유스카드’ 사용이 늘면서 선불충전금이 증가했다”고 설명했다. 토스 선불충전금 잔액은 948억원으로 집계됐다.이처럼 ‘OO페이’가 보편화되고 미성년자 등의 선불전자지급수단 활용도가 높아지며 선불충전금 덩치가 커지는 상황에도 이용자 보호 방안은 미비한 실정이다. 빅테크 3사가 차지하는 규모는 6000억원이나 선불전자지급수단을 서비스하는 전체 70여개 선불업자로 넓히면 지난해 말 기준 잔액은 3조원에 육박한다. 현행 전자금융거래법상 전자금융업자가 선불 충전금을 보호해야한다는 규정은 없다. 금융위원회가 행정지도를 통해 이용자 예탁금의 50% 이상을 은행 등에 신탁하거나 지급보증보험에 가입하도록 하고 있지만 이 역시 ‘권고’일 뿐이다.최근 스타벅스는 고객이 스타벅스 카드에 넣은 선불충전금 8769억원 중 미사용 금액 대부분을 고위험 기업어음에 투자한 것이 드러나기도 했다.이에 금융위는 선불충전금에 보호 필요성을 인지하고 회의에 돌입했다. 김소영 부위원장 주재로 이달 13일 열린 ‘금융리스크 대응 태스크포스(TF)’ 회의에서는 선불지급 수단과 관련해 이용자예탁금 보호 방안을 보완하는 방안이 중점 논의 대상에 포함된 것으로 알려졌다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>[단독] LB PE, 공공정보시스템 기업 한국정보기술 인수한다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004111614?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>지분 100% 800억에 인수3호 블라인드펀드 활용해 투자매도자 에이스에쿼티, 1.4배 차익[서울경제] 이 기사는 2022년 10월 18일 10:37 자본시장 나침반  '시그널(Signal)' 에 표출됐습니다.사모펀드(PEF)운영사 LB 프라이빗에쿼티(PE)가 에이스에쿼티파트너스의 투자 기업 한국정보기술을 인수한다. LB PE는 한국정보기술이 보유한 공공 시스템 기술력에 주목했다.18일 투자은행(IB) 업계에 따르면 LB PE는 지난달 말 한국정보기술 경영권 인수를 위한 주식매매계약(SPA)을 체결했다. 인수 대상은 에이스에쿼티가 특수목적회사(SPC) 하이웨이홀딩스를 통해 보유하고 있는 한국정보기술 지분 100%다. 인수 가격은 800억 원 규모다. 양측은 SPA 체결에 따라 올해 안에 세부 계약 조항을 확정하고 거래를 종결할 계획이다.한국정보기술은 공공시스템 구축 및 유지 보안에 기술력을 갖춘 기업으로 김대휘 대표가 2009년 설립했다. 대표적인 공공시스템으로는 실시간 교통 정보 서비스와 긴급 상황을 모니터링하고 관리할 수 있는 '119 기준 표준 시스템' 등이 있다. 지난해 기준 매출은 730억 원, 영업이익은 64억 원으로 집계됐다.한국정보기술의 통합관제시스템 /사진제공=한국정보기술에이스에쿼티는 2020년 김대휘 대표가 보유한 한국정보기술 지분 100%를 인수했다. 이후 투자 2년 만에 경영권 매각에 돌입하면서 별도의 공개입찰 없이 LB PE와 단독 협상을 진행해왔다. 앞선 투자 기업의 투자금 회수 작업이 마무리되자 사업 시너지 차원에서 인수한 한국정보기술 매각에도 속도가 붙은 것으로 파악된다.LB PE는 이번 한국정보기술 인수에 2020년 1230억 규모로 결성한 3호 블라인드펀드(투자처를 정하지 않고 출자받는 대형 펀드) 자금을 활용한다. 3호 펀드는 앞선 2019년 산업은행 성장지원펀드 그로쓰캡(Growth-Cap·성장성을 근거로 한 소수지분 투자) 위탁운용사로 낙점되면서 600억 원을 출자받았다.이번 투자로 LB PE는 세컨더리 딜에서 존재감을 각인시켰다는 평가가 나온다. 지난해 7월엔 스카이레이크에쿼티파트너스가 투자한 KOC전기(500억)를 인수하면서 공개입찰 경쟁에서 승기를 거머쥐었다. 이외에도 3호 펀드를 활용해 폐유정제기업 클린코리아(230억 원)와 토스페이먼츠(100억 원)에 투자했다. LB PE는 벤처캐피탈 업계 강자인 LB인베스트먼트가 사모투자 사업을 위해 만든 사업부에서 2017년 인적분할로 독립해 나온 운용사다.한편 에이스에쿼티는 이번 매각 성사로 투자 원금 대비 1.4배 이상의 차익을 실현할 예정이다. 2017년 고영만 대표가 설립한 에이스에쿼티는 삼성전자 등 주요 대기업을 고객사로 둔 알짜 중소기업에 투자했다 기업 가치를 키워 되파는 전략으로 업계 주목을 받고 있다.에이스에쿼티는 지난해 초소형 정밀기계(MEMS) 업체 프리사이슬리 마이크로테크놀로지를 한국타이어그룹에 매각했고 올해 반도체 후공정 기업 테스나를 두산(000150)에 매각해 투자금 회수에 성공했다. 에이스에쿼티는 프리사이슬리 매각 이후에도 기업공개(IPO) 가능성을 고려해 2대 주주 지위(지분 20.4%)를 유지하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>취준생이 다니고 싶은 회사 1위 삼성전자…2위는 SKT</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002648441?sid=105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>10위권에 IT 기업 6곳 포진…네이버·카카오·현대차 순취업준비생이 다니고 싶은 기업 순위.ⓒ잡플래닛[데일리안 = 남궁경 기자] 취업준비생이 다니고 싶은 기업에 1위에 삼성전자가 뽑혔다. 2위에는 SK텔레콤, 3위는 네이버가 선정됐다. 10위권에는 IT기업이 절반 이상인 6곳이 포진해 주니어 채용 시장에서 높은 IT기업의 인기가 확인됐다.기업정보 플랫폼 '잡플래닛'은 자신의 상태를 취업준비생으로 설정한 활동 유저 1013명을 대상으로 설문조사를 실시하고 그 결과인 '2022년 다니고 싶은 기업 TOP 10'을 16일 발표했다.이번 조사에서 잡플래닛은 주요 50개 기업 목록을 제시하며 최대 3곳을 선택하거나 목록에 없는 기업은 주관식으로 기재하도록 했다.조사 결과, 삼성전자(35.24%)와 SK텔레콤(30.50%)이 30% 이상의 선택 비율을 보이며 각각 1위와 2위를 차지했다.3위는 네이버(29.41%)가 차지했으며, 이어 카카오, 현대자동차, 토스, LG화학, 구글코리아, 라인, 한국전력이 뒤를 이었다. 이번 조사에서는 10위 이내에 IT기업이 총 6곳(SK텔레콤, 네이버, 카카오, 토스, 구글코리아, 라인)에 달해 눈길을 끌었다.복수 응답으로 물어본 선호 기업의 조건에는 응답자의 77.98%가 ‘급여와 복지 등 처우 조건이 좋은 기업’을 꼽았다. ‘칼퇴, 연차 사용 등 업무와 삶의 균형이 가능한 기업’을 선택한 응답자도 66.04%에 달했으며, '승진, 자기개발 등 개인의 빠른 성장이 가능한 기업’이 37.51%로 그 뒤를 이었다.직업관에 대해 답한 응답을 통해 요즘 취준생들의 직장 선택 기준을 엿볼 수 있었다. 이들은 '존경할 수 있는 경영진이 있는 것은 중요하다'는 문장에는 ‘그렇다’ 31.49%, ‘그렇지 않다’ 38.10%, ‘상관없다’ 30.40%으로 비슷한 비율을 보였다. 그러나 ‘오너 리스크가 있는 기업에서 일하고 싶지 않다’는 문장에는 70.28%의 응답자가 ‘그렇다’고 긍정했다.긍정 응답률이 가장 높은 문장은 ‘사내 성범죄나 폭행 등 직장 내 괴롭힘이 있었던 회사는 가고 싶지 않다’였다. ‘그렇다’는 응답이 88.75%에 달했다.반면, 부정 응답률이 가장 높은 문장은 ‘칼퇴가 보장된다면 휴가 사용의 제약은 감당할 수 있다’였다. 전체 응답자의 63.17%가 ‘그렇지 않다’고 답했다.‘정년이 보장된다면 다른 조건은 포기할 수 있다’, ‘연봉이나 복지 등 다른 조건이 충족된다면 사내문화는 상관없다’는 문장에 대해서도 56.56%가 ‘그렇지 않다’를 선택했다.잡플래닛 관계자는 이번 조사 결과에 대해 “과거 조사와 비교해 보면 주요 선호 기업들은 크게 달라지지 않았으나, 주관식 응답자가 늘었다”면서 “개인의 가치관이 다양해진 만큼 내 마음 속 1순위가 다양해진 것”이라고 해석했다.이어 “조기 퇴사 리스크를 줄이기 위해서는 구직 단계에서부터 자신의 기준에 맞는 기업을 찾는 노력이 중요한 한편, 기업 역시 우리 회사가 가진 경쟁력을 다각도로 노출하는 전략이 필요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토스뱅크, 신용대출 만기 최장 10년 연장한다…'매달 내는 돈 낮추기' 서비스 시작</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003930559?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>토스뱅크는 이달 24일부터 토스뱅크 신용대출 고객을 위해 '매달 내는 돈 낮추기' 서비스를 시작한다고 24일 밝혔다. 토스뱅크에서 대출을 받은 고객 가운데 상환 기간이 10년 미만이며, 원금과 이자를 매달 함께 갚아나가는 '원리금 균등 상환' 고객이 대상이다.  고객들은 서비스 신청과 함께 곧바로 연장된 기간을 적용받는다. 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이다. 올 3월 연 3.5% 금리로 3년 만기, 7000만 원을 대출받은 고객 A 씨는 6개월 새 급격히 대출 금리가 상승함에 따라 매달 원리금으로 216만 원(연 5.46% 금리 적용)을 부담해야 했다. 하지만 매달 내는 돈 낮추기 서비스를 이용해 대출 상환 기간을 7년으로 늘릴 경우 월 상환액은 90만8000원(연 5.62% 금리 적용)이 돼, 절반 이하로 대폭 줄어들게 된다. 고객들은 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산 금리에도 변동이 없다. 단 대출 기간이 길어짐에 따라 금리는 최소 0.08%포인트(p)에서 최대 0.2%p 인상될 수 있다. 일반적으로 돈을 빌리는 기간이 길수록 유동성 프리미엄이 높아져 대출 금리는 높아진다.고객들은 토스뱅크의 중도상환수수료 무료 정책에 따라, 가계 건전성 회복 등 자신의 경제 여건을 고려해 언제든 자신이 원하는 때에 대출을 갚을 수 있다.토스뱅크 관계자는 "급격한 금리 상승과 인플레이션 등 고객의 가계 부담이 크게 늘어나는 가운데 월 고정 비용이 일부 상쇄된다면 어려운 시기를 이겨내는 데 보탬이 될 것으로 판단했다"며 "토스뱅크가 그동안 지켜온 '포용'과 '혁신'의 가치에 기대, 고객들의 실 가계 부담을 줄이고 고객과의 '상생'을 위해 앞으로도 최선을 다하고자 한다"고 밝혔다. 토스뱅크는 매달 내는 돈 낮추기 서비스를 6개월 간 시범 운영한 뒤 서비스 안정화와 고객 수요 등을 고려해 상시화 할 계획이다. 고객들은 토스뱅크 앱 내 '대출계좌 관리 페이지'를 통해 1일 1회에 한해 손쉽게 신청할 수 있다. 자신이 원하는 만큼 대출 상환 기간을 재설정함과 동시에, 매달 내야 하는 돈이 얼마인지, 기존과 비교해 부담이 얼마나 줄어드는지도 한 눈에 확인 가능하다.대출금을 갚는 과정에서 연체가 발생한 고객이더라도, 연체 비용을 먼저 갚을 경우 신청할 수 있다. 부도나 개인회생, 신용회복 등 채무조정 상태에 놓인 고객이나 최근 급격한 신용점수 하락이 발생한 고객은 서비스 이용에 제약을 받는다. 씨티은행 대환 대출을 이용한 토스뱅크 고객도 이용 대상에서 제외된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐' 개통 1년 6개월만에 1,500만명 가입</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001801901?sid=102</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐'의 가입자 수가 개통된 지 1년 6개월여 만에 1,500만 명을 넘어섰습니다.행정안전부는 지난 13일 국민비서 구삐 가입자 수가 1,500명을 돌파했다고 밝혔습니다.구삐는 건강검진일, 운전면허 갱신 기간, 교통 과태료 등 생활정보 27종을 제공하며, 코로나19 상황 속에서 백신 접종 예약, 재택치료 알림도 제공하고 있습니다.구삐는 카카오톡·네이버·토스 앱 등 8개 민간 채널로 사전 설정만 해놓으면 각종 생활정보를 때맞춰 제공하는 행정 알림서비스입니다.정부가 자체 플랫폼을 구축해 서비스를 제공할지, 구삐처럼 민간 앱에 업혀 갈지에 관한 구체적인 로드맵은 내년 3월 발표될 예정입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>이창용, 은행장 만나 채권시장 안정화 논의… "유동성 공급 확대"</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000863860?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>이창용 한국은행 총재가 26일 서울 중구 은행연합회에서 열린 시중은행장들과의 만찬에 참석하고 있다./사진=뉴시스 이창용 한국은행 총재가 국내 은행장들과 만나 단기금융시장과 채권시장 안정화 방안에 대해 논의했다. 최근 레고랜드 사태로 채권시장이 불안정한 가운데 유동성 공급을 확대키로 했다. 27일 은행권에 따르면 이창용 한은 총재는 지난 26일 오후 은행연합회에서 은행장 간담회를 개최했다. 이날 서울 중구 은행회관에서 열린 간담회에는 이창용 한국은행 총재와 김광수 은행연합회장, 15개 사원 은행장이 참석했다. 참석 은행은 ▲산업은행 ▲농협은행 ▲신한은행 ▲우리은행 ▲SC제일은행 ▲하나은행 ▲기업은행 ▲국민은행 ▲한국씨티은행 ▲수출입은행 ▲전북은행 ▲경남은행 ▲케이뱅크 ▲카카오뱅크, 토스뱅크다.은행연합회에 따르면 이날 간담회에서 이 총재와 은행장들은 최근 국내외 금융 시장 동향에 대한 인식을 공유하고, 은행산업 현안에 대해 논의했다.이 총재는 10월 통화정책방향 결정 배경을 설명하고 G20 회의와 국제통화기금(IMF) 연차총회 당시 논의됐던 글로벌 금융시장의 주요 이슈에 대한 국제금융계의 시각을 소개하고 의견을 교환했다.아울러 최근 변동성이 높아진 신용채권시장과 단기금융시장 상황에 대해 은행장들과 논의했으며 금융시장의 안정을 위해 함께 소통하고 협력하기로 했다.김광수 은행연합회장은 "최근 금융시장 불안정성에 대응해 은행권도 정부, 한은과 협력해 시장 유동성 공급 확대에 적극 노력해 단기금융시장과 채권시장 안정화를 위한 책임을 다할 것"이라며 "일시적인 유동성 부족으로 어려움을 겪는 기업 부문에 대한 대출을 차질 없이 지원하는 등 자금 실수요 공급에도 최선을 다하겠다"고 말했다.또 한은이 최근 정기적금 최단만기 규제 완화 등 금융환경 변화에 대응해 적시에 규제개선을 추진해 온 점에 대해 감사의 뜻을 표하며 "앞으로 중앙은행디지털화폐(CBDC)를 비롯한 다양한 금융 혁신 추진 과정에서도 은행권과 긴밀히 소통하기를 기대한다"고 언급했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>인뱅 파킹통장 이자율 3% 목전…고객 유치전 가열</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002653351?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>케뱅 2.7%로 가장 높아한도는 토뱅이 제일 유리인터넷전문은행 3사. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행들이 잇따라 대표 파킹통장의 금리를 올리며 고객 유치전을 벌이고 있다. 기준금리 인상 기조가 계속될 것으로 점쳐지면서 이같은 경쟁은 더욱 심화할 것으로 보인다.31일 금융권에 따르면 케이뱅크는 지난 27일 파킹통장 '플러스박스'의 금리를 연 2.7%로 0.2%포인트(p) 인상했다. 플러스박스는 돈을 보관하고 언제든지 빼서 예·적금과 투자에 활용할 수 있는 파킹통장이다.하루만 맡겨도 연 2.7%의 금리 이자가 적용된다. 매월 넷째 주 토요일 쌓인 이자를 받을 수 있다. 한도는 3억원까지다.1000만원을 예치하면 한 달 이자로 세후 1만9000원을 받을 수 있다. 통장은 '용돈 계좌', '비상금 계좌' 등 용도별로 쪼개 최대 10개까지 만들 수 있다.케이뱅크는 파킹통장 플러스박스의 금리를 지난 5일 0.2%p 인상했는데, 이달 안에 추가 인상을 단행해 업계 최고 수준 금리를 제공한다는 설명이다. 이달에만 금리를 0.4%p 올리는 것으로, 경쟁사인 카카오뱅크를 견제한 조치로 풀이된다.앞서 카카오뱅크는 지난 19일부터 파킹통장 '세이프박스'의 금리를 기존 2.2%에서 2.6%로 한번에 0.4%p 올렸다. 세이프박스는 계좌 속 금고로 자유로운 입출금을 통해 통장의 여유자금을 간편하게 분리해서 관리할 수 있다.최대 보관 한도는 1억원이다. 입출금계좌당 1좌씩 개설할 수 있다. 하루만 맡겨도 연 2.6% 금리를 제공한다.토스뱅크는 파킹통장인 수시입출금식 '토스뱅크 통장'의 금리를 지난 6일 기존 2.0%에서 2.3%로 0.3%p 인상했다. 토스뱅크는 출시 당시 업계중 파격적인 이자를 주는 '2% 통장'으로 인기를 끌었다. 다만 금리인상기 인터넷뱅킹 경쟁사들이 잇달아 금리를 높이 면서 경쟁력이 떨어진다는 지적이 이어져 왔다.현재로서는 토스뱅크의 파킹통장 이율이 세 곳 중 가장 낮지만, 한도 면에서는 가장 소비자들에게 유리하다. 토스뱅크는 지난 21일 본래 1억원 초과 금액에는 0.1%의 금리가 적용됐는데, 이 초과 한도를 없앴다. 케이뱅크와 카카오뱅크가 각각 한도를 최대 3억원, 1억원으로 제한한 것과 비교하면, 고액 자산을 맡겨둘 파킹통장으로는 가장 경쟁력을 가진 셈이다. 또 매일 이자를 받을 수 있는 '지금 이자 받기'도 특징이다.인터넷전문은행들이 금리 경쟁력을 바짝 쫓아오자, 저축은행에서는 연 4%의 고금리로 승부수를 던졌다. 애큐온저축은행은 지난 25일 기존 파킹통장 상품의 금리를 연 4.0%로 인상했다. 파킹통장으로만 보면 업계에서 가장 높은 금리다. OK저축은행은 지난 24일 '중도해지OK정기예금 369'의 금리를 3년 만기 연 4.8%로 0.7%p 인상했다. 3개월 만에 해지해도 해당 금리를 적용받을 수 있어 사실상 파킹통장으로 활용할 수 있다.금융권 관계자는 "다음 달 한국은행 금융통화위원회에서 기준금리 인상이 예고된 만큼 올해까지는 금리경쟁이 치열할 것"이라며 "최고 금리 수준일 때 예·적금에 가입하기 위해 파킹통장 이율이 유리한 곳으로 이곳저곳 옮겨 다니는 금리 노마드족이 늘어날 전망"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>카겜, 두나무, 빗썸, 이니시스 등 'SW 조클럽‘ 입성</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011501891?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>기사내용 요약한국소프트웨어산업협회, 27일 매출 구간별 ’2022년 SW천억클럽‘ 발표두나무·빗썸코리아·KG이니시스 등도 SW조클럽에 새로 포함조준희 회장 “SW산업 저변을 확대하고 가치 상승위해 노력할 것”한국소프트웨어산업협회(KOSA)는 27일 매출액 기준으로 조사한 ’2022년 SW천억클럽‘을 발표했다. 사진은 2020년과 지난해 2개년 동안 ’2022 SW천억클럽‘ 기업 수와 매출을 비교한 표. (사진=한국소프트웨어산업협회 제공) *재판매 및 DB 금지[서울=뉴시스]송종호 기자 = 카카오게임즈, 두나무, 빗썸코리아, KG이니시스 등 총 4개 기업이 지난해 매출 1조원을 돌파하며 ’SW조클럽‘에 새로 이름을 올렸다. 한국소프트웨어산업협회(KOSA)는 27일 서울 송파구 IT벤처타워에서 기자간담회를 열고 지난해 매출액 기준으로 조사한 ’2022년 소프트웨어(SW)천억클럽‘을 발표했다.KOSA는 2013년부터 매년 소프트웨어를 핵심 사업으로 하는 기업을 대상으로 전년 매출액, 종업원 수 등 주요 경영지표를 조사해 매출액 구간별로 SW조클럽, SW5000억클럽, SW1000억클럽, SW500억클럽, SW300억클럽 등 ’SW천억클럽‘을 발표하고 있다.올해 SW조클럽은 모두 17개 기업으로, 카카오게임즈를 비롯해 4곳이 새로 가입했다. 또 SK, 네이버, 카카오, 삼성SDS, NHN, 엔씨소프트, 넷마블, 넥슨코리아, 크래프톤, LG CNS, 현대오토에버, 우아한형제들, 다우데이타 등은 올해도 SW조클럽 자격을 유지했다.SW5000억클럽에 속한 기업은 14개에서 21개로 늘었다. 올해 카카오엔터테인먼트, 토스 운영사 비바리퍼블리카, KT DS, SK쉴더스, CJ올리브네트웍스 등이 새로 포함됐다. 1000억 클럽 기업은 103개에서 107개로, 500억 클럽 기업은 78개에서 109개로 늘었다. 지난해 연매출이 300억원 이상인 SW기업은 371곳으로 집계됐다업종별 결과에서는 인터넷서비스 분야의 매출액 증가세가 두드러졌다. 지난해 기준 매출액 총합계는 33조 6525억원으로 전년 대비 73.3% 증가한 수치다. 인터넷서비스 분야의 매출액 증가는 올해도 지속된 코로나19로 인한 비대면 서비스 및 가상화폐 거래 증가 등이 원인으로 분석된다.IT서비스 분야의 매출액도 꾸준히 증가하는 추세다. 2021년 기준 매출액 총합계는 43조 1220억 원으로 전년대비 20.7% 증가한 것으로 나타났다. 이는 주요 IT서비스 기업의 매출 증대 등으로 분석된다. SW기업의 실적 호조로 관련 일자리도 늘었다. 매출 300억원 이상 SW 기업 종사자는 총 17만5100여명으로, 전년 대비 14.1% 증가했다. SW조클럽(매출 1조원 이상)이 전년 대비 3% 증가, 5000억클럽(매출 5000억∼1조원 미만)은 전년 대비 107.4% 느는 등 고용 증가 폭이 컸다.KOSA는 이번 천억클럽 조사에서 주업종 분류체계를 일부 개선했다. ‘인력자원공급’ 기업 대부분이 시스템 통합 및 유지관리 사업을 함께 운영하므로 '정보기술(IT)서비스’로 통합하고, ‘패키지SW’는 소프트웨어진흥법 등 일반적으로 통용되는 ‘상용SW’로 명칭을 변경했다.조준희 한국소프트웨어산업협회 회장은 “코로나19 상황에도 불구하고 SW산업은 전통산업부터 신산업을 아우르며 그 중요성을 나타내고 있다“며 ”SW산업의 저변을 확대하고 SW의 가치를 더욱 높이기 위해 노력할 것“이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>고금리 시대 이자절약 꿀팁 '대출비교 플랫폼' 경쟁 뜨겁다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004913468?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>토스·카카오페이·핀다 '삼파전'지난해 3사 금융상품 중개건수90만건 육박… 1년 새 370%↑올 상반기 대출잔액 10조 달해'토·카' 양강에 '핀' 약진 돋보여  10년 만에 도래한 기준금리 3% 시대에 이자 부담이 커지자 여러 대출 상품의 한도와 금리를 비교할 수 있는 대출 비교 플랫폼이 각광받고 있다. 이 가운데 3대 대출 비교 플랫폼이라 불리는 '토·카·핀(토스·카카오페이·핀다)'이 각축전을 벌이며 시장 점유율 굳히기에 나섰다.   16일 파이낸셜뉴스가 의뢰해 김한규 더불어민주당 의원실이 금융감독원으로부터 받은 자료에 따르면 지난 2020년 토·카·핀 3사의 금융상품 중개건수는 17만2842건에서 2021년 80만9687건까지 올라 1년 만에 368.46%나 증가했다. 올해는 상반기에만 벌써 71만2454건을 중개해 전년의 대출 건수를 크게 상회할 것으로 예상된다.   대출 금액도 급격히 늘었다. 토스의 경우 2020년 1조7949억원에서 지난해는 5조2557억원까지 높아져 대출금액이 약 3배 증가했다. 카카오페이 역시 같은 기간 1조709억원에서 4조9535억원으로 크게 늘었다. 핀다의 약진도 돋보인다. 3854억원 수준에 불과했던 대출금액은 지난해 2조4599억원으로 무려 5배 넘게 성장했다. 올해 상반기까지 집계된 3사의 대출금액은 9조9951억원으로 10조원에 육박한다.   현재까지 금융감독원에 등록된 온라인 대출성 상품 판매대리·중개업자는 총 25개사다. 지난해까지 빅테크인 토스와 카카오페이가 업계 1위를 두고 경쟁을 벌이다 토스가 압도적인 앱 이용자 수를 바탕으로 격차를 벌렸다. 이후 상반기까지 중소 플랫폼들과 경쟁하던 핀다가 올라서며 삼파전 형태가 굳혀졌다.   대출 비교 플랫폼 관계자는 "지난해부터 가계대출 총량규제 등으로 고신용자들도 시중은행에서 대출이 나오지 않아 지방은행, 저축은행을 찾으면서 대출 비교 플랫폼의 수요가 늘었다"며 "최근 급격한 금리 상승기를 맞아 재유입 고객들이 비중이 높아지면서 기존에 인기가 있던 토·카·핀의 점유율 확장세가 두드러지고 있다"고 분석했다.   토·카·핀은 각 사만의 장점으로 고객을 공략하고 있다. 먼저 토스는 뱅크, 증권을 포함한 슈퍼앱을 통해 1200만명에 달하는 MAU(월간 이용자수)를 달성하며 가장 높은 시장 점유율을 보이고 있다. 현재 54개 금융사(△은행 11개 △저축은행 25개 △캐피탈 11개 △카드사 5개 △보험 사 2개)의 상품을 비교하고 주택담보대출의 경우 7개사의 상품을 중개 중이다.   카카오페이는 57개 금융사(△은행 12개 △보험사 5개 △카드사 6개 △저축은행·캐피탈 32개 △P2P 2개)의 대출조건을 조회할 수 있다. 카카오페이는 올해 전월세 대출 상품 라인업을 강화해 금융 플랫폼 최초 주택금융공사 보증의 일반 전월세대출 상품 중개 서비스도 제공 중이다. 전 금융업권에서 버팀목전세자금대출과 일반 전월세대출 상품 모두 한 번에 비교 가능한 서비스를 제공하는 곳은 카카오페이가 유일하다.   핀다는 앱 내 대출조회을 통해 62개 금융사(△은행 8개 △저축은행 31개 △캐피탈 12개 △카드사 5개사 △온투업 4개사 △생명사 2개)의 상품을 비교해준다. 핀다는 주로 신용대출, 전월세대출, 대환대출 등 가계대출 상품을 비교하고 있다. 지난 5월에는 업계 최초로 이용 고객이 대출 금리를 낮춰 더 좋은 대출로 갈아타도록 독려하는 대출 환승 캠페인을 선보이기도 했다.   토·카·핀의 삼파전 양상이 굳어지면서 소규모 대출 비교 플랫폼들은 경쟁력을 잃고 있다.   업계 관계자는 "소비자들은 인지도가 높은 업체들이 더 안전하다고 생각하는 경향이 커 토·카·핀과 같이 이미 시장을 선점한 업체들이 유리하다"며 "후발주자들이 인지도를 쌓아가기 위해서는 금융기관과의 제휴가 매우 중요한데 진입 장벽이 높아 색다른 강점을 지니기도 쉽지 않은 상황"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>신용융자금리 10% 시대에도…예탁금 금리는 0%대</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005344476?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>현대차, 유안타 등 신용융자금리 10%대 적용연말 10%대 돌파 증권사 수두룩 전망다수 증권사 예탁금 이자율은 0%대 유지"신용융자 및 예탁금금리 합리적 조정 필요"[이데일리 김응태 기자] 증권사 신용거래융자 금리 두자릿수 시대가 성큼 다가온 가운데 여전히 예탁금 이용료는 0%대 수준에 머물러 있다. 고금리 국면에서 증권사들이 신용거래융자 금리 인상에는 적극 나서는 반면, 예탁금 이용료 인상에는 미온적이라는 비판이 나온다. 내년까지 금리 인상이 이어질 경우 신용거래융자와 예탁금 이용료 간 격차는 더 크게 벌어질 것으로 관측된다.[이데일리 김일환 기자]빅스텝 여파에 신용융자 금리 고공행진18일 금융투자협회에 따르면 현대차증권(001500)은 일반 고객 대상 90일 초과 신용융자 금리를 10.5% 수준으로 적용 중이다. 유안타증권(003470)도 150일을 초과해 신용융자를 이용하는 소비자에게 10.3%의 금리를 부여하고 있다.신용융자 금리가 10%에 육박하는 업체들도 상당수다. 삼성증권(016360)의 90일 초과 신용융자 이자율은 9.8% 수준이다. 신한투자증권은 이달 4일부터 90일 초과 신용융자 이자율을 9.8%로 책정했다. 하이투자증권과 키움증권(039490)은 90일 초과 신용융자 금리를 각각 9.6%, 9.5% 수준에서 부과하고 있다. 신용융자 금리 인상을 앞둔 업체도 잇따른다. KB증권은 다음 달부터 90일 초과 신용융자 이자율을 종전 대비 0.3%포인트 인상한 9.8%를 적용하기로 했다. SK증권(001510)은 현재 90일 초과 신용융자 이자율을 9.5% 수준으로 청구 중인 가운데, 오는 24일부터는 16~30일 이용 구간 등에서 이자율을 0.3%포인트 올리기로 했다.신용융자 거래는 증권사가 개인투자자에게 주식 매수 자금을 빌려주는 일종의 대출이다. 이자율은 신용융자를 이용하는 기간, 고객 등급, 계좌설계 방식 등에 따라 다르게 적용된다.국내 주요 증권사들이 연이어 신용융자 금리를 인상한 것은 기준금리가 인상되면서 시장금리가 상승하고 있기 때문이다. 증권사들은 기업어음(CP)이나 양도성예금증서(CD) 금리를 기준으로 업무원가 등의 가산금리를 더해 최종금리를 결정하는데, 올해 기준금리 인상 폭이 가팔라지며 시장금리에 연계된 신용융자 이자율도 상승했다고 설명했다. 한 증권사 관계자는 “신용융자 금리는 회사별로 고유의 산정 방식에 따른다”며 “통상적으로 시장금리 상승에 후행해 반영되고 있다”고 말했다.연말에는 신용융자 이자율이 두자릿수를 넘어서는 기업들이 크게 늘어날 전망이다. 이달에 이어 오는 11월 한국은행 금융통화위원회에서 빅스텝(기준금리 0.5%포인트 인상)에 다시 한 번 무게가 실리고 있어서다. 미국 연방준비제도(Fed)가 올 연말 미국 기준금리를 전망을 4.4%로 제시한 만큼 국내에서도 큰 폭의 금리 인상이 불가피하다는 게 업계 중론이다.신용융자 금리 오르는데…예탁금 이용료는 제자리 신용융자 이자율이 잇달아 인상되는 것과 달리 투자자 예탁금 이용료는 여전히 0%대 머무르면서 비대칭이 심화하고 있다는 비판도 커지고 있다. 예탁금 이용료는 증권계좌 예수금에 대한 지급하는 이자로, 현재 국내 증권사 가운데 100만원 이상 예탁금을 맡길 경우 1%대의 이용료를 제공하는 곳은 KB증권과 토스증권 등 2곳뿐이다. 나머지 주요 업체들은 연초와 비슷한 수준을 유지하며 0%대를 유지 중이다. 예탁금 이용료는 투자자예탁금을 증권금융에 예치해 얻은 수익금에서 회사별 직·간접 비용을 차감한 뒤 책정된다. 강형구 금융소비자연맹 사무처장은 “신용거래융자의 경우 담보유지비율을 적용하는 만큼 과도하게 높은 금리를 부여하는 것보다 합리적인 수준으로 조정해야 한다”며 “예탁금 이용료도 주식 계좌 개설 시 소비자에게 금리 수준을 확실하게 비교해 선택할 수 있어야 하며, 이용료 수준을 소비자 눈높이 맞춰야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[주경철의 히스토리아 노바] [77] 괴물들과 싸우는 헤라클레스… 그리스 식민지 정복 과정이었다</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003724071?sid=103</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>헤라클레스의 12과업… 신화와 역사 사이										사자 가죽을 걸쳐 입고 커다란 몽둥이를 들고 있는 거구의 사내. 헤라클레스는 사실 밤에 길거리에서 만나면 간담이 서늘해질 인상이다. 막무가내의 힘과 육체성의 화신인 헤라클레스는 신화상에서 가장 인기 있고 사랑받는 주인공이다. 온 세상의 악당과 괴물들을 무지막지한 힘으로 부수고 나가는 정의의 사도이기 때문이다. 물론 우리 편에서 볼 때 정의의 사도지만, 맞는 편에서 보면 천하의 악당일 수밖에 없다. 과연 그가 쳐부순 적들은 누구인가? 그들은 왜 헤라클레스에게 처절하게 맞아야 했을까? 이유가 따로 있는 건 아니고, 단지 고대 그리스인들이 팽창해 나가는 지역의 주민들이기 때문이다. 헤라클레스는 고대 그리스 식민 팽창의 선두에 선 주인공이다. 상징적으로 이 신은 이방인의 세계에 힘으로 뚫고 들어가서 적을 한 방에 무너뜨리고 땅을 빼앗은 다음 그리스 문화를 전파하고 개량하는 역할을 맡아서 했다. 그가 한평생 쉴 틈 없이 세계를 돌아다니며 싸움을 할 수밖에 없었던 이유다.광기에 사로잡혀 자기 가족까지 몰살인간은 도저히 할 수 없는 위업을 마음껏 이룰 수 있는 이유는 그가 신의 씨앗이기 때문이다. 헤라클레스는 최고 신 제우스와 인간 알크메네 사이에서 태어났다. 알크메네의 미모에 반한 제우스는 그녀의 남편 암피트리온이 전쟁터에 나간 사이에 그의 모습으로 변신하여 침실에 들었고, 결국 알크메네는 신의 자손을 잉태하게 되었다. 제우스는 기쁨에 겨워 ‘페르세우스의 후손이 미케네의 통치자가 되리라’고 정했다. 알크메네가 페르세우스의 후손이기 때문에 그런 축복을 내린 것이다. 그런데 뒤늦게 이 사실을 눈치챈 헤라(제우스의 아내인 여신)가 모든 일을 틀어놓았다. 또 다른 페르세우스의 후손 스테넬로스의 아내도 임신 중이었는데, 헤라는 알크메네의 출산은 늦추고 스테넬로스의 아들을 일곱 달 만에 빨리 나오게 하여, 결국 먼저 세상에 나온 에우리스테우스가 미케네의 왕이 되었다. 그가 바로 헤라클레스의 평생 라이벌이다.청년 헤라클레스는 테바이의 공주 메가라를 아내로 맞아 세 아들을 얻었다. 이 첫 번째 결혼은 엄청난 비극으로 파국을 맞는다. 헤라클레스가 아내와 세 아이를 모두 죽이는 최악의 가정 폭력 사태가 벌어진 것이다. 어느 날 리코스라는 자가 테바이로 쳐들어와서 온 가족을 죽이려는 찰나에 헤라클레스가 돌아와 리코스를 죽였다. 그런데 이 순간 헤라클레스는 광기에 빠졌고, 자기 가족들까지 몰살했다. 헤라클레스는 광기 속에서 자신의 앞에 있는 게 리코스가 아니라 자신의 영원한 라이벌 에우리스테우스이고, 아이들과 아이 엄마는 에우리스테우스의 처자식이라고 상상했다. 그래서 활로 이 모든 사람들을 처단해 버린 것이다.헤라클레스가 사자와 싸우는 모습을 화폭에 담은 페테르 파울 루벤스의 그림. 열두 과업 중 첫 번째다. /앱슬리 하우스 웰링턴 컬렉션. 아칸소대										헤라클레스에 닥친 이 광기의 실체는 무엇일까? 그가 힘으로 무찔러 죽인 리코스(Lykos)는 늑대라는 뜻이다. 늑대를 죽이는 파괴적인 힘 자체도 동물적인 힘이다. 리코스를 없애는 순간 그것의 여성형 대응물인 리사(lyssa)가 덮친 것인데, 이는 곧 인간이 동물의 세계로 타락해서 폭력을 휘두르는 상태를 가리킨다. ‘극대노’ 상태에 빠지면 인간성을 상실하고 늑대로 변한다. 다시 말해 리사는 도시와 문명을 파괴하고 인간관계를 파탄 내는 무질서한 힘이다. 영웅에게는 자기 내면에 도사리고 있는 이 야만의 힘을 정화하여 그리스적 정신으로 승화하는 과정이 필요하다. 그 일을 맡아서 해준 것은 지혜의 여신 아테나와 영웅 테세우스다. 제정신을 찾은 헤라클레스가 자신이 저지른 짓을 깨닫고 비탄에 잠겨 스스로 목숨을 끊으려 하자, 테세우스가 델포이의 신탁을 받아보라고 권한다. 신탁 내용은 미케네로 가서 에우리스테우스의 노예가 되어 그가 시키는 일들을 하라는 것이다. 에우리스테우스는 다름 아닌 헤라클레스에게 돌아갈 왕위를 빼앗은 자가 아닌가. 그는 이 기회를 이용해 늘 부담스럽고 위협감을 주던 헤라클레스에게 열 가지 고난의 과업을 부과하여 괴롭혔다. 게다가 그중 두 가지는 치사한 핑계를 대서 무효 선언한 후 두 가지를 더 부과한다. 이것이 유명한 헤라클레스의 12과업이다.그리스와 지중해 세계 각지의 괴물들을 처치하는 이 흥미진진한 모험은 실상 폭력적으로 이웃 지역에 쳐들어가서 식민지를 건설하는 과정을 나타낸다. 이 영웅담들이 벌어지는 공간을 추적해 보자.네메아(Nemea, 펠로폰네소스 반도 북동쪽)의 사자와 레르네(Lerne, 펠로폰네소스 반도 중남부, 아르고스만 근처)의 머리가 아홉 개의 용 히드라를 죽이는 첫 번째와 두 번째 과업은 모두 펠로폰네소스 지역 내부의 골칫거리를 해결한 일들이다. 그 다음 세 번째부터 여섯 번째까지 일들은 펠로폰네소스반도 북부와 중앙부를 무대로 한 일들로서, 제법 먼 곳에서 일어났다. 에리만토스(Erymanthos, 그리스 서부 지역)의 거대한 멧돼지 죽이기, 아르테미스 여신이 보호하는 케리네이아(Keryneia, 그리스 서부 아카이아 지역)의 암사슴을 산 채로 잡아오기, 스팀팔로스 호수의 괴조(怪鳥)들을 퇴치하기, 올림피아에 위치한 아우게이아스 왕의 축사를 청소하기 같은 일들이 그것이다.그리스인의 해상 활동과 일치그다음 일곱 번째부터 열 번째까지 과업은 그리스 세계를 떠나 훨씬 먼 곳을 무대로 한다. 크레타의 황소를 잡아오기, 트라케의 왕 디오메데스의 사나운 식인 말들을 사로잡아 오기, 아마조네스(흑해 남쪽 지방)의 여왕 히폴리테의 허리띠를 가져오기, 에리테이아(Erytheia, 지중해 서쪽 끝에 위치한 공상의 섬)의 괴물 게리온의 소를 산 채로 잡기 등이 그것들이다. 마지막 남은 두 번의 과업은 아주 먼 상상의 나라에서 벌어지는 일이다. 열한 번째 과업은 헤스페리데스(Hesperides, ‘저녁의 딸들’로 불리는 서쪽 나라 님프)의 정원에서 황금 사과를 훔쳐 오는 일인데, 이를 하기 위해서는 우선 리비아에서 길목을 지키는 거인 안타이오스와 싸워야 한다. 열두 번째 과업은 저승 세계인 하데스 왕국의 출입문을 지키는 머리 셋 달린 개 케르베로스를 잡아 오는 것이다. 이 마지막 과업까지 다 완수한 후 헤라클레스는 다시 자유의 몸이 된다.										열두 과업의 수행은 그리스 본토의 핵심 지역으로부터 점차 지중해 주변의 먼 지역으로 퍼져 간다. 이는 그리스인들의 해상 활동이 지중해 각 지역으로 확산하고 식민화가 진행되는 현상을 나타낸다. 이방인의 세계를 탐험하고 그 안으로 뚫고 들어가는 헤라클레스는 속성상 중간 존재다. 자신이 스스로 야만적 광기를 정화했듯, 우선 상대방 세계에 힘으로 뚫고 들어가서 그리스의 고상한 가치를 전파하며 그리스 세계로 만들어간다는 상징이다. 폭력적 인물이면서 중재자, 힘으로 문제를 강제 해결하지만 결과적으로는 좋은 결과를 가져오는 식이다.그런 점에서 그의 이름부터 의미심장하다. 헤라클레스(Heracles)는 hera(영웅)와 cles(신)가 합쳐진 것이니, 인간 영웅이면서 신이 된 인물, 인간의 몸에서 태어났으나 결국 불멸의 신의 지위로 격상하여 올라간 존재다. 그의 죽음이 이런 점을 명료하게 말해준다. 그의 두 번째 아내 데이아네이라는 계략에 빠져서 히드라의 독 성분이 묻어 있는 옷을 남편 헤라클레스에게 입혔다. 독이 헤라클레스의 몸을 파고들자 온몸이 불이 붙는 듯했다. 최후가 다가온 것을 직감한 헤라클레스는 불타는 고통 속에서도 자신의 시신을 화장할 장작 더미를 쌓고 그 위로 올라가 아들에게 불을 붙이라고 지시했다. 왜 헤라클레스는 매장이 아니라 반드시 화장을 해야 했을까? 그의 혼이 하늘로 올라가야 하기 때문이다. 불 속에서 인간적인 부분들은 타서 없어지고 신성 부분만 남은 헤라클레스는 올림포스로 승천했다.[여전사의 나라로]헤라클레스 기운받은 아마조네스 여전사들 힘이 더욱 강력해져신화는 고정된 게 아니라 여러 판본이 있다. 아마조네스를 찾아가는 모험담 또한 여러 종류의 이야기가 전한다. 그 중에선 선정성이 두드러진 판본도 있다. 이번 임무를 수행하려고 길을 떠날 때 우연히 아테네의 영웅 테세우스가 헤라클레스를 만나 동행하게 되었다. 두 영웅이 여인들의 나라에 도착했을 때 여왕 히폴리테는 테세우스의 용모에 반했다. 여왕은 자신의 욕망을 위해 흥미로운 제안을 한다. 헤라클레스는 아마조네스의 여성 50명을 만족시켜 주어야 하며 그 기간 동안 자신이 테세우스와 동거하기로 하고, 그런 후에 자신의 허리띠를 주겠다는 것이다. 헤라클레스가 이 임무를 완수하려면 적어도 두어 달은 족히 걸릴 것으로 생각한 것이다. 헤라클레스의 스태미나를 모르고 한 말이었다. 하룻밤이 지나고 테세우스와 히폴리테가 정답게 아침 식사를 하려는데 헤라클레스가 나타났다. 50명을 상대하는 일을 다했으니 빨리 허리띠를 내놓으라는 것이다. 그 후 헤라클레스의 기운을 타고난 자손을 얻은 아마조네스의 여전사들은 더욱 힘이 강력해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐' 가입 1500만명 돌파…개통 1년6개월만</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011478738?sid=100</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>기사내용 요약27종 행정서비스 알림·안내 및 챗봇 상담[세종=뉴시스] 네이버 애플리케이션(앱·左)과 카카오톡으로 안내된 국민비서 서비스 예시. (자료= 행정안전부 제공)[세종=뉴시스] 변해정 기자 = 국민비서 '구삐'의 가입자 수가 1500만명을 넘어섰다. 개통 1년6개월여 만이다. 행정안전부는 지난 13일 국민비서 구삐 가입자 수가 1500명을 돌파했다고 17일 밝혔다. 통계청 기준 우리나라 인구 수 5162만명의 29.1%가 가입한 셈이다. 전 국민 4명 중 1명 이상이 쓰는 것이다.국민비서는 카카오톡·네이버·토스 앱 등 8개 민간 채널로 사전 설정만 해놓으면 각종 생활정보를 때맞춰 제공하는 행정 알림서비스다. 구삐는 국민비서 캐릭터의 이름이다. 지난 2021년 3월29일 서비스를 시작해 현재 건강·주택, 세금·고지·미환급금, 주민등록, 내 정보조회 내역 확인, 교육, 자동차·교통, 보수교육 등 27종을 안내하고 있다. 24시간 챗봇(채팅로봇)을 통해 민원 상담도 제공한다. 행안부는 서비스 종류와 채널을 지속적으로 확대하기로 했다. 국민비서 알림을 받은 즉시 서비스 상담·신청이 가능하도록 완결성도 높일 방침이다. 또 가입자 1500만명 돌파 기념 감사 이벤트를 진행한다. 다음달 2일까지 가입자는 누구나 알림메시지를 받아 응모할 수 있다. 신규 가입자의 경우 국민비서 홈페이지(https://www.ips.go.kr)나 행안부 SNS 채널을 통해 응모 가능하다. 행안부 유튜브에서는 구삐 영상 공개와 함께 댓글을 다는 이벤트를 벌인다.  이상민 행안부 장관은 "국민비서는 민간과 정부가 함께하는 디지털플랫폼정부의 대표 사례"라며 "앞으로도 국민이 보다 편리하게 정부서비스를 이용할 수 있도록 국민비서를 더욱 발전시켜 나가겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>메타 개발진發 메인넷 '앱토스' 등장...기대 반 의심 반</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271176?sid=105</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>국내외 거래소 잇따라 상장…솔라나 대항마로 주목메타 출신 인력이 모여 만든 메인넷 '앱토스(APT)'가 출시되고 거래소에 토큰을 상장함에 따라 관심이 쏠린다.메타는 지난 2019년 결제용 암호화폐 프로젝트 '리브라'를 출범했다. 이후 리브라를 재설계해 스테이블코인 '디엠'을 출시할 계획을 세웠다. 그러나 세계 당국들이 견제에 나서면서 결국 사업을 접게 됐다. 해당 프로젝트의 핵심 인력들이 앱토스 프로젝트에 참여했다.앱토스의 기술 구조와 특성을 고려할 때 기존 레이어 1 블록체인의 한계를 뛰어넘을 잠재 역량이 있다는 기대가 나타나고 있다. 반면 네트워크와 토큰 경제에서 미심쩍은 부분이 있다는 회의적인 시선도 공존하고 있다.19일 업계에 따르면 업비트와 바이낸스, 바이비트, 비트파이넥스, MEXC, 후오비, OKX 등 국내외 가상자산 거래소들이 APT를 상장했거나 상장할 예정이다. 업비트의 경우 GMT 이후 5개월 만에 원화마켓에 토큰을 추가 상장한다.특히 세계 최대 거래소인 바이낸스에서는 한때 상장가 1 달러 대비 시세가 1만% 상승한 100 달러를 기록하기도 했다. 19일 오후 4시 현재 바이낸스에서 APT 가격은 7.45 달러로 나타나고 있다.앱토스 로고업계와 투자자들이 이처럼 앱토스에 높은 기대감을 드러내는 이유는 여러 가지다. 기술적 특성과 인적 역량, 거대한 커뮤니티 등이 언급된다.앱토스는 디엠에서 개발한 합의 알고리즘인 '앱토스BFT'를 채택하고 있다. MIT가 발표한 '프랙티컬 비잔틴 장애 허용(PBFT)'에서 파생됐다. 기존 합의 알고리즘 대비 속도와 보안 측면에서 강점을 지니는데, 이를 더욱 개선했다. 병렬로 트랜잭션을 처리하는 블록 소프트웨어거래메모리(STM)란 기술도 속도 향상에 기여한다. 앱토스는 초당 트랜잭션 처리량(TPS)을 최대 16만까지 기록할 수 있다고 밝히고 있다. 이더리움 TPS가 20~30대, 솔라나 TPS가 5천대인 점을 고려하면 매우 높은 수치다.블록체인은 대중화를 위한 숙제로 비싼 수수료와 함께 느린 네트워크 처리 속도가 흔히 거론돼왔다. 때문에 타 블록체인보다 대중화를 꾀하는 측면에서도 유리할 것이란 의견도 제기되고 있다.앱토스는 메타에서 디엠 개발에 사용하던 스마트 컨트랙트 프로그래밍 언어 '무브'로 작성됐다. 이는 러스트 기반 언어다. 앱토스를 다룬 업비트 디지털자산 보고서는 "경쟁 메인넷으로 지목되는 솔라나가 러스트를 채택하고 있어, 앱토스 생태계로 솔라나 기반 디앱을 비교적 수월하게 유치할 수 있다"고 분석했다.앱토스 커뮤니티에 대해서도 지난 14일 기준 트위터 구독자 18만명, 디스코드 커뮤니티 11만명을 넘어섰다며 긍정적으로 평가했다. 테스트넷에서 작동하는 디앱 10여개 외 메인넷 출시 이후 시장에 나올 디앱도 200여개로 자체 생태계가 마련되고 있다는 분석이다.대량 NFT 민팅 측면에서도 TPS가 높은 만큼 기술적으로 유리하다는 평가다.이런 장점들로 블록체인 벤처투자사(VC)인 바이낸스랩스와 a16z, 코인베이스벤처스, FTX벤처스, 멀티코인캐피탈, 점프크립토 외 전통 VC인 페이팔벤처스, 타이거글로벌 등으로부터 투자를 유치했다. 시리즈 A 투자에서 기업 가치는 20억 달러로 평가됐다.다만 토큰 상장을 앞두고 잡음도 발생하고 있다. 상장 2시간 전 테스트넷 참여자를 대상으로 에어드랍을 실시하겠다고 밝힌 것. 앱토스 재단에 따르면 이를 통해 APT 총 2천만여개가 11만명 가량에 지급된다.TPS 성능에 대한 논란도 일었다. 트위터 이용자 '패러다임Eng420'은 17일 앱토스 TPS가 4밖에 나오지 않는다고 지적했다. 이 이용자는 APT 총 10억개 중 80% 가량인 8억2천만개가 스테이킹돼 있다면서, 앱토스 팀과 투자자에 할당된 토큰 분량이라는 점도 같이 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>'혹시 애플페이 대응?'…토스플레이스 EMV 컨택리스 인증 획득</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003053547?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>내년 정식 출시 자사 단만길에NFC국제 결제표준 규격 장착관계자 "애플페이 컴토 안해"토스의 결제단말기 자회사 토스플레이스가 EMVCo의 'EMV 콘택트리스(비접촉결제서비스)' 인증을 신규 획득한 것으로 확인됐다. 토스플레이스뿐만 아니라 최근 국내 결제업체 다수가 최근 EMV 인증 확보에 나선 것으로 알려지면서 애플페이의 국내 진출을 고려한 조치라는 해석이 힘을 얻고 있다.24일 EMVCo 등에 따르면 토스플레이스는 내년 정식 출시 예정인 자사 단말기 '프론트'의 소프트웨어와 하드웨어에 대해 EMV 콘택트리스 레벨 1 인증을 받았다.프론트는 토스플레이스가 현재 서울 시내 약 300여개 가맹점을 대상으로 시범 운행 중인 고객 결제용 단말기의 이름이다. 매장 직원이 쓰는 단말기 '터미널'과 쌍을 이룬다.EMV표준이란 마스터와 비자, 유러페이 3사가 마련한 신용카드및 전자화폐 표준화규격이다. IC칩부터 단말기에 이르기까지 결제카드에 대한 기본 구조를 정하고 있어 사실상의 세계 표준으로 통용된다.이 중 EMV 콘택트리스는 근거리무선통신(NFC) 국제 결제 표준 규격으로, 아이폰의 '애플페이'가 이 방식을 쓴다. 카드를 매장 단말기에 긁거나 꽂지 않고 인식기에 갖다 대는 '탭'만으로도 사용할 수 있는 NFC 기반 결제 방식이다. 보안 취약점이 큰 마그네틱 방식을 국제적으로 빠르게 대체하고 있다.하지만 한국은 마그네틱카드 결제 단말기를 쓰는 오프라인 매장이 많고, 삼성페이의 마그네틱 보안전송(MST) 영향으로 NFC 단말기의 보급률이 매우 낮다. 업계는 전체 결제 단말기 중 NFC 단말기 비중이 10%를 넘지 않을 것으로 본다.내달 출시가 예상되는 애플페이의 한계점으로도 결제 단말기 부족 문제가 상시 거론된다. 이에 따라 토스가 애플페이 결제를 무기로 앞세울 경우 시장 선점에 크게 유리할 것으로 전망된다.실제로 토스플레이스의 EMV 인증 확보는 이례적이다. 지난해까지만 해도 대부분의 국내 결제 단말기 업체들은 비용 문제 등으로 EMV 비접촉 결제 인증을 받지 않았기 때문이다. EMV 인증을 받기 위해서는 등록비 등을 포함해 단말기 1기종당 평균 6000만원이나 든다. 비접촉 결제가 가능하도록 EMV 1·2·3 인증을 받은 모두 확보한 단말기는 지난해 NHN페이코가 출시한 '올인원결제단말기(C100)' 정도가 현재 유일하다.다만 토스플레이스 측은 특별히 애플페이의 국내 진출을 고려해 신규 인증을 확보한 것은 아니라는 입장이다.토스플레이스 관계자는 “EMV 인증은 국제 표준이기 때문에 취득한 것이며, 전 세계적으로 NFC로 이동하는 추세에 따라 콘택트리스도 취득하는 과정에 있다”며 “특별히 애플페이 적용 등에 대해서는 검토하지 않았으며, 현재로서는 계획이 없다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>'고무줄 늘리듯 대출기간 조정'…토스뱅크, 대출 상환 연장 서비스</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004917053?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 토스뱅크가 대출자가 언제든 대출 상환 기간을 연장해 매월 부담하는 원리금을 줄일 수 있도록 하는 서비스를 시작한다.   토스뱅크는 ‘토스뱅크 신용대출’ 고객을 위해 ‘매달 내는 돈 낮추기’ 서비스를 시작한다고 24일 밝혔다. 토스뱅크에서 대출받은 고객 가운데 상환 기간이 10년 미만이며, 원금과 이자를 매달 함께 갚아나가는 ‘원리금 균등 상환’ 고객이 대상이다.   고객들은 서비스 신청과 함께 곧바로 연장된 기간을 적용 받는다. 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이다. 일종의 '고정비용'인 원리금이 줄어드는 실질적 효과가 있다.   가령 올 3월 연 3.5% 금리로 3년 만기, 7000만원을 대출받은 고객 A씨는 6개월 새 급격히 대출 금리가 상승함에 따라 매달 원리금으로 216만원(연 5.46% 금리 적용)을 부담해야 했다.   A씨가 ‘매달 내는 돈 낮추기’ 서비스를 이용해 대출 상환 기간을 7년으로 늘릴 때 월 상환액은 90만8000원(연 5.62% 금리 적용)이 된다. 월 고정비용 부담이 절반 이하로 줄어드는 셈이다.   특히 고객들은 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산 금리에도 변동이 없다. 단 고객이 신청한 기간에 따라 발생하는 위험 비용인, ‘유동성 프리미엄’은 최소 0.08%p~최대 0.2%p가량 반영될 예정이다.   토스뱅크 관계자는 “급격한 금리 상승과 인플레이션 등 고객의 가계 부담이 많이 늘어나는 가운데 월 고정 비용이 일부 상쇄된다면 어려운 시기를 이겨내는 데 보탬이 될 것으로 판단했다”며 “고객들의 가계 부담을 줄이고 고객과의 상생을 위해 앞으로도 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[알림] 제9회 이데일리IT컨버전스포럼이 11월16일 열립니다</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005350089?sid=105</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>11월 16일 앰배서더 서울 풀만 호텔에서 열려'위기 넘어 기회: 디지털 전환 시대 생존전략'기조연설 '우영우' 제작 스튜디오지니 김철연 대표오세현 SK텔레콤 부사장 웹3 강연 등'디지털 경제 성공위한 규제 혁신 방향' 좌담회[이데일리 김현아 기자]세계 경제가 매우 어렵지만, 디지털 경제는 지난해 15% 성장하는 등 많은 산업 분야에서 디지털 기술을 통해 혁신을 이뤄가고 있습니다.올해로 9번째를 맞이한 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’의 주제는 &lt;위기 넘어 기회 있다: 디지털 전환 시대 생존전략&gt;입니다.경기 침체기에 미래를 준비하는 국내 대표 디지털 혁신 기업의 사업 전략과, 산업 분야별 내년 시장 전망, 우수 기업의 기술 및 사업화 전략에 대해 각 분야 리더들의 지혜를 공유하고자 합니다.‘우영우’를 통해 듣는 K-콘텐츠의 글로벌 진출 가능성기조연설에서는 올해 글로벌 시청 시간 4억 시간을 넘긴 ‘이상한 변호사 우영우’(Extraordinary Attorney Woo)의 성공비결과 함께, 글로벌 콘텐츠&amp;미디어 시장에 대해 조망해 볼 수 있는 시간이 될 것으로 기대합니다. ‘우영우’를 에이스토리와 공동제작한 스튜디오지니의 김철연 대표께서 맡아주셨습니다.부가통신사의 사회적 책임이 강조되는 가운데, 무분별한 규제 도입은 오히려 대한민국 디지털 경제 성장의 발목을 잡을 수 있다는 우려와 함께 전문가들의 대책을 담은 좌담회도 준비했습니다. ‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사가 토론합니다.차세대 인터넷 웹3로 여는 오후 세션오후 세션 1부는 오세현 SK텔레콤 Digital Asset CO(부사장)님이 블록체인의 미래를 밝힐 웹3에 대해 강연해주시는 것으로 문을 엽니다. 가상자산 침체기 속에서도 ‘웹3’는 차세대 인터넷으로 부상하고 있습니다. 이용자가 인터넷상 자기 데이터에 대한 소유권을 가지고 경제 활동에 참여하는 새로운 인터넷 환경이 우리의 미래를 어떻게 바꿔 놓을까요.이외에도 ▲연결의 힘을 바탕으로 금융 혁신을 이끄는 토스의 수퍼앱 전략에 대해 서현우 비바리퍼블리카 사업전략 헤드님이 ▲D2C 허브 플랫폼으로서 기업들의 글로벌 커머스 시장 진출을 지원하는 카페24의 박준희 디지털전략연구소장님이 지혜를 나눠 주십니다.또, ▲도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화에 대해서는 티맵모빌리티의 박서하 퓨처모빌리티 그룹장님이 ▲글로벌 리걸테크 동향과 로톡의 사업전략에 대해선 정재성 로앤컴퍼니 부대표님이 각각 선두 업체로서 바라보는 미래 시장과 글로벌 동향 등에 대해 알려주십니다. 2부는 기술 분야별 선도기업의 전략을 듣는 시간으로 준비했습니다. ▲인터넷의 새로운 모습이 될 것으로 보이는 메타버스에 대해 컴투버스 이경일 대표님이 ▲CEO들이 디지털 전환 시 가장 중요한 기술로 꼽는 인공지능(AI)에 대해선 AI기술업체 업스테이지의 권순일 Biz 총괄님이 강연해 주십니다.이어 ▲디지털 경제의 신경망인 클라우드 산업과 시장 전반에 대해서는 대한민국의 대표 클라우드 기업인 네이버클라우드의 한상영 기획&amp;전략 상무님이 발표해 주시고, 마지막으로 ▲민간 우주개발 시대를 앞당길 우주 스타트업 이노스페이스의 김수종 대표이사님의 활기찬 강연이 이어집니다.여러분의 응원과 따뜻한 관심을 부탁드립니다. ECF2022는 무료입니다. 행사 당일, 행사장 접수 선착순 200명에게 점심식사 식권을 제공합니다. ◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>앱테크족 늘자 'M2E' 비즈모델 플랫폼 뜬다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003054550?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>플랫폼 업계에 행동하면 보상해주는 '무브투언(M2E)' 바람이 거세다. 최근 '3고(고물가·고금리·고환율) 시대'를 맞아 한푼이라도 아끼려는 '앱테크(앱+재테크)'족이 늘어났기 때문이다. 사용자는 애플리케이션(앱)에 출석체크를 하고 퀴즈를 풀거나 걸음 수를 달성해 포인트를 획득, 현금처럼 사용할 수 있다. 지속적인 참여를 유발해 충성고객 확보에 효과적이라는 분석이다.업계에 따르면 최근 MZ세대를 중심으로 M2E 개념을 접목한 서비스가 인기몰이 중이다. 대표적으로 넛지헬스케어의 '캐시워크', 토스 '만보기 서비스', 니콘내콘 '로그미 서비스' 등이 있다.한화투자증권이 6월 발간한 '2022 MZ세대 투자인식 보고서'에 따르면 MZ세대의 재테크·투자법으로 △예·적금(64%) △주식(54%)에 이어 앱테크(53%)가 3위를 차지했을 정도로 M2E 서비스는 MZ세대의 큰 호응을 얻고 있다.넛지헬스케어가 운영 중인 '캐시워크'가 대표주자다. 이미 1800만 사용자를 확보, 국민 3명 중 1명 이상이 매일 사용하는 디지털 헬스케어 슈퍼앱으로 자리잡았다. 100걸음마다 1캐시를 주고, 하루 최대 100캐시(약 71원)까지 적립할 수 있다. 미국에도 진출해 빠른 성장세를 보이고 있다. 이 회사는 최근 개인 고객뿐 아니라 B2G·B2B 영역으로 사업을 확장하기 위해 캐시워크 내 '팀워크(TeamWalk)' 서비스도 출시했다. 지역주민, 임직원 등 다수를 대상으로 하는 다양한 팀워크 건강 챌린지에 참여할 수 있다.토스 플랫폼의 만보기 서비스도 인기다. 2019년 7월 첫선을 보인 토스의 만보기 서비스도 1000걸음, 5000걸음을 걸을 때 10원을 주고, 1만보를 걸으면 20원을 준다. 토스가 지정한 특정 장소를 방문하면 보상으로 20원씩 100원까지 받을 수 있다. 하루 최대 보상액은 140원이다. 토스 만보기가 사용자 400만명을 돌파하며 인기를 끌자 금융권에서도 잇따라 관련 서비스를 선보이고 있다. KB국민은행 모바일뱅킹은 'KB매일걷기', 삼성 금융계열사 통합 앱(모니모)은 '걷기 챌린지' 등을 서비스하고 있다.기프티콘 거래 플랫폼 '니콘내콘'은 지난 8월 오프라인 결제에 대한 마일리지를 제공하는 '로그미' 서비스를 출시했다. 오프라인에서 카드 결제 시 이동 거리만큼 보상을 제공하는 '거리 기반 마일리지' 서비스다. 이동거리가 없어도 결제마다 최소 30원이 적립된다, 결제 건당 200원, 하루 최대 300원, 한달기준으로 최대 9000원까지 적립된다. 서비스 출시 이후 두달여 만에 사용자수 1만7000여명을 달성했다.업계 관계자는 “단순히 이동하는 것에서 벗어나 각종 설문조사, 영수증리뷰, 게임 미션을 통해서도 보상을 해주는 등 적용 범위가 계속 확장되고 있다”며 “웹3.0의 개인화된 보상 개념과도 맞물려 주요 기능으로 자리 잡을 것”이라고 말했다.&lt;표&gt;주요 'M2E' 비즈니스모델 플랫폼</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[알림]"우영우의 Before&amp;After 스토리 들어요"…내달 16일 'ECF 2022'</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005352810?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만호텔서 개최'우영우' 공동제작 스튜디오지니 대표 김철연 기조연설카카오사태로 터진 규제 강화 기조에 대한 심도깊은 토의도[이데일리 정다슬 기자] 기회는 ‘위기의 탈’을 쓰고 찾아온다고 합니다. 한국경제 역시 위기를 도약의 기회로 삼아오면서 세계 10위권까지 상승했습니다. 위기의 순간, 각 기업이 더욱 열심히 뛰어 성장의 발판으로 삼아야 하는 이유입니다.이데일리는 다음달 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. 올해 9회째를 맞는 이번 포럼은 얼어붙은 경제 상황 속에서도 혁신으로 도약을 꾀하고 있는 디지털 기업들의 사업 전략을 공유합니다. 산업 분야별로 내년 시장 전망, 그리고 혁신 기업들의 기술력에 대해서도 각 분야 리더들과 함께 머리를 맞댑니다.포럼의 시작은 ‘이상한 변호사 우영우’로 K콘텐츠의 경쟁력을 전세계로 알린 스튜디오지니의 김철연 대표가 나섭니다. 김 대표는 포럼 기조연설을 통해 우영우의 탄생 비결과 향후 전략, 글로벌 콘텐츠 및 미디어 시장에 대한 전망 등 성공의 인사이트를 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 마련했습니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 참여합니다. 최근 카카오 사태로 장기간 장애가 발생하면서 부가통신사업자에 대한 규제 목소리가 커진 상황입니다. 혁신의 의지를 꺾지 않는 올바른 방향은 무엇인지 전문가들의 솔직담백한 이야기를 듣습니다. 오후 세션의 문은 오세현 SK텔레콤 Digital Asset CO(부사장)가 열 예정입니다. 오 부사장은 블록체인의 미래를 밝힐 ‘웹 3’에 대해 강연합니다. ‘데이터 주권을 이용자 본인이 소유한다’는 웹 3가 우리의 미래를 어떻게 바꿀지 주목됩니다.아울러 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다.2부에선 각 분야별 선도기업들의 핵심 전략을 듣습니다. △이경일 컴투버스 대표가 메타버스의 새로운 세상을 △인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 이어 △한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를 △김수종 이노스페이스 대표는 민간우주개발 시대를 앞당길 스타트업 도전기를 생생하게 전달할 계획입니다.ECF 2022는 무료입니다. 부담없이 각 분야 전문가, 기업인들의 시장 전망, 그리고 핵심 전략들을 눈 앞에서 직접 보고 듣는 기회가 될 것입니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다.◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.10.31.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>위메프 김동민 최고제품책임자 영입</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004921277?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>위메프는 김동민 최고제품책임자(CPO·사진)를 영입했다고 10월 31일 밝혔다.   김 CPO는 미국 웰즐리대학교와 노스웨스턴대 켈로그 경영학석사(MBA) 과정을 졸업했다. 삼성전자 모바일사업부와 외국계 증권사 CLSA에서 근무한 김 CPO는 2017년 토스(비바리퍼블리카)에 합류해 토스의 초창기 빠른 성장에 기여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>'먹통' 사태에 200만명이 '탈카톡'했다…라인은 3배로 늘었다</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006399909?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>텔레그램 이용자, 라인 이용자와 맞먹어(서울=뉴스1) 정은지 기자 = "'카톡' 먹통에 메신저 앱 하나 더 깔았어요. 이미 '넘어온' 친구들도 많이 있더라고요."전례없는 카카오톡 먹통 사태에 라인, 텔레그램 등 '카톡' 대체 메신저앱 사용자가 크게 증가한 것으로 나타났다. 18일 앱 분석 서비스 와이즈앱에 따르면 카카오톡 국내 사용자수는 데이터센터 화재 이전인 지난 14일 기준 4112만명에 달했으나 화재 이후인 16일 기준 3905만명으로 약 200만명 감소했다. 이는 한국인 만 10세 이상 안드로이드와 애플 iOS 사용자수를 추정한 수치다. 반면 네이버 메신저 앱 라인의 이용자는 43만명에서 128만명으로 3배 늘었다. 페이스북 메신저 이용자수와 텔레그램 이용자수도 20만명 안팎으로 증가했다. 토스 역시 신규 채팅방 개설이 크게 늘었다. 이처럼 다른 메신저 앱 다운로드 건수가 증가한 것은 그동안 카톡만을 사용하던 이용자가 다른 메신저로 '갈아타기'에 나선 행보로 풀이된다. 이와 관련 와이즈앱 관계자는 "카톡 오류가 지속되면서 대체 서비스를 찾는 사용자가 많아졌고 이로 인해 라인, 텔레그램, 페이스북 등 사용자수가 급증한 것으로 분석된다"고 말했다. 실제 한 이용자는 "카카오톡이 안돼 라인을 깔았는데 다들 라인을 새로 깔았는지 많은 친구들이 라인으로 모였다"고 말했다. 또 다른 사용자도 "그동안 자주 안 쓰던 텔레그램에 오랜만에 들어갔더니 이틀 사이에 지인 추가가 몰려있었다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>고피자, 미래에셋•GS•CJ 등으로부터 250억 규모 시리즈C 투자유치</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005033519?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>미래에셋증권, GS 벤처스, CJ 인베스트먼트, 엔코어벤처스 등 신규 주주 외 캡스톤파트너스, DS자산운용, 빅베이슨캐피탈 등 기존 주주 참여투자 혹한기에도 해외 시장 성장, 푸드테크 상용화, 신규 사업모델 개척 등 미래 성장 가능성 인정...기업가치 1,000억원 넘으며 예비유니콘 등극[사진] 고피자 임재원 대표(중앙)와 고피자 인도 법인장 Mahesh Reddy (좌) 외 임직원들 1인 피자 브랜드 고피자(대표 임재원)가 총 250억원 규모의 시리즈C 투자 유치에 성공했다고 21일 밝혔다.이번 투자에는 미래에셋증권, GS 벤처스, CJ 인베스트먼트, 엔코어벤처스 등의 대기업 및 해외에 LP를 둔 신규 주주들을 비롯해 캡스톤파트너스, DS자산운용, 빅베이슨 캐피탈 등 기존 주주들 다수가 참여했다. 고피자의 현재까지 누적 투자 유치 금액은 총 450억원으로, 투자 후 기업가치는 1,500억원을 인정받았다.투자 혹한기라 불리는 시기임에도 대형 투자 유치를 성공한 비결은 국내외의 고른 성장과 고피자만의 차별화된 기술력 및 사업 모델의 빠른 성장세가 주효했다는 분석이다. 인도, 싱가포르, 홍콩에 이어 최근 인도네시아에 진출하며 해외 진출 3년만에 총 5개국에 160여개 매장을 오픈하는 등 국내외에서의 견고한 성장을 바탕으로, 시장을 선도하는 푸드테크 기술력과 자체 제조 역량, 그리고 CGV와 같은 대기업과의 협업을 통한 신규 사업모델 개척 등이 높게 평가받았다. 고피자는 이번 투자를 기반으로 해외 성장세에 본격적으로 가속을 내고, 자체 개발한 푸드테크 기술의 상용화도 앞당길 계획이다. 특히 인도와 싱가포르 시장에만 내년에 100호점 돌파를 예상하고 있어 국내 외식 기업으로서는 이례적인 해외 사업 성공 사례가 될 것으로 기대된다.고피자의 임재원 대표는 “어려운 투자 시장에서도 기존 주주의 후속 투자와 함께 명망 있는 신규 투자자로부터 회사의 성장성과 미래 가치를 인정받아 기쁘다”며 “이번 시리즈C 투자 유치를 통해 고피자의 빠르고 유기적인 성장을 가속화하고 글로벌 사업의 성공을 이뤄내는 국가대표 브랜드로서 자리매김 하겠다”라고 밝혔다.허준녕 GS벤처스 대표는 “고피자는 탄탄한 푸드테크 기술력을 바탕으로 소비자가 원하는 제품을 만들며 해외로 적극 확장하고 있는 글로벌 B2C 브랜드"라며 "고피자가 국내외에서 GS그룹과 다각도로 협업할 수 있을 것으로 기대해 투자하게 됐다"고 말했다.해외 LP등으로 구성된 펀드로 금번 고피자 투자를 리드한 엔코어벤처스의 박주남 대표는 “임재원 대표의 역량과 비전, 인도와 동남아시아 시장에서의 높은 성장 가능성을 금번 투자 배경으로 꼽았다”고 말했다. 엔코어벤처스는 한국, 미국, 동남아시아 스타트업에 투자하는 신기술 사업 금융회사로 대표적인 포트폴리오로 토스, 트릿지, 파두, Epic Games 등이 있다.2016년 푸드트럭으로 시작된 고피자는 2020년 외식 기업으로는 유일하게 중기부가 선정한 '아기유니콘' 기업에 선정되었으며, 올해 영국 파이낸셜타임스가 꼽은 ‘아시아태평양 고성장 기업’으로 선정된 바 있다.매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>뛰는 예금이자에 나는 대출이자…예대금리차 더 벌어졌다</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005346136?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>은행 절반 이상 전달대비 예대금리차 상승대출금리 인상 속도 수신금리 대비 빨라전북은행 1.63%p ↑, 부산은행ㆍ토뱅도 늘려[이데일리 전선형 기자] 9월 은행들의 예대금리차(대출과 예금 금리 차이)가 전달보다 더 벌어진 것으로 나타났다. 한국은행이 기준금리를 대폭 올리면서 은행들이 이를 반영해 대출금리를 산정했고, 특히 변동금리 대출상품 이용자가 늘어나며 평균 대출금리를 끌어올린 결과로 풀이된다. 예대금리차를 줄이기 위해 은행들이 예ㆍ적금 등 수신금리 인상을 추진하고 있지만, 대출금리 상승 속도를 따라잡기엔 역부족이란 평가다. 서울 시내 은행에 대출 안내문 모습. (사진=연합뉴스)20일 은행연합회 9월 기준 19개 은행의 가계대출 예대금리차 공시(햇살론뱅크·햇살론15·안전망 대출 등 서민금융상품 제외)를 살펴보면 절반 이상인 11개 은행(NH농협ㆍ우리ㆍSCㆍ하나ㆍ씨티ㆍ수협ㆍ부산ㆍ광주ㆍ전북은행, 카카오ㆍ토스뱅크의 예대금리차가 직전달보다 상승했다. 가장 큰 폭으로 예대금리차가 상승한 곳은 전북은행이었다. 전북은행은 이번달 예대금리차가 6.43%포인트로 은행권을 통틀어 가장 높았고, 전달과 비교해서는 1.63%포인트가 상승했다. 전북은행의 예대금리차가 벌어진 건 대출금리가 크게 올랐기 때문이다. 전북은행의 9월 기준 대출금리(서민금융 제외)는 전달대비 1.36%포인트가 상승한 9.16%였다. 은행권 중 가장 높다. 반면 저축성 수신금리(평균)는 7월 3.13%, 8월 3%, 9월에는 2.73%로 점점 낮아지고 있다. 수신금리 인상에는 적극적이지 않았다는 평가다. 전북은행 다음으로 예대금리차가 확대된 곳은 부산은행이다. 부산은행의 지난달 예대금리차는 1.59%포인트로 낮았지만, 전달과 비교해서는 0.49%포인트가 확대됐다. 이는 부산은행의 대출금리는 4.99%였는데, 8월에서 9월 사이 대출금리를 0.81%포인트나 늘렸다. 7월과 비교해서는 1.12%포인트가 인상됐다. 토스뱅크의 예대금리차 폭도 전달대비 확대됐다. 토스뱅크의 9월 기준 예대금리차는 5.07%포인트였으며, 이는 전달대비 0.31%포인트가 늘어난 수치다. 토스뱅크의 대출금리를 7.46%로 높은 수준이었는데, 저축성 수신금리는 고작 2.39%밖에 되지 않았다. 이는 은행권 중 가장 낮은 수준이다. 토스뱅크는 현재 2.3% 금리를 주는 입출식통장(파킹통장)만을 운영하고 있다. 저원가성 예금은 많은 대신 대출금리를 높게 받으면서 이자수익을 챙기고 있는 것이다. 반면 제주은행, 케이뱅크, 경남은행 등의 예대금리차는 8월과 비교해 축소됐다. 제주은행의 경우 9월 기준 예대금리차가 0.51%포인트 줄어든 1.49%포인트 로 집계됐다. 케이뱅크 또한 2.78%포인트로 직전달과 비교해 0.35%포인트가 줄었고, 경남은행의 경우 0.31%포인트가 줄어든 0.93%포인트를 기록했다.대다수의 은행 예대금리차가 확대된 건 기준금리 인상 영향이 크다. 보통 금리인상기에는 대출금리 인상 속도가 빨라지면서 예대금리차 폭이 확대된다. 은행들이 기준금리를 적극적으로 반영해 대출금리는 빠르게 오르는 반면 예금금리 오름폭은 이를 따라가지 못하기 때문이다. 실제 한국은행에 따르면 기준금리 1%포인트 인상되면 잔액 예대금리차는 0.245%포인트 확대된다는 연구 결과가 있다. 여기에 금리상승기 차주들이 변동금리 상품을 많이 찾으면서 평균 대출금리 수준도 끌어올렸다. 실제 우리나라 변동금리대출 신규취급 비중은 2020년 4분기 68%에서 올해 2분기 기준 82.6%로 상승했다. 잔액기준으로도 같은 기간 63.5%에서 70.3%로 높아졌다.한 금융권 관계자는 “은행들이 정기예금 등의 금리를 높이면서 예대금리차 폭을 줄이려 하고 있지만 역부족인 상황”이라며 “10월에도 한국은행이 빅스텝(기준금리를 한번에 0.5%포인트 인상)을 밟았고 11월에도 기준금리 인상 가능성이 높은 상황이라 앞으로도 예대금리차는 더 벌어질 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.10.26.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>예결원 “국내주식 소수점 거래, 1개월간 15.8억원 투자”</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002289140?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>◆…한국예탁결제원은 26일 '국내주식 소수단위 거래 서비스' 오픈 기념식을 개최해 성공적인 서비스 오픈을 자축하고, 서비스 오픈 이후 1개월 간의 운영 성과를 증권업계와 공유했다. 예결원 제공     한국예탁결제원은 국내주식 소수단위 거래 서비스가 지난 1개월간 투자금액 15조8000억원을 달성했다고 26일 밝혔다.   예결원에 따르면 지난달 26일부터 이달 25일까지 소수단위 주식에 대한 투자금액은 15조8000억원으로 집계됐다. 투자자는 2만6673명, 주식수는 2만7385주다.   예결원은 “금액 단위 주문 시 온주와 소수단위 주식이 동시에 거래되므로 온주까지 고려한 전체 투자금액은 이보다 클 것으로 보인다”고 설명했다.   예결원은 지난달 26일 신탁제도를 활용해 투자자가 국내 상장주식을 소수단위로 거래할 수 있도록 지원하는 ‘국내주식 소수단위 거래 서비스’를 선보였다. 현재 서비스를 제공하는 증권사는 미래에셋증권, 삼성증권, 신한투자증권, 키움증권, 한화투자증권, NH투자증권, KB증권 등 7개사다.   이명호 예결원 사장은 “투자자의 고가 우량주에 대한 접근성 확대와 소액 여유자금의 주식투자 활용 등으로 투자자 저변이 확대되고 자금 유입이 증가해 증권시장에 새로운 활력을 불어넣을 것이라 기대한다”고 밝혔다.   향후 예탁결제원은 서비스 오픈을 준비 중인 17개 증권사를 적극 지원해 국내주식 소수단위 거래 서비스가 성공적으로 정착될 수 있도록 노력할 방침이다.   혁신금융서비스 지정을 받은 증권사 24곳 중 서비스를 개시하지 않은 증권사는 17곳이다. 다올투자증권, 대신증권, IBK투자증권, 유안타증권, 카카오페이증권, 토스증권, 한국투자증권, DB금융투자, SK증권, 교보증권, 메리츠증권, 상상인증권, 신영증권, 유진투자증권, 이베스트투자증권, 하나금융투자, 현대차증권 등이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.10.22.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>어떤 브랜드가 마음을 파고드는가</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000062532?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>‘진심·혁신·기업가정신·선행’, 위기 극복할 주요 키워드[스페셜 리포트] 경기도 성남시 카카오 판교 아지트 모습. 사진=허문찬 한국경제 기자카카오의 이미지 추락은 극적이다. 불과 몇 년 전만 해도 카카오에는 친근한 국민 기업의 이미지가 있었다. 많은 회사들이 카카오와 협업을 원했다. 무한한 사업 기회가 주어진 것은 그 결과였다. 사업 확장도 무난한 듯 보였다.하지만 어느 순간 카카오에 대한 좋지 않은 여론이 등장했다. 카카오 택시에 대한 운전사들과 승객들의 불만이 그 시작이었던 것 같다. 그리고 골목 상권 침해 얘기가 들리기 시작했다. 국민이 좋아했던 기업이 밉상이 되기 시작한 순간이다. 이용자(소비자)들의 마음이 식기 시작했다. 그럼에도 이용률은 여전히 높았다. 이를 기반으로 카카오뱅크 등 4개 자회사를 동시에 상장했다. 시장은 카카오의 탐욕을 거론하기 시작했다. 하지만 카카오는 들은 척도 하지 않았다. 여론은 급속히 악화됐다. 그리고 금리 인상에 카카오와 상장 계열사의 주가가 급락하며 주주들의 마음도 떠났다. 여기에 최근 일어난 데이터센터 화재는 치명적이었다. 이를 처리하는 과정에서 “예상할 수 없는 사고”라는 아마추어같은 발언은 카카오에 대한 실망을 더했다.마음이 떠난 이용자들은 카카오뱅크에서 돈을 빼고 다른 메신저를 깔고 다른 택시 애플리케이션(앱)을 사용하기 시작했다. 여전히 카카오는 메신저 시장에서 마켓 셰어 1위다. 하지만 마인드 셰어를 급속히 잃어 가고 있다. 평판의 추락, 위기의 시작이다.이상한 현상이다. 착한 기업, 환경·사회·지배구조(ESG) 열풍은 여전하다. 하지만 이 와중에 감동을 주는 기업은 새로 등장하지 않고 소비자들의 마음을 잃는 기업만 늘고 있다. 주주와 소비자 직원을 중시하지 않고 자신들의 뱃속만 채우는 탐욕, 이로 인해 발생한 각종 사고, 사고 발생 후 경영진이 보여준 무책임한 대응 등이 ‘밉상 기업’을 양산하며 브랜드 가치를 떨어뜨리고 있다. 그 리스트는 굳이 언급하지 않아도 될 정도로 명확하다. 한경비즈니스는 창간 27주년을 맞아 소비자들의 마음을 얻은 기업들을 다시 살펴보는 기획을 준비했다. 경제 위기에 이런 기업들이 더 잘 견뎌내고 때로는 위기 속에 새로운 스타 기업이 탄생할 가능성이 있기 때문이다. 키워드는 진심·혁신·기업가 정신·선행·위기 대응 등이다.       파타고니아와 타다 감동을 주는 기업들의 유형은 다양하다.최근 세계적으로 큰 뉴스가 된 미국 의류 업체 파타고니아가 대표적 케이스다. 환경에 대한 집착으로 유명해진 미국 2위의 아웃도어 브랜드 파타고니아의 창업자 이본 쉬나드는 최근 일가가 보유한 약 30억 달러의 회사 지분을 기후 위기 관련 비영리 재단(98%)과 신탁 회사(2%)에 기부한다고 밝혔다. 그리고 홈페이지에 ‘이제 지구가 우리의 유일한 주주가 됐다’고 적었다. 찬사가 쏟아졌다. 환경 보호와 새로운 자본주의를 추구하는 파타고니아란 브랜드에 대한 신뢰가 더 커지는 분위기다.한국에서는 최근 다시 화제가 된 기업으로 타다를 꼽을 수 있다. 택시업계를 혁신하려고 나섰던 차량 공유 앱 서비스 ‘타다’는 2018년 등장했다. 하지만 택시업계의 반발에 2019년부터 지금까지 3년간 멈춰 섰다.당시 여론은 갈렸다. 하지만 타다 소비자들은 새로운 경험을 가져다준 타다 편이었다. 한 회사의 영업 정지에 안타까워하는 수많은 목소리가 튀어나왔다. ‘혁신 기업에 대한 사망 선고’라며 타다를 강력 옹호했다. 택시를 이용하며 쌓여 온 불만이 타다를 통해 해결될 수 있으리란 기대감이 컸기 때문이다. 이후 토스에 인수된 타다는 최근 부활을 꿈꾸고 있다. 최근 서울중앙지법 형사항소1부가 여객자동차운수사업법 위반 혐의로 불구속 기소된 타다 경영진에게 무죄를 선고하며 다시 사업의 불씨를 지필 수 있게 됐다.토스 경영진은 타다를 인수하기 전 직원들에게 지나가는 듯 물었다고 한다. “타다 서비스에 대해 어떤 경험을 갖고 있는지요.” 긍정적 반응이 많았음은 물론이다. 토스가 타다 인수를 결정하게 된 결정적 사건은 아닐지라도 경영진의 확신에 힘을 더해 줬다는 것은 의심의 여지가 없어 보인다. 타다란 브랜드는 소비자들의 마음속에 여전히 높은 점유율을 갖고 있었기 때문이다.  신뢰성 높은 브랜드 살 확률 5.4배 마음을 파고드는 기업, 브랜드의 다양한 유형을 구분하기 위해 미국 사회 심리학자 수전 피스크의 매트릭스를 일부 활용했다. 그는 책 ‘어떤 브랜드가 마음을 파고드는가’에서 브랜드 매트릭스를 사분면으로 제시한다. 따뜻함과 차가움, 유능함과 무능함이 두 축이다. 따뜻하고 유능한 브랜드, 차갑지만 유능한 브랜드, 따뜻하지만 무능한 브랜드, 차갑고 무능한 브랜드 등이다. 피스크는 진화심리학을 들어 왜 브랜드 매트릭스가 중요한지 설명한다. “악어의 가죽도 사자의 이빨도 없는 인간은 살아남았다. 원시 시대부터 생존에 필요한 감각을 발전시켰기 때문이다. 두 가지 감각이 가장 중요하다. 첫째는 무언가 다가오면 의도(따뜻함과 차가움)를 파악하는 것이고 둘째는 자신을 지켜줄 수 있는 능력이 있을까(유능과 무능)를 재빨리 간파하는 능력이다. 이 감각은 현대에 와서 브랜드에도 적용된다. 브랜드가 세상을 지배하기 때문이다.”브랜드에 대한 감정도 인간에 대한 감정과 비슷하다는 게 그의 주장이다. 따뜻하고 유능한 브랜드에 대해서는 존경과 유대감을 느낀다. 유능하고 차가운 브랜드에 대해서는 질투와 시기감을, 따뜻하고 무능한 브랜드에 대해서는 동정과 연민을, 차갑고 무능한 브랜드에 대해서는 경멸감과 거부감을 갖는다는 것이다. 피스크는 “사람들이 브랜드와 상호 관계를 맺는 시대가 왔다”며 “사람들과 심리적으로 교감하는 ‘사람 냄새’ 나는 브랜드에 소비자들이 주목하고 있다”고 말했다. 브랜드가 인격이 되고 있다는 얘기다.실제 소비자들은 스스로 왜 이 회사 제품을 사야 하는지, 또 사지 말아야 하는지에 대해 얘기한다. 소셜 미디어가 없었던 시기에는 개인의 의사가 영향력을 갖지 않았지만 소셜 미디어가 활발하게 운용되고 있는 시기에 브랜드에 대한 평판은 예전처럼 잠깐 입소문으로 퍼지고 마는 것이 아니다.그 평판이 브랜드 이미지를 실추시키고 이것이 실제적인 재무 손실로까지 이어지고 있다. 말 그대로 평판이 곧 돈인 시대다. 글로벌 컨설팅 그룹인 딜로이트가 2021년 10월 고객 3000명을 대상으로 조사를 실시한 결과, 해당 브랜드의 신뢰성을 높이 평가하는 고객은 다른 브랜드보다 해당 브랜드 제품을 선택할 확률이 5.4배 높은 것으로 나타났다. ‘돈쭐’과 ‘까방권’의 뜻 한국에서는 몇 년 전 착한 기업 바람이 분 적이 있다. ‘갓뚜기’로 불린 오뚜기, ‘바보 LG’로 화제를 모은 LG 등이 대표적이다. 이들은 시장 점유율에선 2위이지만 신뢰도 평가에선 항상 경쟁사를 앞서는 결과를 받는다. 2019년 한국경제신문이 세계적 여론 조사 기관인 입소스, 한국 최대 온라인 패널 조사 기업인 피앰아이와 공동으로 조사한 소셜 임팩트 평가에서 LG전자는 가전 전 부문에서 경쟁사를 큰 격차로 따돌렸다. 라면 시장에서도 점유율 2위인 오뚜기가 소셜 임팩트 신뢰도에선 1위에 올랐다. 전문가들은 “마인드 셰어는 특정한 계기가 주어지면 마켓 셰어로 언제든지 전환될 수 있는 보이지 않는 자산”이라고 평가한다.이런 기업들에 대해 누리꾼들은 제품을 구매해 ‘돈쭐(돈으로 혼쭐 낸다의 인터넷 용어)’을 내거나 흔히 ‘까방권(까임방지권)’ 등을 사용하며 브랜드에 대한 호감을 나타낸다.대기업만의 이야기가 아니다. 서울 마포구 인근의 작은 파스타 가게인 ‘진짜 파스타’는 한때 소비자들이 돈쭐내는 가게로 유명세를 탔다. 이 식당이 꿈나무카드를 소지한 청소년에게 무료로 식사를 제공하겠다는 캠페인이 알려지면서 ‘착한 가게’를 돕자는 운동이 누리꾼들 사이에서 벌어졌다. 이 식당은 원래도 줄 서는 맛집이었지만 2019년부터는 선한 영향력을 전국에 전파하는 가게로 유명세를 타며 국민적 사랑을 받았다.세계적인 마케터 제레미 D. 홀든은 “팬덤이야말로 약자가 강자를 이길 수 있고 작은 아이디어로 시장의 흐름을 단번에 뒤엎을 수 있는 비결”이라고 말했다. 인물도 마찬가지다. ‘국민 MC’ 유재석 씨는 까방권의 대표 주자다. 무명 연예인을 챙겨준 보이지 않는 선행이나 수년간 지속된 기부 등으로 오랜 기간 방송인 브랜드 평판에서 1위를 놓치지 않고 있다. 유재석 씨가 출연하는 TV 프로그램을 ‘믿고 보는’ 시청자들도 상당수다.위기를 기회로 만든 유능함과 따뜻함다시 첫째 질문으로 돌아가자. “한국의 모든 기업들이 ESG를 외치고 착한 기업 찾기에 나서는 소비자들이 있는데 왜 감동을 주는 기업들은 사라졌을까.”전문가들은 표면적 변화를 지적한다. 한 컨설턴트는 “최근 전쟁 등으로 인해 환경에 대한 관심이 줄어든 것도 영향을 미쳤지만 더 큰 요인은 한국 기업들이 ESG를 숫자로 인식하고 이 기준을 맞추는 것에 집착하고 있어 소비자의 인식 변화에는 근접도 못하고 있다”고 말한다.결국 사람들의 마음을 사로잡기 위해서는 일방적인 마케팅에서 벗어나 브랜드와 사람과의 상호 관계성에 주목하는 심리학적인 접근법이 필요하다. 인터넷과 SNS, 이동통신의 발달로 사람들이 브랜드와 관계를 맺을 수 있는 관계 르네상스 시대가 펼쳐졌기에 더욱 그러하다.한경비즈니스는 평판이 곧 돈인 시대, 어떤 브랜드가 마음을 파고드는지에 대해 조사했다. 유능하면서(시장점유율 기준) 따뜻한 LG형, 덜 유능하지만 따뜻한 파타고니아형, 유능하지만 다소 차가운 애플형이다. 여기에 한 가지를 더했다. 위기의 상황에서 ‘따뜻함’으로 기회를 만든 브랜드, 도미노피자형이다.도미노피자는 2009년 위기를 겪었다. 소비자들은 도미노피자가 맛이 없다고 항의했고 엎친 데 덮친 격으로 매장 직원이 피자를 만드는 과정에서 치즈를 코에 넣는 충격적인 장면이 유튜브를 통해 공개됐다. 신뢰는 땅에 떨어졌다. 회사는 절치부심 1년 만에 맛있는 피자를 만들었다. 하지만 대중의 기대가 없었다. 도미노피자는 반전을 꾀했다.“그동안 맛없는 피자를 제공한 데 대해 진심으로 사과드립니다.”최고경영자(CEO)와 대표 주방장이 출연해 공식 사과하고 제품과 서비스를 개선하기 위해 최선을 다하겠다고 맹세했다. 도미노피자 경영진의 진심은 놀라울 정도로 솔직하고 진솔했다. 광고 효과는 탁월했다. 당시 도미노피자는 패스트푸드업계 역사상 가장 높은 단일 분기 매출 성장률을 기록했다. 도미노피자의 진정성을 소비자들이 받아들였기 때문이다. 패트릭 도일 전 도미노 피자 CEO는 위기 극복에 성공한 뒤 파이낸셜타임스와 가진 회견에서 “미국에서 우리는 신속한 배달과 적당한 가격으로 고객들에게 매우 실용적인 브랜드였지만 우리 브랜드에는 감정적인 애착이 전혀 없었다”고 말했다.기업 경영 환경은 나날이 불확실해지고 있다. 예측 불가능한 시대다. 이런 때일수록 마음을 파고드는 브랜드의 성공 확률이 높아진다. 피스크는 “오늘날 고객들은 기업과 브랜드의 일거수일투족을 지켜보고 평가할 수 있는 힘을 가지게 됐고 그 힘은 시간이 갈수록 강해지고 있다”고 말했다. 어떤 브랜드가 마음을 파고드는가.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>카카오그룹주 주가 '녹는 중'…데이터센터 화재 악재</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004763037?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>(사진=연합뉴스)카카오그룹 주가가 판교 데이터센터 화재로 인한 서비스 장애 악재를 만나 녹아 내리고 있다.17일 오전 9시14분 기준 카카오는 전 거래일 대비 4650원(9.05%) 내린 4만6750원에 거래되고 있다.같은 시간 카카오페이도 전 거래일보다 3350원(9.28%) 하락한 3만2750원을 기록 중이다.카카오게임즈, 카카오뱅크도 각각 8%대 하락세를 보이고 있다.증권가에서는 이번 화재로 카카오 서비스가 일시적으로 중단되면서 4분기 매출이 최대 1~2% 감소할 가능성이 있다고 전망했다.영구적 이용자 이동 가능성은 제한적이지만 대외 시장 환경 악화 속 이익 성장 둔화로 당분간 보수적인 접근이 필요하다는 조언이 나온다.오동환 삼성증권 연구원은 "정액제로 판매되는 웹툰이나 이모티콘, 멜론 등은 사용자들에게 무료 사용권 등 보상을 제공할 것으로 예상된다"며 "4분기 매출이 최대 1~2% 감소하는 효과가 나타날 수 있는데 이번 화재 관리의 책임이 SK C&amp;C에 있었던 만큼 피해액의 보상 가능성은 남아있다"고 말했다.다만 영구적 이용자 이동 가능성은 제한적이라고 예상했다. 오 연구원은 "중요한 이슈는 이번 사태가 영구적 이용자 이탈로 이어지느냐 여부로 주말 동안 메시지 송수신 불가로 텔레그램, 토스, 우티 등 카카오의 대체 서비스로의 일시적 이용자 이탈이 나타났다"며 "그러나 카카오 서비스들의 대체 불가능한 장점이 여전히 존재하는 만큼 서비스 정상화 시 이용자의 구조적 이탈은 제한적일 전망”이라고 설명했다.앞서 지난 15일 오후 카카오톡이 임대해 사용하는 SKC&amp;C 판교 데이터센터에서 화재가 발생해 카카오톡, 카카오T, 카카오페이지, 카카오페이 등 카카오의 대부분 서비스들의 사용이 중단됐다.화재가 진압됨에 따라 16일 새벽부터 카카오톡 수발신 기능이 재개됐으나 카카오T, 페이, 페이지 등 카카오톡 로그인을 사용하는 서비스들은 16일까지도 기능이 중단됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스뱅크, 통장 한도 제한 없이 금리 2.3% 적용</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000848761?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>토스뱅크 로고. /토스뱅크 제공        토스뱅크가 21일부터 수시입출금 토스뱅크통장의 1억원 초과 금액에 대해서도 연 2.3%(세전) 금리를 적용한다고 20일 발표했다.토스뱅크는 최근 토스뱅크통장 금리를 세전 2%에서 2.3%로 상향했다. 1억원 초과 시에는 0.1% 금리를 적용해왔다. 그러나 이번 한도 제한 해제 조치로 1억원 초과 금액을 넣어둔 이들도 연 2.3% 금리를 누릴 수 있게 됐다.토스뱅크의 ‘지금 이자 받기’를 이용하면 매일 1번 이자를 받을 수 있다. 회사에 따르면 ‘지금 이자받기’의 경우 약 210만 명이 한 번 이상 이용했고, 약 173만(82.3%)이 상시 이용하는 것으로 나타났다. 서비스 출시 후 7개월간 이용자들이 받은 이자는 총 1417억 원 규모다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>은행권 예대금리차 석달째 증가…주요 은행선 농협은행 최대</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006406603?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>18개 은행 9월 평균 0.07%P 상승…5대 은행 예대차 감소24일 서울시내 한 은행 영업점을 찾은 고객들이 상담을 받고 있다. 2022.1.24/뉴스1 ⓒ News1 유승관 기자(서울=뉴스1) 신병남 기자 = 지난달 은행들이 취급한 대출금리와 예금금리 간 차이가 더 벌어진 것으로 나타났다. 인터넷전문은행과 지방은행들의 금리 편차가 전반적으로 커지면서 평균치를 끌어올렸다. 주요 은행들 가운데선 농협은행이 두 달째 예대금리 차이가 가장 큰 곳으로 기록됐다. 20일 은행연합회 공시에 따르면 KDB산업은행을 제외한 18개 은행의 9월 단순 평균 기준 가계예대금리차는 2.26%포인트(p)로 지난 8월 2.19%p보다 0.07%p 올랐다. 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 가계예대금리차도 1.91%p에서 2.04%p로 0.13%p 증가했다.은행 예대금리차가 더 벌어진 것은 가파른 금리 상승 때문으로 풀이된다. 은행들은 예금 금리보다 대출 금리를 시장금리에 보다 빠르게 반영하는 방식으로 영업을 하고 있다. 지난 3개월간 가계대출금리가 저축성수신금리를 비교해 보면 18개 은행의 가계대출금리(신규 취급 기준)는 7월 연 4.83%에서 지난달 연 5.56%로 0.73%p 올랐다. 이에 비해 저축성수신금리는 7월 연 2.84%에서 지난달 연 3.29%로 0.45%p 상승에 그쳤다.다만 최근 주요 은행들의 경우 시장금리에 연동하는 예금 상품을 내 대출과 예금 금리 사이의 간극을 최소화하고 있다. 실제 KB국민·신한·하나·우리·농협 등 5대 은행만 놓고 보면, 이들 은행의 9월 단순 평균 기준 가계예대차는 1.49%p로 전달(1.50%p)보다 소폭 하락했다.  한편 5대 은행 중 9월 가계예대금리차가 가장 큰 은행은 NH농협은행으로, 가계예대금리차는 1.90%p를 기록했다. △우리은행 1.67%p △신한은행 1.54%p △국민은행 1.20%p △하나은행 1.18%p 순이다.농협은행 측은 "가계예대금리차는 가계대출금리와 가계예금금리를 비교해야 하나, 가계대출금리와 법인, 기관 등을 포함한 전체 수신금리와 비교하고 있다"며 "이 때문에 예대금리차를 실질적으로 반영하지 못하는 일부 착시가 발생하고 있다"고 해명했다.인터넷전문은행 중에서는 토스뱅크의 가계예대금리차가 5.07%p로 가장 컸다. △케이뱅크 2.78%p △카카오뱅크 2.1%p 순이다. 인터넷은행은 중·저신용자를 중심으로 한 대출 비중이 상대적으로 커 예대금리차도 5대 은행 대비 큰 편이다. 토스뱅크는 고금리 수시입출식 통장을 운용 중인데, 요구불예금은 예대금리차 집계되지 않는다.지방은행 중에서는 전북은행의 가계예대금리차가 7.38%p로 가장 컸다. 이어 △광주은행 4.58%p △부산은행 2.27%p △제주은행 1.53%p △대구은행 1.23%p △경남은행 0.95%p 순이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>새 도전 나선 ‘타다’, 3년간 혁신을 멈춰 세운 것들에 대한 이야기</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000062459?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>9월 말 무죄 판결 후 결국 대법원까지…‘타다 넥스트’ 등으로 재도약 준비2020년 3월 '타다금지법'의 국회 통과 이후 서비스를 중단한 타다 베이직. 사진=연합뉴스“멈췄던 새로운 시간이 다가오고 있습니다…. 우리 사회의 혁신가들이 두려움 없이 좀 더 나은 세상을 꿈꾸고 만들어 갈 수 있도록 그들의 편에 서서 돕겠습니다.”이재웅 쏘카 전 대표가 9월 29일 페이스북에 올린 글이다. 이날 서울중앙지법 형사항소1부는 여객자동차 운수사업법 위반 혐의로 불구속 기소된 이 전 대표와 박재욱 쏘카 대표(전 VCNC 대표)에게 무죄를 선고했다. 재판부는 “타다 이용자들은 쏘카 등과 운전사 알선을 포함한 단기 승합차 대여 계약을 체결한 것으로 계약의 효력을 부인할 사정도 없다”며 “적법한 자동차 대여 서비스에 정보기술(IT)을 결합했다는 이유로 불법으로 평가할 수 없다”고 강조했다.이에 따라 지난 3년간 승합차 호출 서비스 ‘타다’를 둘러싼 법적 공방이 끝나는 듯 보였다. 하지만 1주일 뒤인 10월 6일 검찰은 ‘타다’의 전직 경영진에게 무죄를 선고한 법원 판단에 불복해 서울중앙지법에 상고장을 제출했다. ‘타다’의 불법 여부가 결국 대법원에서 가려지게 된 것이다.모빌리티 플랫폼 타다는 혁신과 기득권이 충돌한 대표적인 사례로 손꼽힌다. 11인승 카니발을 이용해 ‘기사 딸린 렌터카’ 서비스를 펼쳤던 ‘타다 베이직’은 모빌리티 시장에 돌풍을 일으켰지만 이는 기존 택시업계의 강력한 반발을 불러왔다. 2019년 재판에 넘겨져 무죄 판결을 받았음에도 2020년 일명 ‘타다금지법’이 통과되며 ‘타다 베이직’ 역시 시동을 꺼야 했다. 기존 시장과의 상생을 위한 결정이었다며 옹호하는 측과 한국 모빌리티 혁신의 싹을 잘랐다고 비판하는 이들의 찬반 논란은 더욱 뜨거워졌다. 이후 2년, 국민들은 ‘택시 대란’ 등으로 몸살을 앓고 있지만 ‘타다’를 둘러싼 모빌리티 혁신 논란은 여전히 결론이 나지 않은 채 현재 진행형이다.‘타다’는 어쩌다 불법 낙인 찍혔나타다는 운영 중인 VCNC는 ‘모바일 세상에서 감성적인 커뮤니케이션 서비스를 통해 사람들의 실제 관계성을 증진한다’는 목표를 갖고 2011년 설립됐다. 커플 메신저 애플리케이션(앱)인 ‘비트윈’ 등으로 해외 시장에도 진출한 바 있다. VCNC가 모빌리티 사업에 뛰어들게 된 것은 2018년 7월 쏘카에 인수되면서부터다. 당시 이 전 대표는 “VCNC의 데이터·기술 기반 역량이 쏘카의 혁신을 한 발 앞당길 것이라고 생각한다”며 “IT업계에서 촉망받는 기업이 모빌리티 산업으로 힘을 더하게 돼 기대가 크다”고 기대감을 밝혔다.당시 VCNC를 이끌고 있던 박재욱 대표 역시 “모빌리티 시장은 스마트폰 이후 가장 드라마틱한 혁신이 일어날 것”이라고 화답했다.두 사람은 의기투합 후 3개월 만에 ‘타다 앱’과 함께 ‘타다 베이직’ 서비스를 세상에 내놓았다. 2018년 10월 출시된 타다 베이직은 11인승 카니발을 기반으로 ‘기존 택시와 차별화되는 운송 서비스’로 주목받았다. 11인승 카니발을 이용하는 만큼 기존의 택시 서비스와 비교해 요금이 비쌌음에도 불구하고 타다 베이직은 출시와 함께 폭발적인 시장의 반응을 얻었다. 차량 내부가 넓다는 점과 특히 ‘승차 거부’가 없다는 점을 반기는 이들이 적지 않았다. 차량 내부에서 와이파이 등의 사용이 간편해 이동 중에 업무를 보기 좋다는 평가도 많았다. 운전사들은 승객에게 쓸데 없는 말도 시키지 않았고 담배 냄새 대신 방향제 냄새가 났다. 타다 베이직 서비스는 출시 9개월 만에 가입자 100만 명을 넘어섰고 곧 170만 명에 다다랐다. 드라이버(운전사) 또한 1만2000명에 달했다. 타다는 한국의 대표적인 ‘모빌리티 혁신’ 서비스로 자리 잡았다.빠르게 성장하던 ‘타다 베이직’ 서비스는 2019년 2월 서울개인택시조합 전·현직 간부들이 “타다가 불법으로 택시 영업을 하고 있다”며 검찰에 고발하며 제동이 걸렸다. 택시조합 측은 “‘타다’가 여객자동차운수사업법 제4조 및 제34조를 위반했다”며 “타다가 운전자를 고용해 11인승 승합 렌터카로 여객을 운송하는 것은 ‘유사 택시 행위’”라고 주장했다.타다가 ‘타다 베이직’ 서비스를 출시하며 기존의 4인승 승용차가 아닌 11인승 카니발을 선택한 데는 이유가 있었다. 당시 여객자동차운수사업법에 제18조(운전자 알선 허용 범위)에 따르면 ‘자동차 대여 사업자’, 즉 렌터카 업체가 자동차 임차인에게 운전자 알선이 가능한 경우를 제시하고 있다. 대표적으로 외국인·장애인·65세 이상의 사람이 렌터카 서비스를 이용할 때다. 그리고 여기에서 ‘운전자 알선’을 허용하고 있는 대표적인 경우가 바로 ‘승차 정원 11인승 이상 15인승 이하인 승합자동차를 임차하는 사람’인 경우다. 타다 베이직은 바로 이 조항을 이용한 서비스였고 이 때문에 ‘타다 베이직’ 서비스 또한 ‘기사 딸린 렌터카 서비스’라고 홍보해 왔다.타다 관련 재판의 쟁점 또한 바로 여기에 맞춰졌다. 타다 서비스를 ‘여객 자동차 운송 사업’으로 볼 것이냐, ‘렌터카 계약 서비스’로 볼 것이냐다. 1년여간의 법률 공방 끝에 2020년 2월 19일 재판부는 타다의 손을 들어줬다. 재판부는 타다 서비스를 구상하며 ‘택시보다 요금을 비싸게 측정하고’ ‘로펌 법률 검토를 거쳤으며’ ‘국토교통부와 논의해 부정적인 행정 지도가 없었던 점’, 그리고 ‘2019년 서울시 택시 운행은 줄었지만 매출이 3.5% 증가한 점’ 등을 근거로 타다의 경영진이 고의로 법의 취지를 피해 가려고 한 것이 아니라고 명확히 했다.당시 재판부는 “비싸고 혼자여도 타다를 호출하는 것은 시장의 선택”이라며 “우버 사건 등을 거치며 사회적 합의가 어려운 한국에서 모빌리티 사업의 허용 범위를 시험하며 플랫폼을 설계해 타다를 출시한 사정만으로는 그에게 법을 빠져나갈 고의가 있었다고 볼 증거가 없다”며 무죄를 선고했다.다시 순항 채비를 하던 ‘타다 베이직’은 하지만 다시 곧 멈춰야 했다. 2020년 3월 6일 국회에서 여객자동차 운수사업법 개정안(일명 타다금지법)이 통과된 것이다. 이 개정안에 따르면 렌터카 업체가 운전자 알선이 가능한 경우를 ‘관광을 목적으로’ 승차 정원 11인승 이상 15인승 이하인 승합 자동차를 임차하는 사람, 이 경우 대여 시간이 6시간 이상이거나 대여 또는 반납 장소가 공항 또는 항만인 경우’로 한정하고 있다. 타다 서비스가 무죄 판결을 받은 지 채 한 달도 안 된 시점이었다. ‘타다 베이직’ 서비스는 2020년 4월 종료됐다. 타다금지법 통과에 서비스가 타격을 받으며 투자자들이 돌아선 상태에서 1년 6개월의 유예 기간을 버티기 어려웠기 때문이다.타다, 혁신은 멈추지 않았다‘타다 금지법’ 이후 타다는 완전히 멈춰 선 듯 보였다. 하지만 그동안에도 타다는 ‘모빌리티 혁신’에 대한 도전을 멈추지 않고 있었다. 2020년 10월 가맹 택시를 활용한 ‘타다 라이트’ 서비스를 선보였다. 서비스 초창기만 해도 코로나19 사태가 심화되는 상황에서 충분한 차량을 확보하지 못해 재기에 어려움을 겪었다.본격적으로 새로운 도약의 계기를 맞게 된 것은 2021년 10월 ‘토스’의 운영사인 비바리퍼블리카가 VCNC를 인수한 것이다. 비바리퍼블리카는 쏘카의 100% 자회사였던 VCNC의 지분 60%를 인수했다. 이에 따라 토스가 VCNC의 최대 주주가 됐지만 현재 타다 브랜드는 독립적으로 운영되고 있다. 타다의 최고기술책임자(CTO) 출신인 이정행 대표가 토스와 함께 VCNC를 이끌어 가게 됐고 박재욱 전 VCNC 대표는 쏘카 대표로 남는 것으로 결정됐다. 당시 토스의 타다 인수는 한국의 첫 테크핀과 모빌리티의 합병 사례로 특히 화제를 모았다.토스의 품에 안긴 타다는 한 달 뒤 ‘타다 넥스트’의 베타 서비스를 출시한데 이어 올해 4월 ‘타다 넥스트’ 서비스를 정식 출시했다. 타다 넥스트는 7~9인승 승합차를 기반으로, 최소 5년 이상 무사고 경력의 고급 택시 면허를 보유한 운전사가 운행을 맡는다.고객들의 반응 또한 상당히 좋다. ‘승차 거부’가 없는 데다 차량 내부에 와이파이 등이 갖춰져 있어 업무를 하기에도 원활하다는 기존 ‘타다 베이직’의 장점을 그대로 살렸다. 타다는 고객들이 차량을 호출하면 드라이버에게 목적지를 전송하지 않는다. 드라이버들은 자신과 가까이 있는 고객들의 호출 가운데 가장 장거리를 배치 받게 되는 시스템이다. 승객이 차량에 탑승해야 정확한 목적지를 알 수 있다. 장거리 고객만을 ‘골라 받는’ 시스템이 애초에 불가능한 것이다. ‘타다 베이직’ 등을 통해 쌓은 데이터가 밑바탕이 됐기에 가능한 기술이다.현재 타다의 가입자 수는 250만 명으로 증가 추세를 보이고 있다. 특히 작년 11월 말 베타 서비스 실시 이후 45만 명 이상의 신규 가입자를 유치했다. 실제 VCNC 측에 따르면 타다를 이용해 본 고객들의 만족도는 현재 평균 4.95점에 달한다. 최근 타다 넥스트를 이용한 경험이 있는 김태연 씨는 “일요일 밤 11시쯤 택시를 잡다 실패해 타다를 이용했다”며 “어차피 택시 자체가 돈이 많이 드는 교통수단이라면 바로 이용할 수 있는 서비스를 계속 찾게 되는 것 같다”고 만족감을 나타냈다.VCNC는 최근에는 직영 택시 회사도 설립했다. 지난해 12월 설립한 ‘편안한 이동’이다. 모빌리티 시장의 혁신을 위해서는 기존 택시 시장을 이용했던 소비자들의 불편함을 개선하는 것뿐만 아니라 드라이버들의 처우 개선 또한 필수로 여기고 있기 때문이다.현재 타다는 직영 드라이버 외에도 개인 드라이버 등 다양한 방식으로 드라이버를 모집 중이다. 그럼에도 직접 택시 회사 설립에 나선 데는 ‘인센티브 등 동기 부여를 통해 드라이버라는 직접적 지위를 향상’하기 위해서라는 것이 VCNC 측의 설명이다. VCNC는 이를 위해 향후 드라이버들에게 기사식당 무료 식권 배포, 교육 기회 제공, 차량 점검 지원 등 다양한 혜택을 강화해 나갈 방침이다. 타다는 최근 만학의 꿈을 가진 드라이버들이 입학금 부담 없이 수업료의 50%만 납부하고 개설된 학과 교육을 받을 수 있도록 한양사이버대학교와 산업체 위탁 교육 협약을 맺었다.이정행 VCNC 대표는 “실제 드라이버들의 만족도 조사 결과 81%가 ‘만족한다’고 답했다”며 “드라이버의 운행 만족감이 이용자에게 더 좋은 이동 경험으로 이어지는 선순환의 고리를 만들어 갈 것”이라고 말했다.  &lt;돋보기&gt; 3라운드 돌입한 ‘타다’ 불법 논란, 반복되는 ‘혁신 vs 기득권’ 충돌사실 한국에서 기존 택시업계와 모빌리티 플랫폼의 충돌은 ‘타다’가 처음은 아니다. 모빌리티 서비스의 대명사가 된 ‘우버’는 2013년 한국에 들어온 이후 2014년 운전자와 승객을 연결해 주는 승차 공유 서비스 ‘우버엑스’를 선보였지만 택시업계의 생존권을 위협한다는 강한 반발에 부딪쳤다. 서울시는 우버가 무허가 자가용으로 승객을 운송한다고 수사 기관에 고발했고 2014년 경찰은 우버코리아의 모회사인 우버테크놀로지 설립자 트래비스 칼라닉을 기소했다. 2015년 국회는 유사 택시의 운송 사업 행위를 금지한 일명 ‘우버택시 금지법(여객자동차 운수사업법 개정안)’을 통과시켰다. 우버는 2015년 ‘우버엑스’ 서비스를 중단했다.2020년 ‘여객자동차 운수사업법 개정안’이 통과됐을 때 이재웅 당시 쏘카 대표 역시 “법에 정해진 대로 사업을 하고 법적 판단을 다시 받았는데도 또다시 법을 바꿔 가며 금지하는 것은 스타트업 혁신 성장에 아주 ‘나쁜 메시지’가 될 것”이라며 “이 법안은 폐기돼야 한다”고 강력하게 반발하고 나섰다.국회법제사법위원회와 국토교통부의 주장은 달랐다. ‘타다금지법’이 아니라 ‘타다 허용법’이라는 것이다. 그간 한국에서 모빌리티 혁신이 어려웠던 이유는 ‘규제의 불확실성’이 이유였는데 개정안을 통해 새로운 유형의 모빌리티 사업과 관련해 최소한의 사업 근거를 마련하고 제도적으로 보장받게 됐다는 것을 강조했다. 법은 새로운 유형의 모빌리티 사업은 세 가지 유형으로 나누고 있다. 플랫폼 사업자가 직접 차량을 확보하는 플랫폼 운송 사업(타입1), 택시업계를 대상으로 가맹 사업을 하는 플랫폼 가맹 사업(타입2), 여객과 운송 차량을 중개하는 플랫폼 중개 사업(타입3)이다.불법 논란이 일었던 차량호출 서비스 '타다' 전·현직 경영진이 1심에 이어 항소심에서도 무죄를 선고받았다. 이재웅 전 쏘카 대표(오른쪽)와 박재욱 전 VCNC 대표. 사진=연합 뉴스2년이 지난 지금, ‘타다 논란’이 다시 뜨거워지고 있다. 최근의 2심 무죄 판결과 그 이후 검찰의 항고 소식이 물론 불쏘시개가 됐다. 하지만 이보다 더욱 논란에 불을 붙인 것은 최근 불거진 ‘심야 택시 대란’이었다. 코로나19 사태 이후 택시 운전사의 숫자가 줄어든 영향이다. 국토교통부에 따르면 전국 택시 운수 종사자 수는 2019년 26만7189명에서 2021년 24만1025명으로 줄었다. 팬데믹(감염병의 세계적 유행) 상황에서 배달·택배 수요가 증가하며 택시 운전사의 상당수가 배달·택배업계로 옮겨 간 것이다. 택시 운전사의 평균 연령이 고령화되면서 심야 운행을 기피하는 것 또한 택시 대란의 원인으로 지적된다. 전국 택시 운전사의 평균 연령은 2019년 61.6세에서 2021년 62.6세로 높아졌다.상황이 심각해지자 정부는 심야 택시 요금 인상 등 대책을 내놓고 있지만 근본적인 해결책은 되지 못한다는 비판이 뒤따른다. 지금 다시 정부가 타다와 우버 같은 모빌리티 혁신 서비스 촉진을 목표로 ‘타다·우버’ 형태의 비(非)택시 운송 서비스 활성화를 소환한 이유다. 국토부는 10월 4일 ‘심야 택시난 완화 대책’을 발표하고 택시와 차별화된 운송 서비스를 제공하는 모빌리티 스타트업 비즈니스 모델을 적극적으로 허가하겠다며 플랫폼 운송 사업체를 활성화하기 위해 규제를 대폭 완화하겠다고 밝혔다.하지만 갈 길은 여전히 멀다. 국토부가 김상훈 국민의힘 의원실에 제출한 자료에 따르면 2022년 1월을 기준으로 한국의 플랫폼 운송 사업은 3곳의사업자가 총 420대의 정식 사업 허가를 처음 받았다. 이와 비교해 현재 플랫폼 가맹 사업을 운영 중인 곳은 총 7곳으로 운행 대수 또한 지난해 말 기준 4만2000대를 넘어섰다. 비가맹 택시를 활용하는 카카오T 등의 호출 중개 서비스는 플랫폼 중개 사업에 해당한다. 실제 운행 중인 차량의 수를 감안할 때 ‘가맹 사업’과 ‘중개 사업’의 비율이 압도적으로 높다.세 가지 유형 중 기존의 타다 베이직 서비스와 가장 가까운 모델은 플랫폼 운송 사업이다. 택시 면허 없이도 승객을 실어 나를 수 있다는 점에서 기존 택시 시장에 ‘메기’ 역할을 할 수 있기 때문이다. 문제는 규제 장벽이 만만치 않다는 것이다. 플랫폼 운송 사업은 국토부의 사업 허가를 받는 것과 함께 운행 수익의 일부를 기여금 형태로 납부하도록 하고 있기 때문이다.타다를 운영 중인 VCNC는 “현재 플랫폼 가맹 사업과 플랫폼 중개 사업만 운영 중으로, 플랫폼 운송 사업은 아직 검토하고 있지 않다”고 못 박았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>카카오뱅크표 '사장님대출' 토스뱅크 보다 싸고 케이뱅크 보다 비싸</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000705976?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>카뱅 앱 안에 개인사업자 전용 서비스 제공…'통장·카드·대출' 출시카카오뱅크의 개인사업자 서비스가 베일을 벗었다. 에플레케이션(앱) 안에 또 다른 뱅킹 서비스를 제공하는 '앱인 앱' 전략으로 개인사업자 시장에 진출한 카카오뱅크는 개인사업자 전용 대출·카드·수신 상품을 동시에 출시했다. 대출 금리는 케이뱅크 보다 비싸고 토스뱅크 보다 낮았다.27일 카카오뱅크는 '개인사업자 뱅킹 프레스톡'을 열고 오는 1일부터 개인사업자서비스를 출시한다고 밝혔다. 카카오뱅크의 개인사업자서비스는 체크·제휴 신용카드, 개인사업자통장, 개인사업자 대출로 나뉜다.이 모든 서비스는 카카오뱅크 앱 안에서 제공된다. 카카오뱅크 앱에 접속하면 개인사업자 서비스와 개인 서비스 화면으로 구분돼 개인사업자 서비스 화면 안에서 사업자 상품을 한 번에 관리할 수 있다. 다만 '사장님 전용 홈 화면'은 12월 중 제공된다.이병수 카카오뱅크 개인사업자 스튜디오 팀장이 서비스를 소개하고 있다. [사진=박은경 기자]◆ 대출 금리, 최저 연 5.491%…영업 중인 사업자 누구나 가능 개인사업자 대출 최저 금리는 전날 기준 연 5.491%로 토스뱅크의 5.80%보다 낮고 케이뱅크의 5.36%보다 높다. 한도는 모두 동일하게 1억원이다.사업자 등록 후 영업 중인 개인사업자라면 누구나 신청가능하다는 장점이 있다. 토스뱅크의 경우 사업자등록증상 개업일이 1년 이상이거나 최근 6개월 이상 매출액이 발생해야 하며, 케이뱅크는 신용보증재단 보증서 발급이 가능해야 하고 개업이 12개월 이상 지나고 매출도 3개월 이상 발생해야 한다.영업 기간과 매출 기간 또는 보증서 발급이 필요하지 않아 개인사업자라면 누구나 신청할 수 있고 서류 제출 없이도 인증서만으로도 대출이 가능하다.대출 기간은 최소 1년부터 최대 10년(1년 단위 최대 10년까지 연장 가능)으로, 상환 방법은 만기일시상환과 원금균등분할상환 중 선택할 수 있다. 중도상환해약금은 100% 면제한다.카카오뱅크는 이번 개인사업자 신용 대출 상품을 시작으로 향후 보증부대출, 담보대출 상품도 단계적으로 출시할 계획이다. 공공기관·지방자치단체 등과의 협약을 통해 제공하는 정책 자금 대출도 추진한다는 방침이다.금융권에선 카카오뱅크의 개인사업자 대출 조건을 두고 우려를 표했다. 문턱을 낮춘 만큼 부실 차주가 유입될 수 있는 여지가 있단 것이다.금융권 관계자는 "영업기간과 조건을 부여하지 않은 점이 우려된다"면서 "다양한 차주가 유입되는 만큼 리스크가 있을 것"이라고 말했다.카카오뱅크는 개인사업자의 사업 역량을 다각적으로 평가할 수 있도록 신용평가모형을 고도화해 리스크를 극복한다는 입장이다.김진호 카카오뱅크 신용리스크모델링팀 매니저는 "전통적인 개인사업자 신용평가모형의 한계를 극복한 신규 모형 개발을 통해 보다 많은 개인사업자에게 합리적인 대출 서비스를 제공할 수 있을 것으로 기대된다"고 말했다.◆ 통장·카드 동시 출격…"3년 내 가장 많은 사업자 확보할 것" '개인사업자 통장'의 경우 0.1%의 금리를 적용한다. 다만 여기에 세이프박스를 연결해서 자금 관리가 가능하다.'개인사업자 체크카드'는 음식점·주점·카페 등 생활 업종에서 0.3%의 캐시백을, 통신·대형마트· 주유·해외 등 사업 업종에서는 3.0%의 캐시백 혜택을 받을 수 있다. 전월 실적이 없더라도 최대 1만원의 캐시백이 지급되며, 이용 실적에 따라 최대 5만원의 캐시백을 받을 수 있다.'카카오뱅크 개인사업자 삼성카드'는 국내 모든 가맹점에서 조건 없이 1% 할인 혜택을 제공하며, 통신·렌탈·방역 등 사업장 운영 경비와 연관된 가맹점의 경우 1.5% 할인 혜택이 적용된다. 또 4대 사회보험 정기결제, 전기요금, 주유 등 사업 필수 경비와 연관된 가맹점은 5% 할인이 적용되며, 전월 이용 실적에 따라 최대 3만원까지 할인이 적용된다.동시에 금융비용 절감을 위해 이체, ATM 입·출금, 사업에 필요한 증명서 발급 등 각종 수수료는 조건 없이 전부 면제한다. 여기에 사업자 통장과 연계한 각종 기능을 추가해 편의성을 높였다. 금융 거래 시 예금주명과 상호명을 함께 표기해 거래처와 보다 안전하고 편리하게 거래할 수 있도록 했다.사업자 전용 메시지 카드를 이용해 계좌 번호를 공유하거나 입금을 요청하는 것도 가능하다. 입금 요청 서비스를 통해 사업자는 거래처 대금과 고객 정산 자금을 간편하게 요청하고 받을 수 있으며, 거래처는 거래대금을 빠르게 입금할 수 있다.이를 통해 3년 이내에 은행과 플랫폼 사업자를 포함해 가장 많은 사업자들이 활동하는 앱이 되도록 한다는 목표다.이병수 카카오뱅크 개인사업자 스튜디오 팀장은 "우리는 이번 서비스를 통해 3년 안에 가장 많은 사업자 수와 활동성을 보유한 앱이 되려고 한다"면서 "자산성장 측면에선 여신 전체의 절반 이상을 기업 대출로 채우겠다"고 밝혔다.나아가 카카오뱅크는 카드·대출·통장에 그치지 않고 향후 서비스를 넓혀간다는 계획이다.이 팀장은 "준비 중인 서비스들이 많이 있다"면서 "기존에 사업자들이 유로로 이용하던 별도의 비즈니스 서비스들을 우리의 앱 안에서 제공하는 것이 목표이며 곧 만나볼 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>"1억 초과도 연2.3%"…토스뱅크, 파킹통장 금액 제한 다시 없애</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005164474?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>10개월 만에 금액 제한 폐지예금인상기 파킹통장 경쟁 의식토스뱅크가 1억원 초과 금액에 대해서도 연 2.3%(세전) 금리를 제공한다.20일 토스뱅크는 수시입출금식 통장인 '토스뱅크통장'의 2.3% 금리를 금액에 상관없이 오는 21일 0시부터 적용한다고 밝혔다. 기존에는 1억원까지만 2.3%의 이자를 지급하고 초과 금액에 대해서는 0.1% 이자만 지급했다.앞서 지난해 10월 출범 당시에도 금액 제한 없이 연 2% 이자를 제공한 바 있다. 하지만 당시 금융당국이 토스뱅크의 가계대출 총액을 5000억원으로 제한하면서 수익원이 소진, 비용 부담을 느끼고 2개월 뒤인 올해부터 금액 1억원 제한을 적용하기로 했다.다시 금액 제한을 푼 배경은 경쟁 인터넷전문은행인 카카오뱅크나 케이뱅크가 최근 파킹통장 금리를 2.6%(한도 1억원까지 적용), 2.5%(한도 3억원까지 적용)까지 올린 점을 의식한 것으로 보인다.토스뱅크는 이와 함께 금융권 최초로 시도한 '지금 이자 받기' 기능도 강점으로 내세우고 있다. 매일 고객이 원할 때 이자를 1회씩 받을 수 있어 일복리 효과도 가능하다는 설명이다.지금 이자받기 기능은 토스뱅크 고객 약 210만명이 한 번 이상 이용했다. 이중 82.3%(173만명)가 상시 이용하는 것으로 나타났다. 서비스 출시 후 7개월간 고객들이 받은 이자는 총 1417억원에 달한다.토스뱅크 관계자는 "고객들의 성원에 힘입어 토스뱅크가 성장할 수 있었던 만큼 출범 당시의 정체성을 회복하고자 했다"며 "앞으로도 고객을 위한 서비스와 신뢰로 고객들에게 보답하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.10.16~2022.10.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.10.16~2022.10.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>은행서 뺨 맞고 빅테크 간다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000862578?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[머니S리포트-"여보, 대출 거절됐다는데…" 빅스텝 후폭풍③] 금리 경쟁력 키우는 인뱅, 대출 비교 플랫폼 키우는 핀테크[편집자주]한국은행이 지난 12일 두번째 빅스텝(한번에 금리 0.50%포인트 인상)을 밟으면서 10년만에 기준금리가 3%에 도달했다. 다음달 한은의 세번째 빅스텝 단행이 유력해지면서 대출자들의 곡소리는 커지고 있다. 주택담보대출은 물론이고 전세자금대출 금리도 8%를 향해 치솟으면서 영끌족과 세입자들의 한숨은 깊어지는 모양새다. 시중은행과 경쟁하는 인터넷전문은행은 모바일 금융의 간편함을 넘어 금리 경쟁력을 키우며 대출자들을 유인하고 있다. 고금리 시대를 경험하지 못한 2030 세대의 대출 난민은 불안감을 떠안은 채 어디로 가야 할까.사진=뉴스1  ◆기사 게재 순서① 신용대출, 만기 연장 거절됐다… 영끌족 '발동동'② 전세대출 7% 돌파… 대출이자 무서워 '캥거루족' 증가③ 은행서 뺨 맞고 빅테크 간다 #.얼마 전 전세자금대출 만기가 도래한 직장인 A씨는 주거래은행을 방문했다. 하지만 이내 만기연장이 거절됐다. 해당 은행은 "만기가 도래해 연장이 안 된다"는 입장만 되풀이 해 발길을 돌려야 했다. 발등에 불이 떨어진 A씨는 인터넷전문은행 신용대출이 떠올랐다. A씨는 한 인터넷은행 애플리케이션(앱)에 접속해 연소득, 재직기간 등 간단한 정보만 입력, 단 몇분만에 신용대출을 받아 급한 불을 끌 수 있었다. A씨는 "인터넷은행 대출을 처음 받았지만 신청 절차가 매우 간편하고 금리가 시중은행보다 낮아 자주 사용하게 될 것 같다"고 말했다.카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 시중은행과의 경쟁에서 승기를 잡기 위해 비대면 금융이라는 간편함을 넘어 금리 경쟁력을 높이고 있다.인터넷은행들은 대출 금리를 경쟁적으로 낮추며 공격적인 영업에 나서면서 시중은행 고객 빼오기에 사활을 걸고 있다. 그래픽=이강준 기자 ━대출 금리… 인뱅 &lt; 시중은행━그동안 시중은행들이 독점해오던 주택담보대출 시장에 인터넷은행 2곳이 더 낮은 금리를 내세워 시중은행들을 압박하고 있다.카카오뱅크와 케이뱅크의 변동형(신규 취급액 코픽스 기준) 주택담보대출 최저 금리는 3%대로 KB국민·신한·하나·우리 등 4대 은행의 변동형 주담대 최저금리대인 4~5%대보다 낮다.지난 18일(이하 동일) 기준 카카오뱅크와 케이뱅크의 변동형(신규 코픽스 연계) 주담대 금리는 3.310~5.132%로 나타났다.KB국민·신한·하나·우리 등 4대 은행의 해당 금리는 4.57~6.998%로 최고금리가 7%에 육박했다.인터넷은행보다 최저·최고 금리가 각각 1.26%포인트, 1.866%포인트씩 높은 수준이다. 특히 하나은행 변동형 주담대 최저 금리는 카카오뱅크보다 2.388%포인트나 높았다.혼합형 주담대 금리도 인터넷은행의 경우 5.07~6.27%로 4대 은행(5.01~6.96%)보다 최고금리가 0.69%포인트 낮았다. 우리은행의 혼합형 주담대 최고금리는 케이뱅크와 비교해 1.37%포인트나 높았다.인터넷은행은 주담대뿐만 아니라 전세자금대출, 신용대출에서도 금리 경쟁력을 높이고 있다.4대 은행의 전세자금(신규 취급액 코픽스 기준) 대출 금리는 4.51~6.32%인 반면, 카카오뱅크와 케이뱅크의 전세대출 금리는 3.597~5.1%로  4대 은행 대비 최저·최고 금리가 각각 0.913%포인트, 1.22%포인트 낮았다.2억원의 전세대출을 5.1%(연 이자 1020만원)로 받는다고 가정하면 금리가 6.32%(1264만원)일때 비해 연 이자가 무려 244만원 차이나는 셈이다.신용대출 최저금리도 카카오뱅크는 4.765%, 케이뱅크는 4.63%로 4%대에 그치지만 4대 은행의 경우 5.493~6.06%로 집계됐다. 4대 은행의 신용대출 최저 금리가 인터넷은행보다 최고 1.43%포인트나 높다는 얘기다.인터넷은행이 시중은행보다 대출금리가 낮은 것은 이들은 경쟁적으로 금리를 낮춰왔기 때문이다. 카카오뱅크는 올들어 총 7차례에 걸쳐 가계대출 금리를 내렸다. 케이뱅크는 올들어 주담대 금리를 6차례, 전세대출 금리를 5차례, 신용대출 금리를 4차례에 걸려 인하했다.이에 시중은행의 가계대출은 올들어 9개월 연속 감소세를 지속하는 반면 인터넷은행의 가계대출은 증가세를 이어갔다.9월말 기준 카카오뱅크와 케이뱅크의 가계대출 잔액은 총 37조2416억원으로 지난해말대비 4조2902억원 늘었다. 4대 은행의 가계대출이 올들어 13조1096억원 줄어든 것과 비교하면 대비되는 모습이다.사진=뉴스1 ━대출 비교 플랫폼 커지는데… 국민·농협 미온적━시중은행은 인터넷은행에 이어 핀테크 업체와도 대출 주도권 경쟁을 펴고 있다.한국은행이 사상 처음으로 두번째 빅스텝(한번에 금리 0.5%포인트 인상)을 밟으면서 대출금리가 급등하자 이자를 한 푼이라도 아끼려는 금융소비자들이 모바일 대출 비교 플랫폼을 찾고 있다.이 플랫폼은 하나의 애플리케이션(앱)으로 은행 등 여러 금융사에서 제공하는 대출 상품의 한도, 금리 등 조건을 비교할 수 있다.대출 비교 플랫폼을 제공하는 핀테크 업체는 토스와 카카오페이, 핀다, 담비 등이 대표적이다. 핀테크 업체들이 금융사의 대출상품을 중개해주고 제휴 금융사가 고객에게 대출을 내주는 방식이다.이전에는 대출모집인 1사 전속주의에 따라 대출모집인은 오직 금융사 한곳의 상품만 팔아야 했지만 2019년 금융혁신지원 특별법에 따라 대출 비교 플랫폼 서비스가 가능해진 것이다.토스와 카카오페이에선 각각 54개, 57개, 핀다는 62개 금융사의 대출 비교서비스를 제공 중이다. 하지만 주요 시중은행은 대출 비교 플랫폼 참여에 미온적이어서 가계대출 성장에 한계가 있을 것이라는 우려가 나온다.5대 은행 가운데 카카오페이와 토스에는 신한·우리·하나은행이 핀다에는 하나은행만이 참여하고 있다.KB국민은행과 NH농협은행은 자체 플랫폼의 경쟁력을 강화한다는 명분으로 핀테크의 대출 비교 플랫폼에 자사 금융상품을 제공하지 않고 있다.하지만 인터넷은행과 외국계 은행, 지방은행들까지 핀테크 대출 비교 플랫폼에 속속 합류해 대출 영업을 강화하는 만큼 자칫 경쟁에서 도태될 수 있다는 우려다.금융권 관계자는 "이번 카카오 판교 데이터센터 화재로 금융거래의 안전성도 부각되고 있다"며 "간편함은 물론, 전자금융거래의 안전성을 동시에 확보하는 노력이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>돌아온 '타다'가 '멍 때리는 영상 ASMR' 만든 까닭</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004764953?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>한경 CMO Insight 「케이스스터디」대형 택시 호출 서비스 ‘타다 넥스트’‘높은 이동 경험’, ‘편안한 이동 경험’‘무브로그’ 영상 콘텐츠로 차별화지난 2020년 한 기업의 서비스가 법으로 중단되는 초유의 사태가 벌어졌다. 국내 최초 11인승 승합차를 호출하는 서비스 ‘타다’의 이야기다. 타다 운영사 VCNC는 서비스 시작 1년 만에 회원 170만명 이상을 모으며 인기를 끌었다.문제는 기존 산업과의 갈등이었다. 갈등은 겉잡을 수 없이 커졌고, 위기가 찾아왔다. 택시 업계는 “택시면허없이 사실상 택시 영업을 하는 타다는 불법”이라며 검찰에 고발했고 국회는 이른바 ‘타다 금지법’을 통과시켰다. 차량 호출 서비스 ‘타다’는 서비스를 결국 중단했다.일련의 사태로 업계에서 ‘비운아’로 꼽히게 된 타다가 지난 4월 7~9인승 대형 택시 호출 서비스 ‘타다 넥스트’로 돌아왔다. 이전과 달리 면허를 보유한 택시기사를 대상으로 한 사업으로 전환한 것. 지난해 10월 토스라는 새로운 파트너를 만나 실탄도 장전했다.큰 부침을 겪고 재기에 성공해야하는 타다에게 마케팅은 사업의 일부 정도가 아니었다. 브랜드가 기존에 가지고 있던 혁신 이미지와, 편안함 등 장점은 부각하고 서비스 중단 사태 등 부정적 인식은 보완해 재탄생시켜야 하는 막중한 임무가 주어졌다. 상황 1 업계 선도에서 후발주자로도전 1 웰컴 키트로 바이럴 유도타다가 재정비를 하는 사이 시장은 많은 것이 달라졌다. 지난 2년간 불어닥친 코로나19는 택시 업계를 위축시켰다. 사회적 거리두기와 카페 및 식당 이용시간 제한으로 이동 수요가 크게 줄었기 때문이다. 이 와중에 타다는 중형 가맹택시인 ‘타다 라이트’와 준고급 세단을 이용한 고급택시 ‘타다 플러스’를 출시했지만, 기존 서비스와 차별화 되지 않아 두각을 내지 못하고 있었다. 토스와의 협력이 도약의 기회였다. 토스의 투자금을 토대로 승합차 기반의 이동 서비스를 택시 면허 기반으로 운행하는 타다 넥스트를 출시하게 됐다. 넥스트는 이용자들이 기억하는 타다의 모습과 상징성을 그대로 간직한 채 제도권에서 운행할 수 있는 서비스였지만 비슷한 승합차 택시들이 이미 시장에 진출해 있는 상황이었다. 시장의 불황과 기존 업체들과의 심화된 경쟁 등 각종 위기가 맞물린 가운데 잊혀진 타다의 존재감을 되찾아야 했다. ‘타다가 돌아왔다’는 인식을 제고하는 것이 최우선 과제였다. 타다는 ‘타다 넥스트’ 탑승 경험을 유도하기 위해 첫 탑승 고객을 대상으로 ‘웰컴 어메니티’를 제작해 5000명의 탑승객에게 배포했다.웰컴 어메니티는 ‘호텔처럼 편안한 이동 경험을 제공한다’는 의미를 담아 Do NOT Disturb 문고리와 마우스워시(일회용가글), 커피백으로 구성됐다. 깔끔하고 모던한 디자인으로 각종 사회관계망서비스(SNS)에서 바이럴이 됐고, 타다 넥스트 베타 론칭 한 달 만에 5만명에 가까운 신규 가입자가 발생했다. 상황 2 치열한 유저 확보 경쟁도전 2 토스와의 시너지타다가 넥스트로 돌아왔지만 이미 카카오벤티라는 업계의 확고한 1위 업체가 굳어진 상황이었다. 여기에 아이엠택시도 공격적으로 증차를 예고했다. 이 가운데 ‘긍정적인 첫 경험’을 만드는 것은 큰 숙제였다. 높은 이동 경험이 타다만의 차별점이 되기 위해선 실제 고객들의 경험이 발생해야 했기 때문이다.타다는 타다 넥스트 첫 이용객에게 허들이 될 수 있는 장치 중 하나가 ‘결제’라고 봤다. 가장 첫 번째로 타다 넥스트 론칭 기념 탑승 요금의 50%를 할인해주는 쿠폰을 전 고객에게 발급했다. 50% 할인 쿠폰 발급은 기존 타다 유저들에게 큰 영향을 줬다. VCNC에 따르면 타다 넥스트를 론칭한 12월 한 달 간 타다 넥스트 이용객의 80%가 기존 가입자였다고 한다.문제는 신규 가입자였다. 쿠폰도 결제 수단을 등록하지 않으면 사용할 수 없는 혜택이기 때문이다. 타다는 토스와의 시너지를 활용해 12월 초 토스페이 연동 작업을 진행하고, 토스페이 연동 고객 중 넥스트 첫 탑승객에게 최대 6000원 캐시백 이벤트를 실시했다. 이를 통해 결제 수단 등록률을 30% 가까이 향상시킬 수 있었다.실제로 신규 유저 토스페이 등록률은 평균 40% 수준이다. 캐시백 이벤트를 이용한 유저만 해도 4만명 이상이다. 토스를 통해 유입되는 신규 고객의 비중도 10%대를 꾸준히 유지하고 있다.[MOVELOG] 여의도의 밤은 외롭지 않다 상황 3 거리두기 해제로 시장 활성화도전 3 참여형 콘텐츠로 차별화된 경험지난 4월 중순부터 사회적 거리두기가 해제되면서 시민들의 이동 수요가 급증했다. 타다 넥스트 MPU(Monthly Paying User)는 3월 대비 4월에 33% 증가했고, 4월 대비 5월에도 17% 이상 증가했다. MPU는 한 달 간 실제 차량을 하차하고 비용을 지불한 유저 수의 합으로 호출만 하고 탑승은 하지 않거나 하는 허수가 빠진 순수 이용객 규모를 볼 수 있는 주요 지표 중 하나다. 호출 수도 3월 대비 4월 30% 이상 증가했다.이동 수요가 증가한 상황에서 가장 중요한 것은 ‘차별화’였다. 이용자들이 다른 서비스가 아닌 타다 넥스트를 이용하게끔 만들어야 했다. 타다는 타다의 핵심 차별점인 ‘높은 이동 경험’을 전달할 수 있는 콘텐츠로 ‘무브로그’ 영상 웹페이지를 제작해 자체 채널을 통해 바이럴했다.무브로그(MOVELOG)는 타다 넥스트를 탑승했을 때 이용자의 시각으로 서울 도심 곳곳의 낮과 밤을 고루 담은 18분 분량의 영상 캠페인이다. 약 10개월 간 촬영한 80여 편의 영상으로 구성됐다. 무브로그 웹사이트에서 리드미컬한 음악에 공원 소리, 도시 소음이나 빗소리 같은 엠비언트 사운드를 얹을 수 있어 개개인별 취향에 맞는 힐링 영상을 볼 수 있게 제작했다. 타다가 나오는 장면 없이 순수하게 ‘편안한 이동 경험’을 직간접적으로 느낄 수 있는 영상이었다.무브로그는 공개된 지 2개월 만에 66만 이상의 조회 수를 기록했다. 단순 사이트 방문자 수와 페이지 접속 수는 7배 이상 차이가 났는데, 이는 고객 인게이지먼트의 증거로 접속자가 1명당 최소 7번 이상 여러 페이지를 눌러보며 놀다 갔다는 의미다.  ■ 마케터를 위한 포인트타다는 이동을 ‘경험’으로 접근하고 이와 관련된 굿즈와 콘텐츠를 꾸준히 제작해 이용자와 드라이버에게 전달했다. 고객 경험의 폭을 확장함으로써 타다가 전달하고자 하는 브랜드 가치를 각인하는 효과를 낼 수 있었다.업계에서는 “브랜딩과 스토리가 그로스 전략이 될 수 있다는 걸 타다가 보여줬다고 생각한다”며 “타다 유저들의 LTV와 리텐션은 다른 서비스에 비해 상당히 높을 것으로 예상한다”는 평가가 나왔다.또, 페이먼트 사업을 하는 토스와의 시너지로 결제 수단 등록의 장벽을 완화하고, 이것을 하나의 마케팅 수단으로 활용해 캐시백 이벤트로 신규 가입자를 빠르게 유치하고 실제로 탑승 및 결제로 이어지도록 했다.최다은 기자 ■ 전문가 코멘트□ 천성용 단국대 교수과거 길거리에서 택시를 잡기 위해 하염없이 기다리던 때가 있었다. 잠시 한눈을 팔았다가는 순식간에 지나가는 택시를 놓칠 수도 있기 때문에, 뚫어져라 지나가는 차들을 쳐다봐야 했다.출퇴근 시간, 연말연시와 같은 때에는 택시를 잡기 위해 치열한 경쟁을 펼치기도 했다. 눈치 싸움도 치열했고, 간혹 서로 택시를 먼저 잡았다며 싸움을 벌이는 승객들의 모습도 볼 수 있었다.이처럼 과거에는 너무 당연했던 우리의 일상적 모습이 어느 순간 사라지는 경험을 하게 된다. 바로 “채널 이노베이터(channel innovator)”가 등장했을 때이다. 채널 이노베이터는 소비자의 니즈를 새로운 방법으로 해결해 과거의 소비자들이 특정 제품, 서비스에 접근하던 방식을 혁신적으로 바꾼다.예를 들어, 과거 우리는 음악을 듣기 위해 CD 판매점에 갔지만, 이제 온라인 스트리밍 서비스를 이용한다. 여행을 가기 위해 여행사를 찾았지만, 이제 온라인 호텔예약 서비스를 이용한다. 이제 우리는 비디오 대여점에 갈 필요 없이 집에서 IPTV로 편리하게 영화를 선택한다. 음악스트리밍 서비스, 호텔예약 서비스, IPTV 모두 전형적인 채널 이노베이터들이다.택시 호출 플랫폼 역시 새로운 채널 이노베이터이다. 이들의 등장으로 인해 이제 길거리에서 무작정 택시를 기다리는 소비자들은 없어졌다. 택시를 이용하고자 하는 소비자들의 니즈는 그대로이지만, 이 문제를 해결하는 방식이 혁신적으로 바뀐 것이다.그런데 채널 이노베이터 역시 시장이 성숙해지면 결국 치열한 경쟁에 대응해야 한다. 특별히 택시 호출 서비스의 경우 브랜드 충성도를 유도하기 쉽지 않은 특징이 있다. 고객의 입장에서는 내가 원하는 시간에 원하는 장소에서 택시를 호출할 수 있으면 그만이기 때문이다. 택시 호출이 필요할 때 두번째로 떠오르는 대안은 큰 의미가 없다.이를 해결하기 위해 타다 넥스트 마케터는 타다만의 차별화된 “가치제안(Value proposition)”을 반드시 전달할 필요가 있다. 대형 승합차를 이용해 이동한다는 것은 단지 ‘실제 상품(actual product)’일 뿐이다.소비자들이 대형 승합차를 이용하면서 ‘진짜로 사는 것’이 무엇인지, 왜 카카오T, 우티가 아니라 타다 서비스를 꼭 이용해야 하는지, 즉 타다만의 차별화된 핵심 혜택(core benefit)이 무엇인지 고민하고 이를 효과적으로 제공해야 한다.현재 카카오T가 압도적인 시장 점유율을 가진 상황에서, 습관처럼 형성된 소비자의 행동을 바꾸기도 쉽지 않을 것이다. 따라서 소비자의 습관적 구매를 깰 수 있는 타다만의 충분한 가치제안, “택시 호출=타다”라는 강력한 브랜드 연상, 다음번에도 타다를 꼭 이용하게 만드는 브랜드 충성도 형성 전략이 반드시 필요하다. □ 최현자 서울대 교수촉촉하게 내리는 빗소리, 한적한 바닷가 파도소리, 어린 시절 어머니가 귀를 파주던 경험…. 사람들은 저마다 기분좋게 느꼈던 경험이 있다. 이런 경험이나 추억을 시청각적으로 재현해 심리적 안정감이나 좋은 느낌을 주는 것이 바로 ASMR이다.ASMR은 자율 감각 쾌락 반응(Autonomous Sensory Meridian Response)의 약자로 2010년 ASMR 리서치 프로젝트의 설립자 제니퍼 앨런이 처음 소개한 것으로 알려져 있다. ASMR의 종류는 빗소리 파도소리 같은 자연의 소리, 속삭이는 소리, 물건을 두드리는 소리 등 매우 다양하다. 사람마다 선호하는 자극이 다르기 때문이다. 여러 해외 연구들에 따르면 ASMR 영상이 뇌를 쉬게 하고, 과거의 좋았던 기억을 되살려 안정감과 편안함을 줄 수 있다는 사실이 증명됐으며 ASMR을 시청하면 심박수가 하락하는 것도 확인됐다.마케팅에서는 소비자의 감각을 통해 소비자의 인식, 판단, 행동에 영향을 주는 감각 마케팅의 하나로 ASMR이 활용되고 있다. 소비자의 시각과 청각에 초점을 맞춘 ASMR 콘텐츠가 활발하게 쓰이고 있는데 국내 대학생을 대상으로 한 연구를 보면 응답자의 93.3%가 ASMR 콘텐츠를 접해봤다고 응답했고, 이들 중 대부분이 주기적으로 ASMR 콘텐츠를 이용하고 있다고 답했다.타다는 무브로그를 통해 ASMR 콘텐츠를 선보였다. 무브로그는 공개된 지 2개월 만에 66만 이상의 조회 수를 기록할 정도로 성공을 거뒀다. 그만큼 ASMR 콘텐츠를 반기는 소비자가 많았다는 의미다.유튜브에서 구독자 1만~10만명을 보유한 매크로 등급의 ASMR 인플루언서를 대상으로 수행된 연구에서는 “시청자들이 ASMR 콘텐츠에서 소개된 제품 보다 빗소리 파도소리 등 ASMR 촉매에 더 집중하는 것으로 나타났다”고 분석하였다. 즉  소비자의 관심인 ASMR촉매와 제품이나 서비스가 연결되어야만 소비자들의 주목을 받을 수 있다는 것이다. ASMR로 소비자의 관심을 확보했다면, 그 관심을 자사 제품이나 서비스로 연결할 수 있는 전략에 대한 고민이 필요해 보인다. ※ 한경닷컴에서 한경 CMO 인사이트 구독 신청을 하시면, 매주 월요일 아침에 마케팅 콘텐츠를 메일로 받아보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>[단독] 횡령해도 감시장치 없다.. 온라인 금융플랫폼 '반쪽짜리 내부통제'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004913559?sid=100</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스·카카오페이·네이버페이 등 금융플랫폼내부통제기준 있지만 '소비자 보호'만 담아논란 된 횡령·배임 등 금융사고 예방책 미흡'회색지대' 플랫폼 자체적 개선안 마련 중김한규 "체계적인 내부통제 시스템 갖춰야" 온라인 금융플랫폼 내부통제기준 운영 현황 /그래픽=홍선주 기자 [파이낸셜뉴스] 금융상품을 판매대리·중개하는 온라인 플랫폼들이 몸집을 불리고 있지만, 제도적 미비로 인해 '내부통제 사각지대'에 놓인 것으로 파악됐다.   금융회사지배구조법의 적용받는 시중은행이나 보험사와 달리 금융소비자보호법상 '소비자 보호'와 관련된 내부통제기준만 마련해도 법적 문제가 없기 때문이다. 금융당국이 마련 중인 내부통제 강화 방안 또한 은행권의 관행 개선에 방점을 찍고 있다.   직접 수·여신 업무를 하는 기존 금융회사와는 다르다는 목소리도 나오나, 대출 실적이나 중개 면에서 규모를 키워가는 만큼 실질적인 내부통제 장치가 필요하단 지적이 나온다.     횡령·배임 등 금융사고 대비책 미흡  16일 파이낸셜뉴스가 의뢰해 국회 정무위원회 소속 김한규 더불어민주당 의원실이 금융위원회·금융감독원에서 제출받은 자료에 따르면 주요 온라인 플랫폼들은 내부통제기준을 갖추고 있었다.   비바리퍼블리카(토스)와 핀크는 내부통제조직으로 준법지원팀을 운영 중이다. 카카오페이는 금융소비자보호실에 5명 인력을 두고 있으며, 네이버파이낸셜 또한 금융소비자팀 4명이 내부통제업무를 담당하고 있다. 뱅크샐러드는 컴플라이언스팀에서 내부통제를 맡고 있다.   문제는 플랫폼의 내부통제에 최근 문제가 되는 횡령이나 배임, 금품수수 등 임직원 비위행위를 예방할 장치가 미흡하다는 점이다.   금소법은 '금융소비자 보호'와 관련 내부통제기준 마련을 의무화하고 있다. 이해상충, 횡령이나 배임 등 임직원 비위나 위험관리에 대한 내부통제기준과 관련해서는 의무를 부과하지 않는다.   실제 플랫폼 내부통제조직에서 지난 3년간 내부통제기준 여부를 점검한 결과 소비자 보호와 관련된 내용이 주로 개선됐다. 토스와 네이버페이, 핀크, 뱅크샐러드는 대출모집 화면 내 고지문구 개선 등의 조치를 했다. 카카오페이는 대출모집 시 업무매뉴얼 마련, 신규 서비스 법규 준수 협의 등을 진행했다.   고객돈이나 수수료 횡령 등 금융사고를 예방하고 감시하는 내용은 포함되지 않았다.   이는 플랫폼이 법적으로 '회색지대'에 놓여있기 때문이라는 분석이다.   금융회사지배구조법에는 '건전한 경영'과 '주주 및 이해관계자 보호' 등을 위해 임직원이 직무를 수행할 때 준수해야 할 내부통제기준을 마련해야 한다. 금융소비자 보호 외에 포괄적인 내부통제기준을 마련할 의무가 있는 것이다. 은행이나 보험사, 여신전문회사 등과 달리 플랫폼은 이 법의 적용 대상이 아니다.   금융위원회 관계자는 통화에서 "플랫폼은 금융회사지배구조법 적용을 받지 않는다. 이 법에서도 주주나 이해관계자 등 보호를 위해서 내부통제 규정을 만들어야 한다고 규정한 것이지, 횡령 방지라는 구체적 규정이 있는 건 아니다"라고 말했다. 이 관계자는 "(플랫폼도) 고객 돈을 활용하는데, 소비자 보호의 측면에서 내부통제기준을 자체적으로 개선할 부분이 있다"고 설명했다.     '법적 사각지대' 플랫폼이 자구책 마련해야  온라인 금융플랫폼 내부통제기준 법적 근거 /그래픽=홍선주 기자 현재 당국이 마련 중인 내부통제기준 강화방안 또한 은행권 금융사고 방지에 초점을 맞추고 있는 가운데, 플랫폼에서는 자구책을 찾고 있다.   특히 선불충전금과 관련해서는 추가적인 내부통제가 필요하다는 지적이 업계 안에서도 나오고 있다. 플랫폼 업체 한 관계자는 통화에서 "핀테크 업계에서 이슈는 선불충전금"이라며 "현재 회사마다 고객 자금보호 조치가 다 다른데, 사고 위험성을 낮출 장치가 필요하다"고 주장했다.   카카오페이 관계자는 "올해 상반기 은행권의 대규모 횡령사건이 연이어 발생한 부분에 경각심을 갖고 추가적 내부통제 강화 방안을 마련했다"며 "자금 집행 프로세스 전반에 대한 세부 기준을 문서화하고, 책임자 검토·승인 강화, 인감 사용 관리 및 중요문서 관리 통제 강화 등의 조치를 했다"고 밝혔다. 이외에 금융사고예방 정기점검 제도 도입, 내부고발 제도 강화 등 내부통제 강화 방안을 오는 11월 내부통제위원회에서 의결해 추진할 예정이다.   네이버파이낸셜은 직원들의 횡령, 배임과 관련해 컨플라이언스팀이 자체적으로 내부 규정을 마련하고 있다.   결제 서비스를 제공하지 않는 온라인 플랫폼 측에서는 "전체적으로 어떤 금융상품이 있는지 볼 수 있도록 한 서비스가 중심이라 금융소비자 보호에 초점이 맞춰진 것"이라며 관련 법과 협회 지침을 따르고 있다는 입장이다.   전문가들은 당국의 회색지대 해소 뿐 아니라 업계 자체의 개선 노력도 필요하다고 짚었다.   김종대 세종대학교 경영학부 교수는 "핀테크 기업 등 온라인 금융 플랫폼도 금융기관"이라며 "집행자와 결제자를 반드시 분리하고, 원본 서류 확인·입금 절차 등을 엄격히 관리해야 한다. 직원들의 윤리교육을 병행하는 등 노력이 필요하다"고 설명했다. 또 "선불충전금과 같이 미리 입금하고 사용하게 하는 서비스는 보이스피싱 등 여러 범죄에 노출될 가능성이 크다"면서 "금감원 등 감독기구에서 철저한 검사가 병행돼야 한다"고 강조했다.   김한규 의원은 "내부통제가 작동하기 위해서는 '외부 규제' 역할을 하는 감독기관의 점검 체계, 그리고 내부통제가 없는 상태에서 금융 사고가 발생할 경우 감독기관의 강한 제재가 필요하다"며 "기업들이 내부통제를 잘 만들어 지키는 것이 '효율적인 결정'이 되도록 시스템을 만들어야 한다"고 지적했다. #금융감독원 #금융위원회 #카카오페이 #토스 #내부통제 #금융플랫폼 #온라인금융플랫폼 #핀크 #은행권횡령</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[알림]‘위기 속 기회 찾는다’…내달 16일 ‘ECF 2022’서 만나요</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005352254?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>제9회 이데일리 IT컨버전스포럼(ECF)앰배서더 서울 풀만 호텔서 내달 16일 열려‘우영우’ 공동제작 스튜디오지니 김철연 기조연설웹3부터 우주개발까지, 분야별 핵심전략 눈길무료 입장 유튜브 중계도, 선착순 200명에 점심 제공[이데일리 김정유 기자] 2022년 가을, 글로벌 경제가 모두 얼어붙었습니다. 분명 위기인 것은 맞지만, 그럼에도 기회를 찾아야 하는 게 우리의 현실입니다. 또, 그 기회를 더 큰 도약으로 이끌기 위해선 시대에 맞는 생존전략을 구비해야 할 겁니다. 이데일리는 다음달 16일 서울 중구 앰배서더 서울 풀만 호텔 그랜드볼룸에서 ‘위기 넘어 기회 있다: 디지털 전환 시대 생존전략’ 주제로 제9회 ‘ECF 2022(이데일리IT컨버전스포럼 2022)’를 개최합니다. 올해 9회째를 맞는 이번 포럼은 얼어붙은 경제 상황 속에서도 혁신으로 도약을 꾀하고 있는 디지털 기업들의 사업 전략을 공유합니다. 산업 분야별로 내년 시장 전망, 그리고 혁신 기업들의 기술력에 대해서도 각 분야 리더들과 함께 머리를 맞댑니다. 포럼의 시작은 올해 전 세계인의 마음을 따뜻하게 만든 ‘이상한 변호사 우영우’를 공동제작한 스튜디오지니의 김철연 대표가 나섭니다. 김 대표는 포럼 기조연설을 통해 글로벌 콘텐츠 및 미디어 시장에 대한 전망, 그리고 ‘우영우’가 어떻게 글로벌 시청 4억 시간이란 대기록을 세울 수 있었는지에 대한 비결을 공유합니다.‘디지털 경제 성공을 위한 규제 혁신 방향은? 플랫폼, AI, 데이터를 중심으로’를 주제로 한 좌담회도 마련했습니다. 이성엽 고려대 기술법정책센터장(좌장), 엄열 과학기술정보통신부 인공지능기반정책관, 박성호 한국인터넷기업협회 회장, 이윤조 김앤장 변호사 등이 참석합니다. 최근 카카오 사태로 불거진 부가통신사의 사회적 책임 강화 목소리 속에서 자칫 무분별한 규제 도입이 어떤 결과를 낳게 될지 전문가 의견들에 관심이 쏠립니다.오후 세션의 문은 오세현 SK텔레콤 Digital Asset CO(부사장)가 열 예정입니다. 오 부사장은 블록체인의 미래를 밝힐 ‘웹 3’에 대해 강연합니다. ‘데이터 주권을 이용자 본인이 소유한다’는 웹 3가 우리의 미래를 어떻게 바꿀지 주목됩니다. 아울러 △서현우 비바리퍼블리카 사업전략 헤드가 토스의 슈퍼앱 전략을 △박준희 카페24 디지털전략연구소장이 글로벌 커머스 시장 진출을 △박서하 티맵모빌리티 퓨처모빌리티 그룹장이 도심항공모빌리티(UAM) 시대를 이끄는 모빌리티 플랫폼의 진화를 △정재성 로앤컴퍼니 부대표가 글로벌 동향과 로톡의 전략을 소개합니다. 2부에선 각 분야별 선도기업들의 핵심 전략을 듣습니다. 이경일 컴투버스 대표가 메타버스의 새로운 세상을, 인공지능(AI) 기술업체 업스테이지의 권순일 Biz 총괄이 AI 현실과 미래에 대해 강연합니다. 이어 한상영 네이버클라우드 기획&amp;전략 상무는 클라우드 산업 현황과 미래를, 김수종 이노스페이스 대표는 민간우주개발 시대를 앞당길 스타트업 도전기를 생생하게 전달할 계획입니다. ECF 2022는 무료입니다. 부담없이 각 분야 전문가, 기업인들의 시장 전망, 그리고 핵심 전략들을 눈 앞에서 직접 보고 듣는 기회가 될 것입니다. 여러분의 응원과 따뜻한 관심을 부탁 드립니다. 행사 당일, 행사장 접수 선착순 200명에게 점심 식권을 제공합니다. ◇명 칭 : 제9회 이데일리IT컨버전스포럼(ECF 2022)◇주최 : ㈜이데일리◇후원: 과학기술정보통신부, 방송통신위원회, 한국인터넷기업협회, 한국통신사업자연합회, 코리아스타트업포럼, 정보통신기획평가원, 한국IPTV방송협회◇일시: 2022년 11월 16일(수) 10:00~17:30◇장소: 앰배서더 서울 풀만 호텔 그랜드볼룸(2F)·유튜브 ‘이데일리 프렌즈’ 채널 생중계◇사전등록 행사 홈페이지:https://ecf.edaily.co.kr/ECF2022/◇문의: 이데일리 02-3772-9409, 02-3772-9407·jeong@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>오픈페이 합류하는 우리카드…현대카드도 막차 탈까?</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000307302?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>이번달 본격 출범을 준비 중인 카드사의 통합 간편결제 서비스 '오픈페이'가 탄력을 받는 모습입니다.참여를 고민했던 우리카드는 합류 결정을 내렸고, 현대카드도 관련 협의체에 들어오면서 상황을 지켜볼 방침입니다.오늘(21일) 카드업계에 따르면 우리카드는 최근 오픈페이에 참여하기로 결정했습니다. 시스템 구축 등의 작업에 시간이 필요해 이르면 내년 3월쯤 합류할 전망입니다.오픈페이는 하나의 카드사 앱에서 다른 카드사 카드로도 결제할 수 있는 간편결제 서비스입니다. 카카오페이, 네이버파이낸셜, 토스 등 빅테크의 간편결제 서비스에 대항하기 위해 여신금융협회 주도로 카드사들이 참여해 추진하고 있습니다.하지만 업계 2위인 삼성카드를 비롯해 현대카드와 우리카드 등이 참여하지 않은데다, 나머지 6개 회사가 동시에 서비스를 시작하지도 않아 '반의 반쪽'이라는 지적을 받기도 했습니다.카드업계 관계자는 "오픈페이는 가능한 많은 카드사가 참여해야 시너지를 올릴 수 있다"며 "우리카드 합류로 기존보다 규모를 키울 수 있게 된 점이 긍정적"이라고 말했습니다. '애플페이'를 준비 중인 것으로 알려진 현대카드도 최근 오픈페이에 관심을 보이기 시작했습니다.현대카드는 최근 열린 여신금융협회 내 '모바일 협의체' 회의에서 오픈페이 사업을 논의하는 전문분과에 참여하겠다고 밝혔습니다. 모바일 협의체는 지난 2010년 5월 국내 모바일 결제 시장에서 카드사 간 협력을 다지기 위해 출범한 논의 테이블로, 여신금융협회가 사무국을 운영하고 있고 협의체에는 9개 카드사가 참여하고 있습니다.9개 카드사가 모두 해당하는 사업은 협의체 자체에서 논의가 이뤄지지만 그렇지 않을 경우에는 참여사들끼리 논의할 수 있는 전문분과를 따로 만듭니다. 오픈페이 사업에서는 삼성카드, 현대카드, 우리카드가 참여하지 않아 전문분과가 만들어졌는데 이번에 현대카드가 참여하게 된 것입니다.다만 현대카드는 전문분과에 참석하는 게 오픈페이 참여를 의미하는 건 아니라는 입장입니다.현대카드 관계자는 "오픈페이 사업의 진행 상황을 지켜보려는 차원"이라며 "전문분과에 들어가겠다는 의사를 밝힌 맞지만 오픈페이 참여를 결정한 건 아니다"고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>저축銀 6% 수신금리 등장… 오픈런에 서버 마비도</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003746508?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>일부 저축銀 정기예금 6.45%온라인서 앱 접속 장애 사태시중銀도 예·적금 금리 올려하나은행 최대 0.95%P 인상생보사도 5%대 저축보험 내놔금리 상승기를 맞아 금융권의 수신금리 인상 경쟁이 치열해지고 있다. 최근 예·적금 금리를 연 5∼6%대까지 줄인상한 저축은행에는 가입자가 몰리면서 오프라인에서는 ‘오픈런’이, 온라인에서는 서버 마비 현상까지 일어나고 있다.   20일 저축은행중앙회에 따르면 전날부터 이날까지 저축은행중앙회 소비자포털과 중앙회 서버를 이용하는 OK저축은행 등 일부 저축은행 애플리케이션(앱) 접속에 간헐적으로 접속 장애가 일어나고 있다.   저축은행중앙회는 일부 저축은행이 연 6%대까지 수신금리를 대폭 인상한 영향으로 접속자가 일시적으로 폭증한 영향으로 보고 있다. 저축은행중앙회 관계자는 “이번 주 들어 트래픽이 몰리면서 일시적으로 접속이 되지 않는 현상이 나타나고 있다”면서 “서버 확대 등 여러 조치를 검토하고 있다”고 말했다. 2019년 저축은행중앙회 소비자포털이 만들어진 후 접속자 폭주로 장애가 발생한 것은 이번이 처음인 것으로 파악됐다. 이날 일부 저축은행 영업점 앞에는 영업 시작 시각 전부터 정기예금에 가입하고자 하는 사람들이 대거 몰리는 오픈런 현상까지 벌어졌다.     20일 예금에 가입하기 위해 온 고객들이 영업시간 전부터 서울 강남구 바로저축은행 본점 앞에 줄을 서 기다리고 있다. 독자 제공    저축은행업계에서는 연 6%대 예금 상품이 쏟아져 나오고 있다. 전날 상상인 계열 저축은행인 상상인저축은행과 상상인플러스저축은행이 전날부터 회전정기예금 금리를 연 6.0%로 올린 데 이어, 이날 다올저축은행은 ‘Fi 리볼빙 정기예금’ 금리를 연 6.45%까지 올렸다. 다올저축은행은 지난 14일 예금 금리를 최고 연 5.2%까지 올렸는데, 약 1주일 만에 또 한 번 금리를 대폭 인상한 것이다. HB저축은행도 이날 ‘e-회전정기예금’과 ‘스마트회전정기예금’ 금리를 연 6.45%로 올렸다.   한국은행의 기준금리 인상에 따라 시중은행의 예·적금 금리 상승도 이어지고 있다. 하나은행은 이날 예·적금 금리를 최대 0.95%포인트 인상한다고 밝혔다. KB국민은행도 이날부터 예·적금 금리를 최대 0.6%포인트 올렸다. 앞서 우리은행과 신한은행, NH농협은행도 한은 금융통화위원회의 기준금리 결정 직후 수신상품 금리를 각각 최대 1.0%포인트, 0.8%포인트, 0.7%포인트 인상했다. 인터넷전문은행 토스뱅크는 조건 없이 연 2.3% 금리를 제공하는 수시입출금 통장인 ‘토스뱅크 통장’의 한도 조건을 없애기로 했다고 이날 밝혔다. 그동안 토스뱅크는 1억원 이내 금액에만 연 2.3% 금리를 제공했지만, 21일부터는 1억원 초과 금액에 대해서도 같은 금리를 적용하는 것이다.   생명보험사들도 저축보험 금리 경쟁에 나서면서 약 11년 만에 연 5%대 저축보험도 등장했다. 저축보험은 은행의 정기 예·적금과 비슷하지만, 저축 외에 질병·상해 보장 등 보험의 성격도 지닌 금융상품이다.   금융권에 따르면 IBK연금보험은 오는 24일부터 5000억원 한도로 소진 시까지 연 금리 5.3% 저축보험을 판매할 예정이다. 해당 상품은 만기 5년짜리 상품으로 보험료를 한 번에 납입하는 일시납 상품이다.   보험사들은 지난 8월부터 4% 이상 금리를 제시하는 저축보험을 경쟁적으로 내놓고 있다. 푸본현대생명은 8월 5000억원을 한도로 4%의 확정금리를 제공하는 ‘MAX 저축보험 스페셜 무배당’을 출시했다. 이후 한화생명이 4.5%, 흥국생명이 4.2%, 동양생명은 4.5% 저축보험을 잇달아 선보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>개발자 고독한 직업? 네트워킹으로 커리어 개발 힘쓴다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011503581?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>기사내용 요약개발자 네트워킹 지원 온·오프 서비스 증가[부산=뉴시스] 업비트 개발자 컨퍼런스(UDC) 전경. 해당 사진은 기사 내용과 관련이 없습니다. (사진=뉴시스 DB). photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]권안나 기자 = 최근 개발자 시장이 급격히 성장하면서 개발자 네트워킹을 지원하는 온·오프라인 서비스도 늘어나는 추세다. 서로 다른 분야의 개발자 간 정보를 공유하고 배우는 '네트워킹'이 커리어 성장을 위해 중요해졌기 때문이다.과거에는 이른바 '고독한 직업'이라고 불리던 개발자도 이제 동료들과 커뮤니티를 이루고 네트워킹하며 커리어를 연마하는 대표 직군 중 하나로 발돋움하게 됐다. 28일 관련 업계에 따르면 개발자들을 위한 소통의 장을 마련하기 위해 기업들이 온·오프라인에서 분주하게 움직이고 있다. 온라인 분야에서는 커리어테크 스타트업 퍼블리가 운영하는 '커리어리'가 개발자 시장의 대표 사회관계망서비스(SNS)로 거듭나고 있다. 커리어리에서는 이용자의 공개 프로필과 같은 '커리어 프로필' 기반으로 활동한다. 이를 통해 신뢰할 수 있는 양질의 정보 공유와 네트워킹이 가능하다. 커리어리가 확보한 커리어 프로필은 최근 12만개를 돌파했다.특히 글로벌 빅테크 기업부터 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스) 등 유수의 테크 기업 현직 개발자들이 포진해 있다. 이들의 인사이트를 공유하고 실시간 네트워킹을 원하는 개발자들이 크게 유입되는 추세다. 퍼블리는 지난해 3분기 커리어리 신규 가입자 중 개발 직군 가입자가 1.98%를 차지했지만 올해 들어 1분기(1~3월) 17.43%, 2분기(4~6월) 36.06%, 3분기(7~9월) 51.1%까지 수직 상승했다고 벌표했다. 커리어리에서는 실무 관련 고민이 있을 때 질의응답이 가능한 '현직자 Q&amp;A', 사이드 프로젝트나 스터디 진행 시 팀원을 구할 수 있는 '라운지', 업계 동향·직무 지식·사회생활 조언 등 다양한 정보들을 정리한 '개발자 업그레이드 자료집' 등을 이용할 수 있다. 오프라인에서도 개발자들을 위한 네트워킹 행사가 이어지고 있다. 코딩 교육 스타트업 팀스파르타는 최근 230여명이 참석한 가운데 '제2회 NestJS 밋업'을 열었다. 밋업은 NestJS와 새로운 노드 백엔드 프레임워크에 관심이 있거나 자바 스프링 개발을 타입스크립트 NestJS로 개발해보고 싶은 사람들을 위해 기획됐다. 총 5개 강의와 네트워킹 세션으로 프로그램을 구성했다.특히 팀스파르타 남병관 최고기술개발자(CTO)를 비롯해 토스, 슈퍼브에이아이 등 유수 기업들에서 활약중인 개발자들이 오퍼레이터와 연사로 참여햤다. 연사, 업계 관계자들과 함께 의견을 나눌 수 있는 마지막 하이라이트 네트워킹, 패널토크 시간에는 76명이 참석했다.개발자 채용 플랫폼 '점핏'은 개발자가 되고 싶은 IT 비전공자를 위한 ‘개발자 취업 콘서트(개취콘)’를 이번달 개최했다. 비전공자 출신 개발자인 조현영 카카오모빌리티 당일배송사업팀 기술파트장이 강연자로 나서 비전공자의 신입 개발자 취업 성공 전략을 상세히 공개했다. 스타트업 ‘오늘의 픽업’의 CTO를 역임한 조현형 파트장은 문과 전공자가 책임자급 개발자로 거듭나게 된 노하우를 경험을 바탕으로 풀어냈다. 점핏은 개발자 취업을 원하는 IT 전공자를 위한 북콘서트, 신입 개발자의 첫 취업 성공과 커리어 개발을 돕는 북콘서트 등 다양한 주제·대상을 설정해 개발자들을 지원하고 있다.대기업에서도 개발자 네트워킹 지원에 적극 나서는 모습이다. SK텔레콤은 최근 SK ICT패밀리 소속 개발 전문가들과 외부 개발 인재 간 소통을 위해 만든 커뮤니티 '데보션(DEVOCEAN)' 애플리케이션을 출시했다. 데보션 앱에서는 개발 과정에서 겪는 고민이나 노하우를 공유하는 ‘개발이야기’, 함께 개발 생태계 관련 새로운 소식을 공유하는 '뉴스·정보', 개발한 코드 혹은 프로그램에 대한 평가를 들을 수 있는 '리뷰' 등 다양한 채널이 마련돼 있다.특정 개발자와 심도 깊은 논의를 할 수 있는 1대1 메시지 기능도 도입했다. 또 SK ICT패밀리 소속 개발자들의 최신 기술을 공유하는 '테크 스페이스(Tech Space)'가 포함된 블로그와 SK 테크서밋(Tech Summit)·세미나 등 동영상, SK가 공개한 오픈소스 등 양질의 콘텐츠를 즐길 수 있다.삼성전자는 내달 15일부터 16일까지 ‘삼성 소프트웨어 개발자 컨퍼런스(SSDC) 2022’를 개최한다. 소프트웨어 개발자라면 누구나 SSDC에서 발표할 수 있다. 특히 삼성전자 사내 개발자들도 대거 참여해 소속 회사의 경계 없이 자유롭게 소통할 수 있다.이번 SSDC는 삼성전자 한종희 대표이사 부회장의 환영사를 시작으로 인공지능(AI)·플랫폼·로봇·헬스케어 등 주력 연구 분야와 소프트웨어의 개발 문화에 대한 발표들이 이어질 예정이다.삼성전자의 6개 조직이 참여한 삼성전자 개발자 채용 상담 부스도 함께 운영한다. 삼성전자에 소프트웨어 개발자로 입사를 희망하는 참여자는 SSDC 등록 사이트를 통해 채용 상담 예약까지 할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>과기정통부·NIA “한국코드페어 성료”…'청소년, 디지털 기술로 사회문제 해결'</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003053837?sid=105</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>SW공모전, 75개팀 발표 진행심사위원 현직 개발자 비중↑해커톤, 사회문제 해결안 평가최고 전문가 멘토링 기회 부여2022 한국코드페어 해커톤 본선에 참여한 학생들이 작품을 만들고 있다.과학기술정보통신부 주최, 한국지능정보사회진흥원(NIA) 주관 '2022년 한국코드페어 본선'이 22일 일산 킨텍스에서 성황리에 종료됐다.한국코드페어는 공모전·해커톤·공부방 프로그램으로 구성됐다. 청소년 대상 소프트웨어(SW) 공모전과 해커톤으로 우수 인재를 발굴하고, 수준별 프로그래밍 언어 강좌를 제공해 저변 확대에 기여한다.2022 한국코드페어 SW공모전 본선에 참가한 한 학생이 준비한 작품을 설명하고 있다.SW공모전은 사회현안, 생활·환경 등 다양한 주제에 대한 문제 해결 방안을 제시하는 형태로 이뤄졌다. 서면 심사 등 예선을 통과해 본선에 진출한 초·중·고교생 각 25개팀, 총 75개팀은 배정받은 부스에서 작품 시연과 발표를 진행, 심사를 받았다.2022 한국코드페어 SW공모전 본선에 참가한 한 학생이 준비한 작품을 설명하고 있다.올해 SW공모전 심사위원은 현직 개발자 참여 비중이 높았다. 지난해는 심사위원 중 대학교수가 15명으로 비중이 높았다. 올해는 당근마켓·카카오·토스·SK 등 현직 개발자 12명과 대학교수 3명으로 심사위원을 구성했다.은상 이상의 SW공모전 우수 수상자는 국제과학기술경진대회(ISEF) 한국대표단에 참여하는 기회를 얻는다. 2023년 ISEF는 미국 텍사스주에서 개최되며 한국코드페어 통해 5개팀이 참가한다. 선발전은 12월에 진행된다. 작품완성도·영어회화·발표능력을 평가해 최종 선발한다.2022 한국코드페어 SW공모전 본선에 참가한 한 학생이 준비한 작품을 설명하고 있다.SW공모전에 참여한 중학생은 “심사위원에게 작품을 평가받는 과정에서 장점은 물론, 개선할 점을 알게 돼 도움이 됐다”며 “열심히 한 만큼 좋은 결과가 있었으면 좋겠다”고 말했다.초등학생은 “장애인에게 도움을 주는 작품을 만들었는데, 참여하면서 사회에 도움이 될 수 있다고 생각하니 뿌듯했다”고 전했다.해커톤은 예선과 과제 심사를 거쳐 본선 진출자를 선발했다. 과제는 SW 기술을 활용해 디지털 역기능, 물가상승, 환경, 지역경제 등 사회문제 해결방안을 제시하는 것이다. 아이디어톤으로 진행된 해커톤에서 일부팀은 SW 구현까지 이뤄내는 등 높은 완성도를 보였다.2022 한국코드페어 해커톤 본선에 참여한 학생들이 작품을 만들고 있다.청소년이 협동하고 배우는 과정에서 즐거움을 찾도록 구성했다. 예선 통과자에게 SW 최고 전문가 멘토링과 심화 교육 제공 등 디지털 역량 강화 기회가 주어졌다. 본선은 31개팀이 현장에서 제시되는 키워드 중 1개 이상을 택해 프로그램을 기획하고 구현하는 방식이었다.해커톤에 참여한 고등학생은 “1회 한국코드페어부터 참여했는데, 올해는 대면으로 해커톤을 진행하게 돼 짧은 시간 내 주어진 문제를 해결하는 것이 재밌었다”며 “대면으로 많은 학생과 멘토를 만나게 돼 좋은 시간이었다”고 말했다. 중학생은 “TV에서 해커톤을 보고, 너무나도 참여하고 싶었는데, 이렇게 해커톤에 참여하게 돼 기쁘다”고 소감을 말했다.2022 한국코드페어 해커톤 본선에 참여한 학생들이 작품을 만들고 있다.6월 시작한 온라인 공부방은 수강생 2000명을 넘었다. 기존 녹화 강의를 제공하던 방식에서 실시간 영상교육으로 전환해 청소년과 학부모로부터 큰 관심을 받았다. 실시간으로 진행된 강의는 많은 학생과 학부모 요청으로 NIA 홈페이지 통해 무료로 다시보기가 가능하다.이영선 NIA 역량개발팀장은 “한국코드페어는 디지털 인재 양성에 마중물”이라며 “한국코드페어로 청소년들이 SW에 많은 관심을 갖고 디지털 인재로 성장하기를 바란다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[아!이뉴스] 방통위, 트위치 화질제한 실태점검…카카오모빌리티, '일반 부스터 호출'</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000706124?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>하루가 다르게 변화하는 IT세상 속에서 쏟아지는 정보를 일일이 다 보기 어려우신 독자분들을 위해, 독자 맞춤형 IT뉴스 요약 코너를 마련했습니다. 본지에서 오늘 다룬 IT기사를 한눈에 읽을 수 있도록 구성했습니다. 퇴근길에 가볍게 읽을 수 있기를 기대합니다. [편집자주]지난 6일 오전 국회 본관에서 방송통신위원회, 방송통신심의위원회 등 기관을 대상으로 과학기술정보방송통신위원회 국정감사가 진행되고 있는 모습. [사진=안세준 기자]◆방통위, 트위치 화질제한 실태점검 착수…영업기밀 망사용료 밝힐까 [OTT온에어]동영상 스트리밍 플랫폼 트위치가 한국에서만 동영상 최대 화질을 제한한 데 대해 방송통신위원회가 실태점검에 착수했다. 이용자 이익저해 금지 행위에 대한 위배 소지가 있는지 확인하겠다는 취지다.국내 망사용료가 해외 대비 수십배 비싸다는 주장에 대한 근거와 트위치 화질 제한 원인 등을 밝혀내는 계기가 될지 관심이 쏠린다.27일 국회·관련 부처에 따르면 방통위는 트위치 화질 제한에 대한 기초자료를 수집하고 실태점검을 진행하고 있다. 실태점검이란 실제 상태나 사정 따위를 살펴보는 과정으로, 법 저촉 사안이 의심될 경우 사실조사로 전환된다. 시정명령이나 과징금 부과 등으로 이어질 수 있다.방통위 관계자는 "최근 이용자 관련 이슈도 있었다. 현재 기초자료를 토대로 실태점검을 진행하고 있는 상황"이라며, "실태점검 결과에 따라서 그 이후 진행이 될지(사실조사) 살펴봐야 되는 부분"이라고 말했다.앞서 트위치는 지난달 29일 공식 블로그를 통해 한국에서의 방송 최대 해상도를 1080p에서 720p로 제한하겠다고 밝혔다. 트위치 측은 운영비 증가를 원인으로 꼽았지만, 최근 논의가 가속화된 '전기통신사업법 개정안(일명 망무임승차방지법)'과 맞물리면서 갈등이 심화되고 있다.방통위의 트위치 사실점검에 대해 정치권도 상황을 주시하는 분위기다. 트위치가 화질제한 이유로 국내 운영비 증가를 주장한 만큼, 실제 망사용료 지출액 등도 들여다 볼 가능성이 있기 때문이다. 국내 망사용료가 유럽과 북미 국가에 비해 비싸다는 주장에 대한 사실 확인과 트위치 화질 제한 원인 등이 이번 기회를 통해 투명하게 밝혀져야 한다는 목소리가 나온다.국회 한 관계자는 "국내 망사용료가 유럽과 북미보다 수십 배 비싸다는 데 대한 근거를 확인하고자 알아보니 (이 부분에 대한 공개는) 오히려 CP 쪽에서 부담스러워하고 있다"라며, "국내 망사용료가 수십 배 비싸다는 데 대한 근거가 부족한 상황"이라고 설명했다. 이어 "치밀한 실태점검을 통해 사실조사로 이어져야 할 것"이라고 강조했다.데이터의 사회‧경제적 가치가 높아짐에 따라 개인과 기업, 국가 간 '데이터 주권(Data Sovereignty)'을 둘러싼 논의가 이어지고 있다.  [사진=픽사베이]◆CSAP 개편에 부상한 '데이터 주권'…국가간 경계 확보 [데이터링]데이터의 사회‧경제적 가치가 높아짐에 따라 개인과 기업, 국가 간 '데이터 주권(Data Sovereignty)'을 둘러싼 논의가 이어지고 있다. 개인 차원에서는 자기결정권 성격과 유사하지만 국가 차원에서는 자국의 데이터 산업을 보호하기 위한 개념에 가깝다. 후자의 경우 데이터 안보와 현지화 문제로 귀결된다.최근 국내에서도 클라우드 보안인증(CSAP) 개편을 둘러싼 논의가 이어지면서 데이터 주권 개념이 부각되고 있는 상황. 데이터 주권이란 무엇일까.데이터 주권이란 국가‧기업‧개인이 생성된 데이터에 대해 각 주체가 언제, 어디서, 어떻게, 어떤 목적으로 사용할 것인지 결정할 수 있는 권리를 의미한다. 한국정보통신기술협회(TTA)에서는 '국가와 개인, 기업이 데이터의 소유 범위와 사용 방법에 대해 결정할 수 있는 권한'으로 정의하고 있다.개인 차원에서의 데이터 주권은 헌법상 인격권인 자기결정권 성격에 가깝다. 정보주체가 프라이버시를 지킬 것인지 혹은 원하는 범위 내에서는 프라이버시를 양보하고 다른 이익을 취할 것인지가 골자다. 정보주체의 개인정보에 대한 권리를 보장하는 방식이다.국가 단위에서의 데이터 주권은 데이터 현지화에 초점이 맞춰져 있다. 디지털 통상의 핵심은 데이터 국경 이동과 개인정보 보호다. 데이터의 자유로운 이동이 중요하다는 미국과 원칙적으로는 이동 제한을 고수하는 유럽연합(EU), 데이터 서버 현지화를 주장하는 중국 등이 4차 산업혁명의 주도권을 확보하기 위해 각축전을 벌이고 있는 상황이다.전 세계 개인정보 보호 당국이 개인정보의 활용과 보호의 균형점을 모색하는 것처럼 디지털 경제 활성화를 위해선 데이터의 국경 이동을 보장하는 동시에 보호가 필요하다는 것.최경진 가천대 교수는 데이터 주권을 '데이터에 대한 오너십(Ownership)'으로 보고, 해당 권리를 행사하는 주체에 따라 의미가 어떻게 달라지는지 주목해야 한다고 설명했다. 최 교수는 "주권(Sovereignty)이란 개념은 대내적으로는 국가의 모든 권력적 작용은 국민의 뜻에서 나온다는 것이고 대외적으로는 다른 국가 정부가 특정 국가를 간섭할 수 없다는 의미"라며 "데이터 주권에 이 같은 개념을 그대로 적용하게 될 경우 각 주체 간 충돌이 발생할 가능성도 있다"고 설명했다.그는 "개인 차원에서 데이터 주권은 프라이버시와 자기결정권이라는 기본권 성격에 가깝다면 국가 차원에서는 외국 정부나 기업을 대상으로 데이터 제어 권리를 가진다는 의미"라고 전했다.이성엽 고려대 교수는 상호원칙을 고려해야 한다고 강조했다. 이 교수는 "데이터 경제 시대가 도래하면서 데이터 이동과 접근도 국가 차원에서 관리할 필요성이 대두됐다"며 "CSAP 개편도 일부 공공 데이터에 대해 외국 기업의 접근을 허용한다는 측면에서 주권 개념이 언급되고 있는 것"이라고 말했다.이 교수는 "다만 한국은 디지털 통상 관련 현안에서 이중 전략을 쓸 수밖에 없을 것"이라며 "다른 부분의 편익을 고려해 개방 여부를 결정하는 것도 중요하다. 이 과정에서 주권이란 표현의 사용은 신중하게 접근해야 한다"고 전했다.조준희 한국SW산업협회장은 27일 열린 'SW천억클럽 기자간담회'에서 답변하고 있다. [사진=한국SW산업협회]◆두나무·카겜·빗썸·KG이니시스, '1조 클럽' 가입…SW 매출 29.4% 증가두나무, 카카오게임즈, 빗썸코리아, KG이니시스가 지난해 매출 1조원이 넘으면서 한국소프트웨어산업협회의 'SW조클럽'에 새롭게 포함됐다.한국SW산업협회(회장 조준희)가 27일 '2022년 소프트웨어 천억클럽'을 발표를 통해 이같이 밝혔다.협회는 지난 2013년부터 매년 SW를 주요 사업으로 하는 기업들의 전년 매출액, 종업원 수 등을 조사하고, 매출액 규모를 조(兆), 5천억, 1천억, 5백억, 3백억 등 구간별로 집계하는 등 'SW천억클럽'을 발표해왔다.연 매출이 1조원 이상인 '조 클럽'에 속한 SW기업은 17곳(2022년 기준)으로, 이번에 두나무, 카카오게임즈, 빗썸코리아, KG이니시스 등 4곳이 새로 포함됐다. SW조클럽에는 SK, 네이버, 카카오, 삼성SDS, NHN, 엔씨소프트, 넷마블, 넥슨코리아, 크래프톤, LG CNS, 현대오토에버, 우아한형제들, 다우데이타 등이 있다.SW5천억클럽에는 카카오엔터테인먼트, 토스 운영사 비바리퍼블리카, KT DS, SK쉴더스, CJ올리브네트웍스 등 7개사가 포함됐다. 특히 'SW5천억클럽'에 포함된 기업 매출액은 전년 대비 51.2% 성장한 것으로 나타났다.조사 결과, 지난해 3백억 원 이상의 연 매출을 기록한 기업은 총 371 곳으로 집계됐다. 지난해 SW기업들의 매출 총액은 112조 5천269억 원으로 전년 대비 29.4% 증가했다.업종별로 살펴보면, 지난해 '인터넷서비스' 분야 매출액 증가세가 두드러졌다. 이들 기업의 지난해 매출액은 33조 6천525억 원으로 전년 대비 73.3% 급증했다. 이는 코로나19로 인한 비대면 서비스 확산, 가상화폐 거래 증가 등이 주요 요인으로 분석됐다.IT서비스 분야 매출액도 꾸준히 증가 추세다. 이 분야 기업들의 지난해 매출액 총합계는 43조 1천220억 원으로 전년대비 20.7% 증가한 것으로 나타났다. 이는 대기업 계열 주요 IT서비스 기업의 매출 증대 등이 주요인이었다.한편, KOSA는 이번 천억클럽 조사에서 주업종 분류체계를 일부 변경했다. '인력자원공급' 기업 대부분이 시스템 통합 및 유지관리 사업을 함께 운영하는 상황을 고려해 'IT서비스'로 통합하고, '패키지SW'는 소프트웨어진흥법 등 일반적으로 통용되는 '상용SW'로 명칭을 바꿨다.또 협회는 별도 조사를 통해 연 매출 300억 원 이상의 SW유통 기업 수를 25개로, 총 매출 합계는 2조 1천816억원으로 집계됐다고 발표했다.그동안 유통으로 인한 매출과 기술 기반의 SW개발로 발생한 매출을 구분하기 위해 조사 대상에서 제외했지만, 최근 기술 및 서비스 변화에 따라 조사를 시작하고 향후 변화추이를 관찰하겠다고 협회 측은 설명했다.글로벌 게임 플랫폼 스팀에 얼리 억세스 출시된 '데이브 더 다이버'. [사진=민트로켓]◆민트로켓 '데이브 더 다이버' 출시…넥슨의 다양성 실험넥슨의 서브 게임 브랜드 '민트로켓'가 선보인 첫 게임이 출시됐다. 획일화된 장르에서 벗어나 다양성을 추구하고 있는 넥슨의 게임 전략이 가시적인 성과로 이어질지 주목되고 있다.27일 게임업계에 따르면 넥슨(대표 이정헌)은 이날 민트로켓이 개발한 '데이브 더 다이버'를 글로벌 게임 플랫폼 스팀에 얼리 억세스 출시한다. 올해 5월초 민트로켓을 론칭한지 5개월여만에 첫 결과물을 내놓는 셈이다.데이브 더 다이버는 생태와 지형이 변하는 신비한 블루홀을 배경으로 한 하이브리드 해양 어드벤처 게임이다. 주인공 '데이브'가 2D 픽셀과 3D가 어우러진 그래픽으로 표현된 바다를 탐사하며 해양 생물을 포획하는 어드벤처 요소와 초밥집을 운영하는 '타이쿤' 요소가 결합됐다. 거대 오징어 보스 등의 몬스터를 여러 무기 조합과 전략을 구사해 잡는 미션도 수행할 수 있다.민트로켓은 기존 개발 문법에서 벗어나 게임의 재미에 집중해 색다른 게임을 개발하는 취지로 론칭한 서브 브랜드다. 데이브 더 다이버와 같이 그간 시도하지 않았던 장르의 게임과 새로운 IP를 선보이는 게 목표다. 폐허가 된 근미래 지구를 배경으로 한 팀 대전 액션 게임 '프로젝트TB'도 현재 개발 중이다. 타이틀 별 인원은 최대 30명이 넘지 않는 수준으로 구성돼 있다는 게 회사 측 설명이다.김대훤 넥슨 신규개발본부 총괄부사장은 지난 5월 민트로켓 론칭 당시 "오롯이 재미에 집중해 색다른 시도를 해 나가는 서브 브랜드"라며 "첫 타이틀인 데이브 더 다이버를 시작으로 다양한 게임들을 선보이겠다"고 언급하기도 했다.다양성에 초점을 맞춘 넥슨의 실험은 비단 민트로켓에만 국한돼 있지 않다. 슈팅 장르에 장비 수집 등 RPG 요소를 접목한 루트슈터 신작 '퍼스트 디센던트', 백병전 PvP라는 이색 콘셉트를 내세운 '워헤이븐' 등의 자체 개발작으로 차별화를 시도했다. MMORPG에 주로 편중된 경쟁사 라인업과 대조를 이루는 대목이다. 이들 게임에 대한 평가도 나쁘지 않다. 특히 퍼스트 디센던트는 게임스컴, 도쿄게임쇼와 같은 해외 전시회에 출품돼 완성도와 게임성 측면에서 호평받기도 했다.문화체육관광위원회 국정감사 이상헌 더불어민주당 의원 [사진=박예진 기자]◆이상헌 의원 "게임위 비위 의혹 국민감사청구…연대서명 필요"이상헌 의원(더불어민주당)이 게임물관리위원회의 등급분류 시스템 구축사업 비리 의혹과 관련해 감사원에 국민감사청구를 하기 위한 연대서명을 추진한다.이상헌 의원은 27일 페이스북에서 "(게임물관리위원회의 '자체등급분류 게임물 통합 사후관리 시스템 구축 사업') 문제를 제기했으니, 이제 해결 방안을 제시할 차례"라면서 "감사원 감사를 통해 내부징계가 필요한 사람에겐 내부징계를, 법적인 처벌이 필요한 심각한 수준의 비위는 검찰 이첩으로 진행하는 것이 좋겠다고 판단했다"고 밝혔다.이 의원에 따르면 감사원 감사청구는 크게 국회를 통한 것과 국민이 직접 하는 방식으로 나뉜다. 의원실 입장에선 상임위원회를 통해 접수하는 것이 간편하나 감사청구 발송까지 상당한 시간이 소요되고 정치적인 이유들로 인해 청구안이 폐기될 수도 있다. 국민의 직접 청구를 위해서는 18세 이상의 국민 300명 이상의 수기 연명이 필요하다.이 의원은 "이에 게임물관리위원회의 문제 해결을 바라는 국민들의 의사를 직접 모아 감사청구를 진행하고자 한다"면서 "이번주 토요일 오후 1시부터 오후 5시까지 국회 1번 정문에서 서명을 모으겠다"고 말했다.이상헌 의원실은 지하철 9호선 국회의사당역 1번 출구 옆 횡단보도 건너 '게임물관리위원회 비위 의혹 규명을 위한 감사원 국민감사청구 연대서명' 배너와 서명대, 담당인원을 배치할 예정이다.앞서 이 의원은 게임위가 2017년 '자체등급분류 게임물 통합 사후관리 시스템'을 구축하기로 하고 총 예산 38억8천만원을 들여 2년 뒤 납품 받은 전산망 시스템이 정상 작동하지 않았으나, 개발 업체로부터 아무런 문제 제기를 하지 않았다는 점을 들어 비위 의혹을 제기한 바 있다.가맹택시 '카카오 T 블루' [사진=카카오모빌리티]◆"택시가 안잡혀요"… 카카오모빌리티, 11월 초 '일반 부스터 호출'카카오모빌리티가 수도권 심야시간대 택시 대란 후속 조치 일환으로 다음 달부터 '일반 부스터 호출' 기능을 선보인다.카카오모빌리티는 최근 "국토교통부에서 심야시간 택시 이용 불편 완화를 위해 심야 탄력 호출료를 확대하는 '심야 택시난 완화 대책'을 발표했고 이에 따른 서비스 변경 사항이 오는 11월 3일부터 적용된다"고 공지했다.이에 따라 '카카오 T 택시'에는 '일반 부스터 호출' 옵션이 추가로 생길 예정이다. 호출료(이용료)는 0~4천원이다. 이를 이용할 시 기사에게 목적지가 표시되지 않는다. '목적지 미표시'는 국토교통부가 발표한 대책에 따른 것이다. 카카오 T를 통해 일반택시를 부를 때 호출료가 붙지 않는 '일반 호출'은 지금과 같이 그대로 운영한다.카카오모빌리티가 곧 새로 선보일 기능은 이전에 종료한 '스마트호출'과 사실상 유사하다. '스마트호출'은 출퇴근 피크타임과 같이 택시 수요·공급 상황에 따라 탄력 요금제를 적용한 것이었다. 추가 비용을 내더라도 빠르게 택시를 잡아타고자 하는 수요를 공략하겠단 구상이었다.기존에 '스마트호출' 호출료는 주간 1천원, 심야(오전 0~4시) 2천원이 일괄 적용됐었다. 그러다가 지난해 8월 적용 요금을 최대 5천원까지로 설정했는데 요금이 높게 책정됐고 전체 택시요금이 인상되는 효과를 불러올 것이란 우려가 확산하며 논란이 됐다. 이후 요금 적용 구간을 최대 2천원으로 낮췄지만 논란이 이어지면서 서비스를 종료했다.하지만 올해 들어 '사회적 거리두기' 조치 해제 후 심야 시간에 귀가를 하는 경우가 많아지며 택시 가동률을 높일 유인책에 대한 필요성이 대두됐다. 그동안 승객 감소로 매출에 타격을 입은 기사가 업계를 이탈하는 등 갑작스럽게 늘어난 수요를 따라가지 못하는 공급 부족이 '택시 대란' 현상의 원인으로 꼽혔다.이밖에 가맹택시 '카카오 T 블루' 호출료도 기존 0~3천원에서 0~5천원으로 운영된다. '일반 부스터 호출'과 '카카오 T 블루' 호출료는 오후 10시부터 다음날 새벽 3시에 한해 서울과 수도권(경기·인천)에서 적용될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>“민심 회복 발판될까”…카카오뱅크, 개인사업자뱅킹 출시</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002057844?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 기업 금융 첫발통장·카드·대출  망라한 개인사업자 서비스 출시이로써 인터넷은행 모두 개인사업자대출 취급인터넷은행, 400조원 규모 시장서 영향력 커질까[헤럴드경제=김광우 기자] 카카오뱅크가 개인사업자 뱅킹을 출시하며 기업 금융에 첫발을 내디뎠다. 새로운 서비스가 ‘카카오 먹통’ 사태와 주가 하락 등으로 ‘암흑기’를 맞은 카카오뱅크에 전환점이 될 수 있을지 관심이 주목된다..카카오뱅크는 다음달 1일부터 통장·카드·대출 등 상품을 포함한 개인사업자 뱅킹 서비스를 출시한다고 27일 밝혔다. 이로써 소매 금융의 영역에 머물러있던 카카오뱅크는 기업 금융으로 영역을 확장하게 됐다.통장 서비스에 대해서는 ‘편의성’을 높였다. 특히 개인사업자통장 개설 시 별도의 서류제출 없이 공공 마이데이터 등을 활용해 모바일에서 전 과정을 끝낼 수 있도록 했다. 또 사업자용 애플리케이션을 별도로 설치하지 않아도 카카오뱅크 앱에서 사업자뱅킹 서비스를 이용할 수 있는 것이 특징이다.개인사업자는 ▷이체 ▷자동화입출금기기(ATM) ▷사업 관련 증명서 발급 등 각종 수수료도 면제된다. 입금 요청 서비스를 통해 거래처 대금과 고객 정산 자금을 받을 수도 있다.카카오뱅크는 개인사업자 전용 체크카드와 제휴 신용카드도 출시한다. 우선 ‘개인사업자 체크카드’는 생활업종(음식점·주점·카페 등)에서 0.3%의 캐시백 혜택을 제공한다. 사업업종(통신·대형마트·주유 등)에서도 3.0%의 캐시백 혜택을 받을 수 있다. 전월 실적이 없더라도 최대 1만원까지 캐시백이 가능하며, 실적에 따라 최대 5만원까지 캐시백이 가능하다.삼성카드와 제휴한 ‘카카오뱅크 개인사업자 삼성카드’도 선보인다. 해당 상품은 국내 모든 가맹점에서 조건 없이 1%의 할인 혜택이 제공되며, 사업장 운영 경비와 관련한 가맹점(통신·렌탈·방역 등)의 경우 1.5%의 할인이 적용된다. 할인 한도가 없어 무제한으로 이용가능한 것이 특징이다. 사업 필수 경비와 관련된 가맹점(전기요금·주유 등)에 대해서도 5%의 할인이 적용되지만, 이는 이용 실적에 따라 최대 3만원까지 가능하다.대출 분야에서는 개인사업자 신용대출이 먼저 출시됐다. 대출 금액은 최대 1억원까지며 금리는 최저 5.491%(10월 26일 기준) 수준이다. 기간은 최소 1년부터 최대 10년까지 가능하며, 1년 단위로 연장이 가능하다. 중도상환해약금은 100% 면제된다. 카카오뱅크는 이번 신용대출 상품을 시작으로 향후 ▷보증부대출 ▷담보대출 등 상품도 단계적으로 출시할 예정이다.카카오뱅크는 개인사업자의 사업 역량을 평가할 수 있는 신용평가모형을 고도화할 계획도 밝혔다. 그간 활용되지 못했던 개인사업자의 사업장 운영 데이터의 활용성을 극대화한다는 것이다. 우선 카카오뱅크는 6개 기관, 4300여개의 변수 등 가명결합 데이터로 개인사업자 신용평가모형을 개발할 예정이다.한편 카카오뱅크의 개인사업자대출 출시로, 인터넷은행 모두가 기업 금융에 발을 디디게 됐다. 이에 400조원이 넘는 규모의 개인사업자대출 시장에서 인터넷은행의 영향력도 점차 커질 것이라는 전망이 나온다. 토스뱅크는 지난 2월 개인사업자대출을 출시했으며, 케이뱅크도 지난 5월과 9월에 연달아 개인사업자 대상 보증서담보대출과 신용대출 상품을 선보였다. 가장 먼저 대출 상품을 선보인 토스뱅크의 경우 지난 5일 기준 개인사업자대출 잔액이 1조원에 근접하는 등 성과를 보이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>은행권 5년간 전자금융사고 400회↑…복구에 한달 이상 걸리기도</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000378960?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>최근 카카오 먹통 사태로 전국적인 혼란이 발생한 가운데, 은행권에서도 지난 5년 반 동안 전자금융사고가 빈번히 발생한 것으로 나타났다.19일 금융감독원이 국회 양정숙 의원에게 제출한 자료에 따르면, 2017년부터 올해 7월까지 국내 시중은행, 특수은행, 인터넷 은행 등 총 13개 은행에서 발생한 전자금융사고는 총 421회에 달했다.이 중 시중은행에서 발생한 전자금융사고는 247회로, 전체의 58.6%를 차지했다.인터넷뱅크는 105회, 특수은행은 69회였다.시중은행 중에서는 우리은행의 전자금융사고가 72회로 최다였고, 신한은행(44회), SC제일은행(43회), 하나은행(34회), KB국민은행(31회) 등이 뒤를 이었다.인터넷 은행에서는 카카오뱅크가 52회로 전자금융사고가 가장 많았고, 케이뱅크(37회), 토스(16회) 순이었다.특수은행은 산업은행의 전자금융사고가 32회로 전체의 46.3%를 차지했고, NH농협은행은 15건이었다.전체 전자금융사고 421회 중 복구되기까지 걸린 시간이 24시간 이상이 28회나 됐다. 이 중 20회가 시중은행에서 발생했으며 개별 은행으로는 우리은행이 12회로 전체의 60%를 차지했다.이 가운데 10일 이상 지속된 전자금융사고는 6회나 됐다.우리은행이 2회, 국민은행과 하나은행, 수협은행, 카카오뱅크가 각각 1회였다.우리은행은 2018년 정보 유출 사고로 인한 '인터넷뱅킹 대량 부정 접속 발생' 사고의 경우 복구에만 33일이 걸려 최장 시간을 기록했다.하나은행도 2017년 프로그램 오류로 '금리 감면 누락 발생' 사고가 생기면서 복구에 27일이나 소요됐고, 지난 6월에는 수협은행에서 프로그램 오류로 '지급이자 과소 계산' 사고가 발생해 복구에 12일이 소요되는 등 그동안 은행권의 전자금융사고는 적지 않은 금융 소비자의 불편을 야기했다.양정숙 의원은 "은행이 멈추면 우리나라 경제시스템이 셧다운 된다. 은행 사고가 매년 이어지고 원상 복구에 최장 한 달 넘게 걸리는 동안 국민 불편은 이루 말할 수 없을 것"이라며 "금융당국은 확실한 재발방지 대책을 수립해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"카카오株, 단기 주가타격 불가피…이용자 이탈은 제한적"</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005342745?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>삼성증권 보고서카카오 서비스 일시 중단에 4분기 매출 1~2%대↓대외 환경 악화에 이익 성장 둔화, 보수적 접근 필요[이데일리 이은정 기자] 데이터센터 화재로 카카오(035720) 서비스가 일시적으로 중단되면서 4분기 매출이 최대 1~2% 감소할 가능성이 있다는 분석이 나왔다. 영구적 이용자 이동 가능성은 제한적이지만, 간밤 미국 나스닥 지수 급락에 이번 카카오 서비스 사태는 단기적으로 급락세가 불가피하다는 전망이다. 대외 시장 환경 악화 속 이익 성장 둔화로 당분간 보수적인 접근이 필요하다는 조언이 따른다. 삼성증권은 17일 카카오톡이 임대해 사용하는 SKC&amp;C 판교 데이터센터에서 지난 토요일 오후 화재가 발생하며 카카오톡, 카카오T, 카카오페이지, 카카오페이등 카카오의 대부분 서비스들의 사용이 중단된 점을 짚었다. 화재가 진압됨에 따라 16일 새벽부터 카카오톡 수발신 기능이 재개되었지만, 카카오T, 페이, 페이지 등 카카오톡 로그인을 사용하는 서비스들은 16일까지도 기능이 중단됐다. 이는 카카오 관계사의 데이터는 5개 데이터센터에 분산돼 처리되지만, 카카오 로그인 기능을 SK C&amp;C 판교 센터에서 처리하기 때문이다.이번 서비스 중단의 매출 영향은 크게 △매출 미발생과 △사용자 보상으로 나타날 것이라고 관측했다. 송수신 중단은 10시간 정도였으나, 16일까지 비즈보드 광고 판매가 중단됐고, 모빌리티와 선물하기, 페이지 등도 1~2일 분량의 매출이 발생되지 못했다. 오 연구원은 “정액제로 판매되는 웹툰이나 이모티콘, 멜론 등은 사용자들에게 무료 사용권 등 보상을 제공할 것으로 예상된다”며 “4분기 매출이 최대 1~2% 감소하는 효과가 나타날 수 있는데, 이번 화재 관리의 책임이 SK C&amp;C에 있었던 만큼 피해액의 보상 가능성은 남아있다”고 했다.다만 영구적 이용자 이동 가능성은 제한적이라고 봤다. 오 연구원은 “중요한 이슈는 이번 사태가 영구적 이용자 이탈로 이어지느냐 여부로 주말 동안 메시지 송수신 불가로 텔레그램, 토스, 우티 등 카카오의 대체 서비스로의 일시적이 이용자 이탈이 나타났다”며 “그러나 카카오 서비스들의 대체 불가능한장점이 여전히 존재하는 만큼 서비스 정상화 시 이용자의 구조적 이탈은 제한적일 전망”이라고 했다.단기적으로 카카오엔 보수적 접근이 필요하다고 봤다. 전일 나스닥 시장의 급락(-3.1%)에 카카오톡 중지 사태로 카카오 그룹주의 주가는 단기적으로 큰 폭의 하락이 불가피할 전망이기 때문이다. 현재 주가는 12개월 예상 주가매출비율(PSR) 기준으로는 2.8배로 지난 10년간 밴드 하단보다 낮은 수준이다. 오 연구원은 “그러나 카카오 주가수익비율(PER) 기준으로는 39.4배로, 지난 10년 P/E 밴드 하단이 30배 수준이었음을 고려하면 시장상 악화 시 추가적인 하락 가능성이 남아있다”며 “대외 시장 환경이 악화되고 있고, 이익 성장 역시 둔화되는 있는 만큼 보수적인 접근이 필요하다고 판단된다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[TF비즈토크&lt;상&gt;] '고개 숙인' 카카오, 말보다 행동 보여야</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000179731?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>"초심 돌아가겠다' 홍은택 단독체제 전환 카카오, 해법 찾을까카카오 남궁훈(왼쪽)·홍은택 각자대표가 지난 19일 오전 경기도 성남시 판교 카카오 아지트에서 열린 '데이터센터 화재로 인한 장애' 관련 대국민 기자회견에서 고개 숙여 사과를 하고 있다. /이동률 기자경제는 먹고사는 일과 관련된 분야입니다. 한 나라의 경제가 발전하면 국민의 삶의 질이 높아지는 것도 이런 이유에서이지요. [TF비즈토크]는 갈수록 중요성이 커지고 있는 경제 분야를 취재하는 기자들이 모여 한 주간 흥미로운 취재 뒷이야기들을 생생하게 전달하기 위해 만든 코너입니다. 우리 경제 이면에서 벌어지고 있는 다양한 사건들을 들여다보기 위해 현장을 누비고 있는 &lt;더팩트&gt; 성강현·최승진·장병문·서재근·황원영·이성락·김태환·윤정원·문수연·정소양·박경현·이중삼·최문정·최지혜·이선영 기자가 나섰습니다. 지난 한 주 동안 미처 기사에 담지 못한 경제계 취재 뒷이야기를 지금 시작합니다. &lt;편집자 주&gt; 지난 한 주는 '국민 메신저'로 자리매김한 카카오톡의 전례 없는 '먹통 사태'에 말 그대로 전국이 멈춰서버리면서 시작이 됐는데요. 누적 가입자 수 1억 명을 넘어선 메신저 서비스 중단이 미친 파장은 꽤 광범위했고, 그에 따른 피해도 상당했는데요. 여기에 카카오의 미숙한 대응이 사태를 더욱 키웠습니다. 한발 늦게 부랴부랴 대국민 사과 카드를 꺼내 들었지만, 이전부터 켜켜이 쌓인 각종 논란으로 시끄러운 카카오가 잃어버린 신뢰를 회복할 수 있을지는 미지수네요.카카오 사태 여파는 금융업계까지 번졌는데요. 카카오 금융계열사 카카오뱅크의 일부 서비스에 오류가 나면서 케이뱅크, 토스뱅크 등 경쟁사들이 예상에 없는 분주한 한 주를 보냈다는 후문입니다.가구업계에서는 '침대는 가구가 아닙니다. 과학입니다'는 광고 가피로 유명한 에이스침대가 연구개발(R&amp;D)비의 무려 18배에 이르는 비용을 광고에 쏟아부은 것으로 알려지면서 도마 위에 올랐는데요. 이쯤 되면 '침대는 광고입니다'는 말이 더 자연스럽지 않을까요.◆ 창사 이래 최대 위기 카카오, 신뢰 회복 가능할까?-지난 15일 SK C&amp;C 판교 데이터센터 화재로 카카오의 주요 서비스가 먹통이 됐습니다. 자세히 설명해주시죠.-소방당국에 따르면 이날 오후 3시 19분경 SK C&amp;C 판교 데이터센터에서 화재가 났습니다. 해당 데이터센터는 네이버, 카카오, SK계열사 등이 입주해 사용하고 있어 화재로 이들 기업들의 서비스에서 오류가 발생했습니다. 특히 카카오는 SK C&amp;C 판교 데이터센터에 총 3만2000대의 서버를 맡겨 보관하고 있었는데 카카오톡, 카카오맵, 카카오버스, 카카오지하철, 카카오페이지, 다음카페, 다음뉴스, 카카오T 등 카카오와 계열사의 서비스 전반에서 문제가 발생했습니다.-피해 규모가 컸다고 해도 유독 카카오의 복구 작업이 늦었던 것 같습니다. 특히 핵심 서비스 중 하나인 카카오메일과 다음메일은 장애 발생 이후 5일이 지나서야 정상화된 이유는 무엇인가요?-카카오는 이번 사고 복구가 지연된 이유로 개발자들의 주요 작업과 운영도구 이중화 조치를 하지 않은 것을 들었습니다. 데이터 자체는 4개의 데이터센터에 나눠서 보관하고 있지만, 이에 접근할 작업 도구가 없었다는 설명이었습다. 이 때문에 백업 데이터에 바로 접근하지 못했으며 데이터센터 화재가 진압되고, 전력 공급이 재개된 다음에야 겨우 복구 작업이 가능했다고 설명했습니다. 카카오는 사고 대비가 미숙했다는 것을 인정하고, 대비책을 마련하겠다고 약속했습니다.카카오는 2개월 내 이번 '먹통 사태'와 같은 사고를 막을 수 있는 환경을 구축하겠다는 계획이다. /더팩트 DB-홍은택 카카오 대표 겸 공동체얼라인먼트센터(CAC) 센터장은 지난 19일 경기 분당구 카카오판교아지트에서 열린 기자회견에서 "(개발자) 도구의 이중화는 판교 데이터센터 운영이 정상화되는 대로 시작할 예정이며, 2개월 안에 이번과 유사한 사고는 막을 수 있는 환경을 구축하겠다"고 말했습니다. 홍은택 대표는 "앞으로 카카오는 자체 데이터센터를 비롯한 인프라 투자를 크게 확대하고, 이번과 같이 데이터센터 한 곳이 완전히 멈추더라도 원활하게 서비스를 제공할 수 있는 인프라를 구축하겠다"고 강조했습니다.-이번 '카카오 먹통' 사태 탓에 카카오에 실망한 이용자들도 많은 것 같습니다. 카카오는 이를 타개하기 위해 어떤 대책을 세우고 있나요?카카오 역시 이번 사태를 매우 심각하게 받아들이고 있습니다. 남궁훈·홍은택 카카오 각자대표는 지난 19일 기자회견에서 대국민 사과를 발표했습니다. 그동안 카카오를 이끌어온 남궁 대표는 이번 사태에 책임을 지는 차원에서 사퇴 후 비상대책위원회 재난대책 소위원회를 맡기로 했습니다.남궁 대표는 "그 어느 때보다 참담한 심정과 막중한 책임을 통감하며 카카오의 쇄신과 변화에 대한 의지를 가지고자 대표 이사직을 내려놓는다"면서 "사임 이후에도 재발 방지를 위해서 전력을 다하는 쪽으로 방향을 잡을 것이며, 사임의 원인인 이 같은 사고들이 다시 발생하지 않도록 역량을 쏟겠다"고 약속했습니다.-카카오는 우선 데이터센터 운영 주체인 SK C&amp;C간 책임공방은 미뤄두고, 이용자, 파트너, 이해관계자 등이 입은 피해 보상에 나설 계획입니다. 특히 무료 이용자가 입은 피해에 대해서도 보상을 검토할 예정입니다. 카카오는 지난 19일 별도의 피해 신고 채널을 열었습니다. 이후 신고 내용을 바탕으로 보상 대상과 범위 등에 대한 논의를 진행할 예정입니다.그럼에도 일각에서는 카카오의 보상 대상 선정과 실질적 피해 보상액 책정에 현실적인 어려움이 있을 것이라는 전망이 나오고 있습니다. 현재 카카오모빌리티, 카카오엔터테인먼트 등 유료 서비스 위주로 보상안이 제시되고 있는 만큼, 앞으로 카카오의 대처에 시선이 쏠립니다.☞&lt;하&gt;편에서 계속발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>투자 혹한기에도 '250억 뭉칫돈' 몰린 고피자, 세계 진출 속도낸다</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004808452?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1인 피자 브랜드 고피자가 250억원 규모의 시리즈C 투자를 유치했다고 21일 밝혔다. 고피자의 누적 투자유치금액은 450억원으로 투자 후 기업가치는 1500억원을 인정받았다. 이번 투자에는 미래에셋증권, GS벤처스, CJ인베스트먼트, 엔코어벤처스 등 대기업과 해외에 출자자(LP)를 둔 신규 주주들을 비롯해 캡스톤파트너스, DS자산운용, 빅베이슨캐피탈 등 기존 주주들 다수가 참여했다. 고피자 관계자는 "투자 혹한기라 불리는 시기임에도 대형 투자유치를 성공한 비결은 국내외의 고른 성장과 차별화된 기술력·사업모델의 빠른 성장세가 주효했다"고 분석했다. 현재 고피자는 인도, 싱가포르, 홍콩에 이어 최근 인도네시아에 진출하며 해외 진출 3년 만에 총 5개국에 160여개 매장을 오픈했다. CJ CGV와 같은 대기업과의 협업을 통해 신규 사업모델도 적극 개발하고 있다. 이번 투자를 기반으로 해외 공략에 본격적으로 속도를 내고 자체 개발한 푸드테크 기술의 상용화도 앞당길 계획이다. 인도와 싱가포르 시장에서만 내년 100호점 돌파를 예상하고 있다. 임재원 고피자 대표는 "이번 투자유치를 통해 빠르고 유기적인 성장을 가속화하고 글로벌 사업의 성공을 이뤄내는 국가대표 브랜드로서 자리매김 하겠다"고 강조했다. 허준녕 GS벤처스 대표는 "고피자는 탄탄한 푸드테크 기술력을 바탕으로 소비자가 원하는 제품을 만들며 해외로 적극 확장하고 있는 글로벌 B2C 브랜드"라며 "고피자가 국내외에서 GS그룹과 다각도로 협업할 수 있을 것으로 기대해 투자하게 됐다"고 했다.투자를 리드한 엔코어벤처스는 한국, 미국, 동남아 스타트업에 투자하는 신기술사업금융회사다. 토스(비바리퍼블리카)에 투자한 바 있다. 박주남 엔코어벤처스 대표는 "고피자의 역량과 비전, 인도와 동남아에서의 높은 성장 가능성이 이번 투자의 배경"이라고 했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>카카오 말고도…금융권도 올해 전산장애 159건 발생</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013522984?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>케이뱅크·NH투자증권·교보생명·삼성카드 업권별 전산장애 최다4년간 피해 추정액 346억원…키움증권, 56억원 가장 많아윤창현 "인뱅서 더 많은 오류…세분화된 보상 규정 마련해야"은행장들 만난 금감원장(서울=연합뉴스) 신준희 기자 = 이복현 금융감독원장이 20일 오전 중구 은행회관에서 열린 은행장들과의 간담회에서 발언을 하고 있다. 2022.6.20 hama@yna.co.kr    (서울=연합뉴스) 심재훈 이지헌 오주현 기자 = 최근 카카오톡 서비스 중단으로 사회적 혼란이 발생한 가운데 금융권에서 올해에만 159건의 전산 장애가 발생해 금융당국의 대책 마련이 시급한 것으로 23일 나타났다.    금융감독원이 국민의힘 윤창현 의원실에 제출한 국정감사 자료에 따르면 금융권에서 올해 들어 8월까지 전산 장애는 은행이 60건, 증권사가 56건, 보험사가 25건, 저축은행이 10건, 카드사가 8건 등 모두 159건이었다.    문제는 금융권의 전산 장애가 매년 늘고 있다는 점이다.    금융권의 전산 장애는 2019년 196건, 2020년 198건, 지난해 228건으로 지속해서 늘어왔다.    2019년부터 올해 8월까지 최근 4년간 전산 장애는 은행이 275건으로 가장 많았고 증권사(246건), 보험사(137건), 저축은행(66건), 카드사(57건) 등 순이었다.    이 기간에 은행 중에서는 케이뱅크의 전산 장애가 34건으로 가장 많았고 신한은행(32건), 카카오뱅크(27건), 산업은행(25건), SC제일은행(23건), 토스뱅크(17건), 하나은행(16건), KB국민은행(15건), 수협은행·우리은행(14건)이 뒤를 이었다.    인터넷 은행인 케이뱅크는 전산 장애가 2019년과 2020년에 각각 7건, 지난해 14건, 올해 들어 8월까지 6건이 발생하는 등 최근 4년간 문제가 끊이지 않았다.    케이뱅크는 지난해 10월에 제휴 관계인 가상자산거래소 업비트에서 신규 코인을 상장하면서 접속자가 몰리는 바람에 트래픽이 평소의 8배 가까이 늘어나 케이뱅크 앱 접속이 45분간 장애를 빚은 바 있다.     저축은행에서는 최근 4년간 신한저축은행과 OSB저축은행의 전산 장애가 각각 10건으로 가장 많았고 보험사는 교보생명(18건), 증권사는 NH투자증권(22건), 카드사는 삼성카드(12건)가 각각 최다로 집계됐다.금융업권별 전산장애 현황[윤창현 의원실 제공, 금융감독원 제출 자료]    최근 4년간 전산장애로 인한 금융권의 피해 추정액은 346억4천137만원에 달했다.    이 기간 금융권에서는 키움증권의 전산 장애 피해 추정액이 56억1천557만원으로 가장 많았다.    키움증권은 2020년 3월 주가 급락 당시 주문 수요가 급격히 몰리면서 모바일트레이딩시스템(MTS) 거래가 중단되는 장애를 겪은 바 있다.     은행의 경우 경남은행이 24억6천만원, 보험사는 하나손해보험이 1억6천469만원, 카드사는 비씨카드가 24억3천117만원으로 전산 장애로 인한 피해 추정액이 최다였다.    앞서 금융권은 지난 2013년 3월 북한의 사이버 공격으로 주요 은행의 전산망이 마비된 바 있으며 2014년 1월 신용카드사들의 고객 정보가 대거 유출돼 사회적 충격을 준 바 있다.    금융당국은 금융권별로 분산된 전산 보안 컨트롤타워를 금융보안원으로 통합하고, 금융사의 망 분리를 의무화하는 등 내부 통제를 강화하고 있지만 매년 전산 장애는 줄어들지 않아 근본적인 대책이 되지 못한다는 지적이 나오고 있다.    윤창현 의원은 "비대면 거래만 가능한 인터넷전문은행에는 시중은행보다 더 높은 수준의 전산 실력이 요구되지만 실제로는 더 많은 오류가 발생하고 있는 것으로 확인됐다"고 지적했다.    윤 의원은 "오류발생 원인과 장애 지속시간에 따라 세분된 피해보상 규정을 마련하고 근본적으로는 안정적인 시스템 운용을 위한 투자를 늘려야 할 것"이라고 말했다.    president21@yna.co.kr pan@yna.co.kr viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>월마트 CTO "암호화폐, 미래 리테일 거래의 중요 부분 차지" 등</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005031686?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>출처 : 코인니스 월마트 CTO "암호화폐, 미래 리테일 거래의 중요 부분 차지"월마트 CTO 수레쉬 쿠마(Suresh Kumar)가 야후파이낸스 올마켓서밋에 참석, 암호화폐가 미래에 리테일 거래의 중요한 부분을 차지하게 될 것이라고 말했다. 그는 "암호화폐가 월마트의 온라인 매장 및 가상세계에서 중요한 거래 방식이 될 것이라고 생각한다. 그러한 미래를 상상할 수 있다. 암호화폐는 계속해 중요한 역할을 담당하게 될 것"이라며 "고객이 우리를 필요로 하는 곳에 있기를 원한다. 이를 위해 월마트는 블록체인 기술을 암호화폐에 적용하고 소매업체가 판매 제품과 출처를 추적할 수 있도록 지원하는 시스템을 개발했다. 공급자 및 운송사 간 물류거래 자동화를 위한 수단으로 블록체인을 활용하는 방안도 모색하고 있다"고 전했다.WSJ "美 FTC, 마스터카드·비자 '보안 토큰' 경쟁 제한 여부 조사"월스트리트저널이 복수의 소식통을 인용해 연방거래위원회(FTC)가 마스터카드와 비자의 '보안 토큰(security token)'이 온라인 결제 분야에서 직불카드 라우팅 경쟁을 저해하는지 여부를 조사하고 있다고 보도했다. FTC는 지난 몇 년 동안 비자와 마스터카드가 다른 직불카드 네트워크를 통한 결제를 가맹점에서 차단하는지 여부를 조사해왔는데, 최근 몇 달 동안은 보안 토큰에서 비롯된 라우팅 문제로 조사 범위를 확대한 것으로 알려졌다. 대부분의 경우 애플페이 같은 디지털 지갑에 카드를 연동할 때 16자리 카드 번호는 무작위 숫자인 보안 토큰으로 대체되고, 토큰은 카드사 네트워크(대개 비자 또는 마스터카드)에서 제공된다. 토큰은 카드 소지자가 상품, 서비스를 구매할 때 결제 네트워크로 보내진다. 비자와 마스터카드는 최근 몇 년 동안 토큰이 사기 방지에 도움이 된다면서 광범위한 토큰화를 추진해왔다. FTC는 비자와 마스터카드가 다른 네트워크를 통해 온라인 결제가 이루어질 때 보내는 정보를 제한해 왔는지 여부를 조사 중이다.NFT 플랫폼 레어러블, 가격 비교 NFT 애그리게이터 출시더블록에 따르면 NFT 플랫폼 레어러블(Rarible)이 여러 마켓플레이스에서 리스트를 검색 및 가격 비교할 수 있도록 지원하는 NFT 애그리게이터를 공개했다. 애그리게이터는 사용자에게 가격, 트렌드 프로젝트, 최근 리스팅된 NFT 목록, 종료 예정인 NFT 경매 건, 등 정보를 제공한다. 사용자는 이를 통해 NFT를 검색 및 필터링할 수 있다.앱토스 블록체인 메인넷 출시코인데스크에 따르면 전 메타 직원들을 주축으로 개발되고 있는 레이어1 블록체인 앱토스(APT)가 메인넷을 출시했다. 다만 디파이에 필수로 여겨지는 월렛, NFT 토큰 기술 등은 아직 출시되지 않은 상태로 이를 모두 적용한 공식 메인넷 출시 일정은 아직 공개되지 않았다. 미디어는 "페이스북 스핀오프 네트워크 중 처음으로 앱토스가 수십억 달러의 가치를 테스트하는데 성공했다"고 평가했다.망고마켓, 1억 달러 규모 해킹 피해자 배상 계획 제안더블록에 따르면 취약점 공격에 노출돼 약 1억 달러 규모의 암호화폐를 도난당한 솔라나 기반 탈중앙화 레버리지 거래 플랫폼 망고마켓(MNGO)이 피해자에게 다양한 토큰을 이용한 배상을 제안했다. 망고마켓은 "배상 계획에 있어 중요하게 여기는 것 중 하나는 이용자가 익스플로잇 이전 보유 토큰과 받게될 토큰 간의 차이를 최소화 시키는 것"이라고 설명했다. 플랫폼은 ET 기준 10월 11일 오후 6시 19분 이전 잔액 스냅샷을 기준으로 배상을 진행할 계획이다. 손익(PNL)은 USDC로 변환된다. DAO는 72시간 동안 망고마켓의 해당 제안서에 대한 투표를 진행하게 된다. 앞서 디지털아트 딜러 아브라함 아이젠버그(Avraham Eisenberg)가 망고마켓 공격의 배후자임을 인정한다고 밝혔다.바이낸스, 11월 클라우드 마이닝 사업 시작 계획코인데스크에 따르면 암호화폐 거래소 바이낸스가 오는 11월 클라우드 마이닝 사업을 시작할 계획이라고 발표했다. 거래소 측은 17일(현지시간) 클라우드 마이닝 서비스가 11월 공식 출시될 예정이라며 "바이낸스 풀은 마이닝 풀로 운영될 뿐만 아니라 불확실한 시장 상황 속에서 건전한 산업을 구축하는데 기여한다는 책임감을 가질 것"이라고 전했다. 최근 바이낸스는 산하 마이닝 풀 바이낸스 풀이 BTC 채굴자 및 인프라 제공업체를 지원하기 위해 5억 달러 규모의 대출 프로젝트를 시작했다고 밝힌 바 있다.텍사스 당국, FTX·FTX 창업자 조사 진행... 미등록 증권판매 혐의미국 투자전문지 배런스(Barron's)에 따르면 텍사스 규제 기관이 FTX US, FTX 트레이딩 및 샘 뱅크먼 프리드(SBF) FTX 창업자에 대한 조사를 진행하고 있다. 텍사스주 증권위원회(TSSB)는 수익률 베어링(yield-bearing) 서비스를 통해 미등록 증권 상품을 제공한 것에 대해 조사하고 있다며, "거래소가 증권 상품의 등록 및 판매에 대한 주법을 위반했을 가능성이 있다"고 설명했다. FTX 측은 "TSSB와 이와 관련 협상 중"이라며 "우리의 비즈니스가 잠정적으로 가능한 범위 내에서 운영되고 있다고 생각한다. 우리는 텍사스와 계속해 협력하기를 바란다"고 전했다.프랑스 재무장관 "프랑스, 암호화폐 유럽 허브 바라...내년 암호화폐 과세안 검토"암호화폐 전문 미디어 코인데스크에 따르면, 브뤼노 르메르(Bruno Le Maire) 프랑스 재정경제부 장관이 17일 BFM TV와의 인터뷰에서 "우리는 유럽연합을 암호화폐 시장을 구조화하고 조직하는 세계 최고의 경제수역으로 만들고 싶다"며 "프랑스가 암호화폐 생태계의 유럽 허브로 거듭나길 바란다"고 말했다. 또 그는 "내년 암호화폐 과세안 제정을 재검토할 것"이라며 "단순히 주식 시장에 적용되는 규제안을 복붙(베껴쓰기)하진 않을 것"이라고 덧붙였다.블록스트림 CEO "프라이버시, BTC 존재의 이유...향후 5년 내 10배 오를 것"블록체인 기술 개발사 블록스트림(Blockstream)의 아담 백(Adam Back) 최고경영자(CEO)가 최근 코인텔레그래프와의 인터뷰 중 "비트코인이 존재하는 이유는 몇 가지가 있다. 그중 하나는 프라이버시에 도움이 되기 때문"이라고 말했다. 이와 관련 그는 "BTC 사용자는 익명으로 데이터를 주고 받을 수 있고, 아무도 당신이 그것을 받고 있다고 말할 수 없다. 그래서 비트코인은 프라이버시 보호에 도움이 된다"고 덧붙였다. 이어 그는 "기업에게도 비트코인은 좋은 대안이 될 수 있다. 만약 로컬 네트워크에 문제가 생기거나 라우터가 해킹을 당해도 위성을 통해 비트코인 블록체인에 연결할 수 있다면, 그들은 방해 없이 계속 비트코인을 거래하고 사용할 수 있다"고 설명했다. 또 그는 "보수적인 관점으로 봐도 비트코인은 향후 5년 내 10배 이상 오를 것"이라고 전망했다. 코인마켓캡 기준 BTC는 현재 2.23% 오른 19,566.33 달러에 거래되고 있다.리플, EVM 호환 XRPL 사이드체인 테스트 시작...내년 출시 목표암호화폐 전문 미디어 코인데스크에 따르면, 리플(XRP)이 리플 기반 퍼블릭체인 리플렛저(XRPL) 메인넷에 EVM 호환 사이드체인을 도입하기 위한 테스트를 진행 중이라고 밝혔다. 리플의 이번 테스트는 총 3단계를 거쳐 진행되며, 현재 XRLP 개발자들이 데브넷에서 첫 단계를 진행 중인 것으로 전해졌다. 이와 관련 데이비드 슈워츠 리플 최고기술책임자(CTO)는 "우리의 목표는 2023년 XRPL 메인넷에 EVM이 호환되는 사이드체인을 갖는 것"이라고 설명했다. EVM은 이더리움에서 스마트 컨트랙트를 실행하는 소프트웨어로 EVM 호환은 타 블록체인에서 이더리움 스마트 컨트랙트를 불러올 수 있다는 것을 의미한다. 코인마켓캡 기준 XRP는 현재 0.97% 내린 0.478 달러에 거래되고 있다.로이터 "바이낸스US, 사실상 바이낸스 자회사...규제 피하려 선 긋고 있다"로이터 통신이 17일 "바이낸스의 미국 지사로 알려진 바이낸스US는 사실상 바이낸스의 자회사"라며 "바이낸스는 미국 증권거래위원회(SEC)의 규제를 피하기 위해 고의적으로 바이낸스US와의 관계에 대해 선을 긋고 있다"고 지적했다. 이와 관련 로이터는 "2018년 바이낸스의 최고경영자(CEO)인 자오창펑(CZ)의 주도 하에 미국 지사인 바이낸스US가 탄생했고, 당시 그는 바이낸스US가 바이낸스와 완전히 독립된 기업이라고 강조했다. 하지만 2020년 규제 관련 자료, 회사 메신저, 전 팀원들과의 인터뷰 등에서 자오창펑이 해외에서 바이낸스US의 경영을 지휘했다는 정황이 드러났다. 한 고문은 바이낸스 경영진에게 보낸 메시지에서 바이낸스US를 '사실상 바이낸스의 자회사'라고 말하기도 했다. 올들어 바이낸스US는 규제 준수 작업에 혼란을 겪고 있다. 바이낸스US에서 근무했던 4 명의 전직원들은 자오창펑이 새로운 경영진을 고용한 뒤 미국 컴플라이언스 팀의 절반에 가까운 인원이 2022년 중반까지 퇴사했다고 제보했다. 그들은 새로 들어온 컴플라이언스 총괄이 사용자 등록을 너무 신속하게 처리해 자금 세탁 관련 자료를 마련할 시간이 부족했다고 퇴사의 이유를 설명했다. 미국 법무부는 적어도 1년 이상 바이낸스의 정책과 자금세탁 관련 조사를 진행해왔다. 이러한 규제기관들의 압박이 내부의 문제를 야기했을 수 있다. 바이낸스는 영국에서도 규제 리스크 혹은 당국의 조사를 피할 방법을 모색해왔다. 바이낸스의 리더인 자오창펑은 비밀 유지에 전념하고, 시장을 지배하기 위해 전력을 다하고 있다"고 설명했다. 또 로이터는 "바이낸스 출범 후 자오창펑은 중국에서 일하거나 공부한 내부 동료들에게 최고의 일자리를 줬다. 그 중엔 지금 바이낸스랩스의 수장인 허이도 있다. 4명의 제보자들은 자오창펑과 허이가 몇 년간 열애 중이었다고 말했다. 미국에서 아들을 출산했다고 말하기도 했다. 하지만 이러한 내용들은 비밀에 부쳐지고 있으며, 관련된 언론의 질문에 자오창펑은 답변을 거부하고 있다. 자오창펑은 이러한 비밀들을 통제하기 위해 직원들이 소셜 미디어에서 자신의 위치를 공개하거나, 바이낸스 로고가 박힌 옷을 입는 것을 막는 규정을 만들기도 했다. 또 메신저 서비스에 바이낸스 이메일 주소를 사용해 가입하지 말라는 지침을 내리기도 했다"고 부연했다.리서치 "독일, 세계 1위 親암호화폐 국가...미국 제쳤다"암호화폐 전문 미디어 코인텔레그래프에 따르면, 암호화폐 경제 분석 사이트 코인컵이 최근 발표한 보고서를 통해 "올 3분기 기준 암호화폐에 가장 친화적인 암호화폐 경제 생태계를 조성하고 있는 국가는 독일"이라고 진단했다. 전분기 기준 해당 보고서에서 암호화폐 산업에 가장 우호적인 국가로는 미국이 꼽혔지만, 이번 보고서에서 미국은 6계단 하락한 7위를 기록했다. 코인컵의 해당 랭킹은 암호화폐에 우호적인 전망, 명확한 과세 정책, 투명한 규제 및 업계와의 소통 등 요소를 기준으로 집계된다. 3분기 보고서에서 독일은 조세피난처는 아니지만, 1년 이상 장기 암호화폐 보유자에게 과세를 면제해주는 정책을 시행하고 있어 높은 점수를 받았다. 스위스가 독일에 이어 2위를 차지했으며, 호주, UAE, 싱가포르가 이어서 3, 4, 5위에 올랐다.업비트, 카카오 서비스 장애 관련 수수료 페이백 및 손실분 보전 신청 접수업비트가 방금 전 공식 사이트를 통해 지난 15일 카카오 데이터센터 화재로 인한 장애로 불편을 겪은 회원들을 대상으로 3일간 거래 수수료를 비트코인으로 페이백하고, 디지털 자산을 적시에 매도하지 못해 발생한 손실분에 대한 손실분 보전 신청을 접수한다고 공지했다. 신청 대상은 지난 15일 15시 20분부터 16일 11시 05분까지 카카오계정 로그인을 시도했지만 실패한 회원들로, 신청 기간은 공지 개시 시점(17일 19시 28분)부터 22일 00시까지다.[코인니스 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>예탁금 이용료율 0%대…증권사 '역머니무브' 자초</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005164537?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>55개 사 평균 0.32% 불과…KB증권 1.03%로 가장 높아이용료율, 기준금리 아닌 한국증권금융 수익률로 산정은행계좌로 자금 빠져나가[이미지출처=연합뉴스]기준금리가 3%를 돌파하면서 고금리 시대가 막을 열었지만, 투자자들이 맡긴 돈에 증권사들이 주는 이용료율은 여전히 0%대에 머무르는 것으로 나타났다. 시중은행이 잇따라 높은 이율을 내건 예금 상품을 출시하는 데 반해 예탁금 이용료율은 저리를 유지하면서 증권사 스스로 ‘역머니무브’를 자초하는 게 아니냐는 지적이 나온다.20일 금융투자협회 전자공시서비스에 따르면 이날 기준으로 국내 증권사들의 투자자예탁금 이용료율은 대부분 0%대인 것으로 나타났다. 금융투자협회에 예탁금 이용료율을 공시한 55개 증권사들의 평균 이용료율은 0.32%에 불과했다. 55개 증권사 중 단 4곳만이 1%대 이용료율을 제공했다. 국내 증권사 중에서는 KB증권이 1.03%의 이용료율로 가장 높은 수치를 나타냈다. 그 뒤를 토스증권(1%)과 미래에셋증권(0.75%), 신한투자증권(0.55%) 등이 이었다. 반면 대신증권, SK증권, 한화투자증권 등의 이용료율은 0.1%에 불과했다.증권사의 투자자예탁금 이용료는 시중은행의 예금 이자와 비슷한 개념이다. 증권사는 고객이 증권계좌에 맡긴 금액을 한국증권금융에 예치해 수익을 얻는다. 증권사가 이렇게 얻은 수익에서 인건비 등 비용을 제외한 뒤 고객에게 지급하는 것이 투자자예탁금 이용료다.증권사들의 예탁금 이용료율은 국내 시중은행의 정기예금이 최대 4%대의 이율을 제공하는 것에 크게 미치지 못한다. 은행연합회 소비자포털에 따르면 이날 기준으로 1금융권 시중은행 19곳의 12개월 만기 정기예금 상품 39개의 평균 기본이율은 3.45%에 달한다. 금리가 가장 높은 Sh수협은행의 ‘헤이(Hey)정기예금’은 4.80%의 기본 금리를 제공한다. 일부 인터넷 전문은행은 입출금이 자유로운 이른바 ‘파킹통장’ 계좌에도 2%대 금리를 제공한다. 은행 금리에 영향을 미치는 한국은행 기준금리는 현재 3%인데, 미국 연방준비제도(Fed)의 금리 인상 기조를 고려하면 추가 인상될 가능성이 크다는 전망이 나온다.이처럼 시중은행의 금리가 높아진 만큼 투자자들이 이율이 낮은 증권계좌에 예탁금을 두기보다는 은행계좌로 옮기는 역머니무브 현상이 나타나는 것으로 보인다. 역머니무브는 투자자금이 주식과 같은 위험자산에서 예금이나 채권 등 안전자산으로 움직이는 것을 뜻한다. 실제로 투자자들이 증권사에 맡기는 예탁금 규모는 꾸준히 감소하고 있다. 금융투자협회에 따르면 18일 기준 투자자예탁금은 49조695억원인데, 이는 올해 평균 예탁금인 59조1769억원보다 17%가량 감소한 수치다. 투자자예탁금은 올해 초 74조원 수준에서 정점을 찍은 뒤 우하향하는 추세를 나타낸다.증권업계는 예탁금 이용료율이 기준금리가 아닌 한국증권금융의 수익률을 기준으로 산정된다고 설명한다. 한국증권금융에 예탁금을 예치해 얻는 수익률을 기반으로 증권사가 제반 비용을 뺀 뒤 예탁금 이용료율을 결정한다는 것. 다만 이를 고려하더라도 일부 증권사들의 이용료율은 과도하게 낮다는 지적이 나온다. 이용료율 산정 기준이 되는 한국증권금융의 예탁금 운용 이익률(이자율)은 지난 9월 기준 2.446%다.결국 증권사들이 수익성을 이유로 예탁금 이용료율을 대폭 올리기는 어려워 보인다. 증권업계 한 관계자는 "증권사들은 하나의 수익원이 되는 예탁금 이용료를 쉽게 포기하지 못할 것"이라며 "예탁금 이용료율 인상은 결국 증권사 선택에 달렸다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.10.29.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>파킹통장 경쟁↑…인뱅서도 3% 눈앞</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005169070?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>케이뱅크 시중은행 최고 2.7% 금리 제공카뱅도 금리 인상…토뱅은 금액 제한 다시 풀어저축은행들은 4%대 제시하기도별다른 예치 기간 조건이 없어도 이자를 받을 수 있는 수시입출금식 파킹통장 금리 경쟁이 다시금 불 지펴지고 있다. 인터넷전문은행들도 3%를 넘보고 있으며 일부 저축은행은 4%까지 제공하는 경우도 있을 정도다.29일 업계에 따르면 케이뱅크는 지난 27일부터 파킹통장 상품 '플러스박스'의 금리를 연 2.7%로 0.2%포인트 올렸다. 최대한도 3억원 이내에서 하루만 맡겨도 연 2.7%의 금리가 적용돼 매월 넷째 주 토요일에 지급된다. 1000만원을 예치하면 세후 한 달 이자로 1만9000원을 받을 수 있다.카카오뱅크가 최근 파킹통장 금리를 올리자 바로 반격에 나서며 경쟁이 거세지는 모습이다. 앞서 카카오뱅크는 지난 19일 파킹통장 ‘세이프박스’의 금리를 0.4%포인트 인상해 연 2.6%로 책정했다. 최대한도는 1억원이다.파킹통장 인기를 불러일으켰지만 금리 경쟁에서 다소 뒤처졌던 토스뱅크도 속도를 내는 모양새다. 지난 6일 다른 은행의 파킹통장 격인 ‘토스뱅크통장’의 금리를 연 2.0%에서 연 2.3%로 올렸다. 지난 20일에는 2.3% 이자 지급 금액 한도(1억원)도 폐지했다. 앞서 토스뱅크는 지난해 10월 출범 당시 금액 제한 없이 연 2% 이자를 제공하며 파킹통장 열풍을 주도했지만 2개월 만에 금액 제한을 적용했다. 금융당국이 토스뱅크의 가계대출 총액을 5000억원으로 제한하면서 자금 조달에 차질이 생기자 비용 부담을 느꼈기 때문으로 풀이된다.저축은행들은 한술 더 떠 연 4% 금리를 제공하는 파킹통장을 내놓고 있다. 애큐온저축은행은 지난 25일 기존 파킹통장 상품의 금리를 연 4.0%로 인상했다. 제1·2금융권을 통틀어 파킹통장 중 업계 최고 수준이다. 그밖에 웰컴저축은행, 하나저축은행 등도 연 3.8% 이자를 제공하는 파킹통장을 내놓고 있다.파킹통장 경쟁은 당분간 지속될 것으로 보인다. 고금리 시대에 접어들면서 점차 파킹통장과 같은 저원가성 예금이 정기 예·적금 등의 고원가성 예금으로 이동하고 있기 때문이다. 저원가성예금이 이탈하면 대출뿐 아니라 각종 상품 운용 측면에서 부담이 커진다. 자금 조달 비용을 낮추기 위해서라도 정기 예·적금뿐만 아니라 파킹통장만의 강점을 내세우며 고객몰이에 나서야 하는 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>"'디지털' 강조하는데"…은행권 5년간 전자금융사고 400건 넘어</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004764139?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>국회 정무위원회 양정숙 의원실 분석은행권에서 지난 5년여 동안 전자금융사고가 빈번하게 발생한 것으로 나타났다. 전자금융사고의 유형은 프로그램 오류, 시스템·설비 장애, 외부 요인, 인적 재해, 정보기술(IT) 사고 등이다.19일 금융감독원이 국회 정무위원회 양정숙 의원(무소속)에게 제출한 자료에 따르면 2017년부터 올해 7월까지 국내 시중은행, 특수은행, 인터넷 은행 등 총 13개 은행에서 발생한 전자금융사고는 총 421회에 달했다.구체적으로 시중은행에서 발생한 전자금융사고는 247회로 전체의 58.6%를 차지했다. 우리은행에서 전자금융사고가 72회로 가장 많았다. 이어 △신한은행(44회) △SC제일은행(43회) △하나은행(34회) △국민은행(31회) △씨티은행(23회) 순이다.인터넷 은행에서는 카카오뱅크가 52회로 전자금융사고가 가장 많았고 케이뱅크(37회), 토스(16회)가 뒤를 이었고, 특수은행은 산업은행 전자금융사고가 32회로 전체의 46.3%를 차지했고 NH농협은행은 15건이었다.전체 전자금융사고 421회 중 복구되기까지 걸린 시간이 24시간 이내인 경우는 393회로 전체의 93.3%였다. 하지만 24시간 이상이 지난 전자금융사고도 28회나 됐다. 이 중 20회가 시중은행에서 발생했다.양정숙 의원은 "은행이 멈추면 우리나라 경제시스템이 셧다운된다"며 "은행의 전자금융사고가 이렇게 빈번히 발생하면 국민이 불안해 할 수밖에 없다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>금융보안원, 사이버침해 위협분석 대회 'FIESTA 2022' 시상</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003053769?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>금융보안원이 지난 24일 개최한 FIESTA 2022 참가팀에 대한 시상식을 개최했다.금융보안원은 금융권에 특화된 사이버 침해위협 분석 대응 역량 강화를 위해 개최한 'FIESTA 2022'에서 우수한 성적을 거둔 참가팀에 대해 지난 24일 시상했다고 25일 밝혔다.올해는 랜섬웨어, 공급망 공격, 지능형 지속 공격(APT), 악성 앱 분석 시나리오 문제와 침해대응 기본 문제로 구성해 다양한 침해사고 사례를 경험하고 위협분석 역량을 향상시킬 수 있는 문제가 출제됐다.이번 대회에는 총 195개팀(금융사 46팀, 대학(원) 122팀, 내부직원 27팀) 372명이 참여해 전년대비 참가인원이 27% 증가했다. 지난 9월 16일부터 26일까지 11일간 대회를 펼쳤다.대회 결과 금융회사 부문에서는 비바리퍼블리카(표상영 외 2명)가 최우수상, 카카오뱅크(김태욱 외 2명)가 우수상, 토스페이먼츠(박의성 외 1명)가 장려상을 수상했다.대학(원) 부문에서는 슈퍼겁쟁이들(김경원 외 2명)이 최우수상, 루나홀더모임(김동욱 외 2명)이 우수상, 민간인(진)(이현 외 2명)이 장려상을 각각 수상했다.김철웅 금융보안원장은 “금융권 정보보호 담당자들의 침해대응 역량 향상과 금융권 정보보호 인재 발굴·양성에도 지속 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>대출 비교 플랫폼 '토·카·핀(토스·카카오페이·핀다)' 삼파전으로 압축</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004913368?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>토·카·핀 올해 상반기, 대출금액 10조 육박토스, 월 1200만명 사용하는 슈퍼앱카카오페이, 전월세대출 상품 강화핀다, 저축은행 31개사 제휴해 업계 최다 수준 © News1 최수아 디자이너 /사진=뉴스1 [파이낸셜뉴스]10년 만에 도래한 기준금리 3% 시대에 이자 부담이 커지자 여러 대출 상품의 한도와 금리를 비교할 수 있는 대출 비교 플랫폼이 각광받고 있다. 이 가운데 3대 대출 비교 플랫폼이라 불리는 ‘토·카·핀(토스·카카오페이·핀다)’이 각축전을 벌이며 시장 점유율 굳히기에 나섰다.    16일 파이낸셜뉴스가 의뢰해 김한규 더불어민주당 의원실이 금융감독원으로부터 받은 자료에 따르면 지난 2020년 토·카·핀 3사의 금융상품 중개건수는 17만2842건에서 2021년 80만9687건까지 올라 1년 만에 368.46%나 증가했다. 올해는 상반기에만 벌써 71만2454건을 중개해 전년의 대출 건수를 크게 상회할 것으로 예상된다.   대출금액도 급격히 늘었다. 토스의 경우 2020년 1조7949억원에서 지난해는 5조2557억원까지 높아져 대출금액이 약 3배 증가했다. 카카오페이 역시 같은 기간 1조709억원에서 4조9535억원으로 크게 늘었다. 핀다의 약진도 돋보인다. 3854억원 수준에 불과했던 대출금액은 지난해 2조4599억원으로 무려 5배 넘게 성장했다. 올해 상반기까지 집계된 3사의 대출금액은 9조9951억원으로 10조원에 육박한다.   현재까지 금융감독원에 등록된 온라인 대출성 상품 판매대리·중개업자는 총 25개사다. 지난해까지 빅테크인 토스와 카카오페이가 업계 1위를 두고 경쟁을 벌이다 토스가 압도적인 앱 이용자 수를 바탕으로 격차를 벌렸다. 이후 상반기까지 중소 플랫폼들과 경쟁하던 핀다가 올라서며 삼파전 형태가 굳혀졌다.   대출 비교 플랫폼 관계자는 "지난해부터 가계대출 총량규제 등으로 고신용자들도 시중은행에서 대출이 나오지 않아 지방은행, 저축은행을 찾으면서 대출 비교 플랫폼의 수요가 늘었다”며 “최근 급격한 금리 상승기를 맞아 재유입 고객들이 비중이 높아지면서 기존에 인기가 있던 토·카·핀의 점유율 확장세가 두드러지고 있다"고 분석했다.   토·카·핀은 각 사만의 장점으로 고객을 공략하고 있다. 먼저 토스는 뱅크, 증권을 포함한 슈퍼앱을 통해 1200만명에 달하는 MAU(월간 이용자수)를 달성하며 가장 높은 시장 점유율을 보이고 있다. 현재 54개 금융사(△은행 11개 △저축은행 25개 △캐피탈 11개 △카드사 5개 △보험 사 2개)의 상품을 비교하고 있고 주택담보대출의 경우 7개사의 상품을 중개 중이다.   카카오페이는 57개 금융사(△은행 12개 △보험사 5개 △카드사 6개 △저축은행·캐피탈 32개 △P2P 2개)의 대출조건을 조회할 수 있다. 카카오페이는 올해 전월세대출 상품 라인업을 강화해 금융 플랫폼 최초 주택금융공사 보증의 일반 전월세대출 상품 중개 서비스도 제공 중이다. 전 금융업권에서 버팀목전세자금대출과 일반 전월세대출 상품 모두 한 번에 비교 가능한 서비스를 제공하는 곳은 카카오페이가 유일하다.   핀다는 앱 내 '대출조회'을 통해 62개 금융사(△은행 8개 △저축은행 31개 △캐피탈 12개 △카드사 5개사 △온투업 4개사 △생명사 2개)의 상품을 비교해준다. 핀다는 주로 신용대출, 전월세대출, 대환대출 등 가계대출 상품을 비교하고 있다. 지난 5월에는 업계 최초로 이용 고객이 대출 금리를 낮춰 더 좋은 대출로 갈아타도록 독려하는 '대출 환승 캠페인'을 선보이기도 했다.   토·카·핀의 삼파전 양상이 굳어지면서 소규모 대출 비교 플랫폼들은 경쟁력을 잃고 있다.   업계 관계자는 “소비자들은 인지도가 높은 업체들이 더 안전하다고 생각하는 경향이 커 토·카·핀과 같이 이미 시장을 선점한 업체들이 유리하다”며 “후발주자들이 인지도를 쌓아가기 위해서는 금융기관과의 제휴가 매우 중요한데 진입 장벽이 높아 색다른 강점을 지니기도 쉽지 않은 상황”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>"28개국 환경 프로젝트를 한눈에"…월드웨더네트워크 전시</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006397802?sid=103</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>아트선재센터·(투게더)(투게더) 11월20일까지'월드웨더네트워크'(World Weather Network)(아트선재센터 제공). ⓒ 뉴스1(서울=뉴스1) 김정한 기자 = 아트선재센터는 전시 '월'드웨더네트워크'(World Weather Network)를 11월20일까지 아트선재 프로젝트 스페이스와 (투게더)(투게더)에서 개최한다. 이번 전시는 28개국에서 진행 중인 월드웨더네트워크 프로젝트를 소개하고, 그중 아트앤젤, 포고아일랜드아츠, 이흐메(IHME)헬싱키, 현대미술디자인박물관(MCAD), 네온(NEON), 니콜레타피오루치재단, 낫씽겟츠오거나이즈드(NGO) &amp; 풀(POOL), 사하(SAHA), 테투히 등 9개 기관의 프로젝트 일부를 선보이는 자리다. 전시와 연계해 아트앤젤 제임스 링우드의 토크 프로그램 또한 마련된다. 세계 각지에서 협력과 협업을 통해 펼쳐지고 있는 월드웨더네트워크는 '우리'의 존재와 힘을 다시 또 새롭게 확인시켜줄 것이다.2021년 결성된 월드웨더네트워크는 기후변화와 생물다양성의 위기 문제에 관심 있는 예술단체들의 연합이다. 영국 아트앤젤의 제임스 링우드가 초청한 28개국의 예술기관들이 월드웨더네트워크의 공동 주체가 돼 각자의 프로젝트를 기획하고 진행하는 동시에 온라인 플랫폼을 만들어 서로의 프로젝트를 공유한다. 이 플랫폼은 세계 각지에서 예술가들과 그들의 협업자들이 들려주는 날씨와 환경에 대한 소식 그리고 작업 이야기가 꾸준히 업데이트되어 촘촘하고 광범위한 글로벌 연결망을 형성하는 역할을 담담하고 있다.아트선재 프로젝트 스페이스 전시에 참여 작가는 니나 바넷 &amp; 제러미 볼렌, 엘마스 데니즈, 스타브로스 가스파라토스, 케이티 패터슨, 제이콥 쿠즈크 스틴슨 &amp; 조엘 쿠엔넨, 나탈리아 추칼라, 데릭 투말라, 브루주 야그지오글루 &amp; 울겐 세메르지, 프로드로모스 재니스 등이다.(투게더)(투게더) 전시에 참여한 작가는 브래스 오브 웨더 콜렉티브, 론 불 &amp; 스테판 마크스 &amp; 헤더 퍼디 &amp; 자닌 랜더슨 &amp; 레이첼 시어러, 리암 길릭 등이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.10.21.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>“믿어달라”는 카뱅…봉사·신상품으로 이미지 쇄신 총력</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003310589?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>먹통 사태 후 벽화 그리기 봉사활동이달 말 개인사업자 뱅킹 출시 관건카카오뱅크 판교 본사 내부  - 카카오뱅크 판교 본사 내부 모습. 카카오뱅크 제공카카오톡 먹통 사태로 인한 여파가 이어지는 가운데, 카카오뱅크가 떨어진 신뢰를 되찾기 위해 총력을 기울이고 있다.카카오뱅크는 21일 임직원들이 전날 경기 성남시 은행중학교에서 벽화 그리기 봉사활동을 진행했다고 밝혔다. 이번 봉사활동에는 카카오뱅크 임직원 30명을 포함해 지역 봉사자 100여명, 은행중학교 학생 및 학부모 70명 등 총 200여명의 자원봉사자가 참가했다. 카카오뱅크는 쓰레기를 주우면서 달리기를 하는 ‘플로깅’, 노트북 기부 등의 사회공헌 활동을 해온 바 있다.이번 사회공헌 활동은 지난 15일 SK C&amp;C 판교 데이터센터 화재가 발생하면서 카카오뱅크 일부 서비스 장애가 발생한 직후 시행됐다.카카오뱅크가 신뢰도 추락을 딛고 ESG(환경·사회·지배구조) 측면을 강화하려는 것으로 풀이된다. 화재 당시에는 온라인 커뮤니티를 중심으로 “카카오뱅크를 믿을 수 없다. 예치한 돈을 빼겠다”는 이용자 불만이 이어졌다. 한 은행권 관계자는 “카카오뱅크로부터 수신고 이동이 관측된다”라고 말했다.카카오뱅크는 화재 전후 수신 잔액을 공개하지 않았지만 “뚜렷한 수신 이탈은 관측되지 않는다. 카카오뱅크의 금융 시스템을 믿고 이용해도 된다”는 입장이다. 그러나 카카오뱅크가 지난 18일 예적금 금리를 최대 1.2% 포인트 인상하면서 금융권에서는 “고객이 대규모로 예금을 인출하는 뱅크런에 대응하기 위한 것이 아니냐”는 관측이 제기된다.카카오뱅크는 예적금 금리 인상 역시 화재가 아닌 한국은행의 기준금리 인상에 따른 것이라고 해명했다.카카오뱅크가 빠르면 이달 말 출시하는 개인사업자 뱅킹이 분위기 반전을 시킬 수 있을지 주목된다. 카카오뱅크는 토스뱅크, 케이뱅크에 이어 인터넷전문은행 중 세 번째로 기업대출에 진출하는 셈이다.윤호영 카카오뱅크 대표는 “카카오뱅크는 지금까지의 리테일 뱅킹에서 한 걸음 더 나아가 800만명의 개인사업자 고객을 대상으로 한 기업 뱅킹까지 서비스를 확장하게 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>리치앤코, 최적의 상품 골라주는 새 보험추천 시스템 공개</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004764783?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>서울 반포동 세빛섬 컨벤션센터에서 '굿리치쇼' 개최단 4번의 클릭 만으로 가장 가성비 좋은 상품을 자동 추천"토스 등 빅테크 진출 위협에 맞서 GA 설계사 지원할 것"리치앤코가 지난 19일 서울 반포동 세빛섬 컨벤션센터에서 연 '굿리치쇼'의 모습. 리치앤코 제공국내 대형 법인보험대리점(GA)인 리치앤코가 단 4번의 클릭만으로 고객에게 가장 적합한 상품을 추천해주는 새로운 보험 추천 시스템을 선보였다. 리치앤코는 지난 19일 서울 반포동 세빛섬 플로팅 아일랜드 컨벤션센터에서 '굿리치쇼'를 열고 이 같은 보험 추천 시스템을 공개했다고 20일 밝혔다. 이 시스템은 단 4번의 클릭만으로 같은 조건에서 보험료가 가장 저렴하면서도 보험금은 가장 많이 받을 수 있는 상품을 자동 추천해주는 게 특징이다.  또 설계사들이 고객 상담 현장에서 보장 분석과 상품 추천 및 설계까지 한번에 처리할 수 있도록 했다. 아울러 향후 원수사(보험사)와의 계약 체결을 돕기 위해 챗봇 형태의 심사 가이드도 제공한다. 리치앤코 관계자는 "이번 시스템 오픈으로 온·오프라인을 아우르는 리치앤코 통합 플랫폼이 완성됐다"며 "토스 등 온라인 플랫폼의 보험 시장 진출에 맞서 GA 설계사를 지원하는 최적의 솔루션이 될 것"이라고 말했다.  리치앤코는 내달부터 대구 부산 광주 등 지방에서도 굿리치쇼 행사를 열어 시스템 설명회 및 우수 설계사 리크루팅에 나설 계획이다. 한승표 리치앤코 대표는 "리치앤코가 제공하는 차별화된 보험 가치와 혜택을 많은 소비자들이 경험하고 공감할 수 있도록 다양한 소통을 펼쳐나갈 것"이라며 "향후 서비스 사용성과 편의성 강화를 위한 지속적인 업데이트를 통해 GA 진영을 리딩하는 기업으로서의 지위를 공고히 해 나갈 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토뱅 1억 이상 예치금 연 2.3% 이자 쳐준다</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004916098?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>토스뱅크가 1억원을 초과한 예치금에 연 2.3%의 금리를 21일부터 적용한다.   앞서 토스뱅크는 올해부터 수시입출금통장 '토스뱅크통장'에 한도 제한을 걸어 1억원 미만 금액에 연 2%, 이를 초과하는 금액에 0.1%의 금리를 제공하겠다고 밝힌 바 있다. 그러다가 최근 통장 금리를 기존 2%에서 2.3%로 0.3%p 올린 데 이어 이번에는 한도 제한도 풀겠다고 나선 것이다.   토스뱅크 고객이라면 누구나 조건 없이 돈을 맡기고 불릴 수 있게 됐다.   여기에 '지금 이자받기'를 이용하면 일복리 효과도 누릴 수 있다.   지금 이자받기는 210만명이 한 번 이상, 173만명(82.3%)이 상시 이용하는 것으로 나타났다.   서비스 출시 후 7개월간 고객들이 받은 이자는 총 1417억원에 달한다.  seung@fnnews.com 이승연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"불 나고 전쟁 터져도 끄떡없다"…은행들, 카카오 사태에 비상점검</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004763588?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>"카카오 화재 사태, 신뢰의 중요성 깨닫는 계기"은행들 데이터센터 이원화…매년 재해 복구 훈련도사진=연합뉴스카카오톡 먹통 사태로 카카오뱅크의 신뢰도가 추락하면서 시중은행들의 데이터 관리 및 대응계획에도 관심이 쏠리고 있다. 은행들은 금융당국의 지시에 따라 내부적으로 비상대응계획 전반을 재점검하고 있다.18일 금융권에 따르면 시중은행들은 화재 발생시 비상대응계획 등을 재점검하고 있다. 카카오톡 먹통 사태를 초래한 데이터센터 화재 발생을 계기로 금융감독원이 전체 금융회사에 대해 전산센터 화재에 대비한 비상대응계획을 확인해야 한다고 지시하면서다.한 은행권 관계자는 "일각에서 카카오뱅크에 대해 제기되는 뱅크런까지 진행되진 않겠지만 금융서비스업에 신뢰가 얼마나 중요한 지 다시 깨닫게 된 계기가 됐다"며 "은행들 내부에서도 비상대응계획 점검에 대한 필요성을 느꼈을 것"이라고 말했다.금감원, 금융회사에 비상대응계획 지시국내 시중은행들은 금융당국이 지침으로 전한 비즈니스 컨틴전시 플랜(Business Contigency Plan)에 따라 데이터 센터를 이원화하고 있다. 만일의 사태에 대비해 주전산센터와 비상시를 대비한 보조센터를 분리해 운영하는 것이다. 주전산 데이터센터에 저장하는 정보를 실시간으로 보조센터에 백업해 놓기 때문에 사고가 발생해도 정상적인 금융 거래가 가능하다.지침에 따라 주전산센터와 보조센터의 거리는 30km를 넘지 않으며, 모든 은행들은 매년 1회 이상 재해 복구 훈련을 진행 중이다.KB국민은행의 경우 주전산센터를 김포에, 보조센터를 서울 여의도에 운영하고 있다. 전산 관련 이슈가 발생하면 '금융전산 재난 현장 조치 행동메뉴얼'을 바탕으로 액션플랜을 수립하고 컨틴전시플랜(비상대책)을 가동해 상황 종료시까지 운영한다.사진=뉴스1우리은행은 서울 상암에 주 전산센터가 있고 분당 정자동에 백업센터를 두고 있다. 재해 대비 훈련을 매년 1회 이상 실시하는 데, 올해는 상반기와 하반기 각 1회씩 실시 및 준비하고 있다는 입장이다.하나은행은 인천 청라에 주전산센터가 위치해 있고 경기도 분당에 보조센터를 두고 있다. 신한은행의 주전산센터는 용인 죽전에 있고 보조센터는 경기도 일산에 있다. 주 전산센터에서 문제가 발생하면 곧바로 네트워크를 전환해 보조센터가 주 전산센터 역할을 수행할 수 있도록 이중 구축이 되어있다는 설명이다. 이에 대고객 서비스는 재해 선언후 3시간 이내 전환 운영이 가능하다고 밝혔다.  화재·전쟁 대비할 시스템 있지만…금융권 전산장애 아쉬워은행들은 화재 뿐 아니라 전쟁 등 위기 상황이 발생해도 금융 거래가 최대한 정상적으로 작동할 수 있도록 하는 매뉴얼도 구비하고 있다. 한 시중은행은 전쟁이 발생할 경우 즉시 비상대책반이 구성되며, 영업점·대고객 업무·시설물 관리·직원 및 직원 가족 등에 대한 단계별 대응을 진행한다. 현금 및 중요 증서, 채권, 전산 등 분야별 대응 절차도 별도로 마련돼 있다.또다른 은행은 부서별로 비상대책 관련 요원들이 1~2명씩 지정돼 있어 전시 상황에 각자가 본부의 부서 역할을 맡는다. 전쟁이 발생할 경우 미리 정해놓은 경기도 모 처의 장소로 이동한 뒤, 금융거래가 정상적으로 작동할 수 있도록 전산 등 시스템을 비상 가동한다.시중은행 관계자는 "센터가 폭발하지 않고 전시 기간에 업무 수행이 가능하다면 최대한 금융거래가 정상 작동될 수 있도록 은행별로 비상계획이 짜여 있다"고 설명했다.이처럼 은행들이 비상상황에 대비한 신속한 대응방침을 갖추고 있지만 금융권 전산장애가 매년 반복되고 증가하는 부분은 아쉬운 대목이다. 금융감독원이 국회 정무위원회 소속 국민의힘 강민국 의원에게 제출한 국정감사 자료에 따르면, 2019년부터 올해 8월까지 금융업권에서 발생한 전산장애는 총 781건에 달했다. 피해 추정액은 확인 가능한 금액만 346억원 이상이었다.전산장애 발생 규모를 연도별로 살펴보면 2019년 196건, 2020년 198건, 지난해 228건으로 매년 증가했다. 올해는 8월까지 159건이 발생했다. 전산장애가 가장 많은 금융업권은 은행으로 총 275건이 발생해 35.2% 비중을 차지했다.회사별로 보면 케이뱅크가 34건으로 가장 많았고, 신한은행은 32건이었다. 이번 화재로 일부 서비스 장애가 나타났던 카카오뱅크는 지난 8월까지 27건으로 집계됐다. 이어 ▲토스뱅크 17건 ▲하나은행 16건 ▲국민은행 15건 ▲수협은행 14건 ▲우리은행 14건 ▲씨티은행 12건 ▲농협은행 6건 등의 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.10.25.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>"공공 마이데이터 활용 더 편하게"…제공지원센터 개소</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011496071?sid=102</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>기사내용 요약한국지능정보사회진흥원 내에 설치행안부, 15개 기관·기업과 업무협약[세종=뉴시스] 공공 마이데이터 서비스에 따른 변화. (자료= 뉴시스 DB)[세종=뉴시스] 변해정 기자 = 공공 마이데이터 서비스를 보다 체계적으로 관리·운영할 본인정보 제공지원센터가 문을 연다. 행정안전부는 25일 한국지능정보사회진흥원(NIA)에서 센터 개소식 및 서비스 제공 업무협약식을 개최했다고 밝혔다. 공공 마이데이터란 정보 주체인 국민이 동의하면 행정·공공기관에 흩어져있는 본인의 정보를 원하는 곳에 추천·제공하도록 요구할 수 있는 서비스다. 지난해 2월 개시한 후 현재까지 52종에 대한 서비스를 제공하고 있으며, 현재 활용 건수는 2억건이 넘는다. 이 센터는 공공 마이데이터 전문기관으로 지정된 진흥원 내 설치했다. 공공 마이데이터 시스템 고도화 및 서비스 표준화·기술지원을 담당하게 된다. 본인 행정정보 보유 및 이용기관 간 업무 지원도 한다.  협약에는 강원도, 육군 인사사령부, 한국전력공사, 공무원연금공단, 국민연금공단, 서민금융진흥원, 한국노인인력개발원, 한국무역보험공사, 한국주택금융공사, 한국신용정보원, 토스뱅크, IBK기업은행, KB국민카드, 나이스평가정보, 롯데캐피탈 등 15개 기관 및 민간기업이 참여했다.  이들은 협약에 따라 공공 마이데이터 서비스 활성화에 필요한 정보를 교류·제공하게 된다. 이에 따라 장교·군무원 모집, 전기요금 복지할인 신청, 주택금융상품 자격요건 검증 등 업무 시 종이 구비서류를 떼기 위해 관공서를 방문하지 않고도 공공 마이데이터 서비스를 통해 편리하게 발급·제출할 수 있게 된다.  한창섭 행안부 차관은 "센터 개소로 국내를 대표하는 정보화 전문기관의 경험과 기술력을 공공 마이데이터 서비스에 적용할 수 있게 됐다"며 "정부는 공공 마이데이터 서비스를 더욱 확대해 디지털플랫폼정부 구현에 이바지할 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>가입자 1천500만 넘은 국민비서 '구삐'…카톡 알림 비중이 25%(종합)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013510274?sid=100</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>"민관협력 기반 국정과제 '디지털플랫폼정부' 서버도 나눠야" '구삐 이용자' 1천500만명(CG)[연합뉴스TV 제공]    (서울=연합뉴스) 계승현 기자 = 민간 앱으로 국민에게 행정서비스를 알리는 국민비서 '구삐' 가입자가 1천500만명을 돌파한 가운데 카카오톡 먹통 사태를 계기로 민간에 의존하는 공공 서비스의 안전성에 관한 우려가 커지고 있다.     17일 행정안전부에 따르면 지난 13일 가입자 1천500만명을 돌파해 국민 4명 중 1명 이상이 사용하게 된 구삐 알림의 25%가량은 카카오톡으로 전달되고 있다.     구삐는 건강검진일, 운전면허 갱신기간, 교통과태료 등 생활정보 27종을 제공하며, 코로나19 상황 속에서 백신 접종 예약, 재택치료 알림도 제공하고 있다.    구삐는 카카오톡 외에도 금융앱 등 국민이 자주 사용하는 모바일 앱 7종을 활용하고 있지만, 지난해 3월 구삐 서비스 출시와 함께 활용된 카톡, 네이버앱, 토스앱의 이용량이 많은 편이다.     이에 따라 필수 행정서비스가 국민 편의성을 이유로 민간 영역에 과하게 의존하고 있다는 지적이 나온다. 국민비서 '구삐' 홈페이지 카톡 오류 공지문[국민비서 홈페이지 캡처. 재판매 및 DB 금지]    행안부 관계자는 "(이용자 1명당) 복수 이용채널로 알림을 보낼 수 있어 주채널에 장애가 생기면 문자 메시지로 알려주고, 부채널로도 알리게 돼 있어 문제가 없다"고 말했다.    그러나 이번 사태처럼 두 곳 이상의 기업들이 함께 사용하는 데이터 센터에 문제가 생길 경우 이용에 불편을 겪을 수밖에 없다.     이 관계자는 "카톡 오류 상황이 종료된 후에 추가적으로 보완할 사항을 검토할 예정"이라고 말했다.     구삐는 정부 서비스가 초연결 플랫폼을 타고 물 흐르듯 흐르도록 한다는 취지의 윤석열 정부의 핵심 국정과제 '디지털플랫폼정부'의 초기 모습이기도 하다.     디지털플랫폼정부는 정부의 모든 데이터를 하나로 연결해 일하는 방식을 바꾸는 것을 목표로 한다. 예컨대 정부 사이트별로 개별 제공되던 서비스를 한 곳에서 통합 제공하고 국민에게 맞춤형 서비스를 선제적으로 제공하며, 공공데이터는 민간에 개방한다.     정부가 독점 공급자로서 일방적으로 디지털 서비스를 제공하는 현재 방식에서 벗어나 민간과 협업하는 국정운영 모델로, 민간 플랫폼으로 정부의 정보를 제공한다는 점에서 구삐의 업그레이드 형태가 될 전망이다.     정부는 이 과정에서 카카오와 네이버 등 민간 기업의 인프라와 서비스를 적극적으로 활용하겠다는 방침을 밝히기도 했다.     정부가 자체 플랫폼을 구축해 서비스를 제공할지, 구삐처럼 민간 앱에 업혀 갈지에 관한 구체적인 로드맵은 내년 3월 발표될 예정이다.     염흥열 순천향대 정보보호학과 교수는 "디지털플랫폼정부의 형태는 구체적으로 정해지지 않았지만, 확실한 건 자연재해와 해킹 등에 대비해 비즈니스 연속성을 확보하려면 서버를 이원화, 다원화해야 한다"고 강조했다.     key@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>땅스부대찌개 '통오징어 부대찌개'출시 할인 프로모션 진행</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003927611?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>땅스부대찌개가 '통오징어 부대찌개' 신메뉴 출시를 기념해 가격 할인 프로모션을 진행한다고 17일 밝혔다. 통오징어 부대찌개는 프리미엄 햄에 쫄깃한 오징어가 더해진 것이 특징으로 매장과 배달앱에서 동시에 판매된다. 테이크아웃은 1만4900원, 배달은 1만8900원에 구매가 가능하다. 할인 프로모션은 티몬과 토스 만보기, 배달의민족 등에서 진행된다. 먼저, 티몬에서는 통오징어 부대찌개를 2000원 할인 된 가격인 12900원에 구매할 수 있는 제품교환권을 판매한다. 토스에서는 통오징어 부대찌개 2000원 할인쿠폰을 제공한다. 프로모션 기간은 티몬의 경우 17일부터 11월 1일까지이며 할인쿠폰 유효기간은 12월 1일까지다. 토스 만보기 프로모션 기간은 17일부터 23일까지다. 할인쿠폰 소진 시 조기 마감되며, 할인쿠폰 유효기간은 11월 30일까지다. 배달의민족과 배민원에서도 통오징어 부대지개 2000원 할인 이벤트가 진행된다. 기간은 11월 17일부터 11월 30일까지다. 배달과 포장 모두 중복 할인 가능하다. 땅스부대찌개 관계자는 "신메뉴 출시를 통해 소비자에게 친숙하면서도 다채롭게 즐길 수 있는 프로모션을 기획하게 됐다"고 말했다. 땅스부대찌개는 2016년에 오픈, 올해 창립 창립 6주년을 맞은 부대찌개 전문 프랜차이즈이다. 부대찌개 밀키트를 구성해 판매하고 있으며, 560여개 가맹점을 운영중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>중기중앙회 60돌…반세기 훌쩍 넘는 발자취는 한국경제 도약사였다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003457979?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[The Insight] 1962년 태동, 정부-中企 가교 역할… 설립 10년 만에 ‘경제 4단체’ 격상단체수의계약제‧공제사업기금 시행…1987년 서울 여의도 중기회관 건립중기대책반 구성해 외환위기 극복…경제 양극화 해소 ‘경제 3不’ 제시팬데믹 속 중기 대출만기 연장 끌어내…지난해 ‘노란우산’ 재적가입 150만 돌파 한국이 제1차 경제개발 5개년 계획을 추진하면서 본격적인 산업화의 시동을 건 1962년, 그해 5월 14일 중소기업협동조합중앙회(현 중소기업중앙회)가 설립됐다. 중기중앙회는 창립 60주년을 맞은 올해까지 한국경제의 주춧돌인 중소기업계를 대표해왔다. 때로는 정부 시책에 발맞추고, 때로는 중소기업계 의견을 정부에 전달하는 등 정부와 중소기업의 다리 역할을 충실히 해오고 있다. 60년을 이어온 중기중앙회의 역사는 땀과 열정을 바탕으로 숱한 역경을 헤쳐 온 한국경제의 역사와 상통한다. 1950년대  말까지만 해도 1만2000개에 불과했던 국내 중소기업은 경제부흥에 따라 1980년 48만 개로 늘어났고, 현재는 약 728만 개로 증가했다. 총 근로자 수는 1754만 명에 이른다. 국내 중소기업은 전체 사업체 수의 99.9%, 고용의 81.3%를 차지한다. 한국경제의 근간이자 일자리 창출의 원천인 셈이다. 오랜 시간 공들여 이뤄진 중소기업계의 치열한 노력과 정부의 중소기업 육성 정책이 맺은 결실이다. 중기중앙회 태동…경제 4단체로 우뚝 1961년 중소기업협동조합법이 제정되면서 중소기업협동조합중앙회 창립의 법적 발판이 마련됐다. 동시에 정부의 중소기업 보호·육성 정책이 적극 추진되면서 중기중앙회와 중소기업의 성장을 위한 사회적 디딤돌이 마련됐다. 때마침 정부의 경제개발 5개년 계획이 시행됨에 따라 1962년 중기중앙회가 창립됐다. 같은 해 제1호 중소기업협동조합인 ‘한국자동차공업협동조합’이 만들어졌다. 중기중앙회는 설립 초기부터 정부 부처에 중소기업청 설립이 필요하다는 정책 건의를 이어나가기 시작했다. 정부의 중소기업 기본 실태조사도 이때 처음 시작됐다.중기중앙회는 1963년 제1회 기술지도강습회, 1964년 제1회 전국중소기업자대회를 개최하며 활동을 넓혀갔다. 1964년에는 처음으로 중소기업주간 설정 등 중소기업 자립을 위한 대외적인 위상 강화에도 적극 나섰다.1965년은 ‘중소기업기본법’이 제정되면서 본격적인 사업들이 시작되기 시작한 때다. 중소기업 우선업종 지정과 단체수의계약 품목 지정도 당시 처음 시작됐다. 중소기업계의 권익을 대변하는 ‘중소기업뉴스’의 모태인 일간 중소기업통보도 창간됐다.1970년대는 중기중앙회가 경제 4단체로 자리매김하기 위해 노력한 시기다. 1960년대까지만 해도 대한상공회의소, 한국무역협회, 전국경제인연합회 등 ‘경제 3단체’라는 용어만 있었고, 이들이 국가 행사 등에서 경제단체 대표 역할을 했다. 중기중앙회의 외연이 넓어지면서 출범 10년을 맞은 1972년 들어 중기중앙회를 포함한 ‘경제 4단체’라는 용어가 사용되기 시작했고, 중기중앙회 위상이 한 단계 높아질 수 있는 계기가 됐다. 1970년대는 1973년 제1차 석유파동, 1978년 2차 석유파동이 연이어 터지면서 한국경제의 큰 위기를 헤쳐 나가기 위해 경제 4단체의 협력이 어느 때보다 중요한 시기였다. 중기중앙회는 석유 파동에 따른 대기업과 중소기업의 납품가격 문제가 불거지자 1978년 처음으로 물가연동제 도입 필요성을 정부에 적극 건의했다. 이 밖에 중기중앙회는 1970년대에 경북에 첫 지방조직을 설치했고, 중소기업 수출입 대행사업 개시, 제4차 중소기업 국제회의(ISBC) 개최 등을 이뤄냈다.중기중앙회의 설립 후 1970년대까지 정부는 계획적인 경제개발을 추진하면서 산업과 수출을 진흥시키고자 했다. 덕분에 당시 산업의 주축을 이루고 있던 중소기업의 집중적인 육성을 위해 관련법 제정 등 각종 정책이 집행될 수 있었고, 중기중앙회는 중소기업의 성장을 가속화하는 사업을 활발히 펼쳐나갈 수 있었다.한국 경제 초고속 성장에 기여  1980년대 중기중앙회는 한국 경제가 초고속 성장을 이룬 ‘한강의 기적’의 중요한 역할을 담당했다. 이 시기는 신자유주의 경제 흐름에 의해 수입·수출 개방과 탈규제 기조가 세계적으로 급속도로 확산되던 때다. 한국의 경제정책도 개방화, 규제 완화, 민영화가 다방면으로 이뤄지기 시작했다.  중기중앙회는 빠르게 변화하는 경제 상황에서 중소기업 보호와 육성 정책을 정부에 건의해 차근차근 제도화를 이뤄 나갔다. 1981년 단체수의계약제도를 법제화한 것이 대표적인 사례다. 1984년에는 중소기업 공제기금사업이 시작되면서 직접적인 금융지원 역할을 하게 됐다. 1987년에는 서울 영등포구 여의도에 현재의 중소기업회관을 건립했다.1990년대에 들어서도 한국 경제의 꾸준한 성장세 덕분에 1992년에는 중기중앙회의 조합회원사가 500개를 돌파했다. 1993년에는 중소기업연구원을 개원해 체계적인 중소기업정책 연구를 시작했다. 1994년에는 외국인 산업기술연수제도 시행, 1996년 중소기업 종합전시장 개장 등을 추진했다. 한국은 1995년 국민소득 1만 달러를 달성했고, 세계무역기구(WTO) 가입에 이어 1996년 경제협력개발기구(OECD) 회원국으로 가입했다.  혁신 中企와 세계로 진출 그러던 1997년 11월 IMF(국제통화기금) 외환위기가 터졌다. 온 국민이 힘든 시기를 겪은 가운데서도 가장 큰 피해를 입은 것은 중소기업계였다. 수많은 중소기업이 도산하고 전국 주요 공단의 30%가 공장 가동을 멈추는 위기를 맞았다. 중기중앙회는 신속히 ‘중소기업대책반’을 구성해 중소기업 피해 대책을 강구해 나갔다. 1998년 중소기업 창업지원센터를 개소하고, 1999년에는 제조물책임(PL) 공제사업도 추진했다. 2000년대는 중기중앙회가 대내외적으로 큰 변화를 겪은 시기다. 산업화 시대에서 본격적인 디지털 시대로 경제 패러다임이 바뀌면서 2001년부터 중소기업 정보화 사업을 추진하기 시작했다. 2003년에는 중소기업 IT(정보기술)체험관을 열었다. 2000년대 중소기업 정책은 ‘혁신과 글로벌화’, ‘상생과 동반성장’으로 요약될 수 있다. 과거 자본집약형 산업에서 새로운 기술·지식집약형 산업으로 패러다임이 전환되자 정부는 2000년 10월 ‘중소기업 기술경쟁력 제고 5개년 계획’을 발표했다. 이후 정부는 글로벌 중소기업 육성과 R&amp;D(연구개발) 투자의 효율성을 추진하는 내용을 담은 중소기업 기술혁신 계획을 발표했다.중소기업 기술 혁신과 글로벌화 촉진 정책에 발맞춰 중기중앙회는 2003년 무역투자지원센터를 설치해 세계 시장 진출과 마케팅 활동을 적극 지원했다. 기술 개발 촉진과 인력구조 고도화, 금융, 판로 개척, 지식서비스 등을 망라하는 각종 지원 정책도 펼쳤다. 또 중기중앙회는 대기업과 중소기업의 상생 문제를 적극적으로 제기하며 관련 법령의 제도화를 이끌어냈다. 그 결과 2006년 3월 ‘대·중소기업 상생협력 촉진에 관한 법률’(상생법)이 제정됐고, 수차례에 걸쳐 ‘하도급거래 공정화에 관한 법률’이 개정됐다. 또 전통시장과 소상공인의 사업 영역을 보호하기 위한 기업형슈퍼마켓(SSM) 규제 강화 법안이 2010년 11월 개정됐다. 이 밖에도 중기중앙회는 이 시기에 △중기중앙회로 명칭 변경 △일반 중소기업단체 가입 등 회원 구조 개방 △노란우산공제 출범 △제1회 중소기업 리더스포럼 개최 △납품단가 현실화 궐기대회 등을 진행했다. 2011년 중기중앙회는 한국 경제의 양극화를 해소하고 상생 성장을 위해 ‘경제민주화’의 필요성을 역설했다. 이를 위해 시장의 불균형, 거래의 불공정, 제도의 불합리를 지적하는 이른바 ‘경제 3불(不)’을 제시해 대기업과 중소기업 양극화 해결의 필요성을 강조했다. 이후 2021년에는 10년간 달라진 경제 상황을 반영한 ‘신(新)경제 3불(不)’을 제안하며 정부의 제도 정비를 주장했다. 경제민주화로 중소기업 시대를 열다 중기중앙회는 2013년 중소기업 규제 문제를 정책 이슈화하는 ‘손톱 밑 가시’라는 용어를 사용하기 시작했는데, 당시 박근혜 대통령이 이 용어를 인용해 대책을 지시할 만큼 중소기업 정책 방향으로 주목받았다. 이 밖에 중기중앙회는 △홈앤쇼핑 오픈(2012년) △가업(家業)승계 제도 개선(2014년) △제1차 중소기업협동조합활성화 3개년 계획 발표(2016년) △개성공단 재가동 국제여론 조성(美하원 방문·2019년 ) △협동조합 지원 지방조례 최초 제정(2019년) 등 중소기업 성장을 위해 다양한 활동을 이어갔다.2020년 신종 코로나바이러스 감염증으로 팬데믹 위기가 시작되자 중기중앙회는 중소기업비상대책본부 운영에 나섰다. 발 빠르게 전국을 돌며 중소기업 현장의 애로 사항을 듣고, 이를 토대로 정부의 기업 대출만기 연장 결정을 총 5차례 이끌어내는 데 큰 역할을 했다. 또 2020년에는 △대·중기 납품단가조정위원회 출범 △한국노총과 공동 불공정센터 개소 △중소기업 규제 해소(최저임금·주52시간·중대재해법 등) 건의 △기초지자체 협동조합 지원조례 첫 제정 등 많은 활동을 이어갔다. 지난해는 중소기업기본법이 개정되면서 중기협동조합이 중소기업 지위를 인정받을 수 있게 됐다. 또 노란우산공제 재적가입 150만 명 돌파, 중소기업 금융 지원을 혁신하기 위해 인터넷 은행인 토스뱅크의 주주 참여 등 다양한 변화가 있었다.올해는 제3차 중소기업협동조합활성화 3개년 계획을 발표했는데, 이 계획에 기반해 중소기업협동조합 최초로 R&amp;D협업 지원사업이 첫발을 내딛고 40개의 조합이 선정됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.10.22.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[핫문쿨답] 카톡 먹통 책임, 누가 더 클까...1천명 선택은?</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271462?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>지디넷-오픈서베이 조사...카카오 35.9% vs SK C&amp;C 8.6%지난 주말 발생한 카카오 주요 서비스 먹통에 대해 이용자들은 'SK C&amp;C' 보다 카카오의 책임이 더 커다고 생각하는 것으로 나타났다.또 카카오 주요 서비스 장애로 불편했다는 의견이 압도적으로 많았는데, 사고 당시 카톡 대신 기본 문자 메시지(SMS)를 가장 많이 사용했고, 인스타그램 DM과 라인, 텔레그램 등을 이용했다고 답했다. 그럼에도 다른 서비스로 옮겨갈 가능성에 대해서는 보수적인 입장을 취했다.카카오톡처럼 사실상 전국민이 사용하는 서비스의 경우 공공재로 규정하고 국가가 적절히 관리/규제해야 한다는 목소리에는 많은 응답자들이 공감대를 보였다.카카오 서비스 장애에 따라 책임 공방이 예상된다(배경=이미지투데이)지난 15일 SK C&amp;C 데이터센터 화재로 ‘카카오톡’(이하 카톡) 등 카카오 주요 서비스가 마비되는 대형 사고가 발생했다. 카톡으로 메시지를 주고 받던 일반 이용자들의 불편도 컸지만, 카카오 계정을 기반으로 서비스를 제공하던 자영업자들의 피해가 심각한 것으로 알려졌다.이후 회사는 공식 사과와 남궁훈 카카오 각자 대표의 사임 표명, 폭넓은 피해 보상 대책을 마련하겠다는 방침을 내놨으나 피해 보상 범위 설정과 이에 따른 자금 조달, 회사의 신뢰 회복까지 오랜 진통이 예상된다.이에 지디넷코리아는 모바일 설문 플랫폼 오픈서베이와 함께 카카오 먹통 사태에 대한 이용자들의 불편과 반응, 사고 책임에 대한 인식 등을 조사했다.■ 카카오 먹통 사태 10명 중 6명 "상당히 불편했다" 먼저 카카오가 제공하는 주요 서비스들을 보기로 나열한 뒤, 한 달 이내 이용한 경험이 있는 서비스를 모두 선택해 달라고 했다. 카톡이 96% 나타나 단연 많았고, 이어 카카오뱅크(60.9%), 카카오페이(59.6%), 카카오T(42.1%), 다음(Daum) 포털(39.1%), 카카오맵(38.7%), 다음 메일(32.2%), 멜론(24.3%), 카카오내비(23.6%), 카카오스토리(18.3%) 등의 순서였다.지난 주말 카카오 먹통 사고로 어느 정도 불편했는지도 물었다. 그 결과 ‘매우 불편했다’가 35.2%, ‘꽤 불편했다’가 23.8%, ‘약간 불편했다’ 20.6%, ‘불편했다’ 12.3%, ‘전혀 불편하지 않았다’ 7.3%, ‘오히려 편했다’ 0.8%로 나타났다.가장 불편했던 카카오 주요 서비스를 보기 중 최대 3개까지 선택하도록 한 결과 카톡이 89.2%로 1위를, 카카오뱅크가 25.5%로 2위, 카카오페이가 22.8%, 카카오T 17.5%, 카카오맵 12.9%, 다음 메일 11.7%, 다음 포털 11.2%, 멜론 7.1%, 카카오내비 6.5%, 카카오페이지 4.8% 등의 순으로 조사됐다. 3순위까지 보면 20대 사이에선 카카오페이가 2순위(33.0%)로 꼽힐 정도로 비중이 높았다.■ 10명 중 8명 카톡 대신 SMS 사용...다른 서비스 이동 '부정적' 우세최근 한달 내 카카오톡을 이용한 응답자 960명에게 서비스 장애 당시 어떤 메신저를 대신 사용했는지 물어더니 기본 문자 메시지(SMS)가 76.4%로 가장 많았다. 이어 인스타그램 DM 9.6%, 라인 4.9%, 기타 4.0%, 텔레그램 3.4%, 페이스북 메신저 1.8% 등의 순이었다. 모든 연령층에서 기본 문자 메시지 앱을 과반수 이상이 사용했으나, 20대 응답자 사이에서는 인스타그램 DM을 사용한 수치가 24.3%로 타 연령 대비 유의미하게 높게 나왔다.이번 서비스 장애로 카카오 서비스를 다른 서비스로 변경해야겠다는 생각을 했는지도 물었다. 그 결과 ‘변경할 마음은 있지만 행동에 옮기지는 않을 것 같다’가 40.3%를 차지했다. 이어 ‘변경할 생각이 없다’(39.5%) 보기가 선택됐다. ‘변경할 것 같다’(14.9%), ‘변경할 계획이 확실히 있다’(4.2%), ‘다른 서비스로 이미 변경했다’(1.1%)는 상대적으로 적었다. 불편은 했지만, 다른 서비스로 바꾸지 않겠다는 생각이 더 큰 것으로 풀이된다.다른 서비스로 변경해야겠다고 생각한 카카오 서비스를 우선순위를 정해 세가지만 선택해 달라는 질문에는 카톡이 67.8%로 가장 많았다. 이어 카카오뱅크(31.3%), 카카오페이(24.3%), 카카오T(15.7%), 카카오맵(14.2%), 다음 메일(10.5%), 다음 포털(10.3%) 등으로 나타났다. 이 문항은 앞 질문에서 2~5번 보기(서비스 변경 의향이 있거나 이미 실행)에 응답한 600명을 상대로 물은 결과다.카카오 서비스 대신 이용할 계획이 있는 서비스로는 메신저 라인(31.7%)이 가장 많은 선택을 받았다. 이어 인스타그램 DM(15.8%), 텔레그램(12.7%), 토스뱅크(11.1%), 문자(8.3%), 기타(7.6%), 페이스북 메신저(6.2%), 신한은행 쏠(5.3%), KB국민은행 스타뱅킹(5.3%) 등의 순이었다.■ 10명 중 6명 "카카오 기업 이미지 나빠져"..."사고 책임 카카오가 더 커 보여"카카오 서비스 장애 후 이 회사에 대한 인식 변화를 물은 결과 ‘나빠졌다’가 43.9%를, ‘전보다 매우 나빠졌다’가 19.8%를 차지해 부정적인 인식이 강했다. ‘큰 차이가 없다’, ‘전보다 약간 좋아졌다’가 각각 33.5%, 2.3%를 기록했다.특히 서비스 장애 책임을 두고 공방이 예상되는 가운데, 응답자들은 데이터센터 운영 주체인 SK C&amp;C와, 이용자와 최접점에 있는 카카오 양쪽 모두에게 동일한 책임이 있다(46.7%)고 봤다. 하지만 두 회사 중에는 SK C&amp;C(8.6%)보다 카카오(35.9%)에 더 큰 책임이 있다는 시각을 보였다. ‘잘 모르겠다’는 응답은 8.2%였다.이번 카카오 서비스 장애에 대한 보상 대상은 어디까지가 적당할까. 응답자들은 무료 서비스까지 포함해 전체 이용자에 대한 보편적 보상이 필요하다(59.2%)는 생각이 가장 컸다. ‘유료 서비스 이용자만 선별해 집중 보상해야 한다’는 보기는 27.7% 응답자만 골랐다.이번 사고에 대해 카카오 남궁훈, 홍은택 각자 대표가 사과하고 재발 방지를 약속한 가운데, 카카오의 대응과 관련한 생각도 물었다. 일각에서는 창업자인 김범수 전 의장이 전면에 나서 사과하고, 수습해야 한다는 시각도 있어서다. 그 결과 ‘이미 발생한 사건에 대한 보상보다 향후 예방책 제시가 중요하다’는 보기가 35.5%로 가장 많이 선택됐다. 이어 응답자들은 근소한 차이로 ‘불편을 겪은 사용자에 대한 실질적 보상 제시가 우선이다’(35.1%)를 골랐다. 김범수 전 의장이 전면에 나서야 한다는 의견은 15.5% 지금의 대응으로도 충분하다의 응답률은 6.5%였다.■ 10명 중 5명 "카카오톡, 공공재는 아니지만 규제 필요해"마지막으로 카톡과 같은 대중적인 서비스는 공공재로 규정하고 국가가 관리하고 규제해야 한다는 의견에는 ‘공공재는 아니지만 국가 차원의 관리와 규제가 어느 정도 필요해 보인다’는 보기를 50.9% 응답자가 선택했다. ‘민간 서비스므로 더 이상의 규제나 관리는 불필요하다’는 의견은 29.2%였다. ‘사실상 공공재이므로 국가가 관리하고 더 규제해야 한다’는 응답자는 12.7%였다.30대의 경우 '민간 서비스로 규제/관리가 불필요하다'는 의견이 37.2%로 가장 높았다. 이는 타 연령대에 비해 유의미하게 높은 수치다.■ 어떻게 조사했나 이번 설문은 20~50대 이상 1천 명 이상이 응답했다. 표본추출방법은 인구 구성비에 따른 비례할당추출을 사용했으며, 표본오차는 80% 신뢰수준에서 ±2.03%p다. 지디넷코리아와 오픈서베이는 설문 조사 진행 시, 집단 간 인식과 행태의 차이를 세밀하게 살펴보고기 위해 80% 신뢰 수준으로 결과를 분석했다. 보다 구체적인 결과는 [☞오픈서베이 결과 페이지]를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스 후불폰 요금제, 중소 MVNO '안도'…시장과열 우려 지적 [IT돋보기]</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000704881?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스 "후불폰 중심 알뜰 요금제 연구 중…가계통신비 인하 유도할 것"비바리퍼블리카가 후불폰 알뜰 사업을 전개한다. 가계통신비 인하를 유도하고 기존 알뜰폰사업자(MVNO)와의 출혈경쟁을 줄이겠다는 취지다. 중소 MVNO 사업자는 일단 안도하면서도 알뜰폰 시장이 레드오션(포화시장)이 되진 않을까 우려하는 분위기다.알뜰폰 전문매장에 알뜰 유심요금제 상품이 진열돼 있는 모습. [사진=아이뉴스24]22일 비바리퍼블리카와 업계에 따르면 토스는 알뜰폰 브랜드명을 '토스모바일로' 확정하고 연내 서비스를 준비 중이다. 요금제는 기존 MVNO가 주로 서비스하고 있는 선불제 방식이 아닌, 이동통신3사(SK텔레콤·KT·LG유플러스) 가입자들이 대부분 사용하고 있는 후불제 형태로 출시할 계획이다.비바리퍼블리카 관계자는 "후불폰 중심 알뜰 요금제를 연구 중이다. 알뜰폰 사업을 시작한 계기는 가계통신비를 낮추자는 것이었다. 기존 이통3사 가입자가 주로 이용하는 후불제에 집중할 계획"이라고 말했다.출혈경쟁을 예상했던 중소 알뜰 사업자 우려가 일시 씻겨진 듯 하다. 선불 알뜰 요금 시장에서 자본력 있는 금융권과의 경쟁에 대한 우려가 해소됐기 때문이다. 한 MVNO 관계자는 "후불 요금제 사업에만 주력한다면 시장 측면에서 크게 겹치는 부분은 없을 것이라고 본다"며, "되려 MVNO 시장이 커지진 않을까 하는 기대감도 있다"고 언급했다.우려의 목소리도 있다. 금산분리(금융자본·산업자본 간 분리) 완화나 정부의 알뜰폰 시장 진출 장려 기조가 지속될 경우 시장이 포화상태에 접어들 수도 있다는 불안 심리다. 특히 중소 사업자의 경우 손익분기점(BEP)을 맞추는 것 조차 쉽지 않은 상황. 시장이 과열 상태에 들어선 점을 감안한 정책적 방향 재수립이 필요하다고 다수 중소 사업자들은 주장한다.중소 MVNO 사업자는 "당장 눈 앞을 보는 것이 아니라 장기적인 관점에서 바라 볼 필요가 있다. 중소 사업자는 자본적 우위에 있는 기업들과 시장 경쟁이 현실적으로 불가능하다. 미래엔 도산할 수도 있다는 뜻"이라며 "이로 인해 대기업의 독과점 체제로 바뀌게 된다면 가계통신비 인하에 되려 악영향이 될 것"이라고 말했다.앞서 비바리퍼블리카는 머천드코리아(대표 윤기한·이승훈)와 지분 100%를 인수하는 주식매매계약을 체결했다. 머천드코리아는 가입자 10만명 안팎의 중소 알뜰폰 사업자다. 사실상 알뜰폰 시장 진출 선언인 셈. 알뜰폰 브랜드 '리브엠'을 출시한 KB국민은행은 30만명이 넘는 이용자 수를 확보했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>취준생이 다니고 싶은 회사 1위 '삼성전자'…2위는 SKT</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000306506?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>취업 준비생이 꼽은 '다니고 싶은 기업' 1위는 삼성전자라는 조사 결과가 나왔습니다.오늘(16일) 기업 정보 플랫폼 잡플래닛이 자신의 상태를 취업 준비생으로 설정한 회원 1013명을 대상으로 주요 50개 기업 목록을 제시하고, 다니고 싶은 기업을 3곳까지 선택하도록 한 결과 삼성전자가 35.24%로 1위를 나타냈습니다. 2위는 30.5%를 차지한 SK텔레콤이였고, 네이버가 29.41%로 뒤를 이었습니다. 카카오와 현대차, 토스, LG화학, 구글코리아, 라인, 한국전력 순으로 뒤를 이었습니다.상위 10곳에 정보기술(IT) 기업이 6곳일 정도로 IT 기업에 대한 인기가 높았다고 잡플래닛은 전했습니다. 선호 기업의 조건(복수 응답)으로는 응답자의 77.98%가 급여와 복지 등 처우 조건이 좋은 기업을 꼽았습니다. '칼퇴'와 연차 사용 등 업무와 삶의 균형이 가능한 기업을 택한 응답자도 66.04%에 달했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 자영업자 업력 따지지 않고 1억까지 대출</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002612129?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사 중 마지막으로 합류이병수 카카오뱅크 개인사업자스튜디오 팀장이 27일 오전 서울 여의도 63빌딩에서 열린 카카오뱅크 개인사업자 뱅킹 기자간담회에서 개인사업자 뱅킹 서비스에 대해 설명하고 있다. 카카오뱅크 제공  국내 최대 인터넷전문은행인 카카오뱅크가 출범 5년 만에 개인사업자에 대한 대출을 시작한다. 경쟁사인 케이뱅크와 토스뱅크가 선점하고 있던 자영업자 대출 시장에 업계 1위인 카카오뱅크가 뛰어들면서 고객 확보를 위한 인터넷은행 3사 간 경쟁이 치열해질 전망이다. 카카오뱅크는 다음 달 1일부터 개인사업자에 대해 신용대출을 실시하겠다고 밝혔다. 개인사업자 전용 뱅킹 서비스를 새로 출시하며 새 대출 상품을 내놓은 것이다. 카카오뱅크는 그동안 가계 대출 상품만 판매했다.  현재 영업중인 개인사업자라면 업력과 무관하게 최대 1억원을 연 최저 5.491%(26일 기준)에 빌릴 수 있다. 타행의 경우 업력이 6개월∼1년 이상 돼야 대출 신청이 가능하다. 별도의 기업 뱅킹 앱을 깔 필요 없이 개인 뱅킹과 마찬가지로 카카오뱅크 앱을 통해 신청하면 된다. 대출 기간은 최소 1년부터 최장 10년까지로 만기일시상환과 원금균등분할상환 중 선택 가능하며 중도상환해약금은 조건 없이 면제된다. 보증 대출은 내년 상반기, 담보대출은 상반기 이후 출시할 예정이다. 경쟁사인 케이뱅크의 경우 신용대출 기준 개인사업자에게 최대 1억원을 연 최저 5.36%(27일 기준)에 대출해주고 있다. 토스뱅크는 최대 1억원을 연 최저 5.80%(27일 기준)에 빌려주고 있는 상황이다.  카카오뱅크는 “그동안 개인사업자 시장은 일반 개인 고객 대비 숫자가 적고 법인 고객 대비 수익성은 낮아 상대적으로 금융 혁신 대상 후순위로 밀려나있었다”며 “개인사업자의 편리성과 혜택을 강화한 뱅킹 서비스로 3년 이내에 가장 많은 사업자가 이용하는 앱이 되는 게 목표”라고 밝혔다. 이어 “향후 카카오페이 등과 협업을 통해 개인사업자와 개인 고객을 잇는 연계 서비스도 개발할 수 있을 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.10.22.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[금융 D-택트] 카카오 IDC 화재, 금융사 '슈퍼 앱' 전략 괜찮을까</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002271460?sid=105</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>외부 연계서비스까지 단절…구체적 점검 항목 부재 '사각지대'지난 15일 일어난 경기도 판교 SK C&amp;C 데이터센터 화재는 '카카오 공화국'이라는 말을 실감하게 해줬습니다. 벗들과의 연락 두절은 물론이고 발이 되어주는 택시를 잡을 수 없을 뿐더러 간편 송금 서비스까지 단절되면서 우리는 개별 서비스를 일일이 터치해야 하는 '상대적' 아날로그 시대로 회귀했습니다.친구와 카카오톡으로 하루 정도 대화를 나누지 못한 사실보다는, 카카오란 이름을 붙인 카카오뱅크·카카오페이에 충전되고 저금된 돈에 문제가 생기진 않은 건지가 큰 문제였을 겁니다. 돈을 이체했다고 하는데 받은 이 없고, 카카오톡으로 받았냐고 물어봐도 답이 없고, 고객센터를 통해 문의를 해도 묵묵부답인 카카오뱅크와 카카오페이를 보며 불안감을 더 크게 느꼈으리라 유추해봅니다.카카오뱅크와 카카오페이는 데이터센터 화재 후, 데이터 문제는 전혀 없었으며 금융 사고가 일어나지 않았다고 공표했습니다. 카카오뱅크는 여느 은행과 다르지 않게 주 전산센터와 재해복구센터를 나눠 운영하고 있으며 문제가 없었단 입장이고 카카오페이 역시 보유한 데이터를 여러 데이터센터에 나눠 운영하고 있으며 재해에 대한 메뉴얼도 보유하고 있다고 밝혔습니다.(사진=카카오톡)하지만 이 같은 회사 측의 설명에도 신뢰도를 100%로 끌어올리기가 쉽지 않은 것은 사실입니다. '카카오 공동체'로 '카카오톡'이라는 플랫폼을 등에 업고 다른 금융사에 비해 모바일 시장서 빠르게 시장점유율을 끌어올린 두 서비스가, 다시 카카오톡을 통해 먹통이 될 수 있다는 불안감이 완전히 불식된 게 아니기 때문입니다.실제로 카카오뱅크와 카카오페이가 뒤늦게까지 정상화에 애를 먹었던 것은 알림과 고객센터와 같은 카카오톡 연결 서비스였습니다. 두 회사 관계자는 "메신저 기반인 서비스가 있다 보니 순차적으로 정상화된 면이 있다"고 설명했습니다.그렇지만 이 같은 '카카오 사태'는 한 번만으로 그치지 않을 수 있습니다. '플랫폼'이라고 부르는 기업들이 4차산업혁명시대에 위세를 떨치면서 우리는 계란을 한 그릇에 담고 있기 때문입니다. IT 서비스 기업만의 얘기도 아닙니다. 토스를 필두로 많은 은행들이 수많은 모바일 애플리케이션(앱)을 한 곳으로 뭉치고 있지요. 일명 '슈퍼 앱'이라는 전략이죠.[참고 기사☞ [금융 D-택트] KB국민은행이 쏘아올린 공, '슈퍼앱'은 대세인가](사진=이미지투데이)슈퍼 앱은 모든 서비스를 한 데 담은 만큼, 하나의 오류가 터지면 모든 서비스가 마비됩니다. 반대로 슈퍼 앱은 고객 이탈을 줄이다 보니 회사 입장에서는 이용자를 가둘 수 있고, 이용자도 편리하다고 느낍니다. 아주 간단히 둘의 장점만 취하면 문제가 없을 겁니다. 카카오톡에 전산오류가 있더라도 혹은 토스 서비스가 잠시 중단됐더라도 카카오페이와 토스뱅크를 끊김없이 쓰면 되는 일일 겁니다.물론 카카오페이와 토스뱅크는 카카오톡·토스와 데이터센터를 분리해 운영하고 있다고 강조했습니다. 재해 대응에 대한 메뉴얼도 훈련도 하고 있다고 전했습니다. 그러나 이 같은 일은 재해가 터져야 얼만큼 그동안 공을 들였는지, 투자에 인색하지 않았는지를 확인할 수 있는 일이라 쉬이 회사의 말을 수긍하긴 힘듭니다.금융의 플랫폼 전략, 슈퍼 앱 전략에 대한 법 체계는 '애매모호'한 수준입니다. 금융감독원이 '자체 시스템이 아닌 외부 시스템과 연계된 서비스'의 비상운영계획을 수립하도록 지도하겠다고 밝혔는데요, 구체적인 가이드라인은 전무합니다. 전자금융법상 '제3자로부터 오는 리스크'에 대한 대비 정도로 보고 있는데, 초연결 시대에 외부 연계시스템으로 인한 비상운영계획을 세운다는 것이 가능한 일인지 반문됩니다.현재 감독규정만으로는 달라진 전자금융행태를 담아내긴 어려워보입니다. 또 제법 플랫폼으로 전략을 갖추고 있는 금융사들을 과거 만들어진 '금융전산 재난 현장조치 행동 메뉴얼'만으로 효과적으로 위기를 대응할 수 있을지 의문입니다. 이미 많은 은행들은 자체 인증서를 개발하고 다른 곳에서도 활용할 수 있도록 만들고 있는데요, 이 인증서는 은행 앱이 마비되면 활용이 어렵죠. 이 처럼 현실을 반영한 가이드라인이 필요한 시점이라고 보여집니다.디지털 컨택트(Digital Contact)가 일상으로 자리잡은 지금, 한 주간 금융업권의 디지털 이슈를 물고, 뜯고, 맛보는 지디의 '금융 D-택트'를 토요일 연재합니다. 디지털 전환의 뒷 이야기는 물론이고 기사에 녹여내지 못했던 디테일을 지디넷코리아 독자 여러분에게 소개합니다. [편집자주]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>가입자 1천500만 넘은 국민비서 '구삐'…카톡 알림 비중이 25%</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001006442?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>민간 앱으로 국민에게 행정서비스를 알리는 국민비서 '구삐' 가입자가 1천500만 명을 돌파한 가운데 카카오톡 먹통 사태를 계기로 민간에 의존하는 공공 서비스의 안전성에 관한 우려가 커지고 있습니다.오늘(17일) 행정안전부에 따르면 지난 13일 가입자 1천500만 명을 돌파해 국민 4명 중 1명 이상이 사용하게 된 구삐 알림의 25%가량은 카카오톡으로 전달되고 있습니다.구삐는 건강검진일, 운전면허 갱신기간, 교통과태료 등 생활정보 27종을 제공하며, 코로나19 상황 속에서 백신 접종 예약, 재택치료 알림도 제공하고 있습니다.구삐는 카카오톡 외에도 금융앱 등 국민이 자주 사용하는 모바일 앱 7종을 활용하고 있지만, 지난해 3월 구삐 서비스 출시와 함께 활용된 카톡, 네이버앱, 토스앱의 이용량이 많은 편입니다.이에 따라 필수 행정서비스가 국민 편의성을 이유로 민간 영역에 과하게 의존하고 있다는 지적이 나옵니다.행안부 관계자는 "(이용자 1명 당) 두 가지 이상의 앱으로 알림을 보내게 돼 있어 한 가지 앱에 장애가 발생해도 문제가 없다"고 말했지만, 이번 사태처럼 두 곳 이상의 기업들이 함께 사용하는 데이터 센터에 문제가 생길 경우 속수무책입니다.구삐는 정부 서비스가 초연결 플랫폼을 타고 물 흐르듯 흐르도록 한다는 취지의 윤석열 정부의 핵심 국정과제 '디지털플랫폼정부'의 초기 모습이기도 합니다.디지털플랫폼정부는 정부의 모든 데이터를 하나로 연결해 일하는 방식을 바꾸는 것을 목표로 합니다.예컨대 정부 사이트별로 개별 제공되던 서비스를 한 곳에서 통합 제공하고 국민에게 맞춤형 서비스를 선제적으로 제공하며, 공공데이터는 민간에 개방합니다.정부가 독점 공급자로서 일방적으로 디지털 서비스를 제공하는 현재 방식에서 벗어나 민간과 협업하는 국정운영 모델로, 민간 플랫폼으로 정부의 정보를 제공한다는 점에서 구삐의 업그레이드 형태가 될 전망입니다.정부는 이 과정에서 카카오와 네이버 등 민간 기업의 인프라와 서비스를 적극적으로 활용하겠다는 방침을 밝히기도 했습니다.정부가 자체 플랫폼을 구축해 서비스를 제공할지, 구삐처럼 민간 앱에 업혀 갈지에 관한 구체적인 로드맵은 내년 3월 발표될 예정입니다.염흥열 순천향대 정보보호학과 교수는 "디지털플랫폼정부의 형태는 구체적으로 정해지지 않았지만, 확실한 건 자연재해와 해킹 등에 대비해 비즈니스 연속성을 확보하려면 서버를 이원화, 다원화해야 한다"고 강조했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"삼성전자 천원어치만" 소수점 거래 한달, 지갑닫은 동학개미에 '썰렁'</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004810622?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>임종철 디자인기자 /사진=임종철 디자인기자국내주식을 1주 미만 소수단위(소수점)로 쪼개서 거래할 수 있는 '국내주식 소수단위 거래 서비스'가 시작된 지 한달을 맞았다.  최근 증시부진으로 '동학개미'들이 지갑을 닫으면서 성적표는 기대보다 미미하다는 평이다. 26일 예탁결제원에 따르면 지난 1개월간 미래에셋증권, 삼성증권, 신한투자증권, 키움증권, 한화투자증권, NH투자증권, KB증권 등 7개사소수 단위 주식에 대한 투자자는 총 2만6673명으로 집계됐다. 투자주식수는 2만7385주, 투자금액은 15억8000만원이다.  거래가 많이 된 종목은 주가가 비싼 대형주가 많았다. 사별로 세부 순위에 차이는 있지만 대체로 삼성전자, LG에너지솔루션, 현대차, 네이버(NAVER), 삼성바이오로직스 등의 순이었다.  소수 거래 서비스는 1주가 아닌 소수점 거래가 가능하기 때문에 주가가 비싼 종목도 부담없이 투자할 수 있고, 정해진 예산으로 다양한 종목의 포트폴리오를 갖출 수 있다는 것이 장점이다. 주식을 주 단위가 아닌 금액 단위로 투자할 수 있어 매월 혹은 매주 일정 금액을 주식투자에 활용할 수 있다는 것도 특징이다. 지난해부터 국내 증권사들이 해외주식에 대한 소수단위 거래 서비스를 시작하자 국내주식에 대해서도 동일한 서비스 도입에 대한 요구가 커지자 지난해 9월 금융위원회가 '국내외 소수단위 주식거래 허용방안'을 발표했고, 예탁결제원과 증권업계가 서비스 도입을 적극 추진했다.다만 도입을 추진하던 당시와 달리 최근 증시가 부진한 흐름을 보이면서 서비스 개시 첫달 성적은 신통치 않다. 증권업계 한 관계자는 "최근 개인투자자들이 시장에서 많이 빠져나갔고, 국내 주식은 해외처럼 비싼 주식이 많지 않다보니 아직은 참여가 많지 않다"며 "서비스 초기이기 때문에 지속적으로 고객의 매매성향을 관찰하면서 대응하면 차차 거래가 늘 것"이라고 말했다. 업계에서는 앞으로 증시가 안정되고 서비스 오픈을 준비 중인 다른 증권사들이 참여하면 거래가 활성화 될 것으로 예상한다. 혁신금융서비스 지정을 받은 총 24개 증권사 중 아직 7개 증권사만 서비스를 시작한 상태다. 다올투자증권, 대신증권, IBK투자증권, 유안타증권, 카카오페이증권, 토스증권, 한국투자증권, DB금융투자, SK증권, 교보증권, 메리츠증권, 상상인증권, 신영증권, 유진투자증권, 이베스트투자증권, 하나금융투자, 현대차증권 등 17개사가 현재 서비스를 준비중이다. 한편 예탁결제원은 이날 국내주식 소수단위 거래 서비스 오픈 기념식을 개최하고 서비스 오픈 이후 1개월간의 운영성과를 증권업계와 공유했다. 이명호 예탁결제원 사장은 "증권업계의 요구를 수용하고 자본시장의 혁신을 위해 오픈한 국내주식 소수단위 거래 서비스가 투자자의 고가 우량주에 대한 접근성을 확대할 것"이라며 "소액 여유자금의 주식투자 활용 등으로 투자자 저변이 확대되고 자금 유입이 증가해 증권시장에 새로운 활력을 불어넣을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.10.27.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>케이뱅크 '플러스박스', 年 2.7%로 인상...'불붙은 파킹통장 경쟁'</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002289226?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>◆…사진=케이뱅크 제공케이뱅크가 파킹통장 금리를 인터넷전문은행 가운데 최고 수준인 2.7%로 인상했다.   27일 케이뱅크는 파킹통장 '플러스박스'의 금리를 0.2%p 올렸다고 밝혔다. 경쟁사인 카카오뱅크는 이달 들어 파킹통장 금리를 연 2.6%(한도 1억원)으로 인상했으며, 토스뱅크는 1억원을 초과하는 금액에 대해서도 연 2.3%의 금리를 제공하는 등 한도 제한을 없앤 바 있다.   이날 케이뱅크에 따르면 파킹통장의 최대한도는 3억원이며, 용도별로 최대 10개까지 만들 수 있다. 하루만 맡겨도 연 2.7%의 이자가 적용되며, 매월 넷째주 토요일에 이자를 받을 수 있다. 한편, 케이뱅크의 정기예금 상품인 '코드K 정기예금' 금리도 최대 1.0% 올랐다. 케이뱅크 관계자는 “파킹통장 플러스박스의 금리를 이달에만 두 차례 인상해 업계 최고 수준 금리를 제공한다”며 “가입기간 1년 미만 예금상품의 금리 혜택도 대폭 강화했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.10.16.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>취업준비생 일하고 싶은 기업 1위 삼성전자... 2위는 SK텔레콤이 차지</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003051629?sid=105</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>취업준비생이 일하고 싶은 기업 상위 10곳 중 IT기업이 6개나 포함됐다.잡플래닛이 사이트 내 취업준비생 이용자 1013명을 대상으로 '2022년 다니고 싶은 기업 TOP 10' 설문조사를 실시한 결과, 1위는 35.24%를 기록한 삼성전자가 차지했다. 2위는 30.50%를 기록한 SK텔레콤이, 3위는 29.41%를 기록한 네이버가 차지했다. 이어 카카오, 현대자통사, 토스, LG화학, 구글코리아, 라인, 한국전력이 순이었다. 특히 이번 조사에서는 10위 이내에 IT 기업이 총 SK텔레콤, 네이버, 카카오, 토스, 구글코리아, 라인 총 6곳이나 포함됐다.복수 응답으로 물어본 선호 기업 조건에는 응답자의 77.98%가 '급여와 복지 등 처우 조건이 좋은 기업'을 꼽았다. '칼퇴, 연차 사용 등 업무와 삶의 균형이 가능한 기업'을 선택한 응답자도 66.04%에 달했다. '승진, 자기개발 등 개인의 빠른 성장이 가능한 기업'은 37.51%로 그 뒤를 이었다.직업관에 대해 답한 응답을 통해 직장 선택 기준도 엿볼 수 있었다. '존경할수 있는 경영진이 있는 것은 중요하다'는 문장에는 '그렇다' 31.49%, '그렇지 않다' 38.10%, '상관 없다' 30.40%으로 비슷한 비율을 보였다. 그러나 '오너 리스크가 있는 기업에서 일하고 싶지 않다'는 문장에는 70.28%의 응답자가 '그렇다'고 답했다.긍정응답률이 가장 높은 항목은 '사내 성범죄나 폭행 등 직장 내 괴롭힘이 있었던 회사는 가고 싶지 않다'로, '그렇다'는 응답이 88.75%에 달했다. 부정 응답률이 가장 높은 문장은 '칼퇴가 보장된다면 휴가 사용의 제약은 감당할 수 있다'로 전체 응답자의 63.17%가 '그렇지 않다'고 답했다.잡플래닛 관계자는 “과거 조사와 비교해 보면 주요 선호 기업들은 크게 달라지지 않았으나, 주관식 응답자가 늘었다”면서 “조기 퇴사를 줄이기 위해서는 구직 단계에서부터 자신의 기준에 맞는 기업을 찾는 노력이 중요한 한편, 기업도 경쟁력을 다각도로 노출하는 전략이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>KG이니시스, 통합인증서비스 도입 기관 1천 곳 돌파</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005353191?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>연내 200여 곳 추가 서비스 오픈 예정KG이니시스 통합인증서비스 도입기관이 1천 곳을 돌파했다.(이미지=KG이니시스)[이데일리 임유경 기자] 전자결제 전문업체 KG이니시스(대표 유승용)는 ‘통합인증서비스’가 출시 1년 4개월 만에 도입 기관이 1천 곳을 돌파했다고 28일 밝혔다.통합인증서비스는 KG이니시스가 업계 최초로 출시한 인증서 중계 서비스다. 한 번의 연동으로 네이버, 카카오, 토스, KB국민은행 등 총 9개의 민간인증서 서비스를 통합 제공한다. 자주 이용하는 민간인증을 선택해, 회원가입 및 정보변경에 필요한 본인인증을 기존 공동인증서 및 아이핀 인증보다 빠르고 간편하게 진행할 수 있다는 것이 특징이다.제휴처는 이마트에브리데이와 같은 쇼핑몰부터 LG헬로비전, 미디어로그, 우체국 등 알뜰폰 사업자, 도서관 등 공공기관, 금융업, 주택청약에 이르기까지 다양한 업종에 두루 분포했다. 또 쇼핑몰 대다수가 통합인증서비스 랜딩페이지를 통해 서비스를 신청한 것으로 나타났다.KG이니시스 관계자는 “올해 초부터 통합인증서비스 도입 문의 및 계약이 폭증하고 있으며 연내 서비스 오픈을 앞둔 곳도 200여 곳에 이른다”고 설명했다. 또 “신규 및 기존 이용기관들의 원활한 서비스 이용을 위해 기획, 운영, 개발 등 다각도로 서비스를 지속 고도화할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.10.23.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>"네·카·토에도 동일 규제 적용해야"…전문가들의 일침 [돈 냄새 취한 공룡들③]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004765824?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>전문가 진단, 빅테크·대형 핀테크 규제 향방금융시장 진출 영역 확장…규제 차익 문제 대두동일 기능 동일 규제 원칙 적용…공정경쟁 필요해외시장 대대적 규제 강화…"중소형 핀테크 지원"사진=한경DB시장 전문가들은 금융당국이 빅테크·대형 핀테크에 대한 규제 차익을 해소하고 '동일 기능 동일 규제' 원칙 아래 규율 체계를 확립해야 한다고 입을 모았다. 낮은 수준의 영업행위 규제를 적용받는 경우 불완전판매, 불공정거래 위험이 증가해 결국 금융 소비자 피해를 키울 수 있다는 시각에서다. 개별 기업의 운영 위험이 확대될 경우 금융시스템의 안정을 위협하고, 빅테크·대형 핀테크의 시장 독점을 가속화하는 결과를 초래할 수 있단 우려도 제기됐다. 동일 기능 동일 규제는 은행 보험 증권 등 업권별로 동일한 영업 행위에는 동일한 규제가 적용돼야 한다는 국제결제은행(BIS) 차원의 대원칙을 의미한다.황세운 자본시장연구원 선임연구위원은 규제 완화의 실효성이 사라졌다고 지적했다. 황 연구위원은 "빅테크·핀테크를 대상으로 일부 규제가 완화된 것은 시장 진입 장벽을 낮추고 일정 수준의 시장 장악력을 갖추지 못한 상황에서 기업 혁신 활동이 저해되지 않도록 지원하기 위한 취지였다"면서도 "네이버·카카오·토스의 경우 이미 금융시장에 대한 파급력이 전통 금융사를 뛰어넘었다"고 말했다. 이어 "이제는 규제 형평성 차원은 물론 건전성 관리, 소비자 보호 강화 측면에서도 전통 금융사와 동일한 규제 체계를 적용받는 것이 더 합리적"이라고 조언했다. 성태윤 연세대 경제학부 교수는 건전성, 소비자 보호 영역 강화 측면에서 빅테크·대형 핀테크와 전통 금융사 간 동일한 수준의 사전적인 규제를 적용하는 것에 대한 면밀한 논의가 필요한 시점이라고 주장했다.성 교수는 "시장에서 전통 기업과 새롭게 진출한 기업 간 규제에 대한 형평성을 확립하는 것은 기본 중의 기본"이라며 "시장에 새롭게 진입한 기업이 규모 면에서 더 이상 지원이 필요하지 않은 상태에 도달했다면 정부의 규제 완화 취지에도 부합하지 않는다"고 진단했다. 홍기훈 홍익대 경영학과 교수는 국내 빅테크·핀테크가 빠른 속도로 약진할 수 있었던 주요 배경으로 금융당국의 규제 완화를 꼽으면서 "네이버·카카오·토스의 경우 사실상 시장 진입 시점부터 계속해서 규제 차익을 누린 것"이라고 강조했다.그러면서 홍 교수는 "공정 경쟁을 위해선 동일 기능 동일 규제라는 대원칙이 우선돼야 한다. 선택적인 규제 완화 정책에 따른 부작용을 차치하더라도 금융시장에 진입했고 업의 본질상 기존 금융업과 동일한 상품, 서비스를 제공한다면 규제 수준에 차이가 있을 이유가 없다"며 "동일 기능 동일 규제가 지켜지지 않는다면 자유시장과 공정 경쟁 원칙에 배치되는 특혜와 다름없다"고 지적했다.이정희 중앙대 경제학부 교수는 "기존 금융사에 대한 규제가 변하지 않는 상태에서 빅테크·핀테크에 대한 규제 완화가 지속 추진되는 것은 형평성 논리에 어긋난다"며 "기존 규제가 빅테크·핀테크에 적합하지 않다면 새로운 규제 체계를 마련해서라도 동일한 수준으로 가이드라인을 잡는 것이 옳다"고 역설했다.이 교수는 "규제 형평성을 지키는 동시에 혁신을 추구하고 싶다면 시대 변화를 반영한 새로운 규제의 틀을 마련하는 것이 방법이 될 수 있단 것"이라며 "지금이라도 규제 체계의 대대적 변화를 논의한다면 규제 차익을 비롯한 독과점, 금융 안정성 저해 등의 문제가 확대되는 것을 제한할 수 있다"고 했다.  주요 선진국 빅테크·대형 핀테크 '규제 강화' 적극 추진…"사전적 규제 집중"주요 선진국에서는 이미 빅테크·대형 핀테크에 대한 규제 강화 움직임이 본격화됐다. 앞서 해외 금융당국 또한 금융 산업 개방에 집중했으나 최근에는 규제 필요성이 제기되고 있다. 독과점, 금융 안정성, 데이터 이동 및 보호 등에 대한 우려가 커지면서다.미국에서는 기존 반독점법을 근거로 빅테크에 대한 조사에 착수하면서 독점 행위에 대한 규제가 본격화됐다. 미 의회는 2020년 10월 하원에서 작성된 주요 빅테크의 반독점 행위에 관한 디지털시장 경쟁 조사보고서를 토대로 주요 권고사항을 2022년까지 법제화할 계획이다.사진=게티이미지뱅크지난 1월 기술 대기업을 대상으로 한 '온라인 선택과 혁신 법안'이 미 상원 법사위원회에서 통과됐다. 지난 2월에는 인앱결제 금지 법안까지 통과됐다. 유럽연합(EU)은 경쟁법 등을 바탕으로 빅테크에 대한 조사, 제재 등을 강화하고 있다. 현재 EU는 '플랫폼 시장의 공정성 및 투명성 강화를 위한 2019년 EU 이사회 규칙'(P2B 규칙)을 시행 중이다. EU는 지난 2월 데이터 법(Data Act)을 통해 데이터 개방과 개인정보보호 규제 강화에도 집중하고 있다. 디지털 시장법(DMA), 디지털 서비스법(DSA) 도입에도 합의한 상태다.조성훈 자본시장연구원 선임연구위원은 "플랫폼 사업자 간 경쟁 또는 플랫폼 사업자와 기존 금융사 간 발생하는 불공정행위, 시장지배 문제가 현재 빅테크의 금융산업 진출과 관련된 공정경쟁 이슈의 핵심"이라며 "미국, EU에서는 규제 대상 플랫폼 사업자를 지정하고 해당 사업자의 의무와 금지 사항을 규정하는 기관별·사전적 규제를 도입하고 있다. 빅테크와 같은 대형 플랫폼 사업자에 의한 데이터의 독점적 사용 방지도 규제의 또 다른 핵심 축을 이루고 있다"고 진단했다.그러면서 조 선임연구위원은 "우리나라에서 빅테크의 금융산업 진출과 관련된 효과적인 공정경쟁 규제가 집행되기 위해서는 먼저 금융당국과 경쟁당국(공정거래위원회) 간 긴밀한 협력관계를 구축하고 명확한 영역 설정이 우선되어야 한다"며 "동시에 현재의 시장지배력이 아니라 미래의 잠재적 시장지배 가능성에 대한 규제라는 점에서 공정경쟁 규제가 자칫 기존의 금융산업 구도를 고착화하거나 빅테크 또는 핀테크가 가져올 수 있는 금융 혁신을 저해하는 방향으로 작용하지 않도록 균형 잡힌 접근이 필요하다"고 말했다.이효섭 자본시장연구원 선임연구위원은 "빅테크의 금융서비스 지배력 확대로 인한 부작용을 최소화하기 위해 약탈적 가격 정책과 수직적 통합 전략에 대한 면밀한 모니터링과 대응이 필요하다"며 "빅테크에 대한 금융감독 방법을 사후적 금융감독 방식에서 사전적 금융감독 방식으로 전환하고 금융 서비스 확장 경로를 예상한 동태적 감독기법을 강화하는 작업도 수반되어야 할 것"이라고 강조했다. 중소형 핀테크 '혁신 저해' 유의해야…선별적인 지원 체계 필요다만 전문가들은 규제 격차를 줄이는 과정에서 국내 중소형 핀테크 혁신 활동을 저해하지 않도록 지원 체계를 정비할 필요가 있다고 조언했다. 빅테크와 전통 금융사 간 규제 격차를 줄이는 과정에서 금융 혁신을 훼손하지 않기 위해선 중소형 핀테크에 대한 혁신 지원을 지속적으로 추구하는 것이 필요하다는 것이다. 중소형 핀테크를 대상으로 금융규제 샌드박스, 스몰 라이선스 제도 등 혁신 지원 체계가 활성화되어야 한다는 입장이다.이는 올해 국회 정무위원회 금융위원회 국정감사에서 지적된 사안이기도 하다. 김주현 금융위원장은 "샌드박스가 빅테크 중심으로 진행되고 정부가 지원해야 할 중소형 핀테크 쪽은 상대적으로 지원을 못 받고 있는 것이 사실"이라며 "현재 제도개선을 통해 중소형 핀테크를 꾸준히 지원토록 하고 있다"고 언급했다.이 선임연구위원은 "작은 규모의 핀테크가 혁신 아이디어를 마음껏 펼칠 수 있도록 위험 비례 원칙을 적용하는 것도 중요하다"며 "금융규제 샌드박스를 활성화해 창업가들의 혁신을 유도하고, 스몰 라이선스 제도를 통해 중소형 핀테크에 유인부합적 규제를 적용하는 것을 적극 검토해야 한다"고 진단했다.이 교수는 "중소형 핀테크를 대상으로 강력한 사전적 규제를 적용할 경우 혁신 성장 산업의 생산성을 저해하는 결과를 초래할 수 있다"며 "빅테크·핀테크에 대한 기본적인 규제책을 우선 확립하고 중소형 빅테크 대상으로는 정부가 별도의 지원책을 강구하는 것이 적합하다"고 말했다. 성 교수는 "빅테크·대형 핀테크와 중소형 핀테크 간 지원 및 규제 부분에는 분명한 차이가 있어야 한다"며 "금융 산업의 경우 자산 규모에 따라 성장 속도, 시장 영향력 등에서 상당한 격차가 벌어지는 만큼 이에 대한 논의가 수반돼야 한다는 것"이라고 조언했다.(끝)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.10.28.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>카카오뱅크, ’개인사업자 뱅킹’ 개시… 플랫폼 확대 예고</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003748740?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 개인사업자 대출을 개시한다. 이로써 인터넷전문은행 3곳이 모두 기업대출을 취급하게 됐다.     카카오뱅크는 27일 서울 여의도 63컨벤선센터에서 ‘카카오뱅크 개인사업자뱅킹 프레스톡’ 행사를 열고 다음달 1일부터 1억원 한도의 개인사업자대출과 개인 사업자 통장, 제휴 체크·신용카드 등 개인사업자 뱅킹 상품군을 선보였다. 이로써 카카오뱅크는 기존 가계대출 중심 사업 구조에서 벗어나 기업뱅킹까지 영역을 확장하게 됐다.     우선 개인사업자 신용대출은 최대 1억원 한도로, 대출 금리는 최저 연 5.491%(전일 기준)다. 대출 기간은 최소 1년부터 최대 10년(1년 단위 최대 10년까지 연장 가능)으로, 상환 방법은 만기일시상환과 원금균등분할상환 중 선택할 수 있다. 중도상환해약금은 100% 면제한다.     사업자등록 후 영업 중인 개인사업자라면 신청할 수 있다. 사업과 관련된 별도의 서류를 제출할 필요는 없으며, 한도 등의 사유로 카카오뱅크 대출이 어려운 사업자의 경우 연계된 13곳의 제휴사를 통한 연계대출도 제공한다.     카카오뱅크는 앞으로 보증부대출, 담보대출 상품도 단계적으로 출시할 계획이다. 이병수 카카오뱅크 개인사업자 스튜디오 팀장은 “보증부 대출은 내년 상반기 출시를 목표로 하고 있다”고 말했다.     공공기관·지방자치단체 등과의 협약을 통해 제공하는 정책자금대출도 추진한다. 이를 위해 개인사업자 대안 신용평가모형(CSS)을 개발하고 업종별 특화 모형도 설계하기로 했다. 이 팀장은 “단기적으로 연간 여신 성장의 30∼50%를 개인사업자 대출로 채워나가는 것이 목표”라고 말했다.     개인사업자통장은 별도의 서류제출 없이 스크래핑과 공공 마이데이터를 활용해 빠르게 개설할 수 있다. 이체, 현금자동입출금기(ATM) 입·출금, 사업에 필요한 증명서 발급 등 각종 수수료는 조건 없이 전부 면제한다.     개인사업자를 위한 체크카드와 제휴 신용카드도 출시했다. ‘개인사업자 체크카드’는 음식점, 주점, 카페 등 생활업종에서 0.3%의 캐시백 혜택을 제공하며, 통신, 대형마트, 주유, 해외 등 사업 업종에서는 3.0%의 캐시백 혜택을 받을 수 있다. 전월 실적이 없더라도 최대 1만원의 캐시백이 지급되며, 이용 실적에 따라 최대5만원의 캐시백이 가능하다.     삼성카드와 연계한 제휴 신용카드인 ‘카카오뱅크 개인사업자 삼성카드’는 국내 모든 가맹점에서 조건 없이 1% 할인 혜택을 제공하며, 통신, 렌탈, 방역 등사업장 운영 경비와 연관된 가맹점의 경우 1.5% 할인 혜택이 적용된다.     카카오뱅크는 오는 12월 중 앱 화면을 개편해 사업자 상품만 한 눈에 모아 볼 수 있는 ‘사장님 전용 홈 화면’을 적용한다는 계획이다. 이 팀장은 “사업자들이 매년 해야하는 세금 신고를 전에 없는 경험으로 할 수 있도록 준비하고 있다”고 말했다.     이날 카카오뱅크의 참전으로 인터넷은행 3곳이 모두 개인사업자 대출을 취급하게 됐다. 토스뱅크는 지난 2월 무보증·무담보 개인사업자대출을 출시했고, 케이뱅크는 지난 5월 개인사업자 보증서담보대출을 내놓은 뒤 지난달 개인사업자 신용대출을 선보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.10.19.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>"카카오만 아니었네" 5년간 은행 전자금융사고 421건</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000861398?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>시중은행에서도 최근 5년여간 전자금융사고가 다수 발생했다. 사진은 경기 성남시 분당구 삼평동 SK판교캠퍼스에서 불이나 소방대원들이 현장을 살피는 모습./사진=뉴스1 SK C&amp;C 판교 데이터센터 화재로 카카오톡을 비롯해 카카오뱅크 카카오페이 등 금융 계열사 서비스도 장애를 겪은 가운데 시중은행에서도 최근 5년여간 전자금융사고가 다수 발생한 것으로 나타났다.국회 정무위원회 소속 양정숙(무소속·비례대표) 의원이 금융감독원에서 제출받은 자료에 따르면 2017년부터 올 7월까지 5년여 동안 국내 시중은행, 특수은행, 인터넷전문은행 등 13개 은행에서 발생한 전자금융사고는 총 421회로 집계됐다.이 중 시중은행에서 발생한 전자금융사고는 247회로 전체의 58.6%를 차지했다. 이는 인터넷은행 105회, 특수은행 69회를 크게 웃도는 수치다.시중은행 가운데 우리은행의 전자금융사고가 72회로 가장 많은 것으로 집계됐다. 이어 신한은행(44회), SC제일은행(43회), 하나은행(34회), 국민은행(31회), 씨티은행(23회) 순으로 나타났다.인터넷은행에선 카카오뱅크(52회)가 가장 많은 전자금융사고를 냈다. 이어 케이뱅크(37회), 토스뱅크(16회) 순으로 전자금융사고가 많았다.특수은행의 전자금융사고를 살펴보면 산업은행(32회), NH농협은행(15건) 순이었다.은행권 통틀어 연도별 전자금융사고는 2017년 68회에서 2018년 107회로 증가했다. 이어 2019년 54회로 줄었지만 2020년 67회, 2021년 76회로 다시 늘기 시작했다. 올들어 지난 7월까지는 49회로 집계됐다.전자금융사고 원인은 정보기술(IT) 사고, 프로그램 오류, 시스템·설비 장애 등으로 지목됐다.특히 전자금융사고가 발생한 뒤 복구되기까지 걸린 시간이 24시간 이내인 경우는 393회(93.3%)로 나타났다. 서비스가 복구되기까지 24시간 이상 소요된 경우는 28회에 그쳤다.이 중 복구시간이 10일 이상 지속된 전자금융사고는 6회로 집계됐다. 우리은행이 2회, KB국민은행과 하나은행, 수협은행, 카카오뱅크가 각각 1회였다.앞서 지난 2018년 우리은행에서 인터넷뱅킹 대량 부정 접속 사고가 발생하면서 복구에만 33일 걸린 것으로 나타났다. 이는 은행권에서 일어난 전자금융사고 중 최장 복구시간이다.양정숙 의원은 "은행이 멈추면 한국 경제시스템이 셧다운된다"며 "국민이 입었을 피해에 대한 보상과 확실한 재발 방지 대책이 수립되도록 금융당국의 역할이 중요하다"고 지적했다.우리은행 관계자는 "전산사고 72건 중 약 60%가 2018년 차세대 시스템 도입 당시 발생했다"며 "은행 시스템 전체를 바꾸는 과정에서 발생한 특수성을 감안하면 타행과 비슷한 수준이고 현재 우리은행 전산시스템은 안정적으로 운영 관리되고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[특징코인]'1달러→100달러' 치솟은 앱토스 7달러로 뚝…거래량 터졌다</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006405273?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>코인마켓캡 기준 24시간 전 대비 거래량서 6위 차지바이낸스서 100달러까지 치솟던 앱토스, 현재 7~8달러 박스권 형성20일 코인마켓캡에 표시된 앱토스(APT) 차트. (코인마켓캡 홈페이지 캡처)(서울=뉴스1) 김지현 기자 = 올해 하반기 가상자산 업계의 '뜨거운 이슈'라 불린 앱토스가 주요 글로벌 거래소에 상장한 가운데 20일 전체 암호화폐 중 24시간 전 대비 거래량 면에서 비트코인, 이더리움과 함께 최상단에 위치하고 있다.다만 전날 바이낸스에서는 상장 직후 상장가 1달러에서 100배 오른 100달러까지 상승하는 등 큰 변동성을 보였지만 이후 계속해서 7달러에서 8달러선의 박스권에서 움직이고 있다.글로벌 코인시황 중계사이트 코인마켓캡에 따르면 이날 오전 9시 50분 기준, 앱토스(APT) 코인은 전일 대비 14% 하락한 7.19달러를 기록하고 있다.국내 5대 거래소 중에서는 업비트가 유일하게 앱토스를 전일 상장했는데, 업비트에서 앱토스는 1만2440원까지 올랐다가, 현 시간 기준 1만200원대로 떨어졌다. 다만 업비트에서는 앞서 상장한 바이낸스, OKX, 후오비가 거래 초반 보였던 큰 변동성은 보이지 않고 있다.앱토스는 바이낸스에서 거래 초반, 100배 이상 폭등한 것 외에도 OKX에서 상장가로부터 15배, 후오비에서는 16배 오르는 등 시장의 기대 만큼 큰 상승률을 기록하기도 했다.다만 현 시간 기준, 코인마켓캡에 따르면 34개의 거래소에서 알토스 코인을 다루고 있는데, 모두 7달러 선에서 거래되고 있으며 거래소별로 시세 차도 크게 나지 않고 있다.앱토스의 시가 총액은 현 시간 기준, 약 1조 3060억원에 달하며 하루 만에 50위권까지 치고 올라왔다. 근 24시간 동안 앱토스의 거래량은 2조 7400억원으로 테더(USDT), 비트코인(BTC), 이더리움(ETH), 바이낸스USD(BUSD), USD코인(USDC)에 이어 6위를 차지하면서 최상단에 위치했다.앱토스는 메타(구 페이스북) 출신 개발자들이 만든 블록체인으로 일각에서 메인넷 론칭이나 주요 거래소 상장에 앞서, 속도나 확장성 측면에서 다른 레이어 1 블록체인의 한계를 뛰어넘을 수 있는 평가를 내리는 등 뜨거운 관심을 받은 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.10.18.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>"해상운임 떨어졌지만 美 상품 물가 하락 체감 어려워"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000306843?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[미국의 한 물류항만 (EPA=연합뉴스)]코로나19 확산 초반 급등했던 해상운임이 진정세를 보이고 있지만, 물가 상승 등의 여파로 소비자가 상품 물가 하락을 체감하기 쉽지 않을 가능성이 있다고 미국 일간 워싱턴포스트, WP가 오늘(18일) 보도했습니다.화물운임 서비스업체 프레이토스의 해상운임지수, FBX에 따르면 지난해 9월 중순 아시아에서 미 서부로 컨테이너 하나를 운송하는 데 드는 비용은 2020년 1월 초의 약 15배인 2만 586달러(약 2929만원)까지 치솟았습니다.이 운임은 이후 하락 전환해 최근 2720달러(약 387만원) 부근을 오르내리고 있습니다. 다른 컨테이너 운임 지표인 드루리 컨테이너 운임지수도 지난 6일까지 32주 연속 하락해 정점이었던 지난해 9월보다 64% 낮아졌습니다.WP는 코로나19 확산 초기와 달리 아시아산 제품에 대한 북미 소비자들의 신규 수요가 많지 않고, 40년 만의 인플레이션으로 소비자들이 지갑을 닫고 있다고 전했습니다.이뿐만 아니라 중국의 수출 부진과 세계 경기 둔화에 따른 물류량 감소도 화물운임 하락의 배경으로 거론됩니다.하지만 제품 물가가 화물 운임만으로 결정되는 것은 아닌 만큼 미국의 연말 쇼핑 시즌에 소비자 물가가 내려가지 않을 가능성이 있다고 WP는 전망했습니다.대형 상점의 과잉 재고, 휘발윳값·임금의 상승 등 다른 요인들로 인해 소비자가 직접 접하는 소비자 가격은 내려가지 않고 있다는 것입니다.공급망 관리 플랫폼 'E2오픈'의 최고경영자, CEO 마이클 팔리카스는 "인건비가 높은 지금 같은 인플레이션 상황에서는 어느 기업도 물건 가격을 낮추려 하지 않는다"라며 가능한 한 가격을 인하하지 않고 버틸 것이라고 예상했습니다.또 시러큐스대 패트릭 펜필드 교수는 현재 상점에 진열된 상품들은 유통업체들이 과거에 운임이 높던 시기에 구매했을 가능성이 있다고 말했습니다.유통업체들은 일반적으로 화물회사와 장기 계약을 체결하는 만큼, 최근의 평균비용 하락에도 불구하고 당장 가격을 내리기 쉽지 않다는 것입니다.앞으로의 제품 물가 흐름과 관련해 팔리카스 CEO는 화물 운임 하락에 따라 물가가 결국은 내려가겠지만 시간이 걸릴 것으로 내다봤습니다.하지만 펜필드 교수는 4분기 미국 쇼핑 시즌을 앞두고 화물차 운전기사 부족 등으로 물류비용이 올라가면 해운 운임 하락 효과가 상쇄될 수 있다고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>벤처투자 얼어붙었지만…6개 키워드엔 '깜짝 훈풍' 불었다</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004765078?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>'투자 빙하기'서 살아남은 스타트업 살펴보니신규 벤처투자금 6개월새 반토막금리인상·인플레 공포로 급감에도100억 이상 유치해낸 72곳 분석생존 비결은 생활밀착·미래 산업케어링·째깍악어, 돌봄 서비스각각 노인 요양·아동 보육 매칭스트라드비젼, 1000억 조달 등자율주행·블록체인 벤처 인기금리 인상과 인플레이션 공포 등이 맞물리면서 글로벌 벤처투자 시장이 급격히 얼어붙었다. 스타트업 투자 정보업체 더브이씨에 따르면 지난 1분기 6조8257억원이던 신규 벤처투자금은 2분기 4조6075억원, 3분기엔 3조1069억원으로 쪼그라들었다. 스타트업 업계에서는 “투자 호황기 시절 누리던 ‘파티’가 끝났다”는 말이 나왔다. 식품 커뮤니티 앱으로 유명한 ‘엄선’이 서비스를 접는 등 문을 닫는 사례도 속속 생겨나고 있다.하지만 이런 상황에서도 뭉칫돈을 끌어모은 스타트업이 있다. 서비스를 내놓기도 전에 100억원대 자금이 몰린 곳도 있다. 20일 한국경제신문의 스타트업 미디어 플랫폼인 한경 긱스(Geeks)가 더브이씨 자료를 분석한 결과 올 3분기 신규 벤처투자 372건 가운데 19%(72건)가 100억원 이상인 것으로 집계됐다. 투자 빙하기를 헤치고 대규모 자금을 조달한 스타트업은 시리즈A(첫 번째 기관투자) 단계에서 수백억원대 자금을 유치한 리벨리온부터 시리즈G(일곱 번째 기관투자) 단계 투자를 유치한 비바리퍼블리카(토스)까지 다양하다.혹한기에 돈이 몰린 스타트업의 특징은 여섯 가지로 나뉜다. 돌봄 같은 ‘생활 밀착형’ 스타트업, 기업용(B2B) 서비스형 소프트웨어(SaaS) 업체, 미래의 발이 돼줄 자율주행 기술 기업, 투자사들이 새로운 먹거리로 낙점한 블록체인·대체불가능토큰(NFT) 분야 스타트업, ESG(환경·사회·지배구조) 스타트업, 바이오·헬스케어 스타트업 등이다. ‘생활 밀착형’, B2B 인기그래픽=이정희 기자일상을 편리하게 하는 생활 밀착형 서비스를 내세운 스타트업이 투자 시장에서도 인기를 끌었다. 돌봄 매칭 플랫폼인 케어링과 째깍악어는 각각 300억원, 160억원 규모 투자 유치에 성공했다. 케어링은 요양보호사와 노인을 연결해주는 플랫폼이다. ‘악어쌤이 오신다’라는 슬로건을 내세운 째깍악어는 만 1세부터 초등학생까지 유·아동 대상으로 돌봄 선생님을 매칭해주는 서비스다. 인테리어업계 ‘가격 정찰제’를 도입한 아파트멘터리는 450억원 규모 시리즈C 단계 투자를 유치했다.확실한 매출처가 있는 B2B SaaS 기업도 투자자들의 러브콜을 받았다. 경영관리 솔루션 ‘캐시노트’로 170만 명의 자영업자를 사로잡은 한국신용데이터는 LG유플러스 등 전략적 투자자로부터 350억원 규모 투자를 유치하며 유니콘 기업(기업 가치 1조원 이상 스타트업) 반열에 올랐다. 기업 및 학교 구성원의 소통과 교육을 돕는 SaaS 업체 클라썸도 이달 들어 두나무앤파트너스 등으로부터 151억원의 투자금을 유치했다. 혹한기에도 달리는 ‘자율주행’자율주행 관련 스타트업도 최근 투자 시장에서 두각을 나타내고 있다. 스트라드비젼은 시리즈C 라운드에서 1076억원을 조달했다. 첨단 운전자 보조 시스템(ADAS) 및 자율주행용 인공지능(AI) 기반 카메라 인식 소프트웨어를 개발하는 회사다. 서울로보틱스는 KB인베스트먼트, 퓨처플레이 등으로부터 308억원 규모 시리즈B 투자를 유치했다. 2017년 문을 연 이 회사는 자율주행의 눈으로 불리는 3차원 라이다(LiDAR) 소프트웨어를 개발한다. 193억원 규모 시리즈B 투자를 유치한 에스오에스랩과 110억원 규모 시리즈A 투자 라운드를 마무리한 오토엘 역시 라이다 센서 장비를 생산하고 있다.미래 먹거리로 낙점받은 블록체인 기술 분야에선 블록체인 기반 게임 개발사 플라네타리움랩스가 415억원의 투자를 받았다. 투자자 면면이 화려하다. 글로벌 블록체인 기업 애니모카브랜즈가 주도한 투자 라운드에서 카카오의 블록체인 계열사 크러스트유니버스, 삼성전자의 투자 계열사 삼성넥스트, 게임사 위메이드 등이 참여했다. 블록체인 인프라 스타트업 에이포엑스는 시드(초기) 단계임에도 129억원의 투자를 유치했다. SK를 비롯해 DSC인베스트먼트, KB인베스트먼트 등 유명 투자사가 주목했다. 대세 이어가는 ESG·바이오ESG 트렌드를 선도하는 스타트업 역시 돋보였다. 대체 가죽과 대체육을 개발하는 마이셀은 130억원 규모의 프리 시리즈A 투자를 유치했다. GS그룹의 기업형 벤처캐피털(CVC)인 GS벤처스의 첫 투자처로 주목받았다. 현대차 사내벤처에서 출발한 이 회사는 버섯과 곰팡이 등을 활용해 가죽을 대체할 차세대 친환경 소재를 개발하고 있다.푸드테크 스타트업 누비랩은 시리즈A 단계에서 100억원을 투자받았다. 이 회사 주력 제품은 AI 스캐너다. 식사 전후에 식판을 스캔해 음식의 섭취율, 잔반 비율을 분석하고 적정 식사량을 계획하도록 도와준다. 이 밖에 폐타이어를 활용해 친환경 카본블랙 소재를 제조하는 엘디카본, 버려지는 왕겨를 이용해 나노셀룰로스 같은 신소재를 개발하는 에이엔폴리 등도 ESG 트렌드에 부합해 대규모 자금을 조달했다.유망 바이오·헬스케어 스타트업에도 꾸준히 자금이 흘러 들어갔다. 유방암·자궁경부암 신약 개발사 인핸스드바이오는 미래에셋벤처투자 HB인베스트먼트 등으로부터 125억원 규모 시리즈C 투자를 유치했다. 건강기능식품 구독 서비스를 선보인 모노랩스는 전략적 투자자로 나선 청호나이스로부터 125억원을 유치했다. 인간 장기를 닮은 칩을 개발하는 멥스젠, 마이크로니들(미세 바늘) 패치 기술을 보유한 페로카 등도 VC의 낙점을 받았다. 열기 꺾인 플랫폼, 커머스e커머스(전자상거래), 플랫폼 기업 중 상위권 업체도 투자자들의 러브콜을 받았다. 패션 커머스 플랫폼 브랜디는 지난 8월 290억원의 투자를 유치했다. 명품 커머스 플랫폼 트렌비 역시 같은 달 350억원의 자금을 조달했다. 공동구매 플랫폼 ‘올웨이즈’ 운영사 레브잇 등도 100억원 넘는 자금을 끌어모았다.하지만 투자 시장 위축 영향을 피하진 못했다. 이전 투자 라운드 때보다 기업 가치를 낮추거나 자금 유치 규모를 줄이는 사례가 속속 나타났다. 8000억원의 기업 가치로 시리즈C 투자 유치에 나섰던 명품 플랫폼 발란은 몸값을 절반가량 낮췄다. 부동산 플랫폼 직방 역시 투자 유치 과정에서 3조원에 달할 것으로 예상되던 몸값을 5000억원 이상 낮췄다.남기문 스마일게이트인베스트먼트 대표는 “금리 인상기에 경기 침체 우려까지 더해지면서 ‘성장률’이 더욱 중요한 기준이 됐다”며 “인도와 동남아시아 등 성장성이 높은 시장을 노리거나 대기업을 대상으로 하는 B2B 스타트업에 주목할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[레이더M] 자본시장 한파에도 연이어 '빅딜'…크레디트스위스 자문 명가 입증</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005034816?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[본 기사는 10월 24일(15:52) '레이더M'에 보도 된 기사입니다]최근 얼어붙은 시장 환경 속에서도 수임한 기업의 인수·합병(M&amp;A) 작업을 연이어 성공적으로 마무리 지은 글로벌 투자은행 크레디트스위스(CS)가 주목받고 있다.24일 투자은행(IB)업계에 따르면 브룩필드자산운용은 지난 21일 SK머티리얼즈에어플러스 산업가스 생산설비 인수를 위한 잔금 납입을 완료했다. 인수가는 약 1조원이다.SK머티리얼즈에어플러스는 지난 5월 KKR을 우선협상대상자로 선정했지만, 계약이 지연되며 지난 8월부터 브룩필드와 협상을 진행해왔다. 특히 매각 측은 크레디트스위스에게 금융 자문을, 법무법인 광장에게 법률 자문을 받은 것으로 알려졌다. 인수 완료로 해당 거래를 도운 자문사도 실적을 쌓게 됐다.앞서 지난 20일에는 싱가포르계 인프라 펀드인 케펠인프라스트럭처트러스트가 국내 폐기물 관리회사 중 대어로 꼽히는 EMK(에코매니지먼트코리아홀딩스) 인수를 마무리했다. 케펠인프라는 이날 IMM인베스트먼트-KDB산업은행으로부터 EMK 경영권을 인수하기 위한 잔금 납입을 마쳤다. 인수금액은 약 7600억원이다.인수는 지난 7월 케펠인프라가 우선협상대상자에 선정된 지 약 3개월 만에 마무리됐다. 매각주관사는 크레디트스위스와 EY한영이 맡았다.투자은행(IB)업계 관계자는 ＂크레디트스위스는 최근 완료된 큰 규모의 인수 외에도 비바리퍼블리카(토스)의 증자 작업 자문, KT클라우드의 투자 유치 자문을 맡는 등 주목도가 높은 거래에서 두각을 나타내고 있다＂고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.10.17.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>생활정보 알려주는 국민비서 '구삐' 가입자 1500만명 돌파</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003696485?sid=102</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>국민 4명 중 1명 이상 사용, 국민생활 속 행정비서로 자리잡아국민비서 홈페이지 캡처행정안전부는 국민비서 '구삐'의 가입자 수가 지난 13일 1500만 명을 돌파해 국민 4명 중 1명 이상이 사용하는 명실상부한 국민 생활 속 행정비서 서비스로 자리잡았다고 17일 밝혔다.국민비서 '구삐'는 2021년 3월 29일부터 서비스를 시작해 건강검진일과 운전면허 갱신기간, 교통과태료 등 내게 필요한 생활정보 27종을 알려주고 있는 정부의 대표적인 행정서비스다.코로나19 상황 속에서는 백신접종 예약과 재택치료 관련 등의 정보를 제공해 한층 친숙해졌다.정부의 알림을 네이버앱, 카카오톡, 토스, 금융앱 등 내가 자주 이용하는 8종의 민간 모바일 앱 등을 활용해 제공해 줌으로써 국민의 이용 편의성을 높이고 있다.  지난 17개월 동안 5억 건 이상의 알림을 국민에게 제공했다.국민비서 마스코트인 '구삐'는 전 세계가 연결된 네트워크 세상에 사는 인공지능 토끼 로봇이다.국민비서 서비스의 취지에 맞춰, 국민이 직접 제안하고, 투표한 공모전과 전문가 자문을 거쳐 탄생했다.현재 17개 행정·공공기관과 협업해 전자통관, 정부보조금, 휴양림 예약, 특허 등 23종의 상담서비스를 제공하고 있으며, 작년 하반기에 국민 상생 지원금 지급 시 채팅로봇을 통한 상담을 통해 정부 콜센터의 업무부담도 줄이는 역할을 했다.앞으로도, 국민비서는 지방세 알림, 정부24(보조금24) 알림, 국민연금 안내 등 국민이 필요로 하는 보다 다양한 알림·고지 서비스를 확충하면서, 국민비서 알림을 받은 후, 바로 행정서비스 상담과 신청 등이 가능하도록 서비스의 완결성을 높여나갈 예정이라고 행안부는 전했다.이상민 행정안전부 장관은 "국민비서는 민간과 정부가 함께하는 디지털플랫폼정부의 대표 사례"라며 "앞으로도 국민이 보다 편리하게 정부서비스를 이용할 수 있도록 국민비서를 더욱 발전시켜 나아가겠다"고 말했다. ※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.10.24.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>변동금리 부담 줄이세요…토스뱅크, 대출상환기간 늘려준다</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003053426?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 대출 고객의 상환 부담을 덜어주는 '매달 내는 돈 낮추기' 서비스를 시작한다고 24일 밝혔다.토스뱅크에서 원리금 균등 상환 중인 대출 고객들은 언제든 자신이 원하는 때에 상환 기간을 연장하고, 매월 부담하는 원리금을 줄일 수 있다. 상환 기간이 10년 미만인 고객이 대상이다.고객들은 서비스 신청과 함께 곧바로 연장된 기간을 적용받는다. 연장 가능 기간은 최초 대출 기간을 포함해 최장 10년이다. 고객들은 기간 연장만으로 매월 부담해야 하는 일종의 '고정비용'인 원리금이 줄어드는 실질적 효과를 누리게 된다.고객들은 상환 기간을 연장하더라도 신용점수 하락 등 불이익을 받지 않는다. 가산 금리에도 변동이 없다. 단, 고객이 신청한 기간에 따라 발생하는 리스크 비용인, '유동성 프리미엄'만 소폭(최소 0.08%p~최대 0.2%p) 반영될 예정이다.고객들은 토스뱅크의 중도상환수수료 무료 정책에 따라, 가계 건전성 회복 등 자신의 경제 여건을 고려해 언제든 자신이 원하는 때에 대출을 갚을 수 있다.토스뱅크 관계자는 “급격한 금리 상승과 인플레이션 등 고객의 가계 부담이 크게 늘어나는 가운데 월 고정 비용이 일부 상쇄된다면 어려운 시기를 이겨내는 데 보탬이 될 것으로 판단했다”며 “토스뱅크가 그동안 지켜온 '포용'과 '혁신'의 가치에 기대, 고객들의 실 가계 부담을 줄이고 고객과의 '상생'을 위해 앞으로도 최선을 다하고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.10.20.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>토스뱅크, 통장 1억 넘어도 금리 2.3% 적용</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011485585?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 21일부터 수시입출금 토스뱅크통장의 1억원 초과 금액에 대해서도 연 2.3%(세전) 금리를 적용한다고 20일 밝혔다.최근 토스뱅크는 토스뱅크통장의 금리를 세전 2%에서 2.3%로 상향한 바 있다. 1억원 초과 시에는 0.1% 금리를 적용해왔다.'지금 이자 받기'를 이용할 경우 매일 고객이 원하는 때에 1번 이자를 받을 수 있다. 이자를 모을 경우 일복리 효과를 볼 수 있다.회사에 따르면 지금 이자 받기의 경우 약 210만명의 고객이 한 번 이상 이용했다. 약 173만(82.3%) 고객이 상시 이용하는 것으로 나타났다. 서비스 출시 후 7개월간 고객들이 받은 이자는 총 1417억원 규모다.고객은 언제 어디서든 돈을 꺼내 쓰고 보낼 수도 있다. 연동된 체크카드를 사용해도 제약을 받지 않는다.토스뱅크 관계자는 "고객들의 성원에 힘입어 토스뱅크가 성장할 수 있었던 만큼, 출범 당시의 정체성을 회복하고자 했다"며 "앞으로도 고객을 위한 서비스와 신뢰로 고객들에게 보답하겠다"고 전했다．</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
